--- a/기사데이터/토스/엑셀파일/news(토스, 2022.03.01~2022.03.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.03.01~2022.03.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,1656 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.03.14.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>[기고]스타트업을 우려하는 분들께</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004719207?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>어머니는 8년 전 자식이 스타트업으로 이직한다는 말을 듣고 한숨을 쉬었다. 이름 모를 스타트업에서 일하는 데 대한 우려가 크셨던 터라 대기업 계열 투자사로 옮겼을 때는 효도하는 느낌마저 들었다. 하지만 또다시 작은 스타트업으로 이직했고 부모님의 걱정이 두려워 2년 동안 이를 숨긴 적이 있다. 스타트업을 우려하는 사람은 부모님만이 아니다. 스타트업에 다니지 않는 사람 대부분이 우려한다. 듣도 보도 못한 서비스, 경력 없는 창업가, 수익모델 부재, 불안정한 미래 등 대형 회사와 비교했을 때 한없이 작고 체계 없는 회사로 보이기 때문이다. 사실이기도 하다. 스타트업에 다니지 않는 사람들은 스타트업업계가 자신이 접근하기 어려운 낯선 곳이라고 인식한다. 기술발전과 인재채용 경쟁이 치열한 데다 기존 사회적 관행을 깨는 수평적인 조직문화를 가진 회사들로 알려졌으니 더욱 독특한 세계로 본다. 여러 가지 연유로 스타트업은 '그들만의 리그'로 치부되는 경향이 있다. 독특한 인상이 신뢰가 아닌 우려로 이어질 때 구인난, 신산업 투자위축, 정책규제로 나타난다. 완벽함보다 빠른 속도가 생명인 스타트업이 이 위기를 벗어나지 못한다면 생존과 멀어진다. 그런데 조금만 관점을 달리하면 스타트업이 친숙하게 다가올 수 있다. 생소한 기술과 서비스를 다룰 것 같지만 알고 보면 이미 서비스를 이용해봤을지 모른다. 코로나 시국에 배달의민족이 없었다면 어땠을까. 토스는 긴 은행 대기시간을 절약할 수 있게 했고 '당근'은 동네 중고거래 열풍이 불게 했다. 혁신이라는 단어는 우리의 일상 가까이에 실존한다. 지난 20대 대통령선거 주요 후보들의 공약에는 규제혁신, 디지털경제 활성화, 일자리 창출 어젠다가 빠지지 않았다. 사람들은 그 답을 스타트업의 미래에서 찾곤 한다. 특히 다양한 분야에서 성장하는 플랫폼 스타트업은 기존 시장의 패러다임을 빠르게 개선하고 있다. 그럼에도 스타트업을 향한 우려를 해소하기에는 갈 길이 멀다. 두터운 사회적 신뢰와 네트워크를 쌓기도 전에 무서운 속도로 기술과 사업이 성장하기 때문이다. 사회적 우려가 신뢰로 바뀌는 것은 단숨에 이뤄질 수 없다. 이 과도기에 수많은 스타트업은 규제압박, 기존 이해관계자와 갈등, 구인난과 같은 성장통을 겪어야 한다.규제혁신과 디지털경제 활성화는 시대 흐름에 거스를 수 없는 중요한 국가 미션이다. 스타트업의 성장을 우려하는 사람들도 단순히 스타트업이나 플랫폼 자체를 경계하는 것이 목표는 아닐 것이다. 지금까지 없던 새로운 존재, 자신과는 다르다는 이유로 맹목적이거나 과도한 우려를 갖고 있진 않은지 고민이 필요하다. 사실 이 우려를 해소하는 가장 중요한 열쇠는 스타트업 자신이다. 작고 체계가 부족한 회사니 사회로부터 우려를 받는 것은 당연하다. 자신을 약한 스타트업으로 취급하며 억울해 해봤자 아까운 시간만 흘려보내는 꼴이다. 스스로 해소하고자 하는 사회적 책임감을 갖고 더 적극적으로 옳은 메시지를 정제해 던져야 한다. 우리가 외치는 혁신이란 무엇이며, 왜 사회에 중요한 영향력이 돼야 하는지 스타트업 자신이 가장 치열하게 고민해야 한다.황조은 힐링페이퍼(강남언니) 커뮤니케이션 리더 [머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.03.04.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>저축은행서 13% 이자내던 중·저신용자, 토스뱅크서 7%대로 빌렸다</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000790987?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>토스뱅크가 올들어 이달 말까지 신규 취급한 가계 대출 가운데 중저신용자 대출 비중이 31.75%에 달했다./사진=김영찬 기자저축은행에서 13%대의 대출 이자를 부담했던 중·저신용자들이 토스뱅크에선 7%대의 대출 금리를 적용받은 것으로 나타났다. 토스뱅크의 자체 신용평가모델로 건전한 중·저신용자로 분류된 고객들이 2·3금융권보다 낮은 금리로 대출을 이용할 수 있었던 것이다.4일 토스뱅크에 따르면 올들어 지난달 말까지 회사가 신규 취급한 가계 대출 가운데 중·저신용자 대출 비중은 31.75%에 달했다.지난해 12월 말 기준 카카오뱅크와 케이뱅크의 중·저신용자 대출 비중이 각각 17%, 16.6%에 그쳤다는 점을 감안하면 토스뱅크의 중·저신용자 대출 비중은 월등히 높은 수준이다.특히 토스뱅크의 중금리대출 실행 비중이 가장 높았던 때는 올 1월31일로 이날 대출을 실행한 고객의 절반 이상이 중·저신용자(50.18%)였다.이처럼 토스뱅크가 중·저신용자 대출 비중을 급격히 늘릴 수 있었던 것은 금리 경쟁력으로 분석된다. 실제 지난 5개월동안 대출 심사 과정에서 토스뱅크의 중·저신용자 4명 중 1명 이상(26.3%)은 고신용자로 상향됐다.토스뱅크가 자체 개발한 신용평가모형(TSS, Toss Scoring System)을 통해 고객의 실질 소득을 분석하는데 주력하고 이에 따라 신규 대출여부를 판단한 결과다.건전한 중·저신용자로 분류된 고객은 저축은행·카드사·캐피탈사 등 제2, 제3금융권보다 낮은 대출 금리를 받았다.토스뱅크에서 대출을 실행한 중·저신용 고객의 평균 금리는 7.7%로 이는 저축은행 평균금리 13.3% 대비 약 5.6%포인트 낮은 수준이다.표=토스뱅크━"중·저신용자 중 3%대 신용대출 받은 차주도 있었다"━중·저신용 고객 가운데 신용등급이 가장 높은 고객의 금리 구간은 2.71~3.81%였다. 최저 2.71% 금리 혜택이 가능했던 경우는 기존 대출을 보유하고 있더라도 이를 연체 없이 성실히 상환한 이력이 있거나 장기간 보험계약을 유지함으로써 가능했다. 신용카드거래 내역에서 건전한 소비 등이 확인된 경우 가산점을 받기도 했다.중·저신용 고객은 토스뱅크에서 평균 2320만원의 대출을 받았고 신용점수 454점(과거 KCB 기준 8등급)까지 대출이 실행되기도 했다.올해 토스뱅크에서 대출을 받기 위해 ‘내 한도 관리’ 서비스에 신규 가입한 고객 수는 36만343명이었다. ‘내 한도 관리’ 서비스는 대출 상담을 위해 고객들이 은행 창구를 방문하는 경우와 유사하다고 보면 된다.일 최대 8만701명이 이를 이용했으며 일평균 2만7157명의 대출 고객이 토스뱅크를 방문했다. 이는 전 금융권을 통틀어 가장 많은 것으로 올 1월말 기준 시중은행의 일평균 방문 고객 수(784명)를 웃돌았다. 토스뱅크의 대출 잔액은 2월말 기준 1조9446억원에 달했다.토스뱅크 고객이 이용한 전체 대출의 4건 중 3건은 신용대출(75.4%)이었으며 마이너스통장(23.4%), 비상금대출(0.8%), 사잇돌대출(0.4%) 순이었다.토스뱅크 관계자는 "토스뱅크의 고도화된 신용평가모형을 통해 포용할 수 있는 고객의 범위가 넓고 특히 실질 소득으로 신규 대출 여부를 판단하기 때문에 대출이 필요한 고객들의 관심이 특히 높았다"며 "앞으로도 공급자 입장이 아닌 고객 관점의 새로운 뱅킹 서비스를 구현하기 위해 더욱 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.03.06.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>"이번 선거, 편하고 올바르게" 정보 제공·투표 독려 나선 플랫폼 업계</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004798565?sid=105</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>네카오, 투표소 위치토스 '만보기 미션', 당근마켓 '후보 공약' 등 정보 제공트위터·인스타, 거짓정보 차단 노력+투표 독려 캠페인 진행 네이버지도 애플리케이션 내 투표소 관련 공지. 네이버지도 갈무리.[파이낸셜뉴스] 지난 4일부터 이틀간 실시된 사전투표에 이어 오는 9일 본 선거 기간이 다가오면서 네이버·카카오를 비롯해 신흥강자인 토스, 당근마켓 등 플랫폼 기업도 '투표 모드'에 돌입, 사용자 편의 제고에 나섰다.    네이버, 카카오, 토스, 당근마켓 CI. 각사 제공.  ■네카토당 "편한 투표 지원" 6일 관련 업계에 따르면, 플랫폼 기업은 제20대 대통령 선거를 맞아 각자 애플리케이션(앱) 내 투표소 위치 등 정보를 제공한다. 네이버는 네이버지도, 카카오는 카카오맵에 투표소 위치 등 정보를 연동했다. 중앙선거관리위원회(선관위) API(앱 프로그래밍 인터페이스)를 연동해 유권자에게 필요한 정보를 전달하는 방식이다. 사전투표소 이름과 위치 외 장애인 편의시설 여부 및 사용자 위치 기반 정확도순·거리순으로 정렬할 수 있는 서비스를 제공한다.   신흥 플랫폼 강자로 떠오르고 있는 토스와 당근마켓은 투표소 위치 외 다양한 정보 및 투표 독려 미션을 준비했다.   토스는 지난해 4월 재보궐선거에 이어 두번째 '만보기 미션' 이벤트를 마련했다. 투표소 한곳을 방문했을 시 20원을 제공, 최대 100원의 리워드를 지급받을 수 있는 이벤트다. 투표 독려 차원에서 마련됐다.   당근마켓은 이번 선거를 앞두고 △투표소 위치 △출마 후보 정보 △선거 공약 등을 확인할 수 있는 '투표소 찾기 서비스'를 오픈했다.   당근마켓 관계자는 "우리 동네 투표소 위치는 물론, 후보들의 공약 및 선거에 필요한 각종 정보들을 손쉽게 확인할 수 있는 만큼, 이번 서비스가 이용자들의 선거 참여에 많은 도움이 되길 바란다"고 전했다.    트위터가 ‘제 20대 대통령 선거’에서 제공하는 검색 프롬프트. 트위터코리아 제공.  인스타그램 2022 대통령 선거 투표 인증 스티커  트위터코리아가 진행하는 #2022대선 캠페인 아트웍 이미지 ■트위터·인스타 '건강한 선거' 뒷받침 대표 소셜네트워크플랫폼(SNS)로 자리매김한 빅테크 인스타그램과 트위터도 선거에 대한 올바른 정보를 제공하고 투표를 독려하기 위해 다양한 캠페인을 마련했다.   트위터는 지난달 선관위와 협력해 정확한 선거 정보를 신속하게 지원하는 검색 프롬프트와 잘못된 선거정보 확산을 막기 위해 아시아 최초로 '주석 라벨'을 도입했다. 대선 기간 동안 대선 관련 오해의 소지가 있는 정보가 포함된 트윗은 내부 검토를 거쳐 추가 정보를 제공하는 라벨이 표시되도록 했다. 이외 후보자 및 정당 등을 사칭하거나 소속을 허위로 표시하는 계정을 제지할 예정이다.   트위터코리아 공공정책 총괄 김가연 상무는 "트위터는 선거와 같이 대중의 관심이 집중되고, 공적 대화가 활발해지는 시기에 필요한 역할을 인지하고, 유권자들이 올바른 선택을 할 수 있도록 최신의 정확한 선거 정보를 제공하기 위해 선관위 등 관계 당국과 협력하고 있다"고 설명했다.   인스타그램은 국내 일러스트레이터 김현주 작가와 협업해 SNS 내 스토리 게시물에 사용할 수 있는 '투표 스티커' 3종을 선보였다. 이용자들이 해당 스티커를 사용한 게시물을 공유하며 서로 투표를 독려할 수 있도록 제작됐다.   인스타그램 관계자는 "이번 스티커를 통해 이용자들 사이에 긍정적인 투표 인증샷 문화가 확산되길 바란다"고 전했다.   트위터도 서양화가 구채연 작가와 함께 한 투표 독려 캠페인 ‘#2022투표하세요’, 투표 인증 캠페인 ‘#2022투표했어요’를 진행 중이다. #트위터 #SNS #인스타그램 #대선 #카카오 #네이버 #토스 #투표 #당근마켓</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.03.11.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>지금부터 진짜 시작…토스뱅크 대출 키운다</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003196184?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   토스뱅크    막내 인터넷전문은행 토스뱅크의 대출 영업이 본격화될 전망이다. 지난해 하반기 출범 후 가계대출 규제로 손발이 묶였던 토스뱅크가 기지개를 켜고 있는 모습이다. 상반기에는 사업자 신용대출을, 하반기에는 전세대출을 추진할 것으로 보인다.  10일 금융업계에 따르면 최근 5대 시중은행을 비롯해 지방은행, 인터넷전문은행까지 대출 조건을 완화하는 움직임이 감지되고 있다.       영끌·빚투 등 금융 시장의 과열 현상으로 2020년 하반기부터 1년여간 지속해 온 비정상적인 대출 억제 조치들을 은행들이 조금씩 정상화에 나선 것으로 풀이된다.     한 은행 관계자는 "대선 공약에 대출 완화가 있었던 만큼 앞으로도 대출 문턱이 낮아지지 않겠나"라고 관측했다.     특히 출범 9일 만에 대출이 막혔던 토스뱅크로써는 올해가 본격적인 영업의 시작이 될 것으로 보인다.     지난해 10월 토스뱅크는 출범을 선언한 직후 정부의 가계대출 총량규제로 인해 신규 대출이 막힌 바 있다. 이에 토스뱅크가 출범 후 2달간 취급한 가계 신용대출은 5315억 원에 불과했다.     하지만 올해는 다르다. 1~2월 대출 영업을 재개하면서 토스뱅크의 가계 신용대출 잔액이 1조9446억 원까지 치솟았다. 2개월 만에 1조4131억 원의 대출을 취급한 셈이다.     시중은행의 가계부채가 감소세로 전환된 사이 토스뱅크는 오히려 규모를 키운 것이다.     특히 금융당국이 인터넷전문은행에 요구한 중·저신용자 대출 비중을 상당 수준 유지하고 있다는 점도 포인트다.       최근 토스뱅크는 신규취급 대출 차주 중 31.75%가 중·저신용자였으며 이들은 평균 2320만 원의 대출을 받았다고 밝혔다. 토스뱅크는 중·저신용자 대출 비중 목표치는 올해 말 42%, 내년 말 44%다.     토스뱅크 측은 “대출 중단 시점을 기준으로 비중이 약 33%에 도달했지만, 이후 기존 대출자의 원리금 상환이 이어져 연말 기준으로는 줄었다”고 설명했다.     지난해 금융당국은 인터넷전문은행들에 가계신용대출 중 중·저신용자 대출 비중을 20% 이상으로 확대할 것을 주문한 바 있다. 지난해 12월 말을 기준으로 이 비중은 카카오뱅크가 17.0%, 케이뱅크 16.6%, 토스뱅크가 23.9%를 기록하면서 토스뱅크만 부응하게 됐다.     금융권 관계자는 "올해가 첫 영업 시작이나 다름없는 토스뱅크는 다른 인터넷은행에 비해 상대적으로 가계부채 총량관리에서 자유로울 것"이라며 "다른 대출 상품으로 포트폴리오를 확대할 일만 남아 있어 규모를 키우기 어렵지 않을 것"이라고 분석했다.       서울 강남구 토스뱅크 본사의 모습.     당장 토스뱅크는 대출 자산 늘리기에 집중하고 있다.     은행연합회 대출금리 비교에 따르면 지난 1월 토스뱅크의 신용대출 중 4% 미만의 금리 비중은 42.60%다.       같은 기간 토스뱅크에서 1~2등 신용평가를 받은 고객의 평균 금리가 4.19%인 것을 고려하면 4% 미만 대출자는 고신용자로 볼 수 있다. 고신용자 대출 비중이 42%를 넘겼다는 얘기다.       이는 KB국민은행 45.5%, 신한은행 45.6%와 큰 차이가 나지 않는 수치다.     반면 카카오뱅크(0%), 케이뱅크(12.90%)와 비교하면 높은 비중이다. 이는 토스뱅크가 다른 인터넷전문은행에 비해 지난 1월 활발한 대출 영업을 했다고 풀이할 수 있다.     여기에다 대출 포트폴리오 꾸리기에도 나섰다. 지난달 토스뱅크는 인터넷전문은행 최초로 비대면으로 모든 것이 가능한 무보증·무담보 개인사업자 대출을 출시했다. 이어 하반기에는 전세자금대출을 내놓을 계획이다.     토스뱅크 관계자는 "공격적인 영업이 아닌, 원래 계획대로 영업을 시작한 것"이라며 "개인사업자 대출은 이제 다음 주 한 달이 된다"며 말을 아꼈다. 또 "전세대출을 준비하고 있는 것은 맞지만, 정확한 시기는 정해지지 않았다"고 했다.     권지예 기자 kwon.jiye@joongang.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>[핀테크 칼럼]핀테크 활용 금융 해외 진출, 적극 검토할 때</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003001989?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>최근 4~5년간 글로벌 금융시장에선 핀테크투자와 M&amp;A가 고공행진이다. KPMG에 의하면 특히 작년 증가세가 뚜렷했다. 글로벌 핀테크투자 건수가 5684건으로 2020년 대비 51%, 투자금액도 2101억달러로 68%나 급증했고, M&amp;A금액도 2020년 758억달러, 2021년 831억달러로 지속 증가세다.왜 이렇게 빠르게 늘고 있나. 첫째, 방심했던 글로벌 은행들의 반격요인을 들 수 있다. 5년 전만 해도 세계 금융 시가총액 톱5는 모두 은행이 석권하고 있었지만, 지금은 JP모건과 뱅크오브아메리카 2개뿐이고 나머진 비은행과 빅테크·핀테크다. 이에 따라 작년부터 JP모건 등 은행의 핀테크투자와 M&amp;A 반격이 거세지고 있단 평가다. 둘째, 리테일뱅킹의 패러다임시프트 때문이다. 코로나19까지 가세한 디지털 가속화로 기존 리테일뱅킹으론 인건비와 임대료 때문에 도저히 가성비를 맞출 수 없다. 그 결과 리테일뱅킹이 핀테크의 간편결제 투자로 빠르게 대체되고 있다. 셋째, 핀테크 관련 부문의 확장도 핀테크투자 증가요인 중 하나다. 예컨대 작년 가상자산과 사이버보안 투자는 각기 302억달러, 48억달러로 사상 최고치였다.그럼 이런 글로벌 핀테크투자와 M&amp;A의 고공행진은 향후 금융시장 관련해 어떤 의미 내지 영향을 갖게 될까. 전문가들은 우선 기존 금융사와 빅테크, 핀테크 간의 경쟁 격화와 함께 업체 옥석 가리기가 시작될 거란 점을 꼽는다. 신산업 출현과 기존 산업재편 때 늘 일어나는 일이지만, 10여년 만에 미국의 금융 긴축과 금리 인상이 시작되는 최근 금융환경까지 고려하면, 옥석 가리기를 넘어 경우에 따라서는 '서바이벌 게임'이 될 가능성도 있다.또 핀테크를 활용한 금융권 해외 진출도 향후 본격화될 전망이다. 이는 지난 3~4년간 꾸준히 증가해온 핀테크 M&amp;A 부문에서 작년 크로스보더(Cross-border) M&amp;A가 전년 대비 3배 이상 급증한 점에서도 그 가능성이 엿보인다, 사실 핀테크 특성으로 꼽히는 신속성과 간편함 이면에는 '손안의 금융'이란 닉네임에서 알 수 있듯이, 시간·공간 제약 없는 핀테크 강점을 빼놓을 수 없다. 또 이때 '시간·공간 제약이 없다는' 의미는 바로 핀테크를 통한 금융의 국가 간 연결 및 진출이 양국 금융소비자 만족도 제고로 상호 윈윈 효과를 낼 수 있단 뜻이기도 하다.현재 우리나라 핀테크 상황과 시사점을 생각해보자. 우리나라 핀테크는 한마디로 하나의 신산업으로 자리매김했고, 비교적 성공적이란 평가다. 일부는 이미 유니콘 또는 예비유니콘이 되고 있고, 카카오뱅크는 상장 후 시가총액이 대형 은행의 2배인 40조원을 넘나들어 금융권을 긴장시키고 있기 때문이다, 성장기대감 때문인지 핀테크투자액도 작년 3조6000억원으로 사상 최대치였다.하지만 성장기에 성장통이 찾아오듯이, 핀테크업계에도 최근 업계 양극화, 초기 핀테크업체의 자금조달과 인력난 등 이슈가 불거지고 있다. 어떤 타개책이 있을까. 개인적으로 핀테크 M&amp;A 활성화와 초기 투자펀드 조성과 별개로 핀테크를 통한 금융의 해외 진출이 시의적절한 방안이 될 수 있다. 해외에서 핀테크의 상호 진출수요가 커지고 있는 시기인 데다 한국 IT는 해외에서 인정하는 만큼 IT금융, 핀테크는 상대방과 제휴 협력에 유리한 점, 카카오뱅크나 토스 등 세계 어디 내놔도 손색이 없을 성공사례가 있다는 점 등을 적극 활용할 수 있기 때문이다. 특히 동남아는 고성장지역인 데다, 향후 금융의 빠른 디지털·모바일 전환이 예상되고, 우리나라 기업들의 생산 및 수출 비중도 높아서 핀테크 진출의 최적의 타깃이라고 할 만하다. 향후 민간 협력은 물론 정책당국과 공조를 통한 지속적이면서도 체계적인 민관 협력을 기대한다.정유신 서강대 기술경영대학원장 ysjung1617@sogang.ac.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.03.14.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>비상장주식 투자 전성시대…선(先)학개미 늘고 있다</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005057712?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>#30대 직장인 A씨는 새로운 재테크 계획을 짜고 있다. 펀드, 부동산, 상장지수펀드(ETF) 등 가지각색 다양한 투자처 중에서도 A씨의 눈길을 끈 건 비상장 주식. 나날이 높아지는 공모주 청약 경쟁을 피해 미리 투자할 수 있다는 점이 굉장히 매력적으로 느껴졌다. 비상장 주식 투자는 깜깜이 거래라는 기존 인식과 달리 증권사 안전 거래 시스템 연계로 안전하게 투자할 수 있다는 점, 모바일로 간편하게 투자할 수 있다는 점도 A씨의 마음을 사로잡았다. 그는 "평소 잘 알고 즐겨 사용하던 모바일, 핀테크 기업 위주로 조금씩 비상장 주식 투자를 늘려갈 예정"이라고 말했다.최근 MZ세대(밀레니얼+Z세대)를 중심으로 남들보다 한발 앞서 유망 기업에 투자하는 ‘선(先)학개미’들이 증가하고 있다. 비바리퍼블리카, 야놀자 등 MZ세대에게 익숙한 유니콘 기업들 대부분이 비상장인 데다, 현대오일뱅크, 교보생명, SSG닷컴, 컬리, 오아시스 등 대형주들의 연이은 상장이 예정돼 있어 2030 선학개미들의 유입은 더욱 활발해질 것으로 보인다.14일 국내 대표 비상장 주식 거래 플랫폼 '증권플러스 비상장'에 따르면 이곳의 회원수는 지난해 11월 기준 약 90만명에서 이달 초 기준 120만명으로 무려 30만명이 급증한 것으로 집계됐다. 누적 다운로드 수도 100만건을 상회했다.두나무와 삼성증권이 함께 2019년 11월 출범시킨 증권플러스 비상장은 업계 최초 증권사 안전 거래 서비스 연계로 비상장 주식 시장의 고질적인 문제로 꼽히던 거래 불안정성, 불투명성을 타파하고 안심 투자 환경 조성에 앞장서 인기다. 주식 거래가 1대 1의 협의를 기반으로, 삼성증권 안전 거래 시스템을 통해 매수자의 잔고와 매도자의 주식 보유 여부가 확인되어야 거래가 체결된다.증권플러스 비상장 관계자는 "공휴일 포함 24시간 예약 주문, 3000만원 이하 바로 주문 등 다양한 편의 기능과 모바일 기반의 간편한 UX·UI로 초보 투자자들도 부담 없이 비상장 주식 투자에 입문할 수 있다"면서 "치열한 공모주 청약 경쟁에 참여할 필요도 없는데, 투자한 비상장 종목이 상장할 경우 별도의 절차 없이 보유 주식이 그대로 상장 주식으로 전환된다는 점도 매력적인 요인으로 부각된다"고 설명했다.수익률도 선학개미를 이끄는 원동력이다. 시가총액 상위 종목 중에서 지난해 연간 수익률 순위는 야놀자(233.90%), 비바리퍼블리카(211.11%), 빗썸코리아(91.67%), 현대오일뱅크(72.11%), 현대삼호중공업(65.56%), 현대엔지니어링(22.86%), 두나무(20.01%), LG CNS(1.27%), 현대캐피탈(0.00%), 현대트랜시스(-1.69%) 등으로 나타났다.야놀자는 지난해 2월 1대 19 비율로 무상증자, 보통주 전환, 소프트뱅크 비전펀드로부터 대규모 투자 유치까지 이뤄내며 기업가치가 급증했다. 비바리퍼블리카의 경우 한화투자증권이 토스뱅크에 300억원 투자를 결정한 데 이어 후불결제 서비스 출시 계획 등으로 몸값 상승이 이뤄졌다. 증권플러스 비상장 관계자는 "비상장 주식 투자에 있어 시장 전반의 트렌드를 살피는 것도 도움이 된다"면서 "2021년 한 해 비상장 주식 시장에서는 모바일·핀테크 기업들의 약진이 두드러졌다"면서 "올해도 MZ세대 선학개미들의 활약으로 모바일·핀테크 기업들의 인기가 이어질 것으로 전망된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>중기부, 규제샌드박스 백서 발간</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/449/0000223198?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>온라인 대출비교 서비스 등 80개 주요 승인 사례 소개규제샌드박스 백서 표지중소벤처기업부는 규제샌드박스 시행 3년을 맞아 주관부처와 함께 ‘규제샌드박스 백서 신기술이 빛을 보게 하다’를 발간했다고 오늘 밝혔습니다. 규제샌드박스 백서에는 ‘한국형 규제샌드박스’ 제도의 내용 및 발전과정과 지난 3년간 달성한 성과 등이 담겼습니다. 또 정보통신기술(ICT) 융합, 산업융합, 혁신금융, 규제자유특구, 스마트도시, 연구개발특구 등 6개 분야 80개의 승인사례가 게재됐습니다. 혁신 기업들이 기존 규제로 인해 사업 과정에서 겪었던 어려움과 규제샌드박스 제도를 활용하는 과정이 상세히 소개됐습니다. 대표적인 예로 토스의 은행 대출상품 비교 서비스, 로보티즈의 실외 자율주행 배달로봇, 타운즈의 아파트 단지 내 차량 공유 서비스 등이 규제샌드박스를 통해 사업을 시작할 수 있었습니다. 구윤철 국무조정실장은 발간사에서 “규제샌드박스 제도는 지난 3년간 ‘신기술 혁신의 실험장’이자 ‘갈등과제의 돌파구’ 역할을 해왔으며 ‘국민생활의 편의’도 증진시켜 왔다”며 “앞으로 규제샌드박스가 신기술·신산업 발전을 촉진시켜 우리나라를 더욱 단단한 선진국 반열에 오르는데 기여하도록 노력하겠다”고 말했습니다.규제샌드박스 백서는 국무조정실 홈페이지와 규제정보포털에서 열람과 다운로드가 가능합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.03.11.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>권오형 윙크스톤 대표 “소상공인 대출 상품 혁신…새 시대 유니콘 될 것”</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005165136?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>자체 개발·고도화 중인 ‘복합평가모델’로온라인 셀러·프랜차이즈 가맹점 등 대출 가능사각지대 대출 시장 혁신이…“금융의 본질”[이데일리 황병서 기자] “국내 핀테크 산업에서 ‘넥스트 제너레이션(새 시대)의 유니콘’으로 거듭날 기업은 금융의 본질을 혁신하는 곳일 겁니다. 그 중 하나가 대출 사각지대의 상품을 혁신하는데 있다고 봅니다. 프랜차이즈 가맹점주와 같은 소상공인을 위한 대출 상품을 준비 중인 윙크스톤파트너스가 큰 역할을 할 수 있습니다.”권오형 윙크스톤파트너스 대표가 지난달 25일 서울 영등포구 소재 핀테크랩에서 진행한 이데일리와의 인터뷰에서 말하고 있다. (사진=윙크스톤파트너스)권오형(사진) 윙크스톤파트너스(이하 윙크스톤) 대표는 최근 서울 영등포구 소재 핀테크랩에서 진행한 이데일리와의 인터뷰에서 이같은 포부를 드러냈다.권 대표는 그동안 금융혁신이라는 이름으로 선보인 서비스들이 단순 서비스 개선에 머물러 있다고 판단했다. 그는 “국내에서 핀테크 기업들이 많이 나오면서 고객이 느끼는 서비스 질은 좋아지는 중”이라며 “이런 혁신이 카카오뱅크(323410), 토스뱅크 등 인터넷전문은행과 시중은행들의 혁신으로 이어져 소비자들의 편의성을 향상시켰다”고 설명했다.“금융의 진정한 혁신…온라인 판매자 등 위한 대출 선봬야”하지만 이러한 편의성 향상만으로는 금융 혁신을 이끌기 부족하다는 것이 그의 주장이다.권 대표는 “다시 금융의 본질로 돌아가면 ‘그래서 대출받기 어렵던 사람이 받을 수 있게 됐는자’, ‘새로운 투자 상품이 생겼는가’를 생각해보면 그렇지 않다”며 “대출 상품을 혁신할 수 있는 기업만이 새 시대의 유니콘 기업으로 우뚝 설 수 있다”고 주장했다.지난해 7월 금융당국으로부터 온라인투자연계금융업체로 등록된 윙크스톤은 소상공인 및 중소기업 중금리 대출 상품 개발에 힘쓰고 있다. 지난달에는 노트북, 모니터, 태블릿과 같은 IT(정보기술)기기를 빌려주는 중소기업이 보다 원활한 자금 확보를 할 수 있도록 한 ‘IT구독 서비스 1호’ 상품을 선보였다. 온투업체 투자자들이 투자한 자금으로 해당 업체는 렌탈 장비 등을 추가 매입해 활용할 수 있게 된 셈이다.렌탈 업체를 비롯해 사각지대 있는 업체들을 위한 대출 상품을 선보이는 윙크스톤의 지난해 말 기준 누적대출액은 692억원이다. 특히 연체·부도율은 0%를 기록하고 있다. 지난해 서울핀테크랩 입주사에 선정됐을 뿐 아니라 신한금융투자 등의 유치를 끌어내기도 했다. 온투업 흐름도.(자료=윙크스톤파트너스)“자체 신용평가시스템으로…대출 사각지대 해소”그가 꼽는 대출 사각지대는 온라인 판매자(셀러), 긱워커(초단기 근로자)와 같이 정기적인 소득 증명이 어려운 이들이다.권 대표는 “비대면 시대에 디지털 기술의 발달로 온라인 쇼핑몰을 운영하거나 쿠팡 라이더와 같은 배달을 통해 돈을 버는 사람들이 경제활동 인구로 보자면 절반 이상”이라면서도 “정기적인 소득 흐름을 기반으로 신용을 평가하는 전통 금융기관에서 이들이 대출을 받기란 여간 어려운 일이 아닐 수 없다”고 말했다.그 예로 그는 “최근에 방송에 출연했다가 작가들로부터 하소연을 들었다”며 “방송작가들도 대부분 프리랜서들이다보니 정기적인 소득 흐름을 증명할 길이 없어 은행에서 대출 받기가 어려웠기 때문”이라고 말했다.권 대표는 자체적으로 개발·고도화 중인 신용평가모델시스템(복합평가모델)을 통해 정기적인 소득을 증명하기 어려운 사람들을 위한 대출 상품개발이 가능하다고 주장했다. 복합신용평가 모델은 현금흐름에서 나오는 상환능력 뿐만 아니라 자금수요 유형을 신속하고 정확하게 파악한다는 특징이 있다. 광고대비매출액, 고객유치비용과 같은 사업지표와 학력, 사회관계망서비스(SNS) 팔로워 숫자, 업종, 입지, 상권 등 차입자가 보유한 무형의 자산을 활용해 가중치를 부여한다. 또 국내 대표 종합신용평가사인 KCB와 함께 비대면 대출신청에 특화된 데이터를 바탕으로 머신러닝 알고리즘 기반의 데이터도 활용하고 있다.그는 “복합평가모델은 온라인 판매자나 긱워커 등의 특정한 집단을 위한 신용평가모델시스템을 의미한다”며 “예컨대 패션 분야의 온라인 판매자, 배달 앱 업종 배달 노동자와 같은 부류로 나눠 이들이 대출을 받을 수 있게 한다는 취지”라고 설명했다.이를 위해 온라인 판매자를 위한 대출 상품도 조만간 내놓을 것이라고 예고했다.그는 “네이버에서 온라인 판매자를 위한 대출 상품을 선보였지만 해당 플랫폼에서 물건을 판매하는 사업자에 국한하는 한계가 있다”면서 “전체 온라인 플랫폼 상에서 물건을 판매하는 사업자를 위한 대출 상품을 준비하고 있다”고 말했다. 이를 위해 “온라인 판매관리 솔루션 기업인 플레이오토와 손잡고 해당 상품을 내놓기 위해 준비 중”이라고 부연했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.03.07.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>"통장 잔돈 모으니 치킨이" MZ세대 홀린 소액적금</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005054463?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>카뱅 저금통, MZ 취향저격422만좌, 출시초의 3배 성장2030세대 62% 차지 인기"카카오뱅크 저금통에 치킨 한 마리 만들었어요" MZ세대(밀레니얼+Z세대)들이 애용하는 온라인커뮤니티에는 종종 자신의 아이템을 자랑하는 글이 올라온다. 저금통은 연결된 입출금통장의 잔돈을 모아 저축해주는 방식인데 모인 금액 만큼 피자 한 판, 치킨, 중국집 A세트 등 재치 있는 아이템을 노출시켜 MZ세대들에게 인기를 끌고 있다.7일 카카오뱅크에 따르면 저금통의 누적 개설수는 2월 말 기준 422만좌를 기록했다. 서비스 초기인 2019년 말 125만좌에서 3배 이상으로 증가했다. 이용 연령대 비중은 2030세대가 62%다. 저금통은 자투리 돈을 모으게 하고 금리 3%의 혜택을 준다. 저금통은 ‘동전 모으기’와 ‘자동 모으기’의 기능이 있는데 동전 모으기는 보유한 입출금통장에서 생기는 1000원 미만의 자투리 돈을 매일 밤 12시에 자동으로 모아준다. 자동 모으기의 경우 인공지능(AI)이 최근 6개월 이내 거래내역을 분석해 매주 토요일에 자동으로 저축해주는 방식이다. 자동 모으기 역시 최저 1000원에서 최대 5000원으로 소액이다.2018년 출시된 26주적금도 여전히 성장세다. 2월 말 기준 1161만좌가 개설됐는데 연 300만좌씩 신규 개설될 정도로 꾸준히 인기를 끌고 있다. 26주적금은 매주 1000원, 2000원, 3000원, 5000원, 1만원 중에 선택해 첫 주 납입 금액으로 정하면 매주 그 액수만큼 늘려 돈을 넣는 상품이다. 예를 들어 첫 금액으로 1000원을 선택하면 26주차에는 2만6000원을 내게 된다. 기본금리 연 2%(6개월 기준)에 26주 성공 시 0.5%포인트의 우대금리가 적용된다. 이 상품 역시 2030세대 비율이 70%에 달한다.케이뱅크의 ‘챌린지박스’ 역시 최근 10만좌를 돌파했다. 챌린지박스는 ‘야식비 아껴 큰거 한방 모으기’, ‘100일 뒤 떠나는 제주도’ 등 개인의 소박한 목표를 이뤄주는 방식인데 상황에 따라 금액과 기간을 설정하면 매주 모아야 하는 돈이 자동으로 계산된다. 목표 금액은 500만원 이내, 날짜는 30일 이상 200일 이하로 최대 연 2.5%의 금리 혜택을 받을 수 있다. 케이뱅크에 따르면 MZ세대가 단기간 쌈짓돈 모으기에 챌린지박스를 애용하고 있는 것으로 나타났다. MZ세대 가입율이 62%로 절반 이상을 차지했고 특히 20대 가입자 중 여성이 72%, 30대 가입자 중에선 56%로 2030 여성에게 인기가 높았다.토스뱅크도 입출금통장에 연결되는 방식으로 ‘잔돈모으기’ 상품을 내놨는데 전체 계좌 개설 고객의 절반 정도가 이 기능을 사용하고 있을 정도로 관심이 높다. 인터넷은행 관계자는 "금액도 부담이 없는 데다가 소셜과 흥미 요소를 반영해 젊은층에게 호응이 좋다"면서 "잔돈 모으기로 살 수 있는 아이템 노출 화면과 연계한 광고 비즈니스까지 확장되고 있는 추세"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.03.08.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>본인확인 5년 새 144%↑…방통위, 본인확인기관 더 늘린다</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004717605?sid=105</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>[방통위, 본인확인기관 지정심사 계획 공고점수평가제·조건부 지정 도입해 심사기준 개선]방송통신위원회는 올해 신규 본인확인기관 지정 심사계획을 홈페이지에 공고했다고 8일 밝혔다. 수많은 기준을 빠짐없이 만족해야 했던 까다로운 평가방식에 '점수평가제'와 '조건부 지정' 등을 도입하면서 본인확인기관 지정 관련 심사기준을 대폭 개선했다. 본인확인 서비스는 온라인 서비스 또는 금융상품에 가입하는 과정에서 주민등록번호 대신 대체 인증수단으로 가입자 본인이 맞음을 인증하는 절차다. 패스(PASS) 앱을 제공하는 이동통신 3사가 대표적이다. 통신3사의 시장점유율이 90% 이상으로 사실상 시장을 지배하는 상황이지만, 본인확인서비스 수요가 폭증하는 만큼 심사기준을 합리화해 다양한 본인확인수단을 확보하겠다는 게 방통위의 방침이다. 실제로 방통위에 따르면 본인확인 건수는 2016년 10억7700만 건에서 지난해 26억3000만 건으로, 5년새 144% 증가했다. 이에 따라 본인확인기관 지정 희망 사업자는 오는 21일부터 23일까지 사업계획서 등 지정신청서류를 방통위에 제출해야 한다. 이후 방통위의 서류심사와 4~5월 신청사업자에 대한 현장실사가 진행된다. 본인확인서비스 책임자에 대한 의견청취 등을 거쳐 6월 중 방통위가 지정여부를 최종 의결한다. 방통위는 심사를 위해 정보보호, 법률, 회계 등 분야별 전문가 15인 이내에서 심사위원회를 구성할 예정이다. 신청사업자는 87개 심사항목 중 21개 중요 심사항목과 2개 계량평가 항목에서 '적합' 판정을 받아야 한다. 나머지 64개 심사항목에 대해선 총점 1000점 만점에 800점 이상을 받으면 본인확인기관으로 지정받을 수 있다. 다만 800점 미만이더라도 중요 심사항목과 계량평가 항목에서 '적합' 판정을 받으면 조건부로 지정될 수 있다. 기존 92개 심사항목 모두 '적합' 판정을 받아야 했던 심사 기준이 대폭 완화된 것이다.이에 따라 네이버, 카카오, 국민은행 3사의 재도전 가능성에 관심이 쏠린다. 작년 3월 방통위의 상반기 심사에선 네이버와 카카오, 그리고 토스 운영사인 비바리퍼블리카가 도전했으나 모두 고배를 마셨다. 지난해 8월 하반기 심사에서는 토스만 재수 끝에 합격했고, 첫 신청에 나선 국민은행은 실패했다.한상혁 방통위원장은 "ICT, 핀테크 서비스가 지속 활성화되고 있는 만큼 다양한 사업자들의 본인확인기관 지정 신청이 예상된다"며 "방통위는 서비스의 보안성 및 안정성 등 다양한 요소를 엄격하게 심사해 국민들이 편리하고 안전하게 본인확인서비스를 이용할 수 있도록 최선을 다하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.03.15.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>네이버 후불결제 신파일러에 인기</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004934962?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>사회초년생·주부등 몰려거래액 330억원 돌파월 30만원까지 신용결제 가능 사회초년생·주부 등 신파일러(금융이력부족자)들의 네이버페이 후불결제 서비스 1인당 이용액이 팻파일러(금융이력이 충분한 사람) 대비 1.7배 많은 것으로 나타났다. 신용카드를 발급받기 어려운 이들에게 최대 월 30만원까지는 이자·연회비 없이 신용카드처럼 쓸 수 있도록 소액신용을 제공한 점이 인기를 끌고 있는 것이다.16일 금융권에 따르면 지난해 4월 출범해 시범 운영 중인 이 서비스가 8개월 만에 이용자 수가 27만명을 돌파했다. 이용자의 18%가 대출 상환 이력·신용카드 사용 이력 등 금융이력이 부족한 신파일러로 나타났다. 실제 거래액 기준으로 보면 신파일러가 전체 330억원의 27%로 팻파일러 보다 1인당 사용액이 1.7배 많았다.지불여력이 있지만 초단기유동성이 부족한 이들의 대체 결제수단 역할을 하고 있다는 방증이다. 적금까지 붓고 있어 이번달 생활비가 부족하지만 후불결제로 미리 생필품을 구입하고 월급을 받아 다음달 갚는 식이다. 연령별로는 MZ세대 비중이 75%로 가장 많았다. 금융이력이 부족한 사회초년생·주부들이 다수 분포하는 세대다.이같은 성과는 금융당국 등에서도 인정받고 있다. 금융위원회는 규제 적용 특례를 부여하는 혁신금융서비스 지정 기간을 2년 연장해줬으며, 국무조정실은 규제샌드박스 시행 우수사례 20건 중 하나로 이 서비스를 선정했다. 토스·페이코 등 여러 핀테크 기업도 후불결제 시장을 유망하게 보고 관련 서비스 연내 출시를 준비 중이다. 고은아 하나금융경영연구소 수석연구원은 "MZ세대를 겨냥한 서비스로 금융 플랫폼의 차별화를 모색할 수 있다"고 했다. 현재 후불결제 한도는 금융당국 지침에 따라 월 최대 30만원 이내로 제한된다. 핀테크 기업들은 물가 등을 고려할 때 한도가 너무 적다며 상향이 필수적이라고 입을 모은다. 한 핀테크 업계 관계자는 "후불결제 서비스는 대손충당금 적립 의무를 카드와 동일하게 따르는 등 금융당국의 관리·감독 하에 건전성을 철저하게 관리한다"며 "이용자층이 비슷한 휴대폰 소액결제 한도 100만원까지 상향이 필요하다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.03.07.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>위메프, '할인해봄' 2주간 봄맞이 신상품 추천 할인</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011048141?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이지영 기자 = 위메프는 오는 20일까지 '할인해봄' 행사를 열고 7개 콘셉트로 구분한 다양한 봄 시즌 인기 상품을 특가에 선보인다고 7일 밝혔다. 이번 행사는 고객들이 여유있게 봄맞이 상품을 구매할 수 있도록 7~20일 2주간 진행한다. 콘셉트도 세분화해 맞춤형 큐레이션을 선보인다. 패션·뷰티·홈스타일링 상품을 엄선한 꽃단장해 봄 코너부터 ▲아이의 봄(키즈패션·신학기템·육아용품) ▲깨끗한 봄(청소·세정살균·클린주방) ▲맛있는 봄(제철음식·간편식·간식) ▲건강한 봄(영양제·운동·다이어트) ▲즐거운 봄(여행·봄소풍·취미) ▲스마트한 봄(컴퓨터·디지털·가전)을 운영한다. 스마트한 봄 코너는 12일부터 열린다.행사 첫날 대표 상품은 ▲닥터마이스킨 카밍 원더 솝 1+1 ▲도노도노 모달 낮잠이불+가방 ▲홈스타 곰팡이싹 3개+욕실용 △청도 딸기 600g 내외 ▲뉴트리디데이 콜라겐 타블렛 2병 ▲아트 오브 뱅크시 앙코르 1인 입장권 등이다.둘째 날에도 다양한 봄 시즌 상품을 초특가에 선보인다. ▲카카오프렌즈 쿨 메쉬 반팔 잠옷세트 외 ▲뉴발란스키즈 스트릿 소풍가방 외 ▲리빙나인 양면 스펀지 수세미 5P ▲해남 꿀고구마 특상 3kg ▲필캣 손목 보호대 1+1 ▲GS25 편의점 2만원권 등을 판매한다.특가 상품에 할인 쿠폰으로 혜택을 더한다. 1만원 이상 구매 시 사용할 수 있는 최대 15% 할인 쿠폰(최대 2만원까지) 및 3만원 이상 결제 시 추가 적용되는 3000원 카드 할인 쿠폰(국민·삼성·하나·카카오페이·토스 등)을 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.03.04.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>신용등급 강등·증시 퇴출 러시…‘러시아 투자주의보’</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001959627?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>KINDEX러시아MSCI 29.97%↓ETF 등 직접투자 서학개미 발동동우크라이나 침공에 대한 서방의 강력한 제재로 러시아의 경제 붕괴 가능성이 커진 가운데 주식과 ETF(상장지수펀드) 등 러시아 관련 투자에 신중해야 한다는 목소리가 높아지고 있다.4일 한국거래소에 따르면 국내 증시에 상장된 유일한 러시아 관련 ETF인 ‘KINDEX러시아MSCI(합성)’은 전거래일 대비 29.97%(4310원) 내린 1만70원을 기록하며 하한가로 직행했다.이 ETF의 기초지수는 러시아 거래소 상장 종목 중 시장 대표성 요건을 충족한 종목으로 구성된 모건스탠리캐피털인터내셔널(MSCI) 러시아지수(MSCI Russia 25% Capped Index)다. 최근 가격이 급락하면서 거래소로부터 투자유의 종목으로 지정된 바 있다.전날 MSCI는 러시아를 신흥국(EM) 지수에서 제외한 데 이어 오는 9일 종가를 기준으로 모든 MSCI 지수 내 러시아 주식에 대해 0.00001을 적용하기로 했다. 사실상 가치가 없는 것으로 산정한 것이다.이 ETF를 운용하고 있는 한국투자신탁운용 측은 “해당 상품은 지수산출의 중단, 상관계수 요건 미충족, 장외파생상품 거래상대방 위험 등 발생시 상장폐지가 진행될 수 있다”고 알렸다.해외에 상장된 러시아 종목이나 ETF 등에 대한 직접 투자를 우려하는 목소리도 커지고 있다. 한국예탁결제원에 따르면 국내 투자자들의 최근 상위 매수 종목에 MSCI 러시아지수를 추종하는 ‘아이셰어즈MSCI러시아(티커 ERUS)’가 이름을 올렸다.또한 ‘러시아의 구글’로 불리는 러시아 최대 인터넷 포털 기업 얀덱스와 러시아지수를 2배로 좇는 레버리지 ETF ‘디렉시온 데일리 러시아 불 2X 셰어즈(RUSL)’ 등에 대해서도 최근 일주일 사이 수십억원이 넘는 국내 투자금이 몰린 바 있다. 금융투자업계에서는 “러시아와 우크라이나 간 극적 합의가 이뤄질 경우 러시아 증시가 상승해 차익을 거둘 수 있을 것이라는 기대감이 쏠린 것”이라고 분석한다.그러나 국내 증권사마다 해당 러시아 관련 상품의 매매 가능 여부가 다르다는 것도 주의가 필요하다는 지적이 나온다. 현재 키움증권, NH투자증권, 토스증권 등 대부분 증권사에서 러시아 관련 상품 주문이 금지돼 있다.이와 관련 NH투자증권 측은 공지를 통해 “미국의 해외자산통제국(OFAC) 제재에 따른 매매 금지 조치로 러시아 소재 기업과 ETF 매매시 사전예고 없이 주문이 거부될 수 있으니 주의하시길 바란다”고 밝혔다.한편 글로벌 신용평가사인 무디스를 비롯해 스탠더드앤푸어스(S&amp;P), 피치 등이 러시아에 대한 국가신용등급 하향 조정이 잇따르고 있고, 세계 주요 증시에서도 러시아가 퇴출되고 있다. 모건스탠리캐피털인터내셔널(MSCI)은 9일 장 마감 이후 러시아를 신흥국 지수에서 제외하고 독립(standalone) 시장으로 재분류한다. 파이낸셜타임스 스톡익스체인지(FTSE) 러셀도 오는 7일부터 러시아 증시를 지수에서 제외하기로 결정했다. 양대근 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>러시아펀드 평균수익률 -49%, 손절도 못한다</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003177493?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>러시아의 우크라이나 침공에 국내 개인투자자 손실도 커진다. 러시아의 포격으로 파괴된 우크라이나 2대 도시 하르키우의 시청 앞 광장에 1일(현지시간) 한 군인이 총을 들고 서 있다. [AFP=연합뉴스]           “지난주에 들어간 러시아 펀드 수익률이 지금은 14.5%인데 루블화 폭락이 반영된 뒤가 두렵다. 전쟁이 금방 끝나고 오를 걸 기대하고 투자했는데, 환매도 안 되고 고스란히 물리게 생겼다.”      지난달 24일 러시아 주식 펀드에 신규 가입한 홍모(33)씨는 발만 동동 구르고 있다. 하락한 루블화 가치가 펀드 수익률에 반영되는데 2거래일이 걸리는 만큼 마이너스 전환을 피할 수 없다. 펀드 환매가 막히면서 팔 수도 없게 됐다.      KINDEX 러시아 MSCI 가격 추이. 그래픽=김경진 기자 capkim@joongang.co.kr           ‘포성에 사라’는 투자 격언에 따라 러시아 관련 상품에 투자한 개인 투자자들이 패닉 상태다. ‘저점’이라고 믿고 들어갔지만, 전쟁이 장기화하며 바닥없이 추락하고 있어서다. 지난달 28일부터 1일까지 3일간 휴장 중인 러시아 증시 지수인 RTS 지수는 휴장 직전 936.94를 기록하며 고점(1933.59) 대비 반토막 났다.      게다가 국제은행간통신협회(SWIFT) 퇴출 등 서방의 금융 제재로 러시아가 ‘금융 고립’에 빠지며, 투자자도 발이 묶였다. 주식 투자의 경우 거래 제한이 걸리고, 펀드 환매는 연기되고 있다.      전쟁 터지고 러시아 ETF 사들인 개인. 그래픽=김경진 기자 capkim@joongang.co.kr           루블화 폭락까지 겹치며 손실은 배가 되고 있다. 2일 오후 4시(한국시간) 기준 루블화는 달러당 107루블에 거래되고 있다. 연초 달러당 75루블에 비교하면 40% 가까이 떨어졌다(환율 상승). 펀드 등 러시아 관련 투자 상품은 환노출인 경우가 많아 이미 추락한 수익률을 더 갉아먹고 있다.      금융정보업체 에프앤가이드에 따르면 현재 국내 공모펀드 중 러시아 펀드와 러시아 관련 상장지수펀드(ETF) 1개를 포함해 총 9개다. 9개 펀드 설정액은 지난달 말 기준 총 1587억원이다. 연초 이후 평균 수익률은 지난달 28일 기준 -49.12%이다.      폭락한 러시아 증시의 반등을 노리고 개인투자자가 지난달 21~28일 260억원을 순매수한 ‘KINDEX 러시아 MSCI(합성)’는 거래정지 위기에 처했다. MSCI 러시아지수를 추종하는 국내 유일의 러시아 투자 ETF인 이 상품의 괴리율(시장 거래 가격과 순자산 가치의 차이)이 높아지면서다. 지난달 24일 4.06%이던 괴리율은 지난달 28일 30.26%로 치솟았다.      러시아 투자 관련 증권-운용사 조치들. 그래픽=김경진 기자 capkim@joongang.co.kr           괴리율이 높다는 건 실제 자산가치보다 비싸게 거래된다는 의미다. 3거래일 동안 괴리율이 12%를 웃돌면서 한국거래소는 2일 이 상품을 투자유의종목으로 지정했다. 3일부터 3거래일간 괴리율이 18%이상 확대되면 거래 정지가 불가피 하다.      이런 상황이 수개월 이어지면 ETF가 상장폐지 될 수도 있는데, 이러면 투자자는 큰 손실을 보게 된다. 청산 기간의 순자산가치에 따라 현금을 돌려받게 되는데, 시장가격이 순자산가치를 크게 웃도는 괴리율이 높은 현재 상황에서는 손해를 볼 수밖에 없다.      미국에서는 이미 러시아 관련 ETF가 상장 폐지됐다. 지난 1일 미국의 운용사 디렉시온은 러시아 지수를 2배 추종하는 상품인 ‘디렉시온 데일리 러시아 2배 ETF(RUSL)’ 상장 폐지를 공지했다.      자산운용사들은 러시아 펀드 환매 연기와 신규 설정 제한에 나서고 있다. 러시아중앙은행이 외국인 투자자의 증권 매도 주문을 거부하고 있어서다. 한화자산운용은 ‘한화러시아증권자투자신탁’의 환매와 신규 설정을 중단하기로 결정했다. KB자산운용과 신한자산운용, 키움자산운용도 러시아 펀드 설정과 환매를 중단하기로 했다. 환매 가능 기준일은 상품에 따라 다른 만큼 별도의 확인이 필요하다.      러시아 주식 투자도 할 수 없게 됐다. NH투자증권과 신한금융투자, 토스증권 등은 고객에 러시아 종목 거래 불가 관련 공지를 냈다. 미국의 해외자산통제국이 러시아 소재 기업 ETF 매매를 금지한 데 따른 것이다. ‘러시아 구글’로 불리는 얀덱스(YNDX), 핀테크회사 치위(QIWI), 전자상거래 플랫폼 오존(OZON), 온라인 채용 플랫폼 헤드헌터그룹(HHR), 게임업체 넥스터(GDEV) 등 다수의 기업이 포함됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>토뱅, 2월말 중저신용자 대출 비중 31.75%…가계대출 1.9조 실행</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000277391?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>토스뱅크는 올해 2월말까지 실행한 중저신용자 대상 대출 비중이 31.75%에 달했다고 오늘(3일) 밝혔습니다.  중금리대출 실행 비중이 가장 높았던 날은 1월31일로, 이날 대출을 실행한 고객의 절반 이상(50.18%)이 중저신용자였습니다.  토스뱅크는 자체 개발한 신용평가모형(TSS, Toss Scoring System)을 통해 고객의 '실질 소득'을 분석하는데 주력하고, 이에 따라 신규 대출여부를 판단하고 있습니다. 이를 통해 '건전한 중저신용자'로 분류된 고객은 저축은행·카드사·캐피탈사 등 제2, 제3금융권 대비 신용도 개선을 기대할 수 있다는 설명입니다. 지난 5개월 간 대출 심사 과정에서 토스뱅크의 중저신용자 4명 중 1명 이상(26.3%)은 고신용자로 상향되기도 했습니다.  토스뱅크에서 대출을 실행한 중저신용 고객의 평균 금리는 7.7%로, 이는 저축은행 평균금리 13.3% 대비 약 5.6%포인트 낮았습니다.  신용등급이 가장 좋은 고객의 금리 구간은 2.71%~3.81%였습니다. 최저 2.71%의 금리는 기존 대출을 보유하고 있더라도 이를 연체 없이 성실히 상환한 이력이 있거나, 장기간 보험계약을 유지해 가능했습니다.  토스뱅크 중저신용자 고객들은 평균 2320만원의 대출을 받았고, 신용점수 454점(과거 KCB 기준 8등급)까지 대출이 실행되기도 했습니다. 한편 올해 1~2월, 토스뱅크에서 대출을 받기 위해 '내 한도 관리' 서비스에 신규 가입한 고객 수는 36만343명에 달했습니다. 일 최대 8만701명이 이용했으며, 일평균 2만7157명이 찾았습니다. 토스뱅크의 대출 규모는 2월말 기준 1조9446억원을 기록했습니다. 고객들이 대출 서비스를 가장 많이 이용하는 시간대는 점심시간인 오후 12시~1시 사이로 파악됐습니다. 고객 10명 중 1명(10.5%)은 점심시간을 이용해 대출을 받았고, 3명 중 2명(62%)은 주말을 포함한 은행 영업 시간(오전 9시~오후 4시) 외에 대출을 받는 것으로 나타났습니다. 토스뱅크 고객이 이용한 전체 대출의 4건 중 3건은 신용대출(75.4%)이었으며, 마이너스통장(23.4%), 비상금대출(0.8%), 사잇돌대출(0.4%) 순이었습니다. 토스뱅크 관계자는 "고도화된 신용평가모형을 통해 포용할 수 있는 고객의 범위가 넓고, 특히 실질 소득으로 신규 대출 여부를 판단하기 때문에 대출이 필요한 고객들의 관심이 특히 높았다"며 "앞으로도 공급자 입장이 아닌 고객 관점의 새로운 뱅킹 서비스를 구현하기 위해 더욱 노력할 것"이라고 밝혔습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.03.11.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>옥타솔루션, "특금법 업권 맞춤형 AML..토스·빗썸도 고객"</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004718916?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>[2022 이노베이션컴퍼니 '혁신금융대상']AML(자금세탁방지)은 불법 자금이 테러 및 범죄 단체 등으로 흐르는 걸 막기 위한 조치다. RBA(자금세탁위험평가)는 자금 세탁 등의 위험을 식별할 수 있게 돕는 시스템이다.  자금세탁 이슈는 과거 제1금융권 중심이었으나, 지난 몇 년 사이 적용 분야가 확대됐다. 특정금융거래정보법(이하 특금법) 개정에 따라 핀테크 등 전자금융업자나 대부업 등이 자금 세탁행위 방지 의무를 지게 돼서다. 2021년부터는 가상자산사업자까지 확대됐다. 금융 서비스 분야를 막론하고 AML은 빼놓을 수 없는 체크포인트가 된 셈이다. 금융 레그테크 전문업체 옥타솔루션은 이 틈새 시장 공략에 성공했다. 금융업권별 자금세탁 방지 플랫폼으로 새로운 AML 및 RBA 수요를 창출한 것이다. 이 덕에 은행·보험·증권 외에도 신규 분야의 고객사를 확대할 수 있었다. 박만성 옥타솔루션 대표는 "특금법 신규적용업권을 대상으로 한 자금세탁방지 솔루션 분야에서는 시장 점유율 1위"라면서 "소액해외송금법, 전자금융업, 가상자산사업자 및 P2P(개인 간 거래) 금융, 대부금융 사업자 등이 회사 AML 등을 쓰고 있다"고 말했다. 간편송금 기업 토스와 가상자산 거래소 빗썸  등 100여 기업이 이 회사 솔루션을 쓰고 있다. 옥타솔루션 AML 시스템의 주된 특징은 '속도'와 '확장성'이다. 자체 개발한 ORP(옥타 레그테크 플랫폼)로 업무 자동화를 꾀했다. 혐의 거래 시나리오 등이 포함된 업권별 템플릿을 제공, 구축 기간을 기존 대비 50% 이상 낮췄다고 박 대표는 설명했다. 그는 "가상자산사업자를 일례로 하면 코인거래 추적, 블랙리스트 지갑 데이터, 트래블룰 등의 제3자 솔루션을 ORP에 통합한 '크립토AML'과 이상거래탐지용 '크립토 FDS'를 제공 중"이라며 "2021년부터는 가상자산사업자 신고·수리 업무를 개시했다"고 했다. 업권별로 상이한 AML 모델을 일종의 모듈처럼 세분화해 맞춤형으로 제공하는 것이다. 대형 은행에 비해 상대적으로 자금 및 인력 어려움이 큰 핀테크 사들의 접근성을 높인 전략이다. 구축 기간을 낮춰 프로젝트에 따르는 비용도 줄인 것이다.SaaS(서비스형 소프트웨어형) AML 솔루션은 올해 상반기 중 출시 예정이다. 월 구독 형태로 스타트업 및 영세 기업의 부담을 낮췄다. 회사 측은 "P2P(개인 간 거래) 금융 및 환전사업자 등 특금법 신규적용업권을 겨냥한 것"이라며 "AML 사각지대라고 방심하다가 발생할 수 있는 사고를 소규모 회사들도 예방하길 바란다"고 했다. 박 대표는 "2017년부터 금융감독원 주도의 레그테크 포럼 자문위원으로 활동 중"이라며 "금융 준법 업무를 혁신하고 국내 레그테크 기술을 계속해서 선도해갈 것"이라고 말했다. 사진제공=옥타솔루션</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.03.14.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>[김동욱 기자의 세계사 속 경제사] '국가부도' 위기에 처한 나라들 세금 더 걷자 주민들 대탈주…경제 상황은 더 나빠졌죠</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004673551?sid=102</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>(36) 유구한 국가부채 해결법'배째라'(下)스페인은 1556~1696년 사이에 14차례에 걸쳐 채무의 전부 또는 일부를 이행하지 않았다. 예를 들어 1557년 카를 5세는 바야돌리드 칙령을 통해서 장기 국채인 후로스의 금리를 5%로 동결했다. 그런데도 1562년 스페인 왕실은 1년 예산의 4분의 1에 해당하는 143만 두카트를 국가부채의 이자를 갚는 데 써야만 했다. 스페인 정부는 오늘날 미국 정부가 글로벌 금융위기 대응 전략으로 ‘오퍼레이션 트위스트(미국 중앙은행이 장기 국채를 사들이는 대신 단기 국채를 내다 팔아 장기 금리를 낮추는 정책)’ 정책을 쓴 것처럼 단기융자 채무인 아시엔토스를 장기 국채인 후로스로 전환하는 방법을 주로 사용했다.하지만 1625년 최고조(1240만 두카트)에 달한 아시엔토스 규모가 1654년에는 100만 두카트로 줄어들면서 재정정책을 쓸 수단이 거의 사라져 버렸다. 결국 국채 만기 연장이나 반강압적인 국채금리 인하, 금 가격 인상 등으로 대응해도 한계에 다다르면 부도를 선언할 수밖에 없었다. 이 당시 스페인 정부가 완전 채무불이행을 선언한 것만 따져 봐도 1575년, 1576년, 1607년, 1627년, 1647년 등에 이른다.근대 초기 프랑스도 정기적인 채무불이행 국가 중 하나였다. 앙리 4세는 “대금업자들을 스펀지처럼 쥐어짰다”는 평을 들었지만 빌린 돈을 갚는 데는 모범적이지 않았다. 앙리 4세 이후 프랑스 국왕들도 줄줄이 금융업자들에겐 큰 구멍이었다. 프랑스 왕정은 1559년, 1598년, 1634년, 1648년, 1661년, 1714년, 1721년, 1759년, 1770년, 1788년에 빚을 갚지 않고 ‘펑크’를 냈다.스페인과 프랑스 등에선 채무불이행이 어느 정도 예상 가능한 행보였다. 전쟁을 위해 돈을 빌리고, 빚을 갚기 위해 세금을 올리려 하지만 시끄러운 소요만 일으킬 뿐 실패했다. 또다시 채무를 갚기 위해 더 많은 돈을 빌리다가 결국 최종적으로는 전체 혹은 일부 빚에 대한 채무불이행을 선언하는 형태가 반복된 것이다. 삼부회 소집으로 프랑스 대혁명의 도화선에 불이 붙을 때도 루이 16세가 제기한 주요 안건은 채무불이행과 관련된 것이었다.재정위기에 직면한 국가들은 세금을 쥐어짜 부도를 피해 보려 했지만 시민들의 엑소더스만 발생할 뿐 파국은 피하지 못했다. 1582년 합스부르크제국의 행정 모범지대로 평가받던 피렌체에서 세금 부담이 늘자 주민 대량 탈주 사태가 발생했다. 스페인의 지배를 받았던 포르투갈에선 모든 물품에 20%의 판매세가 부과됐다. 수산물은 무려 판매액의 50%가 세금이었다. 1587년 프랑스 부르봉 왕가는 흉작으로 지역 경제 기반이 엉망이었음에도 불구하고 파리에서의 조세 수입을 두 배로 증액하는 방안을 진지하게 고려했다.상대적으로 재정이 건전했다던 영국도 크게 다를 것이 없었다. 1672년 찰스 2세는 부분적인 지급 불이행을 선언했다. 1685년에는 국채이자 지급이 중단돼 1705년까지 재개되지 않았다. 잉글랜드에선 또 1707~1708년, 1716~1717년, 1727년, 1749~1750년, 1756년, 1822년, 1824년, 1830년, 1844년에도 소지하고 있던 국채를 액면 이자가 낮은 증권으로 교환하는 강제 전환이 시행됐다.이 같은 국가부도는 전 유럽적 현상이 됐다. 독일 유력 일간지 프랑크푸르터알게마이네차이퉁의 분석에 따르면 1800년부터 2010년까지 그리스는 무려 다섯 번의 국가부도 사태를 경험하며 100년 넘게(전체 기간의 51%) 파산 상태에서 국가가 운영됐다. 러시아도 39%(5번)의 기간을 국가부도 상황에서 보냈다. 헝가리(37%, 7번)와 폴란드(33%, 3번) 등도 3분의 1 이상의 세월을 부도 상태로 흘려보냈다. 오늘날 재정이 튼실하기로 유명한 독일도 7번의 파산과 13% 기간에 달하는 국가부도를 경험했다.이처럼 근대 초 이래 유럽 국가에선 채무불이행이 반복되면서 국채를 더 높은 금리로 발행할 수밖에 없었다. 이는 결국 갚아야 할 빚이 더 늘었다는 의미이기도 했다. 오늘날 몇 년째 재정위기를 겪고 있는 유로존처럼 당시 유럽 주요국들도 빚으로 빚을 갚다 결국 배를 째는 악순환의 고리를 쉽게 끊을 수 없었던 것이다. NIE 포인트김동욱 한국경제신문 기자1. OECD 국가의 부채를 살펴보고 적정 부채 규모에 관해 토론해 보자.2. 우리나라 부채는 어떻게 구성돼 있는지 조사해 보자.3. 국가 부채의 해결 방법은 어떤 것들이 있을까.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>5일부터 '국민비서'로 코로나 재택치료 수칙 안내</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011038814?sid=102</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>기사내용 요약행안부·복지부·질병청 협업…역학조사서 작성때 동의해야[세종=뉴시스] 카카오톡·네이버·토스 앱상의 국민비서 백신 접종 안내 화면. (자료= 뉴시스 DB)[세종=뉴시스] 변해정 기자 = 오는 5일부터 '국민비서' 서비스로 재택치료 안내를 받을 수 있게 된다. 행정안전부는 보건복지부, 질병관리청과 협업해 국민비서 재택치료자 안내 서비스를 제공한다고 3일 밝혔다. 국민비서는 카카오톡·네이버·토스 앱 등 친숙한 민간 채널로 사전 설정만 해놓으면 각종 생활 정보와 코로나19 백신 접종 정보를 때맞춰 제공해주는 비대면 알림서비스다. 코로나19에 확진돼 재택치료를 할 때 직접 작성하는 역학조사서에 '국민비서 서비스 수신'에 동의하면 된다. 동의 시 검사 4일차에 의료 상담과 쓰레기 배출 등 재택치료와 생활수칙을 안내 받을 수 있다. 검사 6일차에는 격리해제일 기준과 해제 후 주의사항을 안내한다. 단, 역학조사서 작성 시 휴대전화번호를 잘못 입력하거나 변경된 후 갱신하지 않으면 안내받을 수 없어 주의해야 한다. 국민비서 서비스 수신에 동의하지 않으면 기존처럼 복지부에서 발송하는 휴대전화 문자메시지(SMS)를 통해 두 차례 안내받게 된다.  이세영 행안부 공공지능정책과장은 "국민비서를 통해 재택치료자의 편의성을 높일 수 있을 것"이라며 "코로나19와 같은 국가적 현안이 있을 때 관계부처와 협력해 국민비서가 국민에게 필요한 정보를 필요한 시기에 제공할 수 있도록 해 나가겠다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.03.07.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>전북은행 주전산시스템 교체 나서…U2L 사업으로 주목</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002120150?sid=105</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 전북은행이 주전산시스템 교체 사업에 나선다. 현재 유닉스 기반의 주전산시스템을 리눅스로 전환하는 U2L(Unix to Linux)  사업이다.  7일 관련업계에 따르면 전북은행은 주전산시스템 교체 사업업체 선정 공고를 내고 사업을 본격화했다. 이번 사업의 제안요청서 접수 마감은 오는 17일로 예정돼있다.사업 규모는 100억원 내외로 추산돼 시중은행의 주전산시스템 교체 사업에 비해선 규모가 크진 않다. 다만 전북은행이 가지는 금융IT 시장의 상징성을 고려하면 후속 은행권 U2L 사업에 있어 또 하나의 이정표가 될지 주목된다.  앞서 지난 2013년 전북은행은 LG CNS를 주사업자로 국내 금융권 최초로 자바(JAVA)를 개발언어로 채택, 모델주도형구조(MDA)로 차세대시스템 구축을 전개해 오픈했다. 전북은행과 주사업자인 LG CNS, PMO를 담당한 투이컨설팅 등 약 350명의 전문 인력이 20개월에 걸쳐 개발한 이 시스템은 이후 타 은행에 시스템이 이식되는 성과를 거두기도 했다. 대표적으로 같은 JB금융 은행 계열사인 광주은행에 국내 최초로 타 은행 비즈니스 모델, 전북은행 MDD 모델을 그대로 이식하면서 광주은행에 맞는 IT환경을 단기간 내 시스템에 적용했다.이후 인터넷은행에도 이 시스템이 적용돼 주목받았다. 카카오뱅크가 LG CNS를 주사업자로 전북은행 시스템을 이식하는 형태의 시스템 구축을 진행했다. 또, 토스뱅크 역시 전북은행 시스템을 활용하는 뱅킹 시스템 구축을 진행한 바 있다. 양 은행 모두 1년 내외의 짧은 기간에 성공적으로 복잡한 은행 시스템을 완성할 수 있었다. 이처럼 은행 코어뱅킹시스템의 타 은행 이식이라는 첫 사례를 만든 전북은행인 만큼 이번 U2L 사업에서도 타 은행이 활용할 수 있는 결과물을 낼 수 있을지에 관심이 모아지고 있다. 한편 국내 은행의 주전산시스템의 리눅스 전환 사업은 제주은행이 첫 발을 내딛은 바 있다. 25년만에 차세대 시스템 구축에 나선 제주은행은 메인프레임 기반 주전산시스템을 x86 기반의 리눅스 시스템으로 전환할 계획이다.  제주은행도 신한은행의 계정계, 정보계, 채널 및 단위시스템을 그대로 복제, 이전하는 형태로 사업을 추진할 계획이다. 기존 메인프레임 환경에서 신한은행의 유닉스 기반 계정계, 정보계 시스템을 리눅스로 전환하는 U2L 사업이라는 특이한 형태가 시도된다. 은행권의 리눅스 도입 전개가 빨라지는 가운데 주전산시스템에까지 리눅스 시스템의 활용이 보다 속도를 낼 지 주목된다. 특히 이러한 사업은 은행의 핵심업무 클라우드 적용까지 이어질 수 있어 관심이 집중될 것으로 전망된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.03.11.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>두핸즈, C레벨 임원 3명 영입…글로벌 사업 진출 본격화</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000658778?sid=105</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>최고물류책임자, 최고사업책임자, 최고재무책임자 영입두핸즈가 핵심 임원 3명을 새롭게 영입하고, 본격적인 글로벌 사업 진출과 서비스 고도화에 나선다고 11일 발표했다.두핸즈는 최고물류책임자(CLO)에 최양식 전 큐익스프레스 CLO를 영입하고, LG전자 출신의 염인욱 최고사업책임자(CCO), 메쉬코리아 출신의 안기덕 최고재무책임자(CFO)를 신규 임원으로 선임했다.[사진=두핸즈]새로 영입된 3명의 임원진은 박찬재 대표(CEO)를 비롯한 기존의 문성수 최고기술책임자(CTO), 김태원 최고전략책임자(CSO), 이녹원 최고인사책임자(CHRO)와 함께 본격적으로 해외시장을 공략하고 품고를 '글로벌 이커머스 성장 솔루션'으로 혁신할 예정이다.최양식 CLO는 '품고'의 풀필먼트 사업 전체를 총괄한다. 국내 운영 중인 1만2천평의 5개 품고 풀필먼트 센터를 도맡아 운영하면서 물류 인프라를 고도화할 계획이다. 또 기존 협력사 페덱스, 쇼피, 라자다 등과 함께 협력해 고객사의 해외 진출을 이끈다.염인욱 CCO는 품고의 성장을 위한 B2B영업과 마케팅을 담당한다. LG전자 서유럽 B2B사업 총괄 PD(Product Director) 출신으로, 로테르담경영대학원 MBA 수료 후 LG전자를 포함한 글로벌 대기업에서 약 15년간 해외 B2B영업, 마케팅 및 신규사업개발을 총괄한 전문가이다. 염 CCO는 품고의 국내외 신규 고객사 확보와 고객을 위한 가치 창출을 이끌 예정이다.안기덕 CFO는 두핸즈의 재무건전성을 확보하고 잠재적 투자사 발굴 및 투자 유치를 책임진다. 삼일회계법인 출신의 공인회계사로 메이크어스, 메쉬코리아 등의 스타트업에서 재무 관리, 국내외 투자 및 투자자 관리 등을 담당했다.두핸즈는 고객을 위한 '품고' 서비스 경쟁력을 대폭 강화하기 위해 지난해부터 IT 분야와 글로벌 인재 채용에 집중했다. 그 결과 풀필먼트 기업뿐 아니라 토스, 카카오, 리디, 브랜디, 그린랩스 등 국내 유수의 기업에서 인재를 다수 영입했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.03.10.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>[OK!제보] "청소년 전용 카드, 미성년자 담배 구매에 악용"</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013042932?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>편의점 종사자들 "성인으로 오인하기 쉬워…술·담배 구매 막는 장치 필요"[연합뉴스 자료사진](서울=연합뉴스) 김희선 기자 = 최근 급격하게 늘어난 청소년 선불 충전 카드가 편의점에서 술이나 담배를 구매하는 수단으로 악용된다는 지적이 편의점 종사자들 사이에서 제기되고 있다.    마스크 때문에 신분 확인이 어려워진 상황에서 그동안 주로 성인들이 썼던 카드를 청소년들까지 사용하면서 담배를 구매하는 미성년자를 걸러내기가 더욱 힘들어졌다는 것이 이들의 주장이다.    2년 가까이 편의점에서 일해 온 아르바이트생 A씨는 최근 담배를 사려는 한 손님이 미성년자로 의심돼 신분증을 요구했다.    손님은 성인 신분증을 제시하긴 했지만, 마스크 때문에 신분증의 사진과 얼굴이 일치하는지 제대로 확인하기 힘들었다. 또 신분증의 주소지가 편의점에서 멀리 떨어진 지방이어서 의심을 떨칠 수 없었다.    하지만 손님이 신분증상의 주민등록번호와 주소, 한자 이름을 정확히 말한데다 현금이 아닌 카드를 내밀기에 성인일 것이라 믿고 결제해줬다.    그러나 나중에 인터넷을 찾아본 뒤 그 손님이 사용한 카드가 미성년자에게만 발급되는 카카오뱅크 미니 카드였다는 것을 알게 됐다.    A씨는 "손님이 신분증을 제시하더라도 미심쩍으면 담배를 팔지 않고, 현금을 내면 한 번 더 의심한다"면서 "이 손님은 카드를 내밀었기 때문에 성인일 것으로 생각했는데 실은 신분증을 도용한 미성년자였던 것"이라고 말했다     편의점 관련 커뮤니티에서는 A씨처럼 청소년에게만 발급되는 카드인 줄 모르고 실수로 담배를 결제해줬다는 경험담을 쉽게 찾을 수 있다. 카카오뱅크 미니 카드[카카오뱅크 제공]    평택에서 편의점 두 곳을 운영하는 B씨 역시 최근 청소년 카드가 나오면서 직원들이 실수로 미성년자에게 담배나 술을 판매하는 사례가 느는 것 같아 걱정이다.    그는 "보통 편의점 두 곳에 하루 10∼15명의 미성년자가 담배를 사러 오는데, 기가 막히게 신분증을 위조해서 오는 경우도 있고, 형이나 아버지 예비군복을 입고 모자를 푹 눌러 쓰고 오는 경우도 있다"며 "이런 애들이 현금이 아닌 카드까지 내밀면 넘어가기 쉽다"고 말했다.    그는 "특히 카카오뱅크 미니 카드의 경우 부모 동의가 없어도 본인 핸드폰만 있으면 쉽게 발급받을 수 있고, 부모 핸드폰으로 결제 내역이 전송되지도 않기 때문에 술이나 담배 구매 수단으로 악용되기가 더욱 쉬운 것 같다"면서 "외관상 성인용 카카오뱅크 카드와 청소년용 카드를 구분하기도 쉽지 않다"고 지적했다.    2020년 10월 출시된 카카오뱅크 미니 카드는 누적 가입자 수가 지난 2월말 기준 124만명에 달할 정도로 청소년들 사이에서 인기를 끌고 있다.     만 14세부터 만 18세 이하 청소년에게만 발급되는 카드로, 주점·카지노 등 청소년 유해 업종에서는 사용할 수 없지만, 편의점에서 담배나 술을 사는 것은 가능하다.         이외에도 신한은행의 밈 카드(만 14∼18세), 토스의 토스유스카드(만 7∼16세) 등 10대 청소년을 겨냥한 선불 충전 카드가 앞다퉈 출시되고 있다.신한 밈 카드[신한카드 제공]    편의점 종사자들이 카드를 이용한 미성년자의 담배 구매에 신경을 곤두세우는 것은 적발될 경우 구매자가 아닌 판매자와 업주가 책임을 지고 무거운 처벌을 받기 때문이다.    미성년자에게 담배를 판 판매자는 청소년보호법에 따라 2년 이하의 징역 또는 2천만원 이하의 벌금을 내야하고, 점주는 1차 적발시 2개월의 영업(담배판매) 정지, 2차 적발시 3개월의 영업 정지, 3차 적발시 담배 판매 허가 취소의 행정처분을 받는다.    B씨는 "청소년 카드가 담배 구매 수단으로 악용되면 우리도 피해를 볼 수밖에 없다"면서 "청소년 카드로 담배나 술 같은 품목은 결제하지 못하도록 막거나 외관상 청소년 카드라는 것을 분명히 알아볼 수 있도록 디자인하는 등의 대책이 필요하다"고 주장했다.          이에 대해 은행 관계자는 "특정 업종이 아닌 특정 품목에 대해 카드를 결제하지 못하도록 막는 것은 현실적으로 힘들다"면서 "비대면 결제 확산으로 청소년들의 결제 수단도 변화하는 추세에 맞춰 지불 수단에 관계없이 편의점 종사자들이 신분증 확인을 철저히 해야 할 필요가 있는 것 같다"고 말했다.    hisunny@yna.co.kr    기사제보나 문의는 카카오톡 okjebo</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.03.08.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>토스, GA 소속 설계사 200명 영입…"대면 영업 본격화"</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000277968?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>대면 영업을 본격화한 토스인슈어런스가 대형 보험대리점(GA) 1개 사업단 설계사 200명을 영입했습니다.오늘(8일) 업계에 따르면 토스인슈어런스는 지난 3일 키움에셋플래너 소속 매출 1위 사업단과 담당 설계사들을 영입하는 계약을 체결했습니다.우선 설계사 90여명이 이번 달에 합류한 뒤, 남은 인력이 순차적으로 토스인슈어런스로 소속을 옮길 예정입니다.토스인슈어런스는 최근 비대면 영업 전략에서 선회해 지난달부터 대면 영업을 시작했습니다.비대면 영업을 통한 고객 모집에 한계를 느끼면서 토스인슈어런스가 영업 방식을 수정한 것으로 풀이됩니다.토스인슈어런스 관계자는 "개인, 팀, 본부 단위의 채용을 계속해서 진행할 계획"이라며 "대면 전략을 강화하기 위한 차원"이라고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.03.13.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>은행권, 상반기 채용 시동...“IT배우면 가산점”</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002584536?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>대규모 공채, IT인력은 우대카뱅·토뱅, 몸집 키우기 한창왼쪽부터 우리은행, 신한은행, KB국민은행, 하나은행의 사옥 ⓒ 각 사 제공[데일리안 = 이호연 기자] 시중은행들이 올해 상반기 채용을 시작한다. 코로나19 여파로 그간 채용문을 닫거나 수시 채용으로 전환했지만 인재 영입에 적극적으로 나선다는 방침이다. 인터넷전문은행들도 대규모 공채를 내걸었다. 은행권의 채용 시즌이 차기 정부 출범과 맞물리며 사회공헌 확대 차원에서 예년보다 채용 인원이 더 늘어날 것이라는 기대감도 높다.13일 금융권에 따르면 주요 은행들이 상반기 일반직 신입행원 채용 절차를 진행중이다. 디지털 전환에 발맞춰 IT교육생을 우대하는 곳도 있어 주목받고 있다.IBK기업은행은 상반기 신입행원 150명을 공개채용한다. 지난해 공채보다 50명 증가한 규모로 오는 29일까지 지원서를 신청받는다. 서류심사, 필기시험, 실기 및 면접을 거쳐 6월 중 합격자를 발표한다. 금융전문과 글로벌 분야를 통합해 채용하며, 5개 지역인재를 3권역으로 구분해 채용하는 방식으로 변경했다. 별개로 대규모 청년 인턴 채용도 오는 5월 시행할 예정이다.가장 먼저 신입행원 공개채용에 나선 우리은행은 IT인력 모시기에 열중이다. 세자릿수 채용을 목표로 현재 지원자들을 대상으로 서류전형을 하고 있다. 서류합격자 발표는 오는 22일로 1차와 2차 면접전형, AI역량검사와 임원면접을 거쳐 최종 합격자를 선발한다.우리은행은 특히 삼성이 진행하는 IT 교육 프로그램 ‘삼성 청년소프트웨어아카데미(SSAFY)’ 교육생을 우대한다. 정보처리기사 등 IT관련 자격증 소지자도 우대 대상이다. 금융은 물론 디지털 역량을 갖춘 인재를 뽑기 위해 IT를 배우면 가산점을 주기로 한 것이다. 우리은행이 IT 능력을 우대 요건으로 제시한 것은 이례적이다.NH농협은행은 일찌감치 상반기 신입 행원 채용 과정에 돌입했다. 앞서 농협은행은 지난해 말 일반직과 IT부문을 포함 총 450명을 뽑는다고 밝혔다. 블라인드 방식으로 진행하며 이달 말 마무리할 예정이다.ⓒ 데일리안 이호연 기자카카오뱅크도 지난 4일부터 100여명 규모로 서버, IT, 금융, 모바일 등 8개 부문의 인력을 뽑고 있다. 전체 인력(약 1100명)의 약 10% 내외에 해당된다. 자기소개서 항목은 제외하고, 1·2차 면접을 같은 날 진행하는 등 절차를 간소화하며 신속한 인력 확충 의지를 다졌다.토스도 전 계열사에 걸쳐 600여명을 신규채용한다. 토스뱅크의 초기 인력 규모는 250여명으로, 토스뱅크도 올해 77개 부문에 약 150~200명을 채용할 예정이다. 영업점이 없는 대신 디지털•마케팅 부문 직군에 집중한다.다만 KB국민·신한·하나은행은 아직까지 공채 일정이 미정이다. 국민은행과 하나은행은 통상적으로 하반기 공채를 진행해왔다. 이들 은행은 디지털분야는 수시 채용 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.03.12.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>억 소리 나는 금융권 연봉…'연봉킹' 은행은?</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005057144?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>은행권의 평균 연봉 1억원 시대가 본격화되고 있다. 특히 카카오뱅크의 직원 연봉이 은행권 최고 수준인 것으로 나타났다. 업계 강자인 KB국민은행도 넘어섰다.12일 카카오뱅크의 지배구조 및 보수체계 연차보고서에 따르면 지난해 임직원 평균 보수는 1억5300만원이었다. 2020년 7900만원에서 지난해 2배 가까이 늘어나 은행권 최고 수준을 기록했다.은행별로 살펴보면 지난해 KB국민은행은 1억1000만원, 우리은행은 9800만원 수준이었다. 신한, 하나은행은 아직 평균 연봉이 공개되지 않았다.국민은행의 경우 2년 연속 평균 연봉이 1억원을 넘어섰다. 2020년 국민은행 임직원의 평균 연봉은 1억400만원이었다.인터넷전문은행들의 평균 연봉은 카카오뱅크를 제외하고는 시중은행에 못 미치는 수준이었다. 케이뱅크의 지난해 평균 연봉은 8000만원이었고, 지난해 10월 출범한 토스뱅크의 임직원 평균연봉은 6100만원이었다.임직원의 숫자는 카카오뱅크를 제외하고 줄어드는 추세였다. 국민은행의 경우 2020년 1만7662명에서 지난해 1만7018명으로 감소했다. 우리은행도 2020년 1만4837명에서 지난해 1만4276명으로 줄었다.다만 인터넷전문은행들은 오히려 덩치가 커졌다. 카카오뱅크의 임직원의 수는 2020년 913명에서 1031명으로 118명 늘었고, 케이뱅크도 376명에서 424명으로 증가했다. 토스뱅크의 지난해 말 기준 임직원 규모는 226명이었다.카카오뱅크 관계자는 "카카오뱅크의 성장에 기여하고, 전문성을 갖춘 인재들에게 인센티브를 지급함으로써 구성원이 함께 성장하는 보상 방안을 고민해 결정했다"며 "앞으로도 우수 인력을 영입하고 카카오뱅크의 혁신과 성장에 기여한 구성원에게 주식 보상 제도를 지속적으로 적용할 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.03.05.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>[위클리 스마트] '식자재비·금융 관리'…자영업자 정보력 높이는 스타트업 기술</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013030600?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>식자재 비용 관리 앱 '도도 카트' 이용 모습[스포카 제공=연합뉴스]     (서울=연합뉴스) 한혜원 기자 = 식당, 가게 등 운영을 돕는 스타트업 애플리케이션(앱) 서비스를 이용하는 자영업자들이 점차 늘어나고 있다.    이러한 앱을 개발한 업체들은 국내 자영업자 수가 작년 8월 기준 661만명에 달하는 데도 편의 서비스가 대부분 소비자에 치중된 것에 착안해 이용자를 확보하려는 전략을 보이고 있다.    특히 데이터 기반 장부 관리와 효과적인 광고를 제안함으로써 대기업에 비해 정보력이 부족한 자영업자의 약점을 채워주려는 노력이 두드러진다.    5일 스타트업 업계에 따르면 '스포카'가 운영하는 식자재 비용 관리 앱 '도도 카트'는 외식업 종사자가 앱에 식자재 명세서를 사진으로 등록하면 자동으로 지출 내용을 분석한 보고서를 제공한다.    도도 카트를 이용하면 식당이 주로 이용하는 식자재 거래처, 주요 품목의 변화를 파악하고 불필요한 비용은 줄여 매장 운영을 효율화하고 원가를 절감할 수 있다는 게 스포카의 설명이다.     앱은 자영업자가 더 나은 품질과 가격을 제공하는 거래처를 탐색해볼 수 있도록 '거래처 찾기' 기능도 제공한다. '도도 카트' 서비스 안내 이미지[스포카 제공=연합뉴스]    2020년 8월 서비스를 시작한 도도카트는 그해 11월 이용자가 7천명으로 늘었고 작년 말에는 10만명으로 뛰었다.     작년 말 기준으로 도도 카트에 찍힌 명세서의 누적 총액은 1천600억원이다.     스포카는 앞서 태블릿 기반 고객 포인트 관리 서비스 '도도 포인트'를 운영해 이용 점주 2천500만명, 월 적립 건수 500만건까지 끌어올린 경험이 있다.     스포카는 올해 1월 도도 포인트 부문을 야놀자클라우드에 양도하고 도도 카트에 집중하면서 '외식업의 디지털 전환'을 표방했다.    회사 관계자는 "국내 식자재 유통 시장이 연 55조원 규모에 달하는데 아직도 가게 사장님들이 아날로그 방식으로 비용 관리를 하는 데서 서비스에 착안했다"고 설명했다.    핀테크(금융기술) 기업 토스가 운영하는 자영업자 금융 관리 서비스 '사장님' 서비스 이용자는 지난달 말 기준 43만명이다. 토스 급여명세서 전송 서비스 [토스 제공=연합뉴스]    토스가 2020년 11월부터 시작한 사장님 서비스에서는 '내 매출장부', '세금계산서 발행하기' 등 영업장 운영에 기본적으로 필요한 관리 수단이 제공된다.     자영업자들의 광고 효율을 높여주는 '배달 매출 늘리기' 기능도 들어있다.     배달 앱 주문이 자주 발생하는 지역을 토스가 분석해 자영업자에게 매출 광고의 효율을 높일 수 있는 지역을 추천하는 서비스다.     토스 관계자는 "신종 코로나바이러스 감염증(코로나19) 확산으로 배달 수요가 늘어난 만큼 자영업자들도 배달 앱 광고비 부담이 커질 수 있는데, 이런 부담을 줄여주는 효과가 있다"고 설명했다.     토스는 작년 11월부터는 '급여명세서 보내기' 서비스를 추가했다.     이 서비스는 5인 미만 월급제 근로자를 고용한 영업주에게 먼저 무료로 제공되고 있다. 회사는 앞으로 이용자 반응에 따라 서비스를 주급제, 일급제, 5인 초과 사업장 등에 확대할 계획이다.    hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.03.11.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>두핸즈 ‘품고’, 글로벌 진출 위해 C레벨 핵심 인재 영입</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004933196?sid=105</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>풀필먼트 테크 기업 ㈜두핸즈(대표 박찬재)가 핵심 임원 3명을 새롭게 영입하고, 본격적인 글로벌 사업 진출과 서비스 고도화에 나선다고 11일 밝혔다. 두핸즈는 최고물류책임자(CLO)에 최양식 전 큐익스프레스 CLO를 영입하고, LG전자 출신의 염인욱 최고사업책임자(CCO), 메쉬코리아 출신의 안기덕 최고재무책임자(CFO)를 신규 임원으로 선임했다. 새로 영입된 3명의 임원진은 박찬재 대표(CEO)를 비롯한 기존의 문성수 최고기술책임자(CTO), 김태원 최고전략책임자(CSO), 이녹원 최고인사책임자(CHRO)와 함께 조직관리의 기반을 다져, 본격적으로 해외시장을 공략하고 품고를 ‘글로벌 이커머스 성장 솔루션’으로 혁신할 예정이다.최양식 CLO는 ‘품고’의 풀필먼트 사업 전체를 총괄한다. 국내 운영 중인 1만 2천평의 5개 품고 풀필먼트 센터를 도맡아 운영하면서 물류 인프라를 고도화할 계획이다. 또한 기존 협력사 페덱스, 쇼피, 라자다 등과 함께 협력하여 고객사의 해외 진출을 이끈다. 서울대학교 공대 출신인 최 CLO는 이커머스 크로스보더 물류 회사인 큐익스프레스의 동남아 COO를 역임했다. 국내외 셀러의 풀필먼트 서비스 및 크로스보더 물류 서비스, 싱가폴 국내 배송 서비스를 이끌며 국가별 서비스 네트워크를 구축한 구루급 전문가이다. 글로벌 비즈니스에 능통한 지식과 경험을 바탕으로 품고의 풀필먼트 서비스 고도화와 해외시장 진출에 집중한다. 염인욱 CCO는 품고의 성장을 위한 B2B영업과 마케팅을 담당한다. LG전자 서유럽 B2B사업 총괄 PD(Product Director) 출신으로, 로테르담경영대학원 MBA 수료 후 LG전자를 포함한 글로벌 대기업에서 약 15년간 해외 B2B영업, 마케팅 및 신규사업개발을 총괄한 전문가이다. 염 CCO는 품고의 국내외 신규 고객사 확보와 고객을 위한 가치 창출을 리드할 예정이다. 안기덕 CFO는 두핸즈의 재무건전성을 확보하고 잠재적 투자사 발굴 및 투자 유치를 책임진다. 그는 삼일회계법인 출신의 공인회계사로 메이크어스, 메쉬코리아 등의 스타트업에서 재무 관리, 국내외 투자 및 투자자 관리 등을 담당했다. 두핸즈 박찬재 대표는 “이번 인재영입은 누적 320억원의 시리즈 B 투자 유치 후 고객을 위한 인프라와 조직력 강화에 집중한 결과이다. 특히 영입한 분들은 관련 분야의 전문가일뿐 아니라, 두핸즈가 가진 일자리 고용 창출의 비전을 함께 만들어갈 인재들이라는 점에서 의미가 깊다”라고 말하며 “국내 이커머스 브랜드사의 해외 진출 니즈가 높아지고 있는 시점에 맞춰, 품고를 글로벌 이커머스 성장 솔루션으로 혁신하기 위해 노력하겠다”고 강조했다. 두핸즈는 고객을 위한 품고 서비스 경쟁력을 대폭 강화하기 위해 지난해부터 IT 분야와 글로벌 인재 채용에 집중했다. 그 결과 풀필먼트 기업뿐 아니라 토스, 카카오, 리디, 브랜디, 그린랩스 등 국내 유수의 기업에서 인재를 다수 영입했다. 매일경제 조광현 연구원</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.03.05.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>토스의 '한국형 이모지' 실험..."뜻은 좋은데 쓰려니 한숨 나온다"</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000661845?sid=105</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>한국 문화 반영한 이모지, 토스페이스 출시세계적으로 통용되는 유니코드 왜곡 우려토스 "문제점 지적 반영해 3월 말 재배포 할 것"토스페이스 홍보 영상 중 일부. 토스 트위터 캡처모바일 금융 플랫폼 토스가 자체적으로 개발한 감정 그림 문자(이모지)를 두고 기대와 우려의 목소리가 엇갈리고 있다. 지난달 28일 토스는 토스페이스 홈페이지(https://toss.im/tossface)를 통해 3,600개의 감정 그림 문자를 공개했다. 무료로 배포되어 누구나 사용할 수 있으며, 저작권을 침해하지 않는 선에서 상업적 이용도 가능하다. 현재는 Mac OS 내에서만 서비스를 제공하고 있다.한국형 감정 그림 문자 토스페이스?기존 감정 그림 문자를 한국에 맞게 변경한 토스페이스. 토스페이스 홈페이지 캡처소셜 미디어 사용자가 나날이 증가하는 추세 속에서 감정 그림 문자는 하나의 자기표현 수단으로 널리 쓰이고 있다. 감정 그림 문자를 조합해 나만의 그림을 만들 수 있는 이모지 믹스(https://tikolu.net/emojimix/) 사이트가 사회관계망서비스(SNS)에서 화제를 모으기도 했다. 탁 봐도 뜻이 통할 수 있는 장점 때문에 언어에 구애받지 않고 전 세계 사람들과 소통할 수 있기 때문이다.감정 그림 문자는 유니코드(컴퓨터에서 각국의 언어를 표현하기 위해 약속한 통일 체계)를 활용한 그림 문자다. 하지만 일본에서 처음 만들어졌기 때문에 일본 문화가 반영된 그림이 많다. 토스는 기존의 감정 그림 문자를 한국화, 현대화하겠다는 포부를 밝혔다. 일본의 전통 술인 사케는 막걸리로, 컴퓨터 외부 저장 장치의 일종이었던 플로피 디스크를 클라우드로 바꿨다.임의로 바꾼 그림에 소통 혼란 증폭차례로 달러화, 엔화, 유로화, 파운드화를 입력했지만 토스페이스에서는 모두 원화로 표기되고 있다. 토스페이스 홈페이지 캡처토스페이스에 대한 누리꾼들의 반응은 온도 차가 뚜렷하다. 깔끔한 디자인과 긍정적인 취지에 박수를 보내는 누리꾼들이 있는가 하면 비판의 시선을 보내는 이들도 존재한다. 가장 큰 문제점은 국제적으로 약속된 유니코드를 왜곡했다는 것이다. 각각의 문자마다 고유한 코드를 무시하고 임의로 그림을 바꾸면 도리어 소통에 혼란을 불러일으킬 수 있다.소통의 오류는 장애인과 노인에게 컴퓨터 화면을 낭독하는 프로그램인 ‘스크린 리더’를 쓸 경우 더욱 심각해진다. ‘스크린 리더’는 유니코드에 등록된 설명을 기준으로 낭독하기 때문에 토스페이스의 바뀐 그림이 반영되지 않는다. 이에 따라 화자가 전달하고자 하는 의미와 청자가 이해하는 의미가 달라질 가능성이 존재한다.감정 그림 문자의 코드 자체가 바뀐 채 등록된 사례도 있다. 토스페이스를 통해 사모아의 국기를 입력하면 대만의 국기가 나온다. 마찬가지로 대만의 국기는 사모아의 국기로 나타난다. 이외에도 이륙하는 비행기가 착륙하는 비행기로 등록되는 등 오류가 속속 발견되면서 사용에 어려움을 겪고 있다.누리꾼들은 "기존의 이모지를 변경하지 말고 새롭게 추가했어야 했다", "유니코드 컨소시엄(유니코드 표준을 관리하는 비영리 단체)에 건의를 하는 편이 본래 취지에 잘 맞았을 것"이라며 아쉬움을 토로했다.누리꾼 반응 리트윗한 토스 “피드백 경청하고 있다”토스 측에서 업로드한 토스페이스 수정 관련 공지. 토스 트위터 캡처이용자들의 불만과 문제제기가 커지자 토스는 공식 SNS 계정에서 문제를 지적한 누리꾼들의 피드백을 공유하며 공식 입장을 발표했다. 입장문에서 토스는 "설명과 실제 모양이 다르게 제작되었거나 일부 틀린 이모지에 대한 지적을 수용하여 빠르게 수정할 것"이라고 설명했다. 토스 관계자는 한국일보와의 이메일 인터뷰를 통해 수정 방향과 관련해 "유니코드에 등록된 의미에 맞게 감정 그림 문자를 전수 검사할 예정"이라며 "수정본은 빠르면 이달 말에 배포할 것"이라고 답했다. 유니코드에 맞지 않는 한국화, 현대화한 토스페이스의 감정 그림 문자를 계속 이용할 수 있을지는 내부 검토 중이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.03.02.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>오래 다녔다고 월급 더 안준다…은행 임원 연공서열 파괴</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004929255?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>시중銀 임원 105인 전수조사◆ 금융권 인사 변화 바람 ◆금융권에서 나이가 많은 사람이 서열에 따라 임원으로 승진하는 연공서열이 빠르게 무너지고 있다. 2일 매일경제가 임원 인사를 마친 KB국민·신한·하나·NH농협 등 5대 시중은행 임원진을 전수조사한 결과 임원 수는 모두 105명으로 집계됐다. 이는 2018년 3월 말 기준 114명보다 9명(8%) 줄어든 수준이다. 시중은행 임원 평균 연령은 만 57세로 조사됐다. 이들 중 가장 나이가 많은 임원은 61세, 최연소는 47세로 같은 임원이라도 나이 차이가 열네 살이나 나는 것으로 파악됐다. 나이가 40대인 젊은 임원은 3명으로 조사됐다. 보수적인 은행 문화에서 임원은 나이 많은 사람들의 전유물이었지만 이제는 나이보다 능력 위주로 바뀌고 있는 셈이다. 이제 인터넷 전문은행과 핀테크 업체에서는 40대 이하 최고경영자(CEO)가 흔해졌다. 이승건 비바리퍼블리카 대표와 홍민택 토스뱅크 대표가 40세이고, 이혜민 핀다 대표(38)와 김성준 렌딧 대표(37) 모두 30대다. 인터넷은행을 중심으로 한 디지털 돌풍이 확산되면 시중은행 세대교체도 한층 더 속도가 붙을 것이라는 전망이 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.03.15.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>토스뱅크, 사업자대출 중저신용자 집중</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003675953?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>‘사장님대출’ 한 달 새 1167억 기록  중저신용 사업자 비중 40% 달해토스뱅크가 개인사업자 대출에서도 중저신용자에 집중한 것으로 나타났다. 인터넷 전문은행의 설립 취지가 ‘중저신용자에 중금리 대출 공급’이라는 점에서 고무적인 평가가 나온다.   토스뱅크는 14일 ‘토스뱅크 사장님 대출’이 출시 한 달 만에 1167억원을 기록했다고 발표했다. 이 중 중저신용 개인사업자 비중이 39.7%(잔액 기준)에 달했다. 토스뱅크 사장님 대출은 토스뱅크가 인터넷 전문은행 최초로 선보인 비대면 개인사업자 대출이다. 보증기관의 보증서나 고객의 부동산 등을 담보로 하지 않고 토스뱅크의 신용평가모형 ‘TSS(Toss Scoring System)’에 따라 한도를 부여받는 게 특징이다.   토스뱅크는 “매출액이 크지 않아도, 제 3금융권 대출을 보유해도, 연소득이 일정하거나 매출이 꾸준히 발생하는 경우에는 고객이 실질 상환능력을 보유했다고 판단해 높은 신용도를 인정했다”고 설명했다.   토스뱅크가 개인사업자 대출의 40%를 중저신용 사업자에 판매한 것은 높게 평가받는 분위기다. 개인사업자 대출은 가계대출이 아닌 기업대출로 분류되긴 하지만, 가계대출과 마찬가지로 신용에 어려움을 겪는 서민에 자금을 공급하는 효과를 내서다. 정호철 경제정의실천시민연합 금융개혁위원회 간사는 “(토스뱅크가) 개인사업자 대출에서 중저신용자의 비중을 높게 가져간 점은 긍정적으로 본다”고 말했다.   향후 개인사업자 대출을 준비하고 있는 케이뱅크와 카카오뱅크도 인터넷 전문은행 취지에 맞게 중저신용 사업자 취급 비중을 늘릴 수 있도록 자사 신용평가모형을 고도화해야 한다는 목소리도 나온다. 케이뱅크는 올해 1분기 ‘개인사업자 운전자금 대출’ 상품을, 카카오뱅크는 하반기에 개인사업자 대상 소호(SOHO) 대출 상품을 출시할 예정이다.   그동안 인터넷 전문은행이 설립 목적과 달리 고신용자 대출을 확대한다는 비판이 제기돼 왔다. 은행연합회 공시에 따르면 지난해 카카오뱅크의 중저신용자 대출 비중은 17.0%로 목표치(20.8%)를 미달했다. 케이뱅크(16.6%·목표치 20.8%)와 토스뱅크(23.9%·목표치 34.9%)도 마찬가지였다.   여기에 연초 금융위원회가 인터넷 전문은행의 개인사업자·중소기업 대출을 활성화하기 위해 ‘은행법’을 개정하겠다고 예고하자, 경실련은 “중·저신용자에 대한 중금리 가계대출 공급 역할을 감당해야 하는 인터넷 전문은행의 도입 목적에 역행한다”고 비판하기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.03.07.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>[뉴스'까'페] "갈곳 잃은 돈을 잡아라"…저축은행업계의 '逆 머니무브' 올라 타기</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000277857?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>오미크론 확산에 러시아의 우크라이나 침공까지 겹치면서 주식시장과 가상자산 시장이 크게 출렁이고 있습니다. 마땅한 투자처를 찾지 못한 시중자금은 대출규제 강화, 금리 인상 움직임에 안전자산 선호 심리까지 더해져 은행권 수신상품으로 이동하고 있습니다.이런 '逆머니무브' 분위기를 타기 위해 저축은행들은 상대적 고금리를 앞세운 예금 상품을 속속 내놓으며 고객 유치에 적극 나서고 있습니다.  OK·웰컴저축銀 '연 2.5%' 정기예금 출시…저축은행 평균 예금금리 2.49%OK저축은행은 지난 2일부터 2000억원 한도로 연 2.5% 금리를 앞세운 '중도해지OK정기예금6'의 특판에 나섰습니다. 이 정기예금은 1년 만기 상품이지만, 6개월만에 해지하더라도 2.5%의 금리를 제공합니다. 3개월 이상만 예금을 유지하더라도 2% 금리를 보장합니다.OK저축은행 관계자는 "3~6개월 중단기적으로 목돈을 예치하려는 분들에게 적합한 상품"이라고 설명했습니다. 뒤이어 웰컴저축은행도 지난 3일 연 2.5% 금리를 강조한 '웰뱅 회전 정기예금' 상품을 내놨습니다.모바일 앱을 통해 비대면 가입시 12개월 동안 연 2.5%에 금리를 제공하며, 최대 3년간 자금을 예치해두면 1년마다 0.1%포인트의 우대금리도 추가로 붙습니다. 웰컴저축은행 관계자는 "금리 상승기에 안전한 수익처를 찾는 고객에게 추천하는 상품"이라며 "예치 한도도 없는 만큼, 안전하고 넉넉한 수익을 기대할 수 있다"고 전했습니다. 비단 이런 금리 경쟁력을 앞세운 특판예금 상품 출시 뿐만 아니라 기준 금리 인상에 따른 중소 저축은행의 정기예금 금리도 오르는 추세입니다.오늘(7일) 저축은행중앙회에 따르면, 국내 79곳 저축은행의 정기예금의 평균금리는 연 2.49%를 나타냈습니다. 저축은행업계 정기예금 평균금리는 지난해 말 2.37%에서 지난 1월14일 한국은행의 기준금리 인상 때 2.39%로 오르는 등 꾸준히 상승세를 보이고 있습니다.저축은행의 예금금리는 KB국민·신한·하나·우리·NH농협 등 주요 시중은행(1.3%~2.05%)과 인터넷전문은행(2%~2.1%)보다도 높은 상황입니다.   소비자 "투자처 마땅치 않아…저축은행도 이젠 선택지"저축은행들은 가상자산이나 주식보다 상대적으로 좀 더 안정적인 투자처를 찾는 소비자 수요를 겨냥하며 이처럼 정기예금의 금리를 높이고 있습니다.50세 심규열씨는 "비트코인이나 주식쪽에 많이 투자를 하고 있는데, 국제적인 외부 변수 영향도 많이 받고 있고 개인의 정보력이나 욕망대로 수익률이 움직이는 게 아니다 보니 이제 좀 보수적으로 투자를 하려 한다"고 말했습니다. 저축은행의 정기예금 상품에 대해선 "기존에 저축은행에 문제가 많았지만, 안정성만 확보된다면 충분히 긍정적으로 볼 수도 있다"고 덧붙였습니다.28세 김건영씨도 "직접 투자보다는 펀드에 맡기는 편인데 우크라이나와 러시아 전쟁이나 미국이 금리를 올린다는 소식이 있어서 수익률이 많이 안 좋은 상태고 걱정이 많이 된다"고 말했습니다. 그러면서 역시 "은행 예금이 아무래도 안전하다는 인식이 있다보니까 상품에 대한 정보가 있으면 가입할 의향이 있다"고 덧붙였습니다.저축은행 관계자는 "지난해까지만 해도 여유자금이 투자쪽으로 많이 나갔지만 더이상 수익을 내기 어렵다는 판단 속에 자유입출금통장 등 예치금쪽에 많이 묶여 있다고 보고 있다"면서 "기준금리가 계속 오를 것이란 전망 속에 선제적으로 예금 금리를 올려 여유자금을 받아오려고 한다"고 밝혔습니다.저축銀, 인뱅과의 경쟁 과열과 예대율도 고민  여기에 저축은행 스스로도 수신 고객 유치에 적극 나서야하는 이유가 있습니다. 대출 영업을 하기 위해선 그 만큼 예금 등 수신을 끌어와야 하는데 인터넷전문은행들이 공격적인 영업에 나서며 경쟁이 더 치열해지고 있기 때문입니다.  토스뱅크는 별다른 조건없이 연 2% 금리를 보장하는 수시입출금 통장을 운영 중이고, 케이뱅크도 500만원까지 모을 수 있는 '챌린지박스'의 금리를 0.5%포인트 높여 2.5%까지 끌어올렸습니다. 가입 편의성이나 인지도 측면에서 열세인 저축은행은 좀 더 높은 금리로 경쟁력을 어필할 수밖에 없습니다. 또한 코로나19 상황을 감안해 2020년 4월부터 한시적으로 감독이 유예됐던 예대율 100% 규제가 다음 달부터 다시 강화됩니다. 저축은행 관계자는 "아직 유예를 추가 연장한다는 내용은 전달받지 못했다"면서 "기업금융이나 가계 대출 영업을 확대하려면 예대율 관리를 해야하고 아무래도 적금보다는 한번에 돈을 모아서 받는 정기예금이 운영에 좀 더 유리한 부분이 있다"고 설명했습니다. 또 다른 저축은행 관계자는 "예대율이나 영업 실적 등을 분기 목표에 맞추기 위해 1분기 끝인 3월에 특판 등으로 수신 잔액을 쭉 끌어들이려는 저축은행들도 있을 것"이라고 전했습니다. 지난달 5대 시중은행의 가계대출은 1조 7천억원으로 두 달 연속 감소한 반면, 기준금리 인상 이후 수신 잔액은 1792조 8602억원으로 전월 대비 4조 3082억원 늘었습니다.저축은행업계도 지난해 수신 잔액이 102조 4435억원으로 집계되며, 사상 처음 100조원을 넘어섰습니다. 코로나19와 러시아의 우크라이나 침공으로 인한 자산시장의 조정 속에서 금융소비자 선택을 받기 위한 저축은행업계의 치열한 금리 경쟁은 '逆머니무브' 현상을 좀 더 가속시킬 전망입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>현대해상-토스, GA설계사 온라인 영업지원 활성화 MOU</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004025404?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>지난 2일 열린 현대해상과 토스의 업무협약식에 참석한 현대해상 정규완 디지털전략본부장(오른쪽)과 토스 사업개발팀 서윤석 실장이 기념촬영을 하고 있다. 사진 제공=현대해상[서울경제] 현대해상은 손해보험업계 최초로 비바리퍼블리카와 ‘GA설계사 온라인 영업지원 활성화와 포괄적 협력 방안 모색을 위한 업무협약(MOU)’을 체결했다고 3일 밝혔다.현대해상은 토스보험파트너 앱에 GA소속 보험설계사 대상 온라인 설계 지원 기능을 신설하고, 토스 인증을 통해 가입설계 동의부터 상품 설계 지원 요청까지 원스톱으로 간편하게 진행할 수 있는 서비스를 제공할 예정이다. 토스보험파트너는 토스가 운영하는 보험설계사 전용 영업지원 앱에서 토스 앱 이용자 중 보험 상담을 원하는 고객을 설계사에게 바로 연결하는 서비스를 제공한다.현대해상 관계자는 “신설되는 온라인 지원 서비스를 통해 GA설계사들이 빠르고 편리하게 보험 상담을 진행할 수 있는 기반을 마련하고, 토스보험파트너를 신규 영업플랫폼으로 활용할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.03.04.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>머니투데이 오프라인 헤드라인-4일</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004715791?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>[종합] "새정부, 원전 수명연장이 최우선 과제"한강변 아파트 '35층룰' 폐지"대유행 6번 겪고도 조기완화?" 허탈한 의료계[MT리포트-이념적 '탈원전'을 넘어]독일 '빌려쓰고' 프랑스 '내다팔고'…복원전이 가른 전력산업 운명"직원 다 내보내고 나만 남아" 부품납품업체 대표의 한숨한국 'SMR강국' 명성위태…뒤늦은 규제개발 착수"탄소중립 위해 원전 생태계 회복 절실…신한울 3·4호기 재개를"원자력기금 2년새 500억원 줄었다[종합]이랜드 '계열사 부당지원' 제재 착수작년 1인당 국민총소득 3.5만 달러 넘었다스마트폰·자동차, 러시아 수출통제 피했지만 '먹구름' 여전[2040서울플랜]높이제한, 용도지역 다 풀린다…재건축 시장 훈풍 기대감가용지 확보 도심지상철도 101km '단계적 지하화'"용적률 500% 상향, 선거용 무리수"[더300]단일화 전 3자대결, 이재명 42.2% vs 윤석열 42.5% vs 심상정 7.3% 막판 표심은?"국민 믿는다 꿋꿋이 걸어갈 것""우리는 원팀 반드시 정권교체"[오피니언]투데이窓 2022년 의료장비·기기업체 투자전략[기자수첩]3월10일 대통령 당선인이 가장 먼저 해야할일당신의 생각을 보여주세요'통합정부' 프레임 전쟁[우리가 보는 세상] 왜 하필 지금 방역패스를 풀었나축산업의 공정거래법 위반?[국제]예상보다 낮게 난 '연준의 매' 한숨돌린 美증시는 고공비행서방 "러, 제재피할 뒷문 차단" 코인카드 만지작오늘 개막 중국 '양회' 관전포인트[산업]사원도 부장도 '프로님' 한화호칭 통합SK, 우크라 어린이 위해 성금 기부"美, 러 제재로 기업피해 우려 상시모니터링 필요"매출도 적자도 '로켓성장' 몸불린 쿠팡, 이마트 눌렀다K라면 또 제동? "유럽수출 이상無"주문하면 바로 온다...쑥쑥 크는 '화장품 당일배송'전동화 속도내는 기아 "2030년 전기차 120만대 판매달성"LX홀딩스, 기업형 벤처투자회사 세우나테이블 위 반려식물 'LG틔운 미니' 출시[금융]최대로 쌓았다는 '코로나 대출' 충당금…5대 은행 적립률 1%금융위 '피싱'과 전쟁 국장급 조직 신설토스뱅크, 가계대출 3명중 1명은 중저신용자[바이오]뭉칫돈 쥔 진단키트사, 이제 배당의 시간한미약품 창업주 기리며 제1회 임성기 연구자상 시상식마이크로바이옴 주목받는 이유[유니콘 팩토리]폰카로 시선추적, 독해력 증진…공부 스트레스 덜어준다"특허지원 전략으로 AC차별화…100억원 핀테크펀드 결성추진"[ICT·과학]LGU플러스 "XR콘텐츠 수출전선, 동남아 넘어 중동·남미 확대"화웨이 "한국 중대재해처벌법 발맞춰 5G 솔루션 협력"LG CNS '5G 특화망' 신청, "디지털 전환사업 속도낼것"[건설부동산]서울서 18개월 만에 '1순위 미달' 금가는 청약불패 신화전국 집값, 2주 연속 내림세 GTX탄 상록구만 상승전환[사회]"중대재해법 해석 갈려 소송 양산"넘치는 선거고발, 허덕이는 검경경실련 "대선후보 공약, 구체성 없고 방향성만"[정책사회·문화]"5학년 담임 급구, 아이들 착함" 교직원 확진에 학교는 구인난앞으로 주택가 골목길·상가 입구서도 불법주차 단속한다공공기관 청렴도 평가대상, 573곳으로 확대[스타뉴스]우주소녀 쪼꼬미 "언어·국경 넘는 'B급' 흥 통한 것 같아요"임영웅 31번째 1000만뷰美기자, 또 선넘네…벼락스타 취급하는 그들의 불편한 시선투바투, 국경 뛰어넘는 음악 소통[증권]"회사가치 높여라" ESG바람타고 거세진 '주주행동주의'"장기트렌드, 가장먼저 보고 뛰는 기업에 가장빨리 타야"빨갛게 물든 코스피 코스닥 '웃음꽃'러시아 MSCI서 퇴출, 코스피 4조원 몰리나혼란의 증시 '경영진 자사주 매입' 종목 노려라</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.03.08.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>토스, 금융위 반대에 가상자산 사업 진출 '표류' 등</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004931635?sid=105</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>출처 : 토스 토스, 금융위 반대에 가상자산 사업 진출 '표류'토스 앱을 운영하는 핀테크 회사 비바리퍼블리카가 추진 중인 코인거래소 인수가 불발될 위기에 놓였다고 한국경제TV가 전했다. 금융당국, 코인업계 등 복수 관계자에 따르면 비바리퍼블리카는 코인거래소 프로비트 인수를 추진하고 있으며 현재 인수 마무리 단계인 것으로 알려졌다. 하지만 비공식적으로 이승건 대표가 금융위 고위관계자에게 코인거래소 인수 가능성을 전했는데 금융위가 토스의 자금 세탁 방지 능력 등에 우려를 나타내며 반대 의사를 표시했다. 같은 이유로 토스뱅크의 코인거래소 실명계좌 발급 제휴도 현재로선 어려운 상황이라고 미디어는 전했다.BTC, 러시아 루블화 마켓서 신고점 경신코인니스 마켓 모니터링에 따르면, BTC가 러시아 루블화 마켓에서 신고점을 경신했다. 지난밤 바이낸스 RUB 마켓 기준 BTC는 5,030,000(현재 환율 기준 4,728 만원)까지 상승하며 신고점을 기록했다. 바이낸스 루블화 마켓에서 BTC의 전고점은 지난해 4월 14일 기록한 4,980,000 RUB였다. 바이낸스 USDT 마켓 기준 BTC는 현재 0.94% 내린 38,046.88 달러에 거래되고 있다.미 재무부 핀센 "현금화 가능 가상화폐 경계 필요...러 제재 회피 방지"더블록에 따르면 미국 재무부 금융범죄단속국(FinCen)이 제재 회피를 위한 러시아의 암호화폐 사용에 대해 경고했다. 7일(현지시간) 핀센은 "러시아의 제재 회피를 방지하기 위해 모든 금융 기관은 현금화 가능한 가상화폐(convertible virtual currency)를 경계해야 한다"며 "제재 회피와 관련된 의심스러운 활동을 식별하고, 이를 신속하게 보고 및 실사를 진행해야 한다. 미국의 국가 안보와 우크라이나 및 그 국민을 지원하기 위해 노력해야 한다"고 발표했다.코인베이스, 리스크 높은 자산에 경고 표시... 정보 투명성 제고코인데스크에 따르면 암호화폐 거래소 코인베이스가 투명성 제고를 위해 일부 자산에 익스페리멘털(experimental) 라벨을 표시한다고 발표했다. 새롭게 생성된 자산 혹은 가격 변동성이 크고 상대적으로 거래량이 낮은 자산에 이와 같은 라벨을 표시한다는 설명이다. 코인베이스는 "우리의 목표는 고객에게 거래 리스크 등 정보를 가능한 투명하게 제공하는 것"이라고 설명했다.저스틴 선, 중국 SNS에 "러시아와 협력 강화 희망"... 영어 트위터 제외트론 커뮤니티가 우크라이나에 120만 달러 이상을 USDT(TRC20)로 기부한 것으로 알려진 가운데, 저스틴 선 트론 창업자가 "러시아와의 협력을 강화할 것"이라고 말했다. 지난 1일 그는 중국 트위터 및 웨이보에 중국어로 "드미트리 랴키셰프(Dmitry Lyakishev) 대사와 화상 회의를 진행했다. 우리는 금융 시스템을 이용할 수 없는 민간인을 돕기 위해 블록체인 기술을 활용하는 등 과학기술을 이용한 인도주의적 발전 사례에 대해 논의했다. 러시아와의 협력 강화를 희망한다"고 전했다. 이와 관련 코인데스크는 "저스틴 선이 영어 트위터 계정을 제외한 중국 계정에만 해당 내용을 게재했다. 우크라이나에 암호화폐를 후원한 모습과는 정반대의 태도"라고 평가했다.외신 "바이든, 금주 암호화폐 관련 행정 명령에 서명 예상"AP통신이 "조 바이든 미국 대통령이 이번주 암호화폐에 대한 행정 명령에 서명할 것"이라며 "이는 디지털 화폐의 거래 방식을 규제하기 위한 미국 정부의 첫 단계가 될 것"이라고 8일 보도했다. 이와 관련 AP통신은 "바이든 정부는 최근 러시아의 우크라이나 침공에 대해 강도 높은 금융 제재를 가하고 있으며, 이에 러시아가 제재 회피 수단으로 암호화폐를 악용할 수 있다는 우려가 부상했다. 바이든 대통령의 행정 명령 서명은 이러한 우려에 대한 대응으로 해석된다"고 부연했다. 해당 명령은 재무부를 포함한 미국 정부 기관이 암호화폐에 대한 정책과 규정을 개발하기 위해 수행해야 하는 작업 내용을 포함하고 있다. 국무부가 미국의 암호화폐 규제안이 동맹국들의 규제안과 일치하는지 확인하고, 미국 금융 시스템의 안정성을 모니터링하는 금융안정감독위원회(FSOC)에 불법 금융 행위 조사를 시행하라는 내용이 포함됐다. 또 명령 시행에 따라 미국 정부 기관은 중앙은행 발행 디지털 화폐(CBDC)의 가능성 연구가 본격화된다. 앞서 연준은 지난 1월 CBDC 연구 보고서를 공개한 바 있다.모건스탠리, 12월말 기준 1300만 주 이상 GBTC 주식 보유블록웍스(Blockworks)에 따르면 모건스탠리가 지난주 보고서를 발표, 2021년 말 기준 GBTC 보유량이 1300만 주 이상이라고 전했다. 모건스탠리는 17개의 포트폴리오를 통해 GBTC에 투자했으며 미디어는 약 4.58억 달러 규모로 추산된다고 설명했다. 그 중 107억 달러 규모의 모건스탠리 성장 포트폴리오(Morgan Stanley Growth Portfolio)의 경우 2021년 12월 31일 기준 GBTC 430만 주를 보유하고 있다. 앞서 매크로스코프(MacroScope)는 모건스탠리가 올해 업계 최대 비트코인 보유 기관이 될 수 있다고 밝힌 바 있다.유럽의회, 3/14 PoW 금지 내용 삭제된 암호화폐 규제안 표결 진행유럽의회가 작업 증명 네트워크(PoW) 사용 금지 내용이 삭제된 암호화폐 규제안 MiCA의 표결을 다음주에 진행한다. EU 의회 경제위원회 위원장 스테판 베르거(Stefan Berger)는 방금전 트위터를 통해 "규제안 최종 버전 초안을 제출했다. 유럽의회 경제통화위원회가 다음주인 3월 14일 해당 규제안에 대한 투표를 진행할 것"이라고 전했다. 이어 "암호화폐 자산을 다른 금융 상품과 마찬가지로 분류 영역에 포함해야 한다고 생각한다"며 "암호화폐 관련 에너지 소비 논란이 있는 만큼 명확하게 분류해 소비자에게 더 나은 정보를 제공할 것"이라고 덧붙였다.포브스 3/16 첫 디지털자산·웹3 가상 서밋 개최포브스가 미국 동부표준시 기준 3월 16일 오후 2~4시 첫 디지털 자산·웹3 가상 서밋을 연다. 비트코인, 웹3가 비즈니스 미래에 미치는 영향, 블록체인 ETF 등을 주제로 토의가 진행된다. 주요 연사는 헤스터 피어스 SEC 위원, 샘 뱅크먼 프라이드 FTX 설립자, 테조스 공동 설립자 Kathleen Breitman, 뉴욕멜론은행 디지털자산 부서 및 고급 솔루션 책임자 Michael Demissie, 스카이브릿지 캐피털 설립자 앤서니 스카라무치, 애니모카브랜드 회장 얏 시우 등이다. 행사 당일 포브스는 업황을 소개한 2022 블록체인 현황 보고서를 공개할 예정이다.이뮤터블X 2억달러 투자유치.. 테마섹 주도로이터 통신에 따르면 이뮤터블X 개발사 호주 NFT 스타트업 이뮤터블(Immutable)이 테마섹 주도 라운드에서 2억달러를 조달했다. 밸류에이션은 25억달러로 평가받았다. 이번 라운드에는 미래에셋, 파라파이 캐피털, Declaration Partners, 텐센트 등이 참여했다. 이번 시리즈C 투자를 통해 확보한 2억달러는 글로벌 시장 확장과 인력 확충, 기업 인수 합병 자금으로 쓰일 계획이다. 이뮤터블의 현재 직원 수는 165명이며, 앞으로 1년 내 200명을 추가 고용할 예정이다. 이뮤터블은 NFT 게임 갓언체인드, 길드오브가디언즈 등을 개발했다.리플-SEC 소송, 오는 11월 종료 예상리플(XRP)-미 SEC(증권거래위원회) 소송이 올해 11월경 종료될 것으로 전망된다고 핀볼드가 호건앤호건(Hogan &amp; Hogan)의 파트너 제레미 호건(Jeremy Hogan) 트윗을 인용해 보도했다. 제레미 호건은 소송이 8/26~11/18 사이에 끝날 것이며, 리플이 승소할 것으로 내다봤다. 앞서 코인니스는 브래드 갈링하우스 리플 CEO가 최근 폭스비즈니스 인터뷰에서 미국 SEC와 진행 중인 소송과 관련해 법원이 곧 여러 모션(motion)에 대해 판결할 것이라고 밝혔다고 전한 바 있다.[코인니스 제공]</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.03.10.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>[윤석열 시대 IT]⑧ 새정부, 빅테크·금융혁신 기조 변화 등에 주목</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002120420?sid=105</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 20대 대통령 선거 결과 윤석열 국민의 힘 대선 후보가 48.6%의 득표율을 얻어 당선됐다. 윤석열 당선인은 오는 5월 10일 취임식을 거쳐 향후 5년간 우리나라를 이끌게 된다. 새로운 정권이 앞으로 5년간 대한민국을 이끌어가게 됨에 따라 향후 정국운영 및 정부 정책방향에도 큰 변화가 일어날 전망이다. 물론 이번 대선에선 윤석열 후보와 이재명 더불어민주당 후보의 정책 공약이 큰 틀에서 차이를 보이지 않은 상황이다. 양 쪽 모두 상대의 공약 중 긍정적이거나 반응이 좋은 공약은 서로 받아들이는 등 큰 틀에서의 공약에선 차별점이 크지 않았다. 이른바 ’소확행‘ 공약의 차이가 오히려 두드러지기도 했다. 다만 현 정권보다 친 기업적이고 시장의 자율, 그리고 공정을 보다 강조한 윤석열 정부의 출범을 앞두고 있음에 따라 각 부처의 정책 흐름도 변화가 예상된다. 구체적인 것은 대통령직인수위원회 구성을 통해 드러나겠지만 일단 금융권에선 금융정책의 흐름이 크게 달라질 것으로 전망하고 있다. 현 정부에서 이뤄지던 금융 혁신의 기조가 큰 틀에서 바뀌지는 않을 것으로 보이지만 금융위원회와 금융감독원 등 금융감독기관의 역할 재정립부터 빅테크 규제, 핀테크 육성을 위한 정책 등의 변화가 예상된다.   앞서 윤석열 20대 대통령 당선인의 경우 디지털 경제 정책을 필두로 청년 자산증식 기회 확대와 소상공인 지원에 초점을 맞춘 공약을 집중적으로 내놨다.  우선 청년희망적금과 비슷한 성격의 '청년도약계좌'를 도입하겠다고 밝혔다. 이는 청년에게 1억원의 자산을 형성할 기회를 주겠다는 것으로 청년도약계좌는 4개 소득구간을 설정해 소득별로 가입자에게 매달 정부 지원금을 준다.청년·신혼부부들의 내 집 마련 지원을 위해 생애최초 주택구매 가구의 LTV 상한을 80%로 인상하고, 처음 주택을 구입한다면 3억원 한도에서 3년간, 신혼부부라면 4억원 한도에서 3년간 저리대출이 가능하도록 할 계획이다. 아이를 낳으면 이 기간을 5년으로 늘려주는 한편 생애 첫 주택구매 가구가 아닌 경우 LTV 상한을 지역과 관계없이 70%로 단일화해 실수요자의 주거 상향 이동을 위해 주택구매수요를 충족하는 내용이 담겼다.   한편 자영업자·소상공인 위기 극복을 위해서는 초저금리 특례보증 대출 50조원을 추가 지원하겠다는 계획도 내놨다. 또 소액 채무의 경우 자영업자 상각채권 원금 감면율을 현재 70%에서 90%까지 확대한다는 공약도 제시했다.인터넷은행들은 윤석열 대선후보의 당선으로 강력한 가계대출 총량 규제로 겪고 있는 어려움이 해소될 수 있을지 주목하고 있다. 윤석열 당선인은 공약을 통해 실수요자 주택대출 규제 완화 방침을 밝힌바 있다. 현재 강력한 가계대출 총량 규제로 은행들은 대출 취급에 어려움을 겪었으며 특히 카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷은행들은 영업에 어려움을 겪기도 했다. 하지만 가계대출 총량 규제가 완화되면 인터넷은행의 대출 영업에도 숨통의 트일 수 있을 전망이다. 금융권에선 국책은행의 지방이전이 향후 업계를 뜨겁게 달굴 화두로 작용할 전망이다. 윤석열 당선인은 산업은행의 부산 이전을 공약으로 내세우며 불을 지폈다. 윤석열 당선인은 “부산·울산·경남은 산업은행의 주요 거래 기업인 조선업이 있고, 부산이 국제금융 중심지로 발전하는 데 산업은행의 국제금융 기능이 큰 기여를 할 것”이라고 강조했다.업계에서는 산업은행 뿐만 아니라 기업은행, 수출입은행 등 국책은행의 지방이전 논의가 급물살을 탈지 예의 주시하고 있다. 혁신금융 전략을 이끌었던 금융위원회의 앞날도 주목받고 있다. 국민의 힘은 금융위의 정책기능을 기재부와 금융감독위원회에 넘기고 금융감독정책은 금감원 등에 이관하는 내용을 적극 검토하고 있는 것으로 알려졌다.  기울어진 운동장 논란을 불러 일으켰던 빅테크, 테크핀 기업들의 금융시장 진출에 대한 정부정책 변화움직임에 비 금융업권의 이목도 집중될 것으로 보인다.  윤석열 당선인은 지난해 12월 대선후보 초청 '스타트업 정책 토크'에서 “기존의 보험법, 은행법, 자본시장법이 기존에 있는 사업 모델을 전제로 했을 때 규제되는 법이기 때문에 다른 기반을 갖춘 혁신의 세계를 명확하게 증명해 주면 그러면 거기에는 해당 법을 규율할 필요가 없어지기 때문에 정부가 (스타트업의)손을 들어주는 게 맞다”고 밝혔다. 다만 그러면서 ‘동일 서비스 동일 규제’ 원칙을 밝혀 테크핀과 빅테크와 같은 플랫폼 사업자들과 금융사들이 동일 선상에서의 규제를 받을 필요가 있다는 인식을 내비치기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.03.07.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>KB증권, ELS 13종 공모</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002582883?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>오는 8일까지 모집ⓒKB증권[데일리안 = 황인욱 기자] KB증권은 원금비보장형 주가연계증권(ELS) 13종의 상품을 공모한다고 밝혔다.개인 일반투자자는 8일 오후 4시까지, 법인 및 전문투자자는 14 오후 2시까지 공모에 참여할 수 있다.우선, 'KB able ELS 2230호(3인덱스 스텝다운형)'는 S&amp;P500지수와 HSCEI지수, 유로스톡스50지수를 기초자산으로 하며, 3년 만기에 6개월 단위로 조기상환 기회와 최고 연 5.3%(세전)의 수익을 제공한다.'KB able ELS 2231호(3인덱스 스텝다운형)'는 S&amp;P500지수와 HSCEI지수, 유로스토스50지수를 기초자산으로 하며, 3년 만기에 6개월 단위로 조기상환 기회와 최고 연 6.4%(세전)의 수익을 제공한다.'KB able ELS 2232호(3인덱스 스텝다운형)'는 S&amp;P500지수와 HSCEI지수, 유로스톡스50지수를 기초자산으로 하며, 3년 만기에 6개월 단위로 조기상환 기회와 최고 연 7.1%(세전)의 수익을 제공한다.'KB able ELS 2233호(3인덱스 스텝다운형)'는 코스피200지수와 S&amp;P500지수, 유로스톡스50지수를 기초자산으로 하며, 3년 만기에 6개월 단위로 조기상환 기회와 최고 연 7.2%(세전)의 수익을 제공한다.'KB able ELS 2234호(3인덱스 리자드 스텝다운형)'는 코스피200지수와 S&amp;P500지수, 유로스톡스50지수를 기초자산으로 하며, 3년 만기에 6개월 단위로 조기상환 기회와 최고 연 7.5%(세전)의 수익을 제공한다.'KB able ELS 2235호(3인덱스 리자드 스텝다운형)'는 S&amp;P500지수와 HSCEI지수와 유로스톡스50지수를 기초자산으로 하며, 3년 만기에 6개월 단위로 조기상환 기회와 최고 연 7.8%(세전)의 수익을 제공한다.'KB able ELS 2236호(3인덱스 스텝다운형)'는 코스피200지수, HSCEI지수와 유로스톡스50지수를 기초자산으로 하며, 3년 만기에 6개월 단위로 조기상환 기회와 최고 연 8.0%(세전)의 수익을 제공한다.'KB able ELS 2237호(3인덱스 월지급 스텝다운형)'는 S&amp;P500지수, HSCEI지수와 유로스톡스50지수를 기초자산으로 하며, 3년 만기에 6개월 단위로 조기상환 기회와 최고 연 7.5%(세전)의 수익을 제공한다.'KB able ELS 2238호(1스탁, 2인덱스 스텝다운형)'는 삼성전자 보통주와 S&amp;P500지수, 유로스톡스50지수를 기초자산으로 하며, 3년 만기에 6개월 단위로 조기상환 기회와 최고 연 8.0%(세전)의 수익을 제공한다.'KB able ELS 2239호(1스탁, 2인덱스 스텝다운형)'는 SK하이닉스 보통주와 S&amp;P500지수, 유로스톡스50지수를 기초자산으로 하며, 3년 만기에 6개월 단위로 조기상환 기회와 최고 연 10.0%(세전)의 수익을 제공한다.'KB able ELS 2240호(1스탁, 2인덱스 스텝다운형)'는 포스코 보통주와 S&amp;P500지수, 유로스톡스50지수를 기초자산으로 하며, 3년 만기에 6개월 단위로 조기상환 기회와 최고 연 10.5%(세전)의 수익을 제공한다.'KB able ELS 2241호(1스탁, 2인덱스 스텝다운형)'는 LG전자 보통주와 S&amp;P500지수, 유로스톡스50지수를 기초자산으로 하며, 3년 만기에 6개월 단위로 조기상환 기회와 최고 연 11.0%(세전)의 수익을 제공한다.'KB able ELS 2242호(3인덱스 스텝다운형)'는 코스피200지수와 HSCEI지수, 유로스톡스50지수를 기초자산으로 하는 달러투자상품으로, 3년 만기에 6개월 단위로 조기상환 기회와 최고 연 8.4%(세전)의 수익을 제공한다. 단, 달러투자상품인 KB able ELS 2242호(3인덱스 스텝다운형)는 온라인 청약이 불가한 점 유의해야 한다.이번에 공모하는 상품들은 원금손실이 발생할 수 있으며, 기타 상세한 내용은 KB증권 전국 각 지점이나 고객센터로 문의하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.03.13.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>‘정규직 설계사’ 실험 좌초···토스인슈어런스, 대면영업 강화</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002724445?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>대형GA 설계사 200명 영입‘정규직 설계사’ 모델 실패내근직서 위촉직으로 전환토스 보험대리점(GA) 자회사 토스인슈어런스가 기존 텔레마케팅(TM) 중심 영업에서 대면 채널로 전환하며 설계사 채용을 확대하고 있다. 코로나19 이후 GA의 대면 영업이 쉽지 않은 상황임에도 보험업 특성상 대면형 푸시(push)영업이 주효할 수밖에 없다는 판단에 따른 것이다.13일 보험업계에 따르면 토스인슈어런스는 지난 3일 키움에셋플래너 소속 매출 1위 사업단과 담당 설계사 200명을 영입하는 계약을 체결했다. 이번주 설계사 90여명이 합류하고, 남은 인력이 순차적으로 토스인슈어런스로 소속을 옮기게 된다. 토스인슈어런스는 최근 비대면 영업 전략에서 선회해 지난달부터 본격적으로 대면 영업 강화에 나섰다. 앞서 토스인슈어런스는 지난 2018년 12월 위촉직 텔레마케팅(TM)영업을 중심으로 시작해 2019년 10월 정규직 모델 도입했으나 실적 부진 등으로 결국 전략을 바꿨다.토스인슈어런스 관계자는 "토스로 유입되는 보험 상담 수요와 최고 수준의 보상정책으로 GA 경쟁력을 강화하고 고객에게 더 나은 서비스를 제공하기 위한 것"이라며 "앞으로도 개인, 팀, 본부 단위의 채용을 계속해서 진행할 계획"이라고 밝혔다. 토스인슈어런스는 GA로서는 이례적으로 정규직 보험설계사를 채용하고 내근직으로 TM 영업만 해왔다. 연봉도 업계 최고 수준을 보장하며 정규직 설계사는 토스의 보험 실험으로 불리기도 했다. 하지만 이같은 전략을 수정해 정규직 설계사 제도를 없애고 일반적인 GA처럼 대면 영업을 위한 위촉직 설계사를 채용하기로 한 것이다. 기존 70여명의 정규직 설계사들의 거취는 업무 전환, 전직 등으로 대부분 정리된 상태다. 토스인슈어런스 관계자는 "기존 정규직 설계사를 위촉직으로 전환하고, 위촉직 영업을 원하지 않을 경우 토스 계열사 내 업무와 연관성이 있는 부서로 이동할 수 있는 기회를 제공했다"고 설명했다. 업계 관계자는 "보험업 특성상 자발적으로 보험을 찾는 경우가 드물고, 전체 보험 영업에서 대면 채널이 90% 이상을 차지하는 만큼 대면영업을 강화하지 않으면 놓치고 있는 부분이 많다고 판단했을 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>현대해상, 토스와 GA설계사 온라인 영업지원 '맞손'</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002581299?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>정규완(오른쪽) 현대해상 디지털전략본부장과 서윤석 토스 사업개발팀 실장이 GA설계사 온라인 영업지원 활성화 및 포괄적 협력방안 모색을 위한 업무협약을 체결한 뒤 기념촬영을 하고 있다.ⓒ현대해상[데일리안 = 부광우 기자] 현대해상은 모바일 금융플랫폼 토스 운영사인 비바리퍼블리카와 GA설계사 온라인 영업지원 활성화 및 포괄적 협력방안 모색을 위한 업무협약을 체결했다고 3일 밝혔다.현대해상은 토스보험파트너 앱에 GA소속 보험설계사 대상 온라인 설계지원 기능을 신설하고, 토스 인증을 통해 가입설계 동의부터 상품설계 지원 요청까지 원스톱으로 간편하게 진행할 수 있는 서비스를 제공할 예정이다.토스보험파트너는 토스가 운영하는 보험설계사 전용 영업지원 앱으로, 토스 앱 이용자 가운데 보험상담을 원하는 고객을 설계사에게 바로 연결하는 서비스를 제공하며, 약 13만명의 보험설계사를 회원으로 두고 있다.현대해상은 지난해 10월부터 토스보험파트너 앱 내에서 GA설계사 대상의 퀴즈를 통해 자사 상품을 지속적으로 홍보하고 있다. 이번에 신설되는 온라인 지원 서비스를 통해 GA설계사들이 더욱 빠르고 편리하게 보험상담을 진행할 수 있는 기반을 마련하고, 토스보험파트너를 신규 영업플랫폼으로 활용한다는 계획이다.정규완 현대해상 디지털전략본부장 상무는 "다수의 보험설계사 회원을 확보하며 비대면 영업플랫폼으로서의 가치가 입증된 토스보험파트너와의 협력에 기대가 크다"며 "양사 간 다양한 협업을 통해 실질적인 사업성과를 만들어 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>재택치료자, 5일부터 '국민비서'로 맞춤형 안내 받으세요</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005943775?sid=102</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>확진 직후 역학조사서에 '국민비서 서비스 수신' 동의병·의원 전화상담, 쓰레기 배출, 격리 해제일 등 안내서울 시내 한 약국에 '코로나 재택치료 상비약'이 진열돼 있다. 2022.2.16/뉴스1 © News1 황기선 기자(서울=뉴스1) 전준우 기자 = 행정안전부는 보건복지부·질병관리청과 협업해 5일부터 코로나19 재택치료자를 대상으로 국민비서를 통한 생활수칙 안내 서비스를 시작한다고 3일 밝혔다.지금까지는 일선 보건소에서 코로나19 확진 시 재택치료자에게 휴대전화로 문자 안내하고, 보건복지부에서 지난달 25일부터 재택 치료 중 의료상담 방법과 생활수칙 등을 두 차례에 걸쳐 문자로 안내해왔다.정부는 네이버앱, 카카오톡, 토스 등 민간 앱을 사용하는 국민들의 편의성을 고려해 '국민비서'를 통해 재택치료자에게 생활수칙 안내 서비스를 제공하기로 했다. 국민비서를 통해 재택치료 안내 서비스를 받고자 하는 경우 확진 직후 재택치료 대상자들이 직접 작성하게 되는 역학조사서에서 '국민비서 서비스 수신'에 동의하면 된다. 검사 4일 차에는 병·의원과 전화상담, 쓰레기 배출 등이 안내된다. 검사 6일 차에는 격리 해제일 기준, 해제 후 주의사항 등이 안내된다. 휴대전화 번호를 잘못 입력하거나 휴대전화 번호가 변경된 후 갱신하지 않으면 국민비서 서비스를 제대로 이용할 수 없다. 이에 코로나19 확진자 역학조사서 작성 시 정확한 휴대전화 번호를 입력해야 한다. 이세영 행안부 공공지능정책과장은 "코로나19와 같은 국가적 현안은 관계부처와 협력해 국민비서가 국민에게 필요한 정보를 필요한 시기에 제공할 수 있도록 지속 노력해 나가겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.03.14.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>토스뱅크 '사장님 대출', 출시 한달만에 1천160억원 돌파</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013048894?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>최저금리 3.42%…중저신용 개인사업자 대출 비중 39.7%토스뱅크 사장님 대출 1천160억원 돌파[토스뱅크 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 오주현 기자 = 토스뱅크가 인터넷전문은행 최초로 선보인 비대면 개인사업자 대출인 '토스뱅크 사장님 대출'이 1천160억원을 돌파했다고 14일 밝혔다.     이는 지난달 14일 출시 이후 한 달 만이다.     토스뱅크는 일 평균 1천400여명의 고객이 토스뱅크를 방문했으며, 중저신용 개인사업자들의 대출 비중도 39.7%(잔액 기준)에 달했다고 설명했다.    공급된 대출의 최저 금리는 3.42%였으며, 고객 3명 중 1명 이상(38%)이 4% 미만의 저금리 혜택을 받았다.     최고 한도인 1억원 한도로 대출을 받을 수 있었던 고객도 12명 가운데 1명(8.4%)이었다.     토스뱅크 사장님 대출은 보증기관의 보증서나, 고객의 부동산 등을 담보로 하지 않고 개인의 신용에 따라 한도를 부여하는 '개인사업자 신용대출'이다.     매출액이 크지 않더라도, 연 소득이 일정하거나 매출이 꾸준히 발생하는 경우 단기간에 높은 소득을 올린 사업자에 비해 높은 신용도를 인정받을 수 있다.    이 상품을 가장 많이 이용한 업종은 도소매업으로 전체 고객의 31%를 차지했다. 주로 온라인 사업장을 운영하는 비대면 개인사업자였다.    이어 음식점은 11.8%, 제조업은 7.7%였으며, 특히 소득 증빙이 어려워 그간 금융권에서 대출받기 어려웠던 운수업 및 창고업 종사자들이 전체 고객의 8.6%를 차지했다.    토스뱅크 관계자는 "고객들에게 중도상환 수수료 무료 혜택을 이어가는 등 실질적인 도움과 필요한 공급이 이뤄질 수 있도록 노력하겠다"고 말했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>현대해상, 토스와 GA설계사 온라인 영업지원 활성화 MOU</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002268497?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>◆…현대해상 정규완 디지털전략본부장(오른쪽)과 토스 사업개발팀 서윤석 실장이 기념촬영을 하고 있다. 사진=현대해상 제공현대해상이 모바일 금융플랫폼 토스 운영사인 비바리퍼블리카와 ‘GA설계사 온라인 영업지원 활성화 및 포괄적 협력방안 모색을 위한 업무협약(MOU)’을 손보사 최초로 체결했다고 3일 밝혔다.   현대해상은 토스보험파트너 앱에 GA소속 보험설계사 대상 온라인 설계지원 기능을 신설하고 토스 인증을 통해 가입설계 동의부터 상품설계 지원 요청까지 원스톱으로 간편하게 진행할 수 있는 서비스를 제공할 예정이다.   토스보험파트너는 토스가 운영하는 보험설계사 전용 영업지원 앱으로 토스 앱 이용자 가운데 보험상담을 원하는 고객을 설계사에게 바로 연결하는 서비스를 제공하며 약 13만명의 보험설계사를 회원으로 두고 있다.   한편 현대해상은 작년 10월부터 토스보험파트너 앱 내에서 GA설계사 대상의 퀴즈를 통해 자사 상품을 지속적으로 홍보하고 있다. 이번 신설되는 온라인 지원 서비스를 통해 GA설계사들이 더욱 빠르고 편리하게 보험상담을 진행할 수 있는 기반을 마련하고 토스보험파트너를 신규 영업플랫폼으로 활용한다는 계획이다.   현대해상 디지털전략본부장 정규완 상무는 “다수의 보험설계사 회원을 확보하며 비대면 영업플랫폼으로서의 가치가 입증된 토스보험파트너와의 협력에 기대가 크다”며 “양사간 다양한 협업을 통해 실질적인 사업성과를 만들어 나갈 것”이라고 말했다.   이와 별도로 현대해상은 자사 영업시스템에 토스인증과 토스페이를 도입해 영업 활용도 및 보험료 결제 편의성을 더욱 높일 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>"카뱅·케뱅보다 포용금융에 앞장" 토스뱅크 대출자 셋 중 하나는 중·저신용자</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000790720?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표./사진=토스뱅크토스뱅크가 출범 5개월만에 인터넷전문은행 3사 가운데 가장 높은 중·저신용자(중금리) 대출 비중을 달성했다. 중·저신용 고객에게 저축은행보다 평균 5.6%포인트 낮은 금리를 제공하는 데다 3분 안에 대출 심사부터 입금까지 가능하다는 점이 중·저신용 고객을 유인하는데 효과적이었다는 분석이다.토스뱅크는 올해 실행한 중·저신용자 대출 비중이 31.75%를 달성했다고 3일 밝혔다.지난해 10월5일 출범한 토스뱅크는 출범 전 부터 자체 신용평가모형을 개발하는 등 중·저신용자 대출을 확대하기 위해 매진해왔다. 그 결과 이달 말까지 신규 취급한 가계 대출 가운데 중저신용자 대출 비중은 31.75%를 기록했다.지난해 12월 말 기준 카카오뱅크와 케이뱅크의 중·저신용자 대출 비중이 각각 17%, 16.6%에 그쳤다는 점을 감안하면 토스뱅크의 중저신용자 대출 비중은 월등히 높은 수준이다.특히 토스뱅크의 중금리대출 실행 비중이 가장 높았던 때는 올 1월31일로 이날 대출을 실행한 고객의 절반 이상이 중저신용자(50.18%)였다.표=토스뱅크━저축은행보다 평균 5.6%p 낮은 금리로 경쟁력 확보━이처럼 토스뱅크가 중·저신용자 대출 비중을 급격히 늘릴 수 있었던 것은 금리 경쟁력으로 분석된다.실제 지난 5개월동안 대출 심사 과정에서 토스뱅크의 중·저신용자 4명 중 1명 이상(26.3%)은 고신용자로 상향됐다.토스뱅크의 신용 대출은 자체 개발한 신용평가모형(TSS, Toss Scoring System)을 통해 고객의 ‘실질 소득'을 분석하는데 주력하고 이에 따라 신규 대출여부를 판단한다.‘건전한 중저신용자’로 분류된 고객은 저축은행·카드사·캐피탈사 등 제2, 제3금융권에서 대출을 받는 것보다 신용도가 개선될 수 있었다.토스뱅크에서 대출을 실행한 중저신용 고객의 평균 금리는 7.7%로 이는 저축은행 평균금리 13.3% 대비 약 5.6%포인트 낮은 수준이다.고객 가운데 신용등급이 가장 좋은 고객의 금리 구간은 2.71~3.81%였다. 최저 2.71% 금리 혜택이 가능했던 경우 기존 대출을 보유하고 있더라도 이를 연체 없이 성실히 상환한 이력이 있거나 장기간 보험계약을 유지함으로써 가능했다. 신용카드거래 내역에서 건전한 소비 등이 확인된 경우 가산점을 받기도 했다.중·저신용 고객은 토스뱅크에서 평균 2320만원의 대출을 받았고 신용점수 454점(과거 KCB 기준 8등급)까지 대출이 실행되기도 했다.━"올해 전 금융권 통틀어 가장 많은 고객 몰려"━금융당국의 가계대출 총량규제로 출범 9일만에 신규대출을 중단해야 했던 토스뱅크는 올 1월부터 대출 영업을 재개했다.올해 토스뱅크에서 대출을 받기 위해 ‘내 한도 관리’ 서비스에 신규 가입한 고객 수는 36만343명이었다. ‘내 한도 관리’ 서비스는 대출 상담을 위해 고객들이 은행 창구를 방문하는 경우와 유사하다고 보면 된다.일 최대 8만701명이 이를 이용했으며 일평균 2만7157명의 대출 고객이 토스뱅크를 방문했다. 이는 전 금융권을 통틀어 가장 많은 것으로 올 1월 말 기준 시중은행의 일평균 방문 고객 수(784명)를 웃돌았다. 이에 토스뱅크의 대출 잔액은 2월말 기준 1조9446억원에 달했다.토스뱅크는 이용 고객이 증가한 배경과 관련해 "원앱의 편리함과 폭넓은 중저신용자 포용이 주된 요인"이라며 "올 1월 대출영업을 재개하며 중저신용자까지 대출 상품을 이용할 수 있도록 고객 범위를 넓히고 ‘동등한 대출 기회’를 제공한 데 따른 결과"라고 자평했다.중저신용 고객까지 ‘고객 범위’가 넓어졌지만 4명 가운데 1명(25.2%)은 저금리 혜택을 받았다.━금리, 한도 조회부터 실행까지 3분 안에━토스뱅크는 대출 심사부터 입금까지 평균 3분 이내에 가능한 것으로 집계됐다. 은행을 방문하기 어려운 자영업자나 소상공인들이 대출을 위해 은행에 직접 가지 않아도 모바일로 이용이 가능해 특히 인기가 높았다는 게 토스뱅크의 설명이다.고객들이 대출 서비스를 가장 많이 이용하는 시간대는 점심시간으로 오후 12시에서 1시 사이였다. 고객 10명 중 1명(10.5%)은 점심시간을 이용해 대출을 받았고 3명 중 2명(62%)은 주말을 포함한 은행 영업 시간(오전 9시~오후 4시) 외에 대출을 받는 것으로 나타났다.토스뱅크 고객이 이용한 전체 대출의 4건 중 3건은 신용대출(75.4%)이었으며 마이너스통장(23.4%), 비상금대출(0.8%), 사잇돌대출(0.4%) 순이었다.토스뱅크 관계자는 "토스뱅크의 고도화된 신용평가모형을 통해 포용할 수 있는 고객의 범위가 넓고 특히 실질 소득으로 신규 대출 여부를 판단하기 때문에 대출이 필요한 고객들의 관심이 특히 높았다"며 "앞으로도 공급자 입장이 아닌 고객 관점의 새로운 뱅킹 서비스를 구현하기 위해 더욱 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>토스뱅크 대출 3분의 1은 중·저신용자…포용금융 실천</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002581268?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>서울 강남구 소재 토스뱅크 본사 내부 전경 ⓒ토스뱅크[데일리안 = 부광우 기자] 토스뱅크의 대출 가운데 3분의 1은 중·저신용자가 받아간 것으로 나타났다. 그럼에도 저축은행보다 낮은 금리를 제공하며 포용금융에 주력하는 모습이다.토스뱅크는 지난 달 말까지 실행한 가계대출 가운데 중·저신용자 대출 비중이 31.75%를 기록한 것으로 집계됐다고 3일 밝혔다. 중금리대출 실행 비중이 가장 높았던 날은 지난 1월 31일로, 이날 대출을 실행한 고객의 절반 이상인 50.2%는 중·저신용자였다.지난해 10월 5일 출범 한 토스뱅크는 출범 전 부터 자체 신용평가모형을 개발하는 등 중·저신용자 대출 확대를 위한 노력을 기울여 왔다. 지난 5개월 간 대출 심사 과정에서 토스뱅크의 중·저신용자 4명 중 1명 이상(26.3%)은 고신용자로 상향됐다.토스뱅크의 신용 대출은 자체 개발한 신용평가모형을 통해 고객의 실질 소득을 분석하는데 주력하고, 이에 따라 신규 대출여부를 판단한다. 건전한 중·저신용자로 분류된 고객은 저축은행·카드사·캐피탈사 등 제2, 제3금융권 대비 신용도 개선의 기회를 누릴 수 있다는 설명이다.토스뱅크에서 대출을 실행한 중·저신용 고객의 평균 금리는 7.7%로 이는 저축은행 평균금리 13.3% 대비 약 5.6%p 낮은 수준이다. 고객 가운데 신용등급이 가장 좋은 고객의 금리 구간은 2.71~3.81%였다.최저 2.71% 금리 혜택이 가능했던 경우 기존 대출을 보유하고 있더라도 이를 연체 없이 성실히 상환한 이력이 있거나, 장기간 보험계약을 유지함으로써 가능했다. 신용카드거래 내역에서 건전한 소비 등이 확인된 경우 가산점을 받기도 했다. 토스뱅크 중·저신용 고객들은 평균 2320만원의 대출을 받았고, 신용점수 454점까지 대출이 실행되기도 했다.올해 1~2월 대출 영업 재개 후 토스뱅크에서 대출을 받기 위해 내 한도 관리 서비스에 신규 가입한 고객 수는 36만343명이었다. 내 한도 관리 서비스는 대출 상담을 위해 고객들이 은행 창구를 방문하는 경우와 유사하다.일 최대 8만701명이 해당 서비스를 이용했으며, 일평균 2만7157명의 대출 고객이 토스뱅크를 방문했다. 이는 전 금융권을 통틀어 가장 많은 것으로, 지난 1월 말 기준 시중은행의 일평균 방문 고객 수 784명을 웃돌았다. 대출 영업을 재개한 토스뱅크의 대출 잔액 규모는 지난 2월 말 기준 1조9446억원으로 집계됐다.토스뱅크 대출 영업 실적.ⓒ토스뱅크토스뱅크는 이용 고객 증가에 대해 원앱의 편리함과 폭넓은 중저신용자 포용이 주된 요인인 것으로 분석했다. 올해 대출영업을 재개하며 중·저신용자까지 대출 상품을 이용할 수 있도록 고객 범위를 넓히고 동등한 대출 기회를 제공한 데 따른 결과로 풀이된다. 중·저신용 고객까지 고객 범위가 넓어졌음에도 25.2%는 저금리 혜택도 누렸다.토스뱅크는 대출 심사부터 입금까지 평균 3분 이내에 가능한 것으로 조사됐다. 은행을 방문하기 어려운 자영업자나 소상공인들이 대출을 위해 은행에 직접 가지 않아도 모바일로 이용이 가능해 특히 인기가 높았다.고객들이 대출 서비스를 가장 많이 이용하는 시간대는 점심시간으로 오후 12시에서 1시 사이였다. 고객 중 10.5%는 점심시간을 이용해 대출을 받았고, 62.0%는 주말을 포함한 은행 영업 시간 외에 대출을 받는 것으로 나타났다. 토스뱅크 고객이 이용한 전체 대출의 75.4%는 신용대출이었으며, 이어 마이너스통장(23.4%), 비상금대출(0.8%), 사잇돌대출(0.4%) 순이었다.토스뱅크 관계자는 "고도화된 신용평가모형을 통해 포용할 수 있는 고객의 범위가 넓고, 특히 실질 소득으로 신규 대출 여부를 판단하기 때문에 대출이 필요한 고객들의 관심이 특히 높았다"며 "앞으로도 공급자 입장이 아닌 고객 관점의 새로운 뱅킹 서비스를 구현하기 위해 더욱 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.03.04.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>[리딩금융인] 토스페이먼츠, 1년 반만에 10배 성장…비결은 "애자일 혁신 조직"</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000657575?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>AI 전문가, 김강학 TPO 인터뷰 "구성원과 조직문화는 큰 자산""토스페이먼츠가 1년 반만에 10배이상 성장할 수 있던 핵심은 기민하게 움직일 수 있는 민첩한(애자일) 제품조직과 팀워크에 있습니다"토스페이먼트는 2020년 8월 LG유플러스의 PG사업 부분을 인수하면서 온라인 결제산업에 발을 들였다. 2022년 2월 현재 누적 거래액 150조 이상, 월 평균 거래액 2조이상, 누적 가맹점은 8만개 이상이며 출범 대비 총 거래액 규모는 30% 이상 성장하고 가맹점 점유율은 10배 이상 성장했다.기자는 3일 오후 토스페이먼트츠에서 김강학 테크니컬 프로텍트 오너(TPO:Technical Product Owner)를 만나 토스페이먼트의 성장과 혁신기술에 관한 이야기를 나눴다.김강학 TPO는 AI스타트업 플런티(Fluenty)의 최고경영자(CEO)를 거쳐 삼성전자 AI팀과 서비스전략팀을 거쳐 현재 토스페이먼츠의 TPO를 역임하고 있다.김강학 토스페이먼츠 TPO가 4일 서울 강남구 소재 토스페이먼츠 본사에서 진행된 아이뉴스24와의 인터뷰에서 질문에 답하고 있다. [사진=이재용 기자]◆ 80% 이상이 사업자 3분안에 설계 끝 '에자일 조직의 힘'토스페이먼츠가 온라인결제산업에서 발견한 가장 큰 문제점은 온라인결제사업자의 40%는 결제시스템 연동이 힘들어 포기한다는 점이었다. 10명 중 4명이 계약서 제출과정서 이탈이 되버린다는 것이다.이에 토스페이먼츠는 그 지점을 파악해 계약과정을 하나의 '플로우(Flow)' 처럼 설계한 뒤 '식스샵'이라는 호스팅 사에 적용했다. 이를 통해 유입되는 온라인결제사업자의 80% 이상의 사업자들이 3분 안에 설계를 끝낼 수 있는 시스템을 구축해 적용했고 그 뒤 많은 가맹점이 유입되며 점유율이 크게 늘었다.◆ AI 전문가가 토스페이먼츠로 합류한 이유 '조직문화'TPO는 스타트업 창업과 삼성전자를 거쳐 토스페이먼츠에 합류한 이유료 역량을 마음껏 펼칠 수 있는 조직문화에 있다고 꼽았다.  토스페이먼트츠의 프로덕트 오너(PO)는 필요한 모든 환경을 조직에서 서포트 해주는 만큼 제품과 서비스 개발에 집중할 수 있어서다.토스의 프로덕트 오너(PO) 직군은 필요한 것들을 모두 다 줄테니 제공된 환경에서 제품적인 역량을 마음껏 펼쳐보라는 것 같았어요. 또 다시 창업을 생각했었지만 빠르게 제품을 만들어서 시장의 반응을 보고싶단 생각에 그런 문화를 보고 협력했습니다. 그런점에서 PO라는 직군은 매력적인 직군입니다."◆ 토스페이먼트 조직의 핵심 인력 'TPO와 PO'토스페이먼츠가 가진 조직문화의 특징은 수직적인 레거시 금융권과 달리 수평적이라는 점이다. 이 중 기술과 서비스 개발을 컨트롤 하는 핵심 직군으로 TPO와 PO가 있다.PO는 토스페이먼츠가 어느 방향으로 나아가야 하는지 방향성을 제시하고 개발하고 문제를 해결하는 것까지 전 과장을 담당한다. TPO는 PO와 비슷하지만 PO보다 기술적인 포지션을 맡고 있다. PO의 주여 고객이 가맹점이라면 TPO의 주요 고객은 개발자들이다.김강학 TPO는 페이먼츠사업의 모든 영역을 담당하지만 기술적인 서비스에 집중하고 있다. 김강학 TPO는 토스페이먼츠 내 '온보딩사일러' 팀을 맡고 있으며 이 팀은 가맹점이 사업하려는 사람의 판매전 과정까지 이뤄질 수 있도록 하는 역할을 담당하고 있다."PO와 TPO는 비슷하지만 TPO는 좀 더 기술적인 제품들을 갖게 되었을 때 더 성과가 납니다. 저희는 람들을 정말 판매까지 할 수 있게 하는 그 역할을 맡고 있습니다"◆ 모든 가맹점 30분만에 시스템 연동 끝 "연동 경험도 제품"토스페이먼츠 기술의 핵심 중 하나는 30분만에 온라인 결제시스템 연동이 가능하단 것이다. 개발자가 없는 작은 규모의 어느 사업자라 해도 누구나 온라인결제를 쉽게 도입할 수 있다.가능했던 이유는 토스페이먼츠 팀이 결제 연동 경험도 제품이라고 생각하고 서비스 개발에 주력했기 때문이다."연동경험도 제품입니다. PG사들의 연동 경험들은 옛날 버젼이 이어져 오고 있는데, 이건 현재의 환경과 최신 언어에 맞지 않아요. 때문에  연동과정중 불필요한 것들을 뜯어내고 대신 해줄 수 있는 것들은 처리하고, 모든 것들을 최신화 시켜 가장 효율적인 연동 과정을 구축했습니다"◆ 토스페이먼츠 만의 강점 "구성원과 조직문화는 큰 자산"토스페이먼츠만의 강점으로는 애자일하고 자유로운 조직문화와 구성원에 있다고 전했다. 민첩하고 빠른 조직과 이를 기반으로 한 팀워크가 빠른 성공을 불러왔단 설명이다."저희는 데이터를 기반으로 어떤 문제가 있는지 파악하고 빠르게 시도하고 빠르게 실패해 결과를 봅니다. 그래서 고객들이 보시기엔 당장 문제가 해결돼있지 않아도 토스페이먼츠라면 언젠가 금방 해결하지 않을까 하는 자신감이 있습니다. 이런 것들을 제공할 수 있는 구성원과 문화는 굉장히 큰 자산입니다"김강학 토스페이먼츠 TPO가 4일 서울 강남구 소재 토스페이먼츠 본사에서 진행된 아이뉴스24와의 인터뷰에서 질문에 답하고 있다. [사진=이재용 기자]◆ 온라인 결제 시장의 핵심은 "모든 과정이 쉬워야 한다"TPO는 온라인결제산업의 핵심으로 결제부터 판매까지 전 과정이 쉽게 일어나는 점이 가장 중요하다고 제시했다. 가맹점주가 사업을 시작하는 순간부터 행정업무를 하고 물건을 팔고 배성하는 과정에서 막힘없이 쉽게 이뤄져야 한단 것이다."만약 어느 하나에서 막혀버리면 그 분은 장사하려는 의지가 있었음에도 실패를 하게 된다. 그래서 전체적인 과정을 쉽게 풀어내는 게 중요하다고 생각합니다. 이는 더 큰 결제시장을 만들기 위해라도 필요합니다"◆ 토스페이먼트 "PG사업자 넘어 좋은 비즈니스 파트너 지향"토스페이먼트는 스스로의 정체성을 단순 전자지급결제대행서비스(PG)사를 넘어선 '좋은 비즈니스 파트너'로 소개했다.고객 입장에서 결제 전환이 잘 이뤄지는 것 뿐만 아니라 가맹점의 매출이 늘 수 있도록 전 과정에 걸쳐 좋은 파트너가 되겠다는 목표다."토스페이먼트가 생각하는 건 PG사가 성장하기 위해선 가맹점들이더 많이 판매를 할 수 있도록 전과정에 걸쳐 도와드려야 한다고 봅니다. 그래서 사업의 시작부터 운영의 전 과정이 토스페이먼츠가 같이 풀어야 할 숙제라고 생각합니다"</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>토스뱅크, 대출 재개 후 중저신용자 비중 31.75%</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011038259?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>기사내용 요약중저신용 고객 평균 금리는 7.7%실질 소득 분석해 신규 대출 판단토스뱅크 방문 日평균 2만7157명[서울=뉴시스] 박은비 기자 = 토스뱅크가 올해 실행한 중저신용대출 비중이 31.75%로 집계됐다고 3일 밝혔다. 지난달 말까지 신규 취급한 가계대출 대상이다.지난 5개월간 대출 심사 과정에서 중저신용자 4명 중 1명 꼴인 26.3%가 고신용자로 상향됐다는 게 토스뱅크 설명이다. 토스뱅크에서 대출을 실행한 중저신용 고객 평균 금리는 7.7%로 집계됐다.회사에 따르면 고객 가운데 신용등급이 좋은 고객의 금리 구간은 2.71~3.81% 수준이다. 최저 2.71% 금리인 경우 기존 대출을 보유하고 있더라도 연체 없이 성실히 갚은 이력이 있거나 장시간 보험계약을 유지한 경우다. 신용카드 거래내역에서 건전한 소비 등이 확인되면 가산점을 받는다.토스뱅크 고객들의 평균 대출금액은 평균 2320만원이다. 신용점수 454점(과거 KCB 기준 8등급)까지 대출이 실행된 것으로 나타났다.지난해 10월 출범한 토스뱅크는 자체 개발한 신용평가모형(TSS)를 통해 고객의 실질 소득을 분석하는 데 주력하고 이에 따라 신규 대출 여부를 판단한다.올해 1~2월 대출 영업 재개 후 '내 한도 관리' 서비스에 신규 가입한 고객수는 36만343명이다. 일 최대 8만701명이 이를 이용한 것으로 파악됐다. 토스뱅크 방문수는 일평균 2만7157명 수준이다.토스뱅크 고객이 이용한 전체 대출의 4건 중 3건은 신용대출(75.4%)이었으며, 마이너스통장(23.4%), 비상금대출(0.8%), 사잇돌대출(0.4%) 순이다.토스뱅크 관계자는 "실질 소득으로 신규 대출 여부를 판단하기 때문에 대출이 필요한 고객들의 관심이 특히 높았다"며 "앞으로도 공급자 입장이 아닌 고객 관점의 새로운 뱅킹 서비스를 구현하기 위해 더욱 노력할 것"이라고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>[대한민국 최고의 경영대상] 모든 금융·데이터 연결 '비즈니스 데이터 플랫폼' 기업 쿠콘</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004929481?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>비즈니스 데이터 플랫폼 기업 쿠콘은 2006년 설립 이래 우수한 정보 연결 기술과 네트워크를 바탕으로 혁신 서비스 시장을 선도해 나가고 있다. 비즈니스에 필요한 데이터를 표준화된 형태로 제공하는 데이터 수집·연결 통로로서의 역할을 수행중이다.쿠콘은 출범 후 2010년까지 국내 최다 금융기관을 연결하는 데이터 프로바이더로서의 역할을 했다면 이후 국내 유일의 글로벌 정보제공 사업자로서, 국내 최대 비즈니스 데이터 플랫폼으로서 거듭나고 있다. 현재 쿠콘은 국내 금융, 공공 등 500여개 기관의 데이터를 매일 수집하고 있다. 해외 40여개 국가, 2000여개 금융기관의 테이터를 수집하는 국내 유일 기업이기도 하다. 수집된 데이터는 15년 노하우가 축적된 4가지 데이터 연결기술 방법으로 제공한다.한국, 일본, 미국 등에서 특허로 인정받은 스마트 '스크래핑', 금융기관과 실시간 전용망으로 연결된 '금융 VAN', 약 3000만 건의 고부가가치 '빅데이터', 금융 오픈 API 중계 플랫폼인 'API 허브'가 쿠콘이 자랑하는 4가지 데이터 연결기술이다. 수집·연결된 데이터는 국내 최대 API 스토어인 '쿠콘닷넷'을 통해 개인, 기업, 글로벌 등 250여개의 API로 제공된다. 현재 삼성카드, BNK금융그룹, 우리카드 등 선두 기업이 쿠콘의 API로 마이데이터 서비스를 구현하고 있다. 카카오페이, 토스, 핀다 등 빅테크 및 핀테크 기업에서 쿠콘 API를 이용해 대출 상품 비교 서비스를 제공하고 있다. KB, IBK, NH 등 주요 금융기관에서는 쿠콘의 API로 기업자금관리 서비스를 구현한다.올해도 쿠콘은 마이데이터 선도기업으로서 기존 사업 분야에 집중하면서 데이터 전문기관 지정 획득, 본격적인 빅데이터 사업 등 미래 전략사업 추진을 위한 노력을 적극 전개해 나갈 계획이다.쿠콘은 15년 이상 데이터 수집·연결 노하우를 바탕으로 구축한 국내 최대 API 스토어 '쿠콘닷넷'에서 250여개의 API를 선보이고 있다. 개인데이터·기업데이터·글로벌·간편결제·전자금융 API 등 다양한 쿠콘 API로 금융기관 및 핀테크 기업의 데이터 수집·연결의 어려움을 해소할 수 있다. 현재 금융기관은 물론 핀테크 기업, 공공·일반기업 등 1700여개 이상의 고객이 쿠콘 API를 활용하고 있다. 마이데이터 서비스, 비대면 대출 업무, 자금관리 서비스, 생활금융 서비스 등 다양한 서비스의 핵심 기능에 쿠콘 API가 활용된다.금융기관, 핀테크 기업, 공공 및 일반기업 등 대한민국을 이끌어 가는 1700여개 이상 고객이 활용하는 쿠콘 API는 글로벌 시장에서도 탁월한 기술력을 인정받고 있다. 지난해 일본 정부는 자국민을 대상으로 실시하는 가계조사에 쿠콘의 스크래핑 기술을 활용한다고 공식적으로 밝힌 바 있다. 이는 해외기술 도입에 보수적인 일본 정부기관이 이례적으로 해외기술을 도입한 사례로 한국 핀테크 기술로는 최초다. 일본, 중국, 캄보디아 등 해외 6개국에서 현지법인을 보유하고 있는 쿠콘은 앞으로 데이터 수집을 위한 해외 브랜치를 매년 1개소씩 확대해 나가며 글로벌 기업으로 거듭날 계획이다.또한 쿠콘은 나눔과 이웃사랑 실천으로 사회공헌에 앞장서는 한편, 직원들의 행복한 삶을 위한 다양한 복지제도도 운영하고 있다. 다양한 사회공헌 활동과 더불어 쿠콘은 2019년 4월 22일 '재단법인 소프트웨어해외지원재단'을 설립했다. 쿠콘 및 쿠콘 계열사인 웹케시, 웹케시벡터가 자본금 5억원에 매년 3억원씩 후원하고 있다. 현재까지 캄보디아 IT 지원 사업에 약 19억원이 사용됐다. 이와 함께 쿠콘은 국내 문화예술 분야 발전을 위해 유망작가를 후원하는 '예술작가 성장 후원 프로젝트' 및 국내외 청년 고용과 일자리 창출, 좋은 근무 문화 전파에 앞장서고 있다. 다양한 복지제도 운영에 적극 나서고 있는 쿠콘은 최근 '2022년 청년친화 강소기업'으로 선정되는 등 직원들의 삶의 질을 높일 뿐만 아니라 사회를 생각하는 진정한 기술기업으로 거듭나고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.03.11.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>아이앤텍, 모바일 전자고지 서비스 가능한 공인전자문서중계자 인증 획득</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004933133?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>▲ PC 및 모바일 전자고지 서비스 (사진 제공: 아이앤텍)㈜아이앤텍이 모바일 전자고지 서비스가 가능한 공인전자문서중계자 인증을 획득했다고 11일 밝혔다. 이는 서비스 개편에 따른 신규 설비 심사를 완료한 결과이다.공인전자문서중계자 인증의 경우 ‘전자문서 및 전자거래 기본법’에 따라 타인을 위한 전자 문서를 유통할 수 있는 자격으로 과학기술정보통신부 장관의 지정을 받는다.개편된 전자문서 통합 발송 솔루션 ‘e모바일통합전자고지’는 샵(#)메일로 한정되던 PC 기반의 전자 문서 유통 서비스 환경을 모바일 메신저, 앱, 문자, 우편 등 다양한 수단을 통해 발송할 수 있는 시스템으로 확장 증설 및 개선하였다. 또한 카카오앱, 페이코앱, 그리고 통신 3사 MMS 기반의 모바일 고지도 일괄 발송하는 기능이 추가되었다.특히 PC와 모바일 환경 동시 지원, 다중 플랫폼 발송, 개인과 기업 모두에게 공인전자문서를 발송하는 기능은 국내 유일하다.한편 아이앤텍은 국내 최초로 전자증명서를 도입해 전국 220여 개 대학과 50여 개 기관에 서비스를 제공하고 있다. 종이서류 없는 녹색성장을 기반으로 전자 문서 산업의 새로운 첨단 기술 및 보안과 인증에 부합하는 국가공인 전자 문서 유통 사업자로 지정받아 공인전자문서중계자 지위를 취득한 바 있다.아이앤텍 관계자는 "국가공인 전자 문서 유통 사업자로서 행정안전부, 카카오, 페이코, 네이버, SKT, 토스 등 유수 기업과도 업무협약을 체결했다”라며 “전자문서 유통 생태계 구축과 서비스 확장에 이바지하는 기업이 될 것"이라고 덧붙였다.[최은화 매경비즈 연구원]</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.03.04.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>'함께하는 미래'를 향해…2022 베이징 동계패럴림픽 개막</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013029977?sid=104</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>개회식 주제는 '생명의 피어남'…13일까지 6개 종목서 금메달 78개 놓고 열전한국 선수단 46개국 중 35번째로 입장…기수 휠체어컬링 백혜진우크라이나 선수단 4번째 입장…러시아·벨라루스 '퇴출'[패럴림픽] '생명의 피어남'(베이징=연합뉴스) 김주성 기자 = 4일 오후 중국 베이징 국립경기장에서 열린 2022 베이징 패럴림픽 개회식에서 화려한 식전 공연이 펼쳐지고 있다.     장이머우(張藝謨) 감독이 총연출을 맡은 이번 개회식의 주제는 '생명의 피어남'이며 많은 장애인이 공연자로 참가했다. 2022.3.4 utzza@yna.co.kr    (베이징=연합뉴스) 장보인 기자·패럴림픽공동취재단 = 올림픽 성화가 꺼진 지 12일 만에 중국 베이징에 밝은 성화가 다시 타오른다.    2022 베이징 동계패럴림픽(장애인올림픽)이 4일 오후 8시(현지시간) 중국 베이징의 국립경기장에서 열린 개회식으로 힘찬 시작을 알렸다.    2008년 하계올림픽을 개최한 베이징은 최초로 동·하계 올림픽과 패럴림픽이 모두 열리는 도시로, '냐오차오'(새 둥지)로 불리는 국립경기장 역시 최초로 동·하계 대회 개회식이 모두 치러진 장소가 됐다.    14년 전 베이징 하계올림픽과 지난달 막을 내린 2022 베이징 동계올림픽 총연출을 맡은 중국의 유명 영화감독 장이머우가 이번 패럴림픽에서도 예술 감독을 맡았다.    신종 코로나바이러스 감염증(코로나19) 대유행과 러시아의 우크라이나 침공으로 인한 혼란 속에도 각국 선수들의 도전은 이어진다.    베이징 동계패럴림픽은 이날부터 13일까지 중국 베이징과 옌칭, 장자커우에서 진행되며, 6개 종목 78개 세부 종목에서 열전이 펼쳐진다.    슬로건은 2022 동계올림픽과 같은 '함께하는 미래(Together for a Shared Future)'다.    당초 이번 대회엔 50여 개국 약 1천500명의 선수단이 참가할 것으로 알려졌는데, 최종 참가가 확정된 나라는 46개국이다.    우크라이나를 침공한 러시아와 이에 동조한 벨라루스는 개막을 하루 앞둔 3일 국제패럴림픽위원회(IPC)의 출전 금지 결정으로 대회에 나서지 못하게 됐다.    우크라이나에서는 선수 20명과 가이드 9명이 출전한다.    코로나19 여파로 다소 간소화됐던 지난 올림픽 개회식과 마찬가지로, 패럴림픽 역시 거창함보다는 행사 하나하나에 의미를 담는 데 집중했다. 개회식 주제는 '생명의 피어남'(Blossoming of Life)이다.    모든 참가자는 각계각층의 사람들이다. 바쁘게 자신의 삶을 살아가는 장애인과 비장애인들이 함께 시간을 내서 전 세계 사람들을 환영하는 퍼포먼스를 연습했다.중국 베이징 국립경기장[연합뉴스 자료사진]본격적인 행사는 패럴림픽 역사를 되짚어보는 시간을 갖는 것으로 시작한다.    바다를 나타낸 무대 위에 지난 12번의 패럴림픽 대회가 소개되고, '2022 베이징'에 이르러 바다는 얼음으로 변한다.    이어 6개 종목에 출전하는 장애인 선수들이 장애물을 피해 슬로프를 질주하고, 컬링 스톤이 미끄러져 나가는 모습과 함께 카운트 다운이 시작된다.    시진핑 중국 국가 주석과 앤드루 파슨스 IPC 위원장 등이 소개된 뒤에는 중국 국기가 게양되고, 24명의 시각장애를 가진 대학생들이 아카펠라로 국가를 부른다. 청각장애를 가진 출연자들은 수어로 국가를 표현한다.    이후 패럴림픽 마스코트 '쉐룽룽'과 이번 대회 주인공인 각국 선수단이 입장한다.    한국은 46개 팀 중 35번째로 입장한다. 우리나라는 이번 대회에 선수 32명을 포함해 82명의 선수단을 파견했다.    입장 순서는 중국 간체자 획순에 따라 결정됐다.    개회식에는 윤경선 한국선수단장을 비롯한 임원과 선수 18명(하키 13명·컬링 5명) 등 총 41명이 참가한다.    기수는 혼성 휠체어컬링 대표팀 '장윤정 고백'(의정부 롤링스톤)의 리드 백혜진이 맡았다.    한국 동계패럴림픽 참가 사상 여성 선수가 단독 기수로 나선 건 처음이다. 지난해 2020 도쿄 하계패럴림픽에선 보치아 최예진이 어머니 문우영 씨와 태극기를 든 바 있다.    벨기에가 가장 먼저 입장하고 우크라이나는 4번째로 무대에 나선다.    개최국 중국은 마지막인 46번째로, 2026년 밀라노-코르티나담페초 동계올림픽·패럴림픽 개최국인 이탈리아는 45번째로 등장한다.    대회 조직위원장을 맡은 차이치 베이징시 당 위원회 서기, 파슨스 IPC 위원장이 연설하고 나면 시진핑 주석이 개회를 선언한다.    이어지는 행사도 '보통 사람들'의 이야기를 담았다.    장애를 가진 자원봉사자와 운동선수, 무용수, 의족을 차고 에베레스트를 오르는 등반가, 장애인과 비장애인 커플, 쌍둥이 등이 세상을 밝힌다.    패럴림픽의 상징인 아지토스는 한 시각장애인 출연자의 손바닥에서 다른 이들의 손으로 옮겨지며 모습을 드러낸다.    이는 더 많은 장애인이 스포츠를 통해 삶을 변화시키길 기대하는 손짓이다.    주최 측은 "역대 패럴림픽에서 가장 작은 아지토스를 선보이게 될 것"이라면서도 이 순간이 개회식의 '하이라이트'라고 설명했다.    패럴림픽기가 게양될 때는 시각장애 관악합주단이 패럴림픽 찬가를 연주한다. 10∼22세의 학생 47명으로 구성된 합주단은 악보를 볼 수 없음에도 116일의 연습을 통해 완벽한 무대를 꾸민다.    개회식 막바지엔 '동계패럴림픽 왈츠'를 선보인다. 역시 장애인과 비장애인이 함께 무대를 꾸미며 '화합'을 표현한다.    마지막은 성화 점화와 불꽃놀이가 장식한다.    패럴림픽 발상지인 영국 스토크맨더빌에서 채화된 성화가 가상으로 전달되고, 베이징, 옌칭, 장자커우 지역의 8개 도시의 불꽃이 하나로 합쳐져 빛난다.    boin@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.03.14.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>벤처투자자 "블록체인·e커머스 거품 국면"</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004673790?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>국내 VC 리더 20인 설문"스타트업 몸값 고평가" 90%올해 유니콘 진입 유력한 곳은메가존클라우드·에이블리·왓챠지난해 벤처투자 시장을 관통한 단어는 단연 ‘제2 벤처붐’이었다. 2021년 한 해 동안 신규 집행된 벤처투자액은 7조6802억원으로 사상 최대를 기록했다. 1년 전보다 78%나 늘어난 규모다. 유니콘 기업(기업가치 1조원 이상 스타트업)도 7곳이 늘어 역대 최다인 18개사를 기록했다. 그러나 일각에선 플랫폼을 앞세운 스타트업들의 기업가치가 과도하게 높아져 2000년대 초 ‘닷컴 버블’처럼 단기간에 꺼져버릴지 모른다는 지적도 제기된다. 모처럼 찾아온 벤처붐의 열기가 올해도 이어질지 국내 벤처캐피털(VC) 20개사의 리더들에게 물었다. 스타트업 옥석 가리기 본격화14일 한국경제신문의 자본시장 전문매체인 ‘마켓인사이트’가 국내 VC 리더 20명을 대상으로 한 설문조사에 따르면 응답자의 90%인 18명이 “국내 스타트업 몸값이 고평가 국면에 진입했다”고 답했다. 가장 고평가된 분야로 절반 이상이 블록체인과 메타버스를 꼽았다. e커머스(전자상거래)가 30%로 뒤를 이었다.다만 향후 유망할 것으로 보이는 분야 역시 블록체인·메타버스가 40%의 응답률로 가장 많은 표를 얻었다. 최근 세계적으로 주목받는 분야답게 몸값 과열 우려와 성장 기대감이 동시에 고조되는 양상이다. 지난해 투자 경쟁이 뜨거웠던 e커머스와 핀테크, 소부장(소재·부품·장비), 기후테크 분야는 올해 상대적으로 주목을 덜 받을 것으로 분석됐다.VC업계 리더들은 올해가 스타트업의 ‘옥석 가리기’가 본격화되는 해가 될 것이라고 봤다. 한 응답자는 “상장사에 비해 스타트업의 몸값이 많이 고평가된 상태”라며 “유동성이 풍부해 당장 영향을 받지는 않겠지만 지금처럼 증시 침체가 계속된다면 스타트업도 영향을 받을 것”이라고 했다. 또 다른 응답자는 “특히 몸값 500억~1000억원 규모인 시리즈B 단계의 기업들에 거품이 끼어 있다”고 진단했다. 반면 “그동안 저평가돼 있던 국내 스타트업의 기업가치가 이제 글로벌 평균에 맞춰지고 있다”고 분석한 응답자도 있었다. 유니콘 후보는 메가존, 에이블리지난해 국내에서 집행된 VC 투자 중 가장 의미 있었던 거래는 비전펀드의 야놀자 투자를 꼽은 응답자가 15%로 가장 많았다. 야놀자는 지난해 7월 손정의 소프트뱅크 회장이 이끄는 비전펀드로부터 2조원을 투자받으면서 8조원의 기업가치를 인정받았다. 무신사의 1300억원 투자 유치와 당근마켓의 1800억원 투자 유치를 꼽은 응답자는 각각 10%를 차지했다.올해 새롭게 유니콘 기업 반열에 오를 것으로 보이는 회사로는 메가존클라우드(클라우드), 에이블리코퍼레이션(패션 e커머스), 파두(팹리스), 뮤직카우(음악 저작권 거래), 퓨리오사AI(팹리스) 등이 거론됐다. 데카콘 기업(기업가치 10조원 이상 스타트업) 후보를 묻는 질문엔 응답자의 25%가 비바리퍼블리카(토스)를 꼽았다.응답자들은 투자를 결정할 때 스타트업의 ‘인력 구성’(40%)을 가장 눈여겨본다고 답했다. 회사의 ‘혁신성’과 ‘성장성’이 제일 중요하다는 응답은 각각 30%로 집계됐다. ‘실적’을 중시한다는 응답자는 한 명도 없었다. 당장의 매출과 이익보다는 회사의 미래 비전을 보고 투자한다는 얘기다.올해 가장 주목하는 해외 투자 지역을 묻는 질문엔 동남아시아가 1위로 꼽혔다. 20명 중 9명이 동남아 스타트업 발굴에 나설 것이라고 답했다. 규제 완화, LP 다변화 시급VC 리더들은 벤처업계 활성화를 위해 필요한 과제로 ‘규제 완화’를 가장 많이 꼽았다. 한 응답자는 “쏘카나 로톡처럼 ‘혁신적 파괴’가 일어나는 분야에서 규제를 철폐해야 새로운 유니콘이 탄생할 수 있다”고 했다. 또 다른 응답자는 “스타트업의 특성을 고려하지 않은 정부의 ‘포지티브 규제’가 문제”라고 진단했다.출자자(LP)의 다변화가 필요하다는 답도 많았다. 양질의 민간 LP가 늘어야 VC의 자금 모집이 원활해질 수 있다는 설명이다. 그 밖에 △인수합병(M&amp;A)을 통한 회수시장 활성화 △대학 내 체계적인 창업 교육 강화 △다양성을 수용하는 문화 등이 필요하다는 의견이 나왔다.김종우/박시은 기자■ 주요 응답자 명단 (이름 가나다 순)김종필 KB인베스트먼트 대표, 김창규 KTB 네트워크 대표, 남기문 스마일게이트인베스 트먼트 대표, 박기호 LB인베스트먼트 대표 , 박하진 HB인베스트먼트 대표, 송은강 캡스 톤파트너스 대표, 유승운 스톤브릿지벤처스 대표, 윤건수 DSC인베스트먼트 대표, 이승 원 나우IB 대표, 임정욱 TBT 대표, 정근호 스틱벤처스 대표, 지성배 IMM인베스트먼트 대표, 한상엽 소풍벤처스 대표</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>"카카오페이증권 MTS 정식 출시 임박…초기 성과 주목해야"-DB금투</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004669911?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>DB금융투자는 3일 카카오페이증권에 대해 모바일트레이딩시스템(MTS)의 초기 성과에 주목할 필요가 있다고 진단했다. 현재 베타버전을 제공 중인 카카오페이증권은 MTS를 이달 중 해외주식 소수점 매매 서비스와 함께 정식 출시할 예정이다.정동명 DB금융투자 연구원은 "카카오페이증권 MTS는 약 1년 먼저 출시된 토스증권 MTS와 간편한 투자 서비스를 제공한다는 측면에서는 크게 차이가 나지 않아 보인다"며 "차별점을 찾는다면 이용자 간 종목정보 공유와 같은 커뮤니티적인 부분으로 토스증권은 앱 내 대화방 서비스를 제공하는 반면, 카카오페이증권은 카카오톡을 활용 커뮤니티 관련 강점을 전면에 내걸었다"고 했다.그러면서 "두 플랫폼 기반의 증권사 MTS 모두 많은 이용자 수가 기대되는 가운데 , 카카오페이증권의 자본 규모를 고려하면 신용공여 서비스 등 종합적인 서비스 제공이 가능해져 차별점을 보일 것으로 예상된다"고 덧붙였다.토스증권은 작년 3월 증권 MTS를 출시한 이후 약 9개월 만에 400만 이상의 계좌개설과 230만 이상의 월간활성사용자(MAU)를 달성했다. 거래대금은 작년 4분기 기준 1.5%가량의 시장 점유율을 기록하고 있는 것으로 추정된다. 거래대금은 비슷한 이용자수를 보유한 증권사 대비 미비한 수준이지만 , MTS 출시로 단기간에 많은 이용자수를 확보한 데 의미가 있다는 게 정 연구원의 설명이다.카카오페이증권에 대해선 MTS 초기 성과를 주시할 필요가 있다는 의견이다. 정 연구원은 "카카오페이증권은 그간 증권 MTS가 없었음에도 작년 말 기준 계좌개설수 500만 이상을 달성했다. 카카오페이의 2000만 이상의 MAU와 기개설된 계좌수를 감안하면 많은 MTS 이용자를 확보할 수 있을 전망"이라고 했다.이어 "카카오페이는 카카오톡 내 카카오페이 이용자와 카카오페이 자체 앱의 이용자를 합산해 MAU를 제공하고 있어 토스와의 정확한 MAU 비교가 어렵지만, 공개된 수치 기준으로 카카오페이가 더 많은 이용자수를 보유하고 있다"며 "또 카카오페이증권의 자본 규모는 최근 증자로 토스증권의 2배 이상인데, 이를 감안할 때 곧 출시되는 MTS를 통해 토스증권 MTS 초기성과 이상을 달성하는 것이 중요해 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>토스뱅크, 대출잔액 1.9조원… 중저신용대출 31.72%</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002723194?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>올해 전금융권 최다 고객 몰려…일 최대 8만명토스뱅크가 올해 2개월 만에 중저신용자 대출 비중 31.72%를 달성했다고 밝혔다. 토스뱅크 제공    토스뱅크가 올해 중저신용자 대출 실행 비중 31.75%를 달성했다고 3일 밝혔다. 평균 2320만원의 대출을 받았고 신용점수 454점까지 대출을 실했다.이날 토스뱅크에 따르면 올 2월 말까지 신규 취급한 가계 대출 가운데 중저신용자 대출 비중은 31.75%에 달했다. 중금리대출 실행 비중이 가장 높았던 날은 1월 31일로, 이날 대출을 실행한 고객의 절반 이상이 중저신용자(50.18%)였다.토스뱅크는 또 지난 5개월 간 대출 심사 과정에서 토스뱅크의 중저신용자 4명 중 1명 이상(26.3%)은 고신용자로 상향됐다고 밝혔다. 토스뱅크의 신용 대출은 자체 개발한 신용평가모형(TSS, Toss Scoring System)을 통해 고객의 '실질 소득'을 분석하는데 주력하고, 이에 따라 신규 대출여부를 판단한다. '건전한 중저신용자'로 분류된 고객은 저축은행·카드사·캐피탈사 등 제2·제3금융권 대비 신용도 개선의 기회를 누릴 수 있다.토스뱅크에서 대출을 실행한 중저신용 고객의 평균 금리는 7.7%로 이는 저축은행 평균금리 13.3% 대비 약 5.6%포인트 낮은 수준이다. 고객 가운데 신용등급이 가장 좋은 고객의 금리 구간은 2.71%~3.81%였다.올해 1월과 2월 대출영업을 재개한 토스뱅크에서 대출을 받기 위해 '내 한도 관리' 서비스에 신규 가입한 고객 수는 36만343명에 달했다. 대출 상담을 위한 서비스로 일 최대 8만701명이 이용했고, 하루 평균 2만7157명의 대출 고객이 토스뱅크를 방문했다. 이는 전 금융권을 통틀어 가장 많은 것으로, 올 1월 말 기준 시중은행의 일평균 방문 고객 수는 784명이다.대출 영업을 재개한 토스뱅크의 대출 규모는 2월 말 기준 1조9446억 원(잔액 기준)이다.토스뱅크에 따르면 중저신용 고객까지 고객 범위가 넓어졌음에도 4명중 1명(25.2%)은 저금리 혜택을 받았다.토스뱅크는 대출 심사부터 입금까지 평균 3분 이내에 가능한 것으로 조사됐다. 토스뱅크 관계자는 "은행을 방문하기 어려운 자영업자나 소상공인들이 대출을 위해 은행에 직접 가지 않아도 모바일로 이용이 가능해 인기를 끌었다"고 말했다.토스뱅크 고객이 이용한 전체 대출의 4건 중 3건은 신용대출(75.4%)이었으며, 마이너스통장(23.4%), 비상금대출(0.8%), 사잇돌대출(0.4%) 순이다.토스뱅크 관계자는 "토스뱅크의 고도화된 신용평가모형을 통해 포용할 수 있는 고객의 범위가 넓고, 특히 실질 소득으로 신규 대출 여부를 판단하기 때문에 대출이 필요한 고객들의 관심이 특히 높았다"며 "앞으로도 공급자 입장이 아닌 고객 관점의 새로운 뱅킹 서비스를 구현하기 위해 더욱 노력할 것"이라고 밝혔다.토스뱅크 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.03.05.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>베이징 동계 패럴림픽 개막…오늘부터 열전 돌입</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011224313?sid=104</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>[앵커] 2022 베이징 동계 패럴림픽이 개막식을 갖고 열흘 동안의 열전에 돌입했습니다. 오늘부터 대회 일정에 들어가는  우리 선수단은 지난 베이징 동계올림픽의 희망과 감동을 전하겠다고 다짐하고 있습니다. 베이징에서 김인수 기자입니다. [리포트] 별이 빛나는 바다 한가운데 패럴림픽의 역사가 수놓아집니다. 이어 바다가 얼음으로 변하면서 패럴림픽의 막이 오름을 알립니다 패럴림픽 마스코트 쉐룽룽이 소개되면서 분위기가 고조되고, 장애인과 비장애인이 어우러져 함께 미래로 나아가는 모습이 표현됐습니다. 사람들은 장애인이라 부르지만, 사실 그들은 멈추지 않고 매일 한계를 뛰어넘고 기적을 이루는 사람들입니다. 선수단 입장에선 전쟁 중에도 20여명의 선수를 보낸 우크라이나가 뜨거운 박수를 받으며 많은 관심을 받았습니다. 휠체어 컬링 백혜진을 기수로 한 우리나라는 35번째로 입장했습니다. 6개 전 종목에 걸쳐 80여 명의 선수단을 구성한 우리나라는 2개 이상의 메달을 따낸다는 목표로 출전했습니다. 앤드류 파슨스 IPC위원장의 축사에 이어 시진핑 주석이 개회를 선언합니다. 시진핑 주석 베이징 동계 패럴림픽 개회를 선언합니다. 패럴림픽의 상징인 아지토스가 모습을 드러낸데 이어 패럴림픽 기가 게양되고, 베이징올림픽 성화가 꺼진지 12일 만에 다시 한번 성화가 불타오르며 베이징의 밤하을을 수놓았습니다. 개막 이튿날인 오늘 우리 선수단은 알파인스키와 바이애슬론, 휠체어컬링에서 메달을 향한 본격적인 질주를 시작합니다. 베이징에서 KBS 뉴스 김인수입니다. 촬영기자:오승근/영상편집:송장섭</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.03.05.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>[주말쇼핑포인트]편의점 업계, 화이트데이 이색협업 상품 출시</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005948906?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>CU·GS25·세븐일레븐, 쿠키런, 펠릭스, 빨간머리앤 등 이색 협업 선봬이마트24, '화이트데이=사탕' 본질에 충실편의점 CU는 다가오는 화이트데이를 맞아 이색 협업 상품을 선보였다.(BGF리테일 제공) © 뉴스1(서울=뉴스1) 신민경 기자 = 3월14일 화이트데이를 앞두고 편의점 업계가 이색 협업부터 단독 상품까지 내놓으며 소비 심리를 적극 공략하고 있다.5일 유통업계에 따르면 다가오는 화이트데이를 맞아 편의점 업계가 이색 제품 준비에 분주하다.편의점 CU는 차별화 전략을 내세웠다. 모바일 RPG 게임 쿠키런:킹덤을 비롯해 글로벌 인기 캐릭터 라인프렌즈, 감성 라이프스타일 브랜드 위글위글 등과 손잡고 화이트데이 제품을 선보인다.쿠키런:킹덤과 손잡고 협업 상품인 쿠키런 종합팩 등 총 8종의 상품을 출시했다. 해당 상품에는 쿠키런:킹덤 캐릭터의 포토카드 10여종이 랜덤으로 들어 있으며 쿠키, 젤리, 초콜릿 등이 동봉됐다.라인프렌즈 협업 상품은 7종으로 준비됐다. 사탕, 젤리, 과자 등이 담긴 패키지에 글로벌 인기 캐릭터인 브라운과 코니 스티커, 등신애, 엽서 등을 랜덤으로 얻을 수 있는 상품이다.위글위글 빅캔디와 위글위글 택배에는 각각 사탕과 택배 상자 모양의 재미있는 패키지에 각종 사탕, 초콜릿 등을 담았다. 위글위글 종합선물세트는 위글위글 특유의 밝고 화려한 디자인이 특징이다.GS25는 화이트데이를 맞아 펠릭스 캐릭터 상품을 출시했다.(GS25 제공) © 뉴스1GS25는 펠릭스 캐릭터를 필두로 Δ최고심 Δ오늘의 짤 Δ꿈돌이 Δ무케 등 세대별 선호하는 캐릭터 상품들과 캔디, 초콜릿, 젤리 등 기본에 충실한 상품까지 약 200여개의 상품을 준비했다.대표적으로 팰릭스 세트 상품은 일반 세트 3종과 리유저블세트 4종 등 7종으로 구성됐다. 일반 세트에는 스티커 굿즈가 들어있다. 리유저블세트는 재사용 가능한 용기로 상품을 포장해 고객들이 친환경 활동과 가치소비를 실천할 수 있다. 이 외에도 지난 밸런타인데이에 선보였던 각 세대별 맞춤 캐릭터 상품들도 새로운 패키지와 구성품으로 출시된다.세븐일레븐이 화이트데이를 맞아 이색 협업 상품을 공개했다.(세븐일레븐 제공) © 뉴스1세븐일레븐은 소녀 감성 인기 캐릭터 '빨간머리앤' 디자인의 쇼핑백과 상자에 초콜릿과 젤리 등을 담아 선보인다. 다이어트나 운동에 관심이 많은 고객을 위해 '프로틴그래놀라바'를 담은 레트로 디자인의 '레트로미니캐리어'도 준비했다.뚱랑이 캐릭터로 발렌타인데이 시즌 때 품귀 현상을 빚었던 뚱랑이레디백세트를 비롯해 뚱랑이랜덤하트무직타이커세트와 뚱랑이리사이클링숄더백세트도 선보인다. 글로벌 대표 캔디 브랜드 츄파춥스와 콜라보를 통해 탄생한 상품도 출시했다. 아이들에게 인기 만점인 Δ브레드이발소퍼즐캔디 Δ시크릿쥬쥬별모양롤리팝캔디 Δ미니베어저금통도 만나볼 수 있다.이마트24는 화이트데이를 맞아 '쌕쌕젤리'와 '페를레 디 솔레' 제품을 전면에 내세웠다.(이마트24 제공) © 뉴스1이마트24는 쌕쌕젤리 기획세트를 비롯해 Δ아보카도 구미 Δ하트마쉬멜로 Δ쥬케로캔디 등을 전면에 내세웠다. 쌕쌕젤리 5입 기획세트는 향수를 불러일으키는 '쌕쌕' 음료 세트 패키지를 재연해 재미와 위트를 제공하는 상품이다.또 ‘페를레 디 솔레’(PERLE DI SOLE) 이탈리아 캔디(쥬케로캔디) 4종(레몬·오렌지·아몬드오렌지 캔디·왕딸기 마쉬멜로우)도 호응이 기대되는 상품이다. 페를레 디 솔레는 알러지 반응과 글루텐 함유 등이 없어 임산부가 많이 찾는 입덧 캔디로 유명한 인기 상품이다. 이 밖에도 디아블로 레드와인과의 페어링을 염두에 두고 협업한 '디아블로 초콜릿'을 비롯해 Δ코인초콜릿 Δ이탈리아 위토스 초콜릿 4종 Δ메카톤 말랑카우 세트 등도 호응이 기대되는 상품이다.한 편의점 업계 관계자는 "화이트데이를 맞아 최신 트렌드를 반영한 세대별 맞춤 캐릭터 상품들이 준비되고 있다”며 "코로나19로 인해 모두가 지쳐 있는 일상 속에서 이번 화이트데이가 서로 간의 따뜻한 마음을 나누고, 웃을 수 있는 시간이 됐으면 하는 바람"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.03.07.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>[매경춘추] 혁명 시대의 리더</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004930954?sid=110</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>4차 산업혁명이란 개념은 우리에겐 이제 너무나도 익숙한 용어가 되어버렸다. 강의 시간이나 토론에서 4차 산업혁명이라는 용어를 꺼내면 시큰둥한 표정을 짓는 사람이 다수인 것을 느끼지만, 정작 이것의 실체가 무엇이고 왜 혁명이라고까지 부르는가에 대한 답을 바로 내는 사람들은 상대적으로 소수이다. 대신 많은 이가 4차 산업혁명의 핵심으로 인공지능(AI), 빅데이터를 떠올리고 최근에는 메타버스를 꼽고 있다. 그렇다면 혁명의 정의로 돌아가 보자. 혁명이란 이전의 시스템이나 관습, 제도가 파괴되고 새로운 시스템과 룰이 급격하게 세워지는 것을 의미한다. 사실 AI, 메타버스는 혁명을 수행하고 완료된 세계에서 필요로 하는 핵심 기술로서의 역할이다. 4차 산업혁명의 핵심은 기존 사이버 공간과 물리적 공간이 분리된 세계가 경계 없이 하나로 합쳐지면서, 분리된 공간에서 각자 존재하던 룰과 시스템이 파괴되고 합쳐진 세상에서 작동하는 새로운 룰과 시스템의 등장이다. 이로 말미암아 경제 구조의 변화와 노동시장의 변화를 포함한 기존의 시스템과 룰로는 수용하거나 해결할 수 없는 다양한 사회적 이슈도 만들어지고 있다. 또한 기존의 시스템을 고수하는 이들이 무너지고, 연결된 세계를 지배할 시스템을 설계하고 빠르게 따라가는 자들이 새로운 왕으로 등극하고 있다. 찰스 다윈의 "변화의 시기에는 강한 종이 살아남는 것도 아니고 가장 인텔리전트한 종이 살아남는 것도 아닌 변화에 가장 잘 적응한 종만이 살아남는다"는 말은 혁명의 시기를 살아가는 오늘날의 기업인에게도 그대로 적용되는 교훈이다. 연결된 새로운 세상에는 연결을 잘할 수 있는 능력을 가진 자와 연결된 세상에서 필요한 것들이 무엇인지 예견하고 제공할 수 있는 자들이 살아남을 수 있을 것이다. 그러기 위해서는 기존의 분리된 세상에서 작동했던 승자의 룰을 잊고 기존의 틀 밖의 사고가 필요하다. 의료산업에 있어 정확도와 안전성을 기준으로 웨어러블 디바이스를 보면 형편없는 제품으로 보이지만 그것의 용도는 정확도가 아니라 끊임없는 연결로 보아야 하듯 말이다. 과거 마이크로소프트의 최고경영자(CEO)였던 스티븐 발머 역시 기존 PC 시장의 기준인 빠른 전송 속도와 대용량의 생산성을 놓고 2007년 아이폰을 판단했다. 모바일은 언젠가 올 미래이나 아이폰은 아닐 것이라는 오판으로 구글에 모바일 시장의 패권을 내주고 어려운 시기를 겪어야 했던 것도 기존 틀 안에서의 사고로 인한 오판이었다. 우리나라 금융기관들이 '토스'의 시장 진입 당시 그 가능성을 인정하지 않았던 것도 마찬가지다. 기존에 강자였던 오프라인 기업들이 아마존을 원망하고 은행들이 핀테크 기업들 때문에 고통스럽다고 외친다. 하지만 아마존도 핀테크 기업도 기존의 기업을 괴롭히기 위해 등장한 것이 아니라 연결된 세상이 필요로 하는 새로운 룰과 시스템에 최선을 다했을 뿐, 원망해야 하는 대상은 혁명의 시기에 기존의 틀 안에서 작동하던 공식을 여전히 추종한 자기 자신이 아닐까. 예수님의 말씀이셨던가. 지금은 새 술이 새 부대를 필요로 하는 혁명의 시대이다.[윤여선 KAIST 경영대학 학장]</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.03.14.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>카드사 수수료 인상에 뿔난 PG사들…“계약 해지 검토”</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002724621?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>PG협회 "수수료율 최고 수준으로 올라"오는 15일 신한카드 앞 협상촉구 집회전자지급결제대행(PG·Payment Gateway)사 단체가 신용카드사의 가맹점 수수료 인상에 반발하고 나섰다.8개 PG사로 구성된 전자지급결제협회(이하 PG협회)는 최근 7개 카드사에 수수료 인상안을 수용할 수 없다는 의견을 공식 전달했다고 14일 밝혔다.PG사는 카드사와 직접 온라인 중개 시스템 구축 및 계약을 체결할 수 없는 온라인 쇼핑몰의 시스템 제공과 가맹점 계약을 제공하는 '대표가맹점'으로서 일반적인 신용카드 가맹점과 다르며, 온라인 쇼핑몰에 신용카드사의 결제 서비스 및 지불을 중개하는 사업구조를 갖는다. 나이스페이먼츠, 다날, 엔에이치엔한국사이버결제, 케이에스넷, 케이지모빌리언스, 케이지이니시스, 토스페이먼츠, 한국정보통신 등 PG협회에 소속된 8개사의 점유율은 90%가 넘는 것으로 알려졌다.PG협회에 따르면 지난 1월 말∼2월 초 7개 카드사는 각 PG사에 가맹점수수료를 이달 1일부터 0.05∼0.1%포인트 인상한다고 통보했다.PG협회는 지난달 16일 7개 카드사에 공문을 보내 가맹점 수수료 인상 통보에 대한 수용 불가 의견을 밝히고, 가맹점 수수료 산정 근거인 원가자료의 공개를 요구했으나 명확한 설명을 듣지 못했다고 전했다. PG협회 관계자는 "이번 인상으로 PG사의 수수료율은 최고율인 2.25∼2.3%로 오르게 된다"며 "카드업계가 영세·소규모 가맹점에 대한 우대수수료율 인하에 따른 손실분을 PG사를 통해 만회하려는 것"이라고 주장했다.앞서 금융당국은 연매출액 30억원 이하 가맹점에 적용되는 우대수수료율을 0.8∼1.6%(체크카드 0.5∼1.3%)에서 0.5∼1.5%(체크카드 0.25∼1.25%)로 인하했다.PG협회는 또 "PG사 수수료율 인상은 카드 결제에 PG사를 이용하는 이커머스·온라인쇼핑몰 입점업체의 부담을 가중하고, 결국 소비자 피해를 초래할 것"이라고 지적했다.PG협회는 오는 15일부터 사흘간 카드업계 1위 신한카드 본사 앞에서 카드사의 수수료 인상에 반대하고 협상을 촉구하는 집회를 열 예정이다. 신한카드는 수수료 인상폭이 가장 큰 곳이기도 하다. 차후 협상에 미온적인 카드사에 대해서는 가맹점 계약 해지를 검토하기로 했다.PG사들이 집회를 열고 직접 목소리를 내는 건 이번이 처음이다. PG협회 관계자는 "3년 전에도 수수료 인상이 있었지만 올해는 부담이 훨씬 크다"며 "한 대형 PG사의 경우 연간 영업손실이 100억원에 달한다"고 말했다. 일부 PG사는 온라인 쇼핑몰, 즉 하위 가맹점들이 원하는 카드사만 선택해서 계약할 수 있도록 관련 프로세스를 개편하는 움직임도 있는 것으로 전해졌다. 하위 가맹점이 수수료가 낮은 카드사만 선택해 PG사와 계약하면 PG사도 하위 가맹점의 수수료를 낮게 적용하는 방식이다. 이에 앞서 한국마트협회도 지난달 28일 카드사의 수수료 인상 결정 통보에 반대하는 내용의 기자회견을 열고 가맹점 계약 해지에 나설 것이라고 경고했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.03.11.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>英 "러시아 국방부가 진공폭탄 발사 다연장 로켓 발사대 사용 확인"</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001712238?sid=104</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>[앵커]러시아 군이 우크라이나에서 비윤리적인 대량살상무기를 사용한 사실을 확인했다고 영국 국방부가 밝혔습니다.민간인을 상대로 일부러 썼다면 불법이라는 지적이 나옵니다.김원배 기자가 보도합니다.[기자]영국 국방부가 트위터에 올린 1분 15초짜리 영상입니다.진공 폭탄으로 불리는 열기압 탄을 발사할 수 있는 다연장 로켓 발사대 TOS-1A(토스원알파)가 얼마나 위험한지 설명하고 있습니다.열기압 탄은 산소를 빨아들여 강력한 초고온 폭발을 일으킴으로써 사람의 내부기관에 손상을 줍니다.군인과 민간인을 가리지 않을 정도로 무차별적이고 파괴력이 강력해 비윤리적인 대량살상무기로 인식되고 있습니다.영국 국방부는 러시아 국방부가 우크라이나에서 TOS-1A(토스원알파)를 사용한 사실을 확인했다고 밝혔습니다.[영국 국방부 : TOS-1A(토스원알파)는 열기압 탄두를 탑재한 로켓을 발사할 수 다연장 로켓 발사대로 러시아군이 아프가니스탄과 체첸에서 사용했습니다.]영국 국방부는 "열기압 탄은 고온 폭발을 일으키기 위해 주변에 있는 공기에서 산소를 사용하며, 기존 폭발물보다 폭발 효과가 더 오래간다"고 설명했습니다.또 "TOS-1A(토스원알파)는 인프라를 파괴할 수 있으며, 내부 장기에 심각한 손상을 주고 화상을 입혀 노출된 사람들을 사망에 이르게 할 수 있다"고 덧붙였습니다.이어 "열기압 탄 사용은 불법은 아니지만 무력분쟁에 관한 법의 엄격한 통제를 받는다"고 전했습니다.예를 들어 "민간인을 위험에 빠뜨릴 수 있거나, 민간인이 입을 피해가 군사적 이익보다 과도하게 크거나, 불필요한 고통을 초래해서는 안 된다"고 지적했습니다.그러면서 "블라디미르 푸틴 러시아 대통령이 민간인을 상대로 TOS-1A(토스원알파) 시스템을 의도적으로 사용한다면 그것은 불법"이라고 덧붙였습니다.YTN 김원배입니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.03.08.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>“핀테크에 뺏길라”… 실손 청구 간소화 나선 보험사들</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000798383?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>실손보험 가입자 중 47.2%… “보험금 청구 포기한 적 있어”  토스·해빗팩토리·핀크 등 청구 간소화 위해 서비스 제공  보험업계 역시 핀테크와 MOU 통해 서비스 확대        실손의료 보험금 청구에 어려움을 느낀 소비자들을 겨냥한 핀테크 업체들의 서비스가 늘면서 기존 보험사들도 관련 서비스를 확대하는 모습을 보이고 있다. 의료 정보 전송 플랫폼 기업과 업무협약(MOU)을 맺는 등, 올해 또한 보험금 청구 절차 간소화 관련 상품이 늘어날 전망이다.        핀테크사들이 관련 서비스를 확대하는 이유로는 기존 보험금 청구 방식에 불편함을 느끼는 소비자들이 많기 때문이다.실손보험금 청구는 진료받은 병원에서 서류를 발급받는 절차 외에도 이메일, 팩스, 방문 등을 통해 보험사에 제출해야 한다. 또한 서류 발급을 까먹은 경우, 다시 병원에 들려야 하는 번거로움도 있다. 지난해 소비자 단체 녹색소비자연대 등이 실손보험 가입자 1000명을 대상으로 조사한 결과 47.2%가 보험금 청구를 포기한 것으로 나타났다.토스는 지난 2019년 ‘병원비 돌려받기’ 서비스를 출시했다. 이용자는 실손의료보험 및 기타 보장성 보험 가입자들이 토스를 통해 청구서 작성과 접수뿐만 아니라 팩스 전송까지 진행할 수 있다. 현재까지 약 80만건 정도를 처리했으며, 청구 가능한 보험사는 20곳 이상이다. 토스 관계자는 “청구 가능한 보험사 수를 늘리는 등, 범위를 확대해 나갈 계획”이라고 밝혔다.핀크의 경우 올해 안에 본인신용관리업(마이데이터) 서비스와 연동해 서류 발급 없이 앱으로 보험금을 청구하는 서비스를 준비 중이다. 권영탁 핀크 대표는 “올해 상반기 내 출시하는 것이 목표”라며 “여러 보험사와 협의는 마쳤고 이후 범위를 확대해 나갈 계획”이라고 말했다.인슈어테크 기업 해빗팩토리 역시 비슷한 서비스를 제공하고 있다. 해빗팩토리는 실손보험 청구 간소화를 위해 크게 2가지 서비스를 제공 중이다. 먼저 ‘의료비 가계부’를 통해 고객은 보험금 청구 가능 여부를 확인할 수 있다. 만일 가능하다고 판단될 시, 필요한 서류, 청구 가능한 보험사에 대해 안내한다. 이후 고객을 대신해 보험사에 메일, 팩스 등을 전송하는 식이다. 정윤호 대표는 “서류 발급 없이 보험금을 청구할 수 있는 방안에 대해서도 고려하고 있다”라고 밝혔다.그래픽=손민균        올해 들어 보험금 청구를 간소화를 위해 서비스 확대에 나서는 보험사들도 늘고 있다. 핀테크 업체와 MOU를 맺거나 모바일 청구 시스템 적용 범위를 넓히는 식이다.삼성화재(000810), DB손해보험(005830), KB손해보험 등 주요 손해보험사의 경우 대형병원 및 핀테크 업체 등과 손을 맺는 방식을 통해 관련 서비스를 제공해왔다. KB손해보험에 따르면 현재 연계된 병원은 62곳이며 앞으로도 이를 확대해 나갈 방침이다. 삼성화재와 DB손해보험 또한 이와 비슷한 계획이다.지난달 DGB생명과 미래에셋생명은 의료정보 전송 플랫폼 전문기업 지앤넷과 MOU를 맺고 간편 청구 서비스를 개시했다. 지앤넷과 연동된 병원을 이용하는 경우 별도 서류 발급 및 제출이 없어도 보험금 수령이 가능하다. 병원 내에 있는 무인 단말기(키오스크)나 앱을 통해 청구하면 된다. 현재 약 120개 병원에서 이용 가능하나, 앞으로 그 수는 늘어날 전망이다. 지앤넷 관계자는 “3월 말까지 최대 600곳까지 병원 수를 늘릴 계획”이라며 “이후에도 지속적으로 늘려나갈 예정”이라고 했다.롯데손해보험의 경우는 모바일 보험금 청구 시스템을 일반 보험서비스(상품)를 포함 법인고객 등 전 영역으로 확대 운영하기로 결정했다. 기존에는 질병·여행자보험 등 주요 상품을 대상으로 시스템을 운영해왔지만, 편의성을 높이기 위해 적용 범위 또한 넓히기로 했다.다만 일각에서는 보험사가 핀테크 업체에 종속될 수 있다는 우려를 표하기도 했다. 보험사 자체로는 실손보험 청구 간소화에 나서지 못하는 만큼, 핀테크 업체에 대한 의존도가 높아질 수밖에 없다는 설명이다. 한 업계 관계자는 “핀테크와의 협업은 보험사가 자체적으로 청구 간소화를 못하는 이유 때문에 발생한 것”이라며 “현재 국회에서 계류 중인 청구 간소화 개정안이 통과되지 않으면 이런 경향은 더욱 심해질 것”이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.03.02.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>화이트데이 특수 잡아라…편의점, 협업·할인상품 봇물</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011035437?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이국현 기자 = 편의점 업계가 트렌디한 브랜드와 콜라보한 상품을 선보이며 '화이트데이' 특수 잡기에 나섰다. 한정 수량 굿즈를 함께 구성한 상품은 물론 라이브커머스와 모바일 쇼핑 채널을 확대해 구매 편의도 높였다. 2일 BGF리테일이 운영하는 CU에 따르면 지난 8일부터 14일까지 밸런타인데이 관련 상품 매출이 전년 대비 54.5% 증가한 것으로 집계됐다. 특히 이색 콜라보를 시도한 차별화 상품 매출은 88.5% 급증했다. 이에 CU는 화이트데이를 겨냥해 모바일 RPG 게임 '쿠키런:킹덤'을 비롯해 라인프렌즈, 위글위글 등과 손잡고 40여종의 차별화 상품을 준비했다. 쿠키런:킹덤 협업 상품에는 포토카드 10여종을 랜덤으로 담았고, 밸런타인데이에 조기 완판된 위글위글 상품은 12종으로 확대했다. 콩순이가 디자인된 콩순이 틴케이스와 테지움 테디베어와 협업한 테지움 베어세트도 한정 수량 선보인다. 오는 10일에는 CJ온스타일 라이브쇼 채널에서 '위글위글 캐리어'를 단독 판매한다. 비대면으로 마음을 전달하는 고객들을 위해 40여 종의 화이트데이 상품을 카카오톡 선물하기와 네이버 스마트스토어에서 기프티콘으로 선보인다. GS25는 200여개의 행사 상품과 파격 혜택을 선보인다. 고양이 캐릭터 '팰릭스'와 협업해 스티커 굿즈, 재사용이 가능한 리유저블 세트를 준비했다. 10~20대에게 인기를 얻고 있는 이모티콘 '최고심', B급 감성으로 30~40대에 지지를 받고 있는 이모티콘 '오늘의 짤', 1993년 대전 엑스포 추억을 되살리는 '꿈돌이', 인기 웹툰 캐릭터 '무케' 등 협업 상품도 선보인다. GS25는 '카카오톡 선물하기', '네이버 쇼핑라이브', '나만의 냉장고 원플러스콘'에서 캔디, 젤리 등 인기 상품을 최대 50% 할인하는 기획전도 진행한다. GS25 전용 앱 '나만의 냉장고'에서는 캔디, 초콜릿, 세트상품 구매 고객 대상으로 인기 운동화 및 '펠릭스' 굿즈를 지급하는 경품 이벤트도 진행한다. 세븐일레븐은 소녀감성 인기 캐릭터 '빨간머리앤' 디자인의 쇼핑백과 상자에  초콜릿과 젤리 등을 담아 선보인다. 다이어트나 운동에 관심이 많은 고객을 위해 '프로틴그래놀라바'를 담은 레트로 디자인의 '레트로미니캐리어'도 준비했다. 뚱랑이 캐릭터로 발렌타인데이 시즌 때 품귀 현상을 빚었던 '뚱랑이레디백세트', '뚱랑이랜덤하트무직타이커세트', '뚱랑이리사이클링숄더백세트'도 선보인다. 글로벌 대표 캔디브랜드 츄파춥스와 콜라보를 통해 탄생한 상품도 출시했다. 아이들에게 인기 만점인 '브레드이발소퍼즐캔디', '시크릿쥬쥬별모양롤리팝캔디', '미니베어저금통'도 만나볼 수 있다. 이마트24는 '쌕쌕' 음료 세트 패키지를 재연한 쌕쌕젤리 기획세트를 비롯해 아보카도 구미, 하트마쉬멜로 등 재미와 위트를 담은 상품을 선보인다. 디아블로 레드와인과 페어링을 염두에 두고 협업한 '디아블로 초콜릿'을 비롯해 코인초콜릿, 이탈리아 위토스 초콜릿, 메카톤 말랑카우 세트도 준비했다. 이마트24는 3월 말까지 화이트데이 행사 상품 200여종을 구매하고, 스탬프 3개를 모은 고객을 대상으로 즉석 뽑기 이벤트도 진행한다. 뽑기를 통해 다이슨 '에어랩 컴플리트 롱', '슈퍼소닉 골드 블루' 등을 제공한다. 미니스톱은 MZ세대 유행어 '어쩔OO' 등을 박스형 패키지로 재밌게 만든 신조어 패키지 등 10개 품목을 준비했다. 발렌타인데이에 반응이 좋았던 타이거패키지 3품목도 준비했다. 오는 13일까지 제휴 카드로 페레로로쉐 구매 시 50% 할인 혜택을 제공한다. 16일까지 초콜릿 20품목을 미니스톱 멤버십X카카오페이로 결제 시 30% 할인을 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.03.04.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>기지개 켠 은행권 채용…세 불리는 인터넷銀, 시중은행 '미적미적'</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005053477?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>카카오뱅크 경력 개발자 최소 100명토스는 전 계열사에 600명대규모 인재 모시기 경쟁시중銀 디지털화로 소극적농협·우리 외 공채일정 미정뽑아도 IT인력 위주 충원상반기 은행권 채용이 본격화 된 가운데 최근 디지털·플랫폼으로 급성장하고 있는 인터넷전문은행들이 덩치불리기에 나서고 있다. 시중은행도 공개 채용을 진행하곤 있지만 급격한 디지털 전환(Digital Transformation) 등의 여파로 규모는 예전만 못한 상태다.4일 금융권에 따르면 카카오뱅크는 이날부터 100여명 이상의 대규모 경력 개발자 채용에 나선다. 카카오뱅크의 전체 인력(약 1100명)을 고려하면 약 10% 내외의 인력을 신규 채용하는 것이다. 자기소개서 항목은 제외됐으며, 1·2차 면접을 같은 날 진행하는 등 절차를 대폭 간소화 했다.토스 역시 이달 말 까지 전 계열사에 걸쳐 600명을 신규 채용한다. 지난해 출범한 토스뱅크의 초기 인력 규모가 약 250명이었던  점을 감안하면 상당폭의 인재 확충에 나서는 셈이다. 영업점이 존재하지 않는 만큼 채용 직군은 대부분 디지털·마케팅 부문에 포진 돼 있다.인터넷전문은행들이 공세적인 인재 확보에 나서고 있는 것은 훌쩍 커진 덩치 때문이다. 당장 인터넷전문은행(카카오뱅크·케이뱅크)의 지난해 3분기말 기준 원화예수금 규모는 41조3700억원으로 출범 직후인 2017년 3분기(4조1909억원) 대비 10배 가량 늘었다. 수치상 규모로 비할 바는 아니지만, 같은 기간 국내 전체 은행권의 예수금 증가율(약 40%)을 훌쩍 뛰어 넘는 수준이다. 카카오뱅크만 해도 출범 초기 300명 남짓이었던 인력규모가 지난달 말 기준 1135명으로 4년 새 3배 정도 증가했다.시중은행들도 채용을 본격화 하고 있다. NH농협은행은 지난해 말부터 시작한 공채를 통해 약 450명(일반직 420명, IT직 30명)을 채용할 예정이며, 우리은행 역시 상반기 공채를 통해 세 자릿수 채용에 나선다. 이외 KB국민·신한·하나은행은 아직까지 공채 일정을 구체화하지 않은 상태다.하지만 분위기는 사뭇 다른 편이다. 은행권의 공채 인원 자체가 수 년 새 줄어들고 있어서다. 배진교 정의당 의원이 지난해 발표한 자료에 따르면, 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 정기 공채 인원은 지난 2017년 1479명에서 2019년엔 2158명까지 늘었으나, 지난해엔 1382명으로 줄었다. 은행들이 디지털 인재 영입을 위해 ICT 부문 공채에 나섰던 점을 고려하면 일반 부문 공채 규모는 나날이 줄고 있는 것으로 해석된다.시중은행의 채용이 예전만 못한 것은 디지털 전환과 비대면 수요의 증가로 인력 소요 자체가 감소하고 있기 때문이다. 실제 금융감독원 전자공시시스템에 따르면 지난해 3분기 기준 4대 시중은행의 임직원 수는 5만7467명으로 2017년 대비 6.0%(3705명) 감소했다. 같은 기간 국내 영업점포 역시 3613개에서 3203개로 11.3% 줄었다.다만 시중은행도 디지털 전환(DT)과 관련한 인재들은 크게 늘리는 추세다. 신한은행의 지난해 디지털 인력은 785명으로 2017년 대비 57.0% 늘었다. 금융권 관계자는 "디지털 전환에 더해 코로나19 팬데믹(세계적 대유행)에 따른 비대면 수요가 확대되면서 일선 영업점 등 대면 영업 수요가 크게 줄고 있는 만큼 채용 규모가 큰 폭으로 늘어나긴 어려울 것"이라며 "다만 시중은행들도 디지털과 관련한 인재들은 공채는 물론 수시 채용 방식으로 모집하는 등 규모를 확장하는 추세"라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.03.02.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>연간 비대면 대출 275조…영업점 안가고 앱 켠다</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003001557?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>ⓒ게티이미지은행에 가지 않고 인터넷뱅킹이나 모바일뱅킹을 이용한 대출 신청이 하루 7500억원 넘게 이뤄지는 것으로 나타났다. 최근 2년 새 4배 가까이 급증한 수준이다.2일 한국은행이 발표한 '2021년 중 국내은행 인터넷뱅킹 서비스 이용현황'에 따르면 19개 국내은행과 우체국예금 기준 지난해 인터넷뱅킹(모바일뱅킹 포함)을 통한 대출신청 서비스 이용 건수는 하루 평균 3만1000건으로 집계됐다. 코로나19 발생 전인 2019년(1만5000건)에 비해 약 2배 늘었다. 2020년(2만1000건)에 비해선 47.6% 증가했다.지난해 인터넷뱅킹을 통한 대출신청 이용금액는 7545억원을 기록해 2019년 1925억원에 비해 약 4배(391.9%) 급증했다. 연간으로 치면 약 275조3925억원의 비대면 대출이 이뤄졌다는 계산이 나온다.코로나19 이후 은행 방문이 줄어든 대신 인터넷전문은행을 필두로 비대면 대출이 급증한 영향으로 분석된다. 지난해 출범한 토스뱅크는 5000억원의 총대출 한도를 출시 9일만에 소진하기도 했다. 시중은행도 자체 애플리케이션(앱)을 통한 비대면 신용대출, 전세대출을 내놓으며 온라인 대출시장을 키웠다.인터넷뱅킹 중에서도 모바일뱅킹 고객이 차지하는 비중이 지속적으로 증가하고 있다. 지난해 모바일뱅킹 등록고객 수는 1억5337만명으로 전체 인터넷뱅킹 등록고객 수(1억9086만명)의 80.35%를 차지했다. 2018년 모바일뱅킹 고객 비중 78.31%에서 약 2.0%포인트 증가했다.이용실적도 모바일뱅킹을 중심으로 재편되고 있다. 지난해 말 인터넷뱅킹 이용 건수는 하루 1732만건이었는데 이중 모바일뱅킹이 1436만건을 차지했다. 모바일뱅킹 이용 비중이 2018년 67.5%에서 지난해 82.9%로 커졌다.다만 이용금액 면에서는 아직까지 인터넷뱅킹을 통한 이체나 대출이 더 이뤄졌다. 지난해 인터넷뱅킹 이용금액은 하루 평균 70조5541억원으로 1년 전보다 19.6%가 증가했다. 이중 모바일뱅킹은 12조8575억원으로 1년 전보다 36.6% 증가, 비중은 18.2%였다.입출금이나 자금이체, 조회서비스 등 간단한 업무를 위해 은행 창구를 찾거나 현금자동입출금기(ATM) 등 이용률은 급격히 떨어지고 있다. 지난해 인터넷뱅킹을 통한 입출금·자금이체 서비스 이용 비중은 74.7%로 2018년 52.6%에서 크게 증가했다. 은행 창구는 5.8%, ATM 또는 현금자동인출기(CD)는 16.0%, 텔레뱅킹 3.5% 순이었다. 이들 이용 수단은 2018년에 비해 이용률이 절반 수준으로 대폭 하락했다.간단한 조회서비스 이용 비중은 인터넷뱅킹이 94.6%로 대부분을 차지했다. 은행 창구에서 조회서비스를 처리한 비중은 3.9%, CD·ATM, 텔레뱅킹은 각각 0.8%, 0.7%로 미미했다.[표]인터넷뱅킹 서비스 이용 실적(자료: 한국은행)*기말 현재 19개 국내은행, 우체국예금 고객 기준(중복 합산), 대출 건수와 금액은 1평균.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>[기고] 컴퓨터학과 인기, 기술패권 경쟁 청신호!</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002249294?sid=105</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>얼마 전 2022년도 대학입시에서 서울 소재 의과대학과 컴퓨터공학과에 모두 합격한 학생이 컴퓨터공학과를 택했다는 기사를 본적이 있다. 최근 인공지능(AI)과 소프트웨어(SW) 등 디지털 인재수요가 높아지면서 의대에 쏠리던 최상위권 학생들의 컴퓨터학과 선호가 높아진 것으로 보인다.2022학년도 정시 지원결과 수도권 주요 대학의 컴퓨터공학 계열 경쟁률이 작년에 비해 대폭 높아졌다. 서울대 컴퓨터공학부는 2.58대 1→3.40대1, 연세대 컴퓨터과학과는 3.56대→6.23대1을 기록했다. 특히, 올해 처음 모집을 시작한 연세대 인공지능학과 경쟁률은 무려 8.17대 1을 기록했다고 한다.컴퓨터학과 인기는 고등학생들의 희망직업 선호에서도 확인된다. 교육부와 한국직업연구원의 '2021년 초중등 진로교육 현황조사'에 따르면 고등학생 희망직업 중 컴퓨터공학자·소프트웨어개발자는 4위(’20년 7위)를 기록해 공무원(6위)과 의사(7위) 보다 순위가 앞섰다.전성배 IITP 원장컴퓨터학과 인기는 학생들 취업 희망기업에서도 확인할 수 있다. ‘네카라쿠배당토’는 주요 IT 기업인 네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스의 앞글자를 딴 신조어인데, 이 기업들은 그동안 늘 취업준비생들에게 최애 기업으로 통하던 ‘삼현슼엘(삼성·현대·SK·엘지)’ 같은 대기업을 제치고, MZ세대들이 취업하고 싶은 최애 기업이 됐다.'네카라쿠배당토'는 대기업 이상 초봉과 최고 수준 계약금과 스톡옵션, 무이자 주택자금 대출, 무제한 휴가 등 다양한 복지혜택을 제공하고 있다. 이에 더해, 기존 대기업에 비해 유연하고 수평적이며, 즐겁게 일할 수 있는 기업문화를 갖추고 SW·AI개발자를 끌어모으고 있다.빅테크기업 성장 가능성과 이직을 경쟁력 강화의 기회로 생각하는 MZ세대의 인식이 맞아떨어져 취업과 전공선택에 영향을 미친 것으로 보인다. 태어날때부터 디지털기기와 함께 자라고 돈에 대해 솔직해 많은 돈을 벌고 쓰는 것을 자랑스럽게 여기는 MZ세대 특징을 감안한다면, ‘네카라쿠배당토’와 컴퓨터학과 인기는 자연스럽다.과거 정보화시대에는 SW가 HW의 보조수단에 지나지 않았다. SW 개발자는 PC·인터넷으로 정보를 디지털화 하거나 특정 업무 자동화를 처리하는 단순 도구로 인식됐다. 밤을 새워 장시간 일하면서도 연봉이 낮아 컴퓨터학과는 대학입시에서 늘 비인기 학과였다. 그런데 2016년 이세돌과 알파고간 바둑대결은 학생들과 부모들의 인식이 바뀌는 계기가 됐다. 또 코로나에 따른 비대면 경제 확산은 SW·AI 개발자 수요를 폭발시켜 컴퓨터학과 인기를 한층 더 끌어올렸다.이제, 단순 코딩 도구에 불과했던 SW·AI개발자는 디지털 대전환이라는 패러다임 변화 속에서 기존 체계와 문화를 근본적으로 바꾸는 ‘게임 체인저’가 되고 있다. 바야흐로 SW·AI개발자 확보를 위한 ‘인재전쟁시대’가 도래한 것이다.디지털 대전환과 비대면 경제 확산으로 코딩만 할 줄 알아도 취업이 되고, 잘만하면 창업으로 상상도 못할 ‘잭팟’을 터트릴 수 있는 세상이 됐다. SW개발자로 창업해 21세기 신흥갑부로 등극한 래리페이지(구글), 마크 저커버그(메타), 이해진(네이버)의 뒤를 잇는 SW·AI개발자가 등장할 것으로 생각한다.세계 각국은 승자독식의 글로벌 기술패권 경쟁에서 살아남기 위해 기술주권 확보에 사활을 걸고 있다. 기술패권 경쟁 핵심은 디지털 기술과 핵심인재 확보다. 컴퓨터학과의 뜨거운 입시 열기를 볼 때 우리나라가 기술패권 경쟁에서 승리할 수 있을 것이라 확신한다.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.03.04.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>다시 불타오른 성화…2022 베이징 겨울패럴림픽 개회</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003414650?sid=104</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>베이징=AP 뉴시스비장애인 올림픽 성화가 꺼진 지 12일 만에 중국 베이징에서 성화가 다시 타올랐다.2022 겨울패럴림픽(장애인올림픽)이 4일 오후 9시 중국 베이징 국립체육장 '냐오차오'(鳥巢·새 둥지)에서 열린 개회식으로 힘찬 시작을 알렸다.2008 여름 패럴림픽을 개최한 베이징은 역사상 최초로 여름·겨울 패럴림픽을 모두 개최한 도시로 냐오차오 역시 역사상 최초로 여름·겨울 대회 개회식을 모두 치른 장소가 됐다.14년 전 비장애인 여름 대회와 지난달 막을 내린 비장애인 겨울 대회 총연출을 맡은 유명 영화감독 장이머우(張藝謀))가 이번 패럴림픽에서도 예술 감독을 맡았다.전 세계적인 신종 코로나바이러스 감염증(코로나19) 대유행과 러시아의 우크라이나 침공으로 인한 혼란 속에도 각국 선수들의 도전은 이어진다.올해 겨울패럴림픽은 이날부터 13일까지 중국 베이징과 옌칭, 장자커우에서 열리며 6개 종목에서 금메달 78개를 놓고 열전을 벌인다.슬로건은 2022 겨울올림픽과 똑같이 '함께 미래로(一起向未來)'다.원래 이번 대회엔 51개국이 참가할 예정이었지만 최종적으로 참가한 나라는 46개국이다.우크라이나를 침공한 러시아와 이에 동조한 벨라루스는 개회를 하루 앞둔 3일 국제패럴림픽위원회(IPC) 결정으로 대회에 나서지 못하게 됐다. 우크라이나에서는 선수 20명과 가이드 9명이 출전한다.코로나19 여파로 간소하게 진행한 비장애인 올림픽 개회식과 마찬가지로 패럴림픽 개회식 역시 거창함보다는 행사 하나하나에 의미를 담는 데 집중했다. 개회식 주제는 '생명의 피어남'(Blossoming of Life)이다. 바쁘게 자신의 삶을 살아가는 장애인과 비장애인이 함께 시간을 내 전 세계 사람들을 환영하는 퍼포먼스를 연습했다.본격적인 행사는 패럴림픽 역사를 되짚어보는 시간을 갖는 것으로 시작했다.별이 반짝니는 바다를 나타낸 무대 위에 지난 패럴림픽 12개 대회를 소개하고 2022 베이징에 이르러 바다는 얼음으로 변했다.  관중석에서도 플래시로 별빛을 만들어 함께 개막을 축하했다.이어 6개 종목에 출전하는 장애인 선수가 장애물을 피해 슬로프를 질주하고 컬링 스톤이 미끄러져 나가는 모습과 함께 카운트 다운을 시작했다.시진핑(習近平) 중국 국가 주석과 앤드루 파슨스 IPC 위원장 등을 소개한 뒤에 중국 국기를 게양했고, 시각장애인 대학생 24명이 아카펠라로 국가를 불렀다. 동시에 청각장애 출연자가 수어로 국가를 표현했다.이후 패럴림픽 마스코트 '쉐룽룽'(雪容融)과 이번 대회 주인공인 각국 선수단이 입장했다.입장 순서는 중국 간체자 획순에 따라 결정했다. 한국은 46개 팀 중 35번째로 입장했다. 우리나라는 이번 대회에 선수 32명을 포함해 선수단 82명을 파견했다. 개회식에는 윤경선 한국선수단장을 비롯한 임원과 선수 18명(하키 13명·컬링 5명) 등 총 41명이 참가했다.기수는 혼성 휠체어컬링 대표 '장윤정 고백' 팀(의정부 롤링스톤) 리드 백혜진(39)이 맡았다. 겨울 패럴림픽 참가 역사상 여성 선수가 단독 기수로 나선 건 이번이 처음이다. 벨기에가 가장 먼저 입장하고 우크라이나는 4번째로 무대에 나섰다. 오성홍기와 대회 엠블렘을 그린 깃발을 들고 있던 관중들은 우크라이나 선수단이 입장하자 환호와 박수로 이들을 환영했다. 파슨스 위원장도 기립박수로 이들을 맞았다.대회 조직위원장을 맡은 차이치(蔡奇) 베이징시 당 위원회 서기, 파슨스 위원장이 평화와 반전(反戰)을 강조한 연설을 선보였다.파슨스 위원장은 러시아의 우크라이나 침공에 대해 "현재 세계에서 일어나고 있는 일은 공포스럽다"며 "21세기는 대화와 외교에 임할 때이며 전쟁이나 증오를 할 때가 아니다. 올림픽과 패럴림픽 기간 '휴전 협정'은 제76차 유엔 총회에서 193개 회원국에 의해 채택된 것으로, 지켜져야 하고 위반해서는 안 된다"고 말해 큰 박수를 받았다.시 주석이 개회 선언을 한 뒤 이어진 행사도 '보통 사람들' 이야기를 담았다.장애가 있는 자원봉사자와 운동선수, 무용수, 의족을 차고 에베레스트를 오르는 등반가, 장애인과 비장애인 커플, 쌍둥이 등이 세상을 밝혔다.패럴림픽 상징인 아지토스는 한 시각장애인 출연자 손에서 다른 이들의 손으로 옮겨지며 모습을 드러냈다. 더 많은 장애인이 스포츠를 통해 삶을 변화시키길 기대하는 의미를 담았다.주최 측은 "역대 패럴림픽에서 가장 작은 아지토스를 선보이게 될 것"이라면서도 이 순간이 개회식의 '하이라이트'라고 설명했다.패럴림픽기를 게양할 때는 시각장애인 관악합주단이 패럴림픽 찬가를 연주했다. 악보를 볼 수 없는 10∼22세 학생 47명이 116일 동안 연습을 거쳐 무대를 꾸몄다.개회식 막바지엔 '겨울패럴림픽 왈츠'를 선보였다. 역시 장애인과 비장애인이 함께 무대를 꾸미며 '화합'을 표현했다.마지막은 성화 점화와 불꽃놀이가 장식했다.패럴림픽 발상지인 영국 스토크맨더빌에서 채화한 성화를 가상으로 전달하고 베이징, 옌칭, 장자커우 지역 8개 도시 불꽃이 하나로 합쳐져 빛났다.    중국 역대 패럴림피언 8명이 경기장에서 성화를 이어 받았고, 패럴림픽 육상에서만 금메달 4개를 획득한 리두안(李端)이 최종 주자로 나섰다.비장애인 올림픽 때처럼 거대한 눈꽃송이 모형을 가운데 설치한 안치대에 성화봉을 끼워 넣는 것으로 성화 최종 점화가 끝났다.시각장애 선수인 리두안이 여러 차례 시도 끝에 성화봉을 꽂자 경기장에선 환호성이 터져 나왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.03.02.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>K-기관이 쥔 해외 주식·채권만 485조원 '역대 최대'</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004714838?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>뉴욕 타임스퀘어 나스닥 마켓플레이스지난해 국내 기관투자가들이 사들인 해외 주식과 채권이 잔액 기준 4000억달러를 넘어서면서 역대 최대치를 기록했다. 기관들이 신규투자를 적극적으로 늘린 가운데 미국 등 주요국의 주가 상승으로 평가이익이 늘어나면서다. 한국은행이 2일 발표한 '2021년 주요 기관투자가의 외화증권 투자 동향'에 따르면 국내 주요 기관투자가의 해외 외화증권 투자 잔액(시가 기준)은 4027억2000만달러(약 485조원)로 역사상 가장 많았다. 전년 대비 증가액은 299억7000만 달러에 달한다.  기관투자가의 외화증권 잔액이 급증한 것은 자산운용사를 중심으로 외국 주식에 대한 투자수요가 늘어난 덕분이다. 여기에 주요국 주가가 오르면서 평가액이 증가했다. 지난해 미국 나스닥종합지수는 전년 대비 21.4%, 유럽의 유로스토스50은 21.0% 올랐다.기관투자가별로는 △자산운용사(+337억1000만달러) △외국환은행(+29억4000만달러)이 증가한 반면 △보험사(-34억3000만달러) △증권사(-32억5000만달러)는 감소했다. 자산 종류별로는 외국 주식이 369억1000만달러 늘었다. 반면 외국 채권은 14억3000만달러, 코리안페이퍼(한국 금융기관·기업이 외국에서 발행한 외화표시증권)는 55억1000만달러 각각 감소했다. 특히 외국채권은 보험사(-22억5000만달러)와 증권사(-14억7000만달러)를 중심으로 감소했는데, 글로벌 채권금리 상승에 따른 평가손실이 발생했다는 게 한은측의 설명이다.한은 관계자는 "자산운용사를 중심으로 외국 주식에 대한 투자 수요가 꾸준히 있어왔다"며 "지난해 주가 상승으로 평가이익도 증가했다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>'스타트업 선호도 1위 VC' 알토스, 6개 기업과 연합 채용설명회</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004715692?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>미국 실리콘밸리 기반 벤처캐피탈(VC) 알토스벤처스가 국내 스타트업 6곳과 함께하는 라이브 채용 설명회 '알토스 스타트업 커리어 페어'를 개최한다고 3일 밝혔다. 이날 오후 7시 유튜브 채널 '안될과학'에서 진행되는 설명회에는 △쇼핑몰 솔루션 '아임웹' △소프트웨어 교육 실습 플랫폼 '엘리스' △수학교육 솔루션 매쓰플랫과 풀리를 제공하는 '프리윌린'이 출연한다. 둘째 날인 4일 오후 7시에는 △원스톱 채용 관리 솔루션 그리팅을 운영하는 '두들린' △프리랜서 마켓 플랫폼 '크몽' △습관형성 플랫폼 챌린저스를 운영하는 '화이트큐브'가 참여한다. 설명회에는 안될과학 제작진과 하용호 데이터오븐 대표가 모더레이터로 등장한다. 매일 2개의 세션으로 진행되며 첫 번째 세션에서는 각 기업 대표들과 함께 창업 및 초기 멤버들의 합류 계기, 커리어 성장 방향, 각 조직의 고유문화 등을 이야기한다. 두 번째 세션에서는 개발직군을 위한 코드 리뷰 문화, 인재상 및 개인 역량 향상 등을 소개한다. 채용 분야는 기업에 따라 다르지만 △개발(서버·백엔드, 프론트엔드, iOS 및 안드로이드, 데이터 분석) △기획(PO, PM) △마케팅(퍼포먼스, CRM, 홍보) △디자이너(프로덕트, UX리서쳐) 등 대부분의 직군이 포함돼 있다. 알토스벤처스 관계자는 "이번 설명회를 통해 인재 채용에 어려움을 겪는 스타트업들이 좋은 인재를 영입할 수 있도록 할 것"이라며 "실력 있는 숨은 인재들은 본인의 성향과 잘 맞는 기업을 알고 합류할 수 있는 기회를 찾길 바란다"고 했다. 한편 알토스벤처스는 국내 스타트업 민관협력 네트워크 기관 스타트업얼라이언스가 지난해 스타트업 창업자와 재직자 등 864명을 대상으로 조사한 '선호하는 투자기관'에서 1위를 차지한 벤처캐피탈(VC)이다. 쿠팡과 토스, 우아한형제들(배달의민족), 크래프톤 등에 투자해 수십 배 이상의 수익을 냈으며 쏘카, 타다, 직방, 지그재그 등 국내에서 성공적으로 자리 잡은 스타트업도 알토스벤처스의 손을 거쳤다.[머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.03.13.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>은행권 평균 연봉 '킹'은 어디…카뱅 1억5000만원</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011059399?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>기사내용 요약카뱅, 스톡옵션 행사에 2배 가까이 급증KB국민은행 1억1000만원·씨티은행 1억2000만원[서울=뉴시스]이주혜 기자 = 인터넷전문은행 카카오뱅크의 지난해 평균 연봉이 시중은행을 앞지르고 은행권 최고 수준으로 올랐다. 13일 은행연합회에 공시된 '지배구조 및 보수체계 연차보고서'에 따르면 지난해 카카오뱅크 임직원의 평균 보수는 1억5300만원으로 집계됐다. 이는 시중은행 임직원 평균 보수를 넘어선 업계 최고 수준이다. 시중은행 중에서는 '리딩뱅크'인 KB국민은행의 지난해 평균 연봉이 1억1000만원으로 집계됐다. 우리은행은 9800만원으로 나타났다. 신한은행, 하나은행은 다음 달 중순 보수 내역을 공시할 예정이다. 2020년 신한은행과 하나은행의 평균 연봉은 각각 9620만원, 9700만원이었다.외국계 은행인 한국씨티은행의 지난해 평균 연봉은 1억2000만원으로 카카오뱅크에 이어 업계에서 두 번째로 높은 수준을 나타냈다. 한국스탠다드차타드은행(SC제일은행)의 경우 9700만원으로 집계됐다. 인터넷전문은행인 케이뱅크의 지난해 임직원 평균 보수는 8000만원으로 전년과 같은 수준이었다. 토스뱅크는 6100만원으로 집계됐다. 2020년에는 케이뱅크와 카카오뱅크의 평균 보수가 각각 8000만원, 7900만원으로 비슷한 수준이었으나 지난해에는 격차가 크게 벌어졌다.카카오뱅크의 임직원 평균 연봉은 지난 일 년 사이 급증했다. 전년도 7900만원에서 2배 가까이 증가했다. 반면 KB국민은행은 전년도 1억400만원보다 600만원 늘었으며 우리은행은 전년 9500만원보다 300만원 늘었다.카카오뱅크의 보수가 크게 늘어난 것은 주식매수선택권(스톡옵션)의 행사이익이 반영된 영향이다. 카카오뱅크 관계자는 "지난해 3월 임직원들의 스톡옵션 행사이익이 보수총액에 반영돼 1인당 평균 보수액이 상승한 것으로 나타났다"고 말했다. 카카오뱅크는 2019년 임직원 144명에 총 260억원 규모의 스톡옵션을 부여한 바 있다. 해당 스톡옵션은 2년 이상이 지난날부터 행사할 수 있게 했다. 카카오뱅크는 올해에도 전 직원을 대상으로 스톡옵션을 지급한다. 이달 말 주주총회 승인을 거쳐 직원 866명에게 보통주46만7062주를 스톡옵션으로 부여한다. 스톡옵션 행사는 2년 후인 2024년 3월부터 가능하다. 토스뱅크도 지난달 입사 1주년을 맞이한 사내 임직원을 대상으로 스톡옵션 총 34만주를 부여했다. 부여일로부터 2년 뒤인 2024년 2월에 행사할 수 있다. 한편 4대 금융지주 중에서는 우리금융지주의 지난해 평균 보수가 1억7700만원으로 가장 높았으며 KB금융지주가 1억7200만원으로 뒤를 이었다. 신한·하나금융지주는 각각 1억4500만원으로 나타났다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.03.02.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>[미래의료]"지금이 원격의료 도입을 위한 골든타임"</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002249235?sid=105</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>닥터나우 임경호 부대표 "피할 수 없는 시대 흐름...모든 이해관계자 지속 협의해야"혹자는 미래의료가 정보통신 기술과 결합해 개인·맞춤·예측의 방향으로 발전하리라 전망하지만, 이것만으론 설명이 부족하다. 신종 감염병·기후 위기·4차 산업혁명 등 급격한, 혹은 적대적인 변화 앞에 미래의료는 어떠한 방향이어야 할지 산·학·연과 함께 고민을 시작해본다. [편집자주]임경호 닥터나우 부대표는 닥터나우의 지난 몇 년 동안 “온갖 비난을 받았다”고 회고했다. (사진=닥터나우)“건물에 약국이 6~7곳, 병원도 가득 차 있었지만, 비대면 진료와 약 배송을 해달라고 하더라.”임경호 닥터나우 부대표의 말이다. 연재 ‘미래의료’의 두 번째는 비대면 진료 서비스를 업으로 삼고 있는 닥터나우다. 임 부대표는 닥터나우가 지난 몇 년동안 “온갖 비난을 받았다”고 했다.보건복지부조차 쟁점사안으로 분류, 구체적인 언급을 피하고 있는 비대면 진료를 주 사업 분야로 삼은 이들이 의료계 입장에서는 그리 달가울리 없었다. 이런데다 회사는 틈날 때마다 비대면 진료 필요성에 대한 발언을 지속해왔다.임 대표는 환자의 의료접근을 사회변화에 맞춰 진지하게 생각해봐야 한다고 했다. 코로나19 유행의 여파로 인터뷰는 서면으로 진행됐다.■ “한시 비대면 허용 중단되면 사업 접어야 하지만…”- 닥터나우는 어떤 회사인가.“비대면 진료부터 처방·약배송까지 의료의 모든 것을 앱에서 한 번에 경험할 수 있는 ‘의료앱’이다.”- 닥터나우의 인력 및 조직 구성은 어떻게 이뤄져 있나.“현재 직원 수는 50여 명으로 인재 채용 중이다. 최근 마케팅부문에서 빅테크 플랫폼 기업 출신의 신규 임원을 선임하기도 했고, 토스 출신의 최고제품책임자도 영입했다. 조직은 짧은 수직구조를 지향하고 있다. ‘운영조직’과 ‘프로덕트 조직’으로 나뉘는데, 프로덕트 조직의 경우, 애자일한 스쿼드 단위 조직의 형태로 업무 하는 것을 지향하고 있다. 인력은 엔지니어와 프로덕트 디자이너·기획·PM·PO들로 구성돼 있다.”- 기업문화와 기업 운영에 있어 가장 중점을 두고 있는 것은 무엇인가.“‘5초의 불편함 때문에 5개월을 고생하지 말자’라는 핵심 1원칙을 갖고 있다. 튀는 사람처럼 보일까봐, 괜히 불편한 분위기를 만드는 게 아닐까라는 걱정으로 위축되는 것을 막고, 생산적인 토론과 논의를 지향하자는 취지다. 우린 투명함에 가장 중점을 두고 있다. 직원들은 서로를 실명 대신 영어 닉네임으로 부른다. 부캐(부캐릭터)로 자신의 기량을 펼칠 수 있도록 하기 위해서다.”- 수익구조와 매출 규모는 어떤가.“닥터나우 서비스 론칭 직후부터 현재까지(2020년 12월부터 올해 1월까지) 누적 이용자 수는 140만 명, 앱 다운로드 수는 90만 건 이상을 기록했다. 1월까지의 앱 내 누적 거래액 규모는 약 28억 원 수준이며, 이번 2월의 경우에만 약 30억 원 이상의 앱 내 거래가 발생할 것으로 예측된다.현재는 수익모델을 가동하지 않고 있다. 최우선 목표는 많은 이들이 비대면 진료를 사용하고 익숙해지도록 하고, 원격의료가 국내에 안착할 수 있는 여건을 만들자는 것이다. 진료와 처방 외에 고객에게 프리미엄 서비스를 제공할 수 있는 영역이나, 고객의 불편한 부분을 찾아 해결할 수 있는 분야, 또는 헬스케어 디바이스 연계를 통한 라이프 스타일 분야 등에서 수익을 도모할 수 있을 것으로 예상한다.”- 현 서비스 및 향후 서비스 개편 등에 대한 니즈 등 이용자 반응은 어떤가.“닥터나우 비대면 진료 이용자를 대상으로 조사한 리뷰 만족도는 평점 4.9점(5점 만점)이다. 앱사용 편의성과 시스템, 의료진 만족도에 대해 우수한 평가를 받고 있다. 비대면 진료와 처방약 배송에 대한 만족도가 높아지면서 이용자의 니즈도 구체화되고 있다. 제휴의료기관 확장 및 배송 서비스 다각화 등 서비스 고도화를 진행하고 있다. 늘어나는 트래픽에 대비해 서비스 인프라도 확장 중이다.”임경호 부대표는 이용자 반응이 좋게 나온 것을 두고 “비대면 진료 도입 단계에서 나왔던 일각의 우려가 기우였음을 확인할 수 있다”고 했다. 그러면서 IT 기술적 뒷받침을 “더욱 공격적으로 확장하겠다”고 강조했다.- 제휴를 맺은 의료기관과 약국은 수익 차원에서 닥터나우와의 제휴가 어떤 도움이 된다고 하나.“작년 7월 기준 닥터나우 제휴 의료 기관의 매출은 전월 동기 대비 평균 350% 이상 상승했다. 우린 서비스 론칭부터 병·의원 및 약국 대상 제휴 수수료 ‘0원’ 정책을 고수하고 있다. 그러면서도 비대면 의료 업무에 필요한 각종 소프트웨어, 태블릿, 안전 패키지 등 무료 지원 혜택을 강화하고 있다. 코로나19로 경영난을 겪으며 폐업을 준비하다 우리와 제휴를 하면서 기사회생한 약국도 있다.”사진=닥터나우 유튜브 캡처- 현재가 우리나라에 원격의료 도입을 위한 골든타임이라고 밝혔다. 왜 그렇게 보나.“원격의료의 필요성에 대한 사회적 공감대는 이미 형성됐지만, 사회적 합의 측면에서 속도를 낼 수 없었다. (코로나19 유행 하에서) 비대면 진료가 한시적으로 허용된 이래 360만 건 이상의 비대면 진료가 이뤄졌다. 비급여 진료 항목까지 포함하면 1천만 건 이상의 비대면 진료가 시행됐을 것으로 예상된다.지금과 같은 초기 시점에 원격의료 도입에 대한 여러 시나리오를 검토하고, 시행착오를 겪으며 가설을 세우고 테스트를 진행하는 것이 바람직하다. 이 기간을 흘려보내고, 다시 원격의료가 장막 안으로 사라진다면, 대한민국에서 더 이상의 원격의료 논의는 무의미해질 것이다.OECD 회원국 36개국 가운데 34개국이, 그리고 G7 국가 모두 원격의료를 시행하고 있다. 해외진출을 고려하느냐는 질문에 장지호 대표는 글로벌은 잘 되고 있고 한국이 원격의료를 가장 못하고 있다고 밝힌 바 있다. 국가경쟁력 면에서도 관련 산업의 개화와 육성은 필요하다.”임경호 부대표는 비대면 진료가 국민 편의성과 신뢰, 사회적비용의 절감 등 측면에서 효과성을 입증했다고 주장했다. 코로나19 상황에서는 이 주장은 일견 설득력이 존재한다.다만, 원격의료를 시행 중인 OECD 회원국과 우리나라 사례의 단순 비교는 다소 무리한 측면도 존재한다. 유럽 등 비대면 진료에 개방적인 국가들은 비대면 진료의 도입을 산업적 관점보다는 일차의료와 결부지어 접근하는 경향이 존재한다. 그들은 환자의 존엄을 위해 재택치료를 강조하고 있고, 이를 위한 대안적 방법으로 비대면 진료를 선택한 측면도 있기 때문이다.- 과거 의약계는 닥터나우의 서비스가 의약품 오남용을 초래하고 약 배송 시스템에도 문제가 발생할 수 있다고 주장하면서 갈등을 빚었고 소송까지 이어졌다. 아직도 서로의 입장차만 확인한 상태인지.“닥터나우는 15개 원격의료업체와 함께 ‘원격의료산업협의회’를 결성해 논의를 이어가고 있다. 원격의료 정착을 위해 산업계뿐만 아니라 정부, 의약단체가 지속적인 협의를 진행 중이다. 최근 서울시의사회의 ‘원격의료연구회’와 대한민국의학한림원의 ‘원격의료연구특별위원회’ 등 의료계에서도 원격의료에 대한 논의가 진행되고 있다. 올해는 반대를 위한 반대를 넘어서서 사안을 바로 직시하고 인지하고 함께 건설적인 방향에서 논의가 이뤄지길 바란다.소송 건과 관련해 대한약사회는 비대면 진료(유선 통화)부터 처방약 배송까지 정상적인 서비스를 받았음에도 ‘문자 진료’, ‘공사장 배송’ 등으로 주장했다. 진료를 진행한 의사가 마치 불법을 저지른 것처럼 발표하는 것에 대해 보호하기 위해 명예훼손 등으로 고소를 진행한 것이다.”권덕철 복지부 장관은 언론 간담회에서 의정협의체를 통한 논의가 좀 더 이뤄져야 한다고 밝힌 바 있다. 최근 산업부를 주무기관으로 해 발표된 디지털 헬스케어 육성 전략에서도 의료계와 정부의 검토가 좀 더 필요하다는 부분이 포함되기도 했다. 결론은 아직 이해당사자 사이의 추가 논의를 앞두고 있다는 이야기다.지난해 10월 국회 보건복지위원회 국정감사에 참고인으로 출석한 장지호 닥터나우 대표가 신현영 더불어민주당 의원의 질의에 답변하고 있는 모습. (사진=국회방송)- 많은 경우 원격의료 반대를 기득권의 논리로 이분화하는 경향이 존재하는데, 원격의료 허용 시 삼성이나 대형 포털사이트 중심으로 원격의료가 재편돼 의료영리화 불씨가 재점화될 수 있다는 우려도 있다. 이 과정에서 스타트업들은 오히려 고사될 수 있다는 이야기도 나오는데.“그래서 우리처럼 원격의료에 대한 철학과 목표, 사명감을 가진 업체들의 약진이 중요하다. 단순히 ‘돈이 될 시장’이라는 동향 파악과 분석을 통해 뛰어드는 것보다는 말이다. 빅테크 기업에서 더 많은 고객 네트워크를 가지고 당연히 접근할 수 있고, 이미 시작도 됐다. 닥터나우의 서비스 형태를 위시한 수많은 플랫폼 신생 업체도 생겨났고 투자도 유치하고 있다.시장의 건전한 경쟁과 관련해 전체 시장의 규모가 커지고 산업이 고도화되며 동반성장한다면, 분명 이것은 좋은 방향으로 흘러갈 것이다. 고객에게 더 많은 선택지를 제공하며 더 좋은 서비스를 제공할 수 있다면 산업에 이롭다고 판단한다.닥터나우는 비난을 최전선에서 홀로 맞아왔다. 비대면 진료 및 처방약 배송 실현에만 몰입해 원격의료를 안착시키고 고객 경험도 증대시키고 있다. 우린 의료 ‘슈퍼앱’으로 안착하려 한다.”- 코로나19 팬데믹 상황에서 원격의료를 허용하자는 공감대는 존재한다. 허용 수위를 두고 정부도 고민을 하고 있는 것 같다. 대표적으로 초진환자에게까지 비대면 진료 허용은 사실상 어려워 보인다. 첨예한 사안에서 스타트업을 대표해 목소리를 많이 내왔다. 이로 인해 곤란한 일도 적지 않았을 텐데.“대한민국의 의료 접근성은 높지 않다. 작은 땅, 도시밀집으로 인해 병원과 약국의 물리적인 거리가 가깝다는 것을 두고 의료접근성이 높다고 판단하지만, 의료 사각지대는 도서·산간·벽지가 아니어도, (대상이) 고령층이 아니어도 우리 주변에 존재한다.지난 1월 12일 약 배달을 한 적이 있다. 용인 소재 한 건물 4층에서 비대면 진료와 약 배달을 이용한 고객이었는데, 해당 건물의 1층에는 약국이 6~7곳, 2~3층에는 병원이 가득 차 있었다.직장인 중에는 단 10분의 자리를 비우고 진료를 볼 수 있는 여유도 없는 이들이 많다. 육아맘들도 마찬가지다. 본인이 아파도 아이를 데리고 밖으로 나가야 하는 상황 자체가 부담이 된다. 밤에 아이가 열이 나면 부모는 응급실에 내원하지만, 그곳에서도 별다른 조치를 해줄 수 없다. 왜 열이 나는지 진단을 받고 위안을 얻어야 하는데 서로 답답해지는 상황이 벌어지는 것이다.결국 의료 접근성은 다양한 사례에서 다시 고민해봐야 한다. 닥터나우는 이런 의료 접근성을 개선하고, 또 비대면과 대면진료 투트랙으로 대면의료의 질을 높일 수 있다.정부는 경증질환과 감기 진료를 비대면 진료로 하라고 한시적 허용 지침을 내린 것이 아니다. 감염예방법에 근거해 아파서 진료받기 위해 병원에 가서 밀집된 가운데 더 아파지는 상황을 막자는 것이다. 탈모 진료 역시 병원에 밀집하지 말고 비대면으로 받으면서 병원 내 감염을 최소화하자 취지다. 특히 질환이 오고가는 병원에서의 코로나 감염을 최소화하고 지금의 취지에 알맞게 국민의 안전과 편의성을 보장하는 방향이 중요하다.의료는 초진과 재진, 경증과 만성질환 그 어떤 경계와 구분 없이 모두에게 공평하고 보편적으로 제공돼야 한다. 비대면진료의 허용 취지와 부족한 국내 의료 접근성에 대한 고찰에 대해서도 고민이 더욱 필요하다.”임 부대표의 의료접근성에 대한 설파는 상당부분 공감된다. 다만, 제도적 관점에서 의료계와 협의로 의료법 개정이 이뤄져야만 비대면 진료가 허용되는 상황에서 정부는 의료계를 설득해야 하는 상황에 놓여있다. 설득을 통한 법 개정에 정부가 과연 강한 의지를 갖고 있는지 현재로선 다소 의문도 나온다. 국회에서조차 초진을 제외한 재진 등에 있어 비대면 진료를 허용하자는 말이 나오는 이유는 이러한 이해당사자 사이의 합의를 통한 절차적 어려움이 존재하기 때문이다.임 부대표의 지적은 의료전달체계와 응급의료기관 확충, 의료접근권이란 여러 산재한 의료계의 고질적인 어려움을 관통하지만, 해결 방안으로 비대면 진료가 ‘만병통치약’이 되기란 현실적으로 어렵다. 그럼에도 의료접근성에 대한 심도 깊은 고찰이 필요하다는 점은 시사 하는 바가 적지 않다.-원격의료 허용 찬반을 두고 사회적 논의는 충분했다고 보는가.“사회적 논의 자체가 부족하다. 주무부처 기관과의 긴밀한 논의는 더욱 필요하다. 최근 코로나19 확진자 증가로 재택치료 중심으로 치료 체계가 개편되며 원격의료를 경험하는 이들은 더욱 증가할 것으로 예측된다. 현재까지 진행된 사례들만 보더라도 원격의료는 이제 피할 수 없는 시대적 흐름이자 꼭 필요한 의료 서비스라고 볼 수 있다. 정부, 의료단체, 산업계가 원격의료가 성공적으로 안착될 수 있도록 지속적인 협의를 진행해야 한다.”임 부대표는 의료법 개정이 끝내 이뤄지지 않고, 현재의 비대면 진료 허용이 끝나면 당장이라도 문을 닫아야 한다고 밝혔다. 그럼에도 그는 “2년여간 비대면 진료를 진행하며 상급 의료기관 쏠림 현상, 약물 오남용 등 일각에서 제기해온 우려가 대부분 기우였음을 증명했다”고 거듭 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.03.02.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>대출 영토 확장…판 키우는 인터넷 은행</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000060050?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>주택 담보·사업자 대출 잇따라 출시...예대 마진 넘어선 혁신 가능할까[스페셜 리포트]모바일 뱅킹 시대의 포문을 연 인터넷 전문 은행이 본격적으로 대출 포트폴리오 확장에 나서고 있다. 금융 당국의 가계 대출 총량 관리 강화로 가계 대출 중심의 여신 포트폴리오에 한계를 느끼자 개인 사업자 대출, 주택 담보 대출 등을 선보이며 활로를 모색하고 있다. 다만 기존 시중 은행들이 생활 플랫폼을 개발하고 기업금융 플랫폼을 전면 개편하는 등 디지털 전환에 속도를 내고 있다. 그동안 디지털에 강점이 있었던 인터넷 전문 은행들이 경쟁에 살아남기 위해선 예대 마진 등 은행업의 패러다임을 뛰어넘는 새로운 사업 모델을 보여줄 시기가 왔다는 지적이다.케이뱅크 아파트 담보 대출 서비스(오른쪽 첫 번째) 화면과 카카오뱅크 주택 담보 대출 서비스 화면. 그래픽=배자영 기자‘주택 담보 대출의 모든 여정을 챗봇이 도와드려요.’카카오뱅크의 주택 담보 대출(이하 주담대) 서비스 화면에 나와 있는 문구다. 카카오뱅크가 2월 22일 주담대를 시작했다. 카카오뱅크의 주담대는 KB 시세 기준 9억원 이하 서울·경기·인천 등 수도권 아파트 구매 자금에 대해 대출을 제공한다. 신규 주택 구입 자금, 기존 주담대 대환(갈아타기), 생활 안정, 전월세 보증금 반환 대출을 취급한다. 대출 가능 최대 금액은 6억3000만원, 대출 금리는 전날 기준 최저 2.989%다. 중도 상환 수수료는 올해 말까지 전액 면제다. 서류 제출 절차도 크게 간소화한다. 부동산 매매 계약서를 사진 촬영해 제출하고 나머지 필요한 서류는 카카오뱅크가 유관 기관과 연결해 확인한다.은행권이 주목한 부분은 ‘대화형’ 인터페이스다. 상담이 인공지능(AI) 챗봇으로 이뤄져 카카오톡 대화처럼 이용할 수 있다는 게 카카오뱅크의 설명이다. 정말 자연스러운 대화가 가능할까. 결론부터 말하자면 실제 사람과 대화하는 수준은 아니다. 선택지와 이에 따른 답변이 일정 부분 정해져 있다. 다만 시중 은행에서 선보이고 있는 비대면 주담대 서비스와 비교해 상대적으로 대화형에 가깝다. 시중 은행의 비대면 주담대 서비스는 대출 용도, 가구 보유 주택 수, 서민 실수요자·임차인·근저당권 여부 등에 대해 ‘예’, ‘아니오’를 선택하는 반면 카카오뱅크의 주담대 서비스는 카카오톡 메신저에서 대화하는 것 같은 서비스를 제공했다. 우선 카카오뱅크 애플리케이션을 시작한 후 대출 신청 카테고리에서 ‘주택담보대출’을 선택한다. ‘주택담보대출 챗봇 시작하기’ 버튼을 누르면 대화 화면으로 이동한다. 휴대전화 본인 확인 인증을 거친 뒤 ‘구입’ 또는 ‘이미 보유’ 중 대출 목적을 선택한다. ‘구입’을 선택한 후 지역명과 동을 입력하면 대출이 가능한 아파트 목록이 뜬다. 구입할 아파트를 선택하면 아파트의 시세 안내와 함께 카카오뱅크에서 제시한 대출이 가능한 시세 범위, 즉 9억원을 초과하면 안 된다는 설명이 나온다. 이어 잔금일과 근로소득자 또는 사업소득자 중 선택한 후 연소득을 입력하고 미혼·기혼 여부를 고른 후 주택 보유 수를 선택하면 세대주 여부를 확인한다. 이 과정을 다 끝내면 ‘한도와 금리 조회하기’가 뜬다.여기까지가 카카오뱅크 주담대 챗봇 서비스의 일반적인 과정이다. 이번엔 서울 도봉구 창동 소재 아파트를 구매하는 30대 초·중반 고객(미혼)이 카카오뱅크 주담대 챗봇 서비스를 이용한다고 가정해 보자. 창동 삼성 아파트의 전용면적 89㎡(약 27평)의 시세는 8억5500만원으로 확인됐다. 연소득 부분에선 30대 초·중반의 평균 연봉으로 알려진 4000만원을 적용했다. 대출 기간은 35년, 대출 한도는 3억2600만원, 금리는 3.799%로 안내 받았다. 금리는 기준금리(금융채 5년) 2.799%와 가산 금리 1.000%가 적용된 결과다. 최근 시중 은행 주담대 금리가 연 4~5%대인 점을 고려하면 금리면에서 메리트가 있다는 평가다.  IT 갖춘 인뱅들그래픽=배자영 기자개인 신용 대출에 크게 의존했던 인터넷 전문 은행(이하 인터넷은행)들이 개인 사업자 대출, 주담대 등 시중 은행의 영역으로 본격 진출하고 있다. 카카오뱅크의 주담대에 앞서 케이뱅크는 이미 아파트 담보 대출(이하 아담대)을 운영하고 있다. 대출 신청과 실행을 100% 비대면으로 진행, 대출 신청 후 승인까지 걸리는 시간도 이틀 정도에 불과해 상품 출시 1년 4개월 만인 지난달 누적 취급이 1조원을 넘어섰다. 다만 대환 대출과 생활 안정 자금 대출만 가능하다. 케이뱅크는 최근 더 공격적인 모습이다. 아담대의 금리를 낮추고 예금 금리를 인상하며 경쟁력 확보에 나섰다.토스뱅크는 이달 들어 자영업자와 소상공인 등 개인 사업자 대상의 대출 상품을 출시했다. 전면 비대면, 무보증·무담보 상품이다. 토스뱅크가 자체 개발한 신용 평가 모형을 활용한다. 수입이 정기적일수록 금리와 한도를 우대해 준다. 최대 한도는 1억원이다. 토스뱅크는 향후 지역 신용보증재단과 협력해 보증 기반 상품도 선보일 계획이다.카카오뱅크와 케이뱅크도 올해 안에 개인 사업자 대출을 선보인다. 카카오뱅크는 하반기 중에, 케이뱅크는 1분기 중 상품을 출시한다. 케이뱅크는 2017년부터 개인 사업자 전용 생활 자금 대출을 운영하고 있는데, 이번에 운전 자금 대출까지 가능하도록 상품을 확장한다. 앞서 살펴본 인터넷은행의 강점을 요약하면 이자 경쟁력과 정보기술(IT)이다. 특히 인터넷은행 3사에서 기술 인력이 차지하는 비율은 평균 50% 수준이다.카카오뱅크는 최근 기술 조직을 대폭 강화했다. 기존에는 최고기술책임자(CTO)가 총괄하는 형태로 기술 조직을 큰 틀에서 관리했지만 올해 기술팀을 각각 영역별로 ‘플랫폼 금융’, ‘IC(Intelligence Connecting) 기술그룹’, ‘신뢰기술그룹’ 등 크게 3개 부문으로 세분화했다. 또 각 그룹장을 임원으로 선임해 의사 결정 권한을 줬다.   앞으로 과제는다만 일각에선 인터넷은행의 사업 구조가 전통 은행처럼 예대 마진이라는 큰 틀에서는 벗어나지 못했다는 지적이 나온다. 모바일 뱅킹의 접근성을 강조하며 ‘차별화’를 내세웠지만 아직까지 수익 구조는 전통 은행과 비교해 다를 게 없다는 것이다.예컨대 독일의 피도르은행은 커뮤니티 기반의 인터넷 뱅킹 전략을 구사한다. 온라인 커뮤니티에서 고객이 참여할 수 있는 프로그램을 운영, 페이스북·유튜브 등 소셜 미디어에서 고객이 각종 이벤트에 참여하면 기여도에 따라 별도의 보상을 주거나 게시물의 ‘좋아요’ 수가 일정 수준에 도달하면 저축예금의 이자를 높여준다.또 인터넷은행이 향후 기업 금융 시장에 진출하기 위해선 심사 인력 확보가 필수적이지만 아직까지는 여신 심사 전문가가 턱없이 부족한 실정이다. 대출 재원도 대부분 수신 기반으로 조달하고 있어 다변화가 요구된다.  은행업계 관계자는 “최근 내놓은 상품들을 보면 심사가 끝난 대출을 받거나(갈아타기), 소상공인 규모만 대출해 주거나 리스크를 최소화한 주담대 상품만 내놓고 있다. 이제 막 걸음을 시작했지만 대출 리스크 관리가 제대로 진행되고 있는지, 이자 경쟁력이 정말 파격적인지 의문”이라며 “시중 은행들은 기업 금융의 디지털 전환도 경쟁적으로 추진하고 있다. 인터넷은행은 금융권의 디지털 전환을 이끌어 낸 것처럼 색다른 수익 모델을 내놓아야 할 때”고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.03.01~2022.03.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.03.01~2022.03.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.03.02.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜, 카카오페이, 토스…'금감원 검사' 세게 받는다</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005158450?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>금감원, 올해 검사업무 운영계획 발표전금법·금소법 등 총망라 빅테크 검사소비자보호 등 내부통제 실태 점검[이데일리 서대웅 기자] 금융감독원이 올해 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스) 등 빅테크를 대상으로 영업행위, 내부통제, 금융소비자보호 실태 등을 검사한다. 과거 전자금융거래업자로서 이들 회사에 대한 검사를 진행한 적은 있지만, 금융소비자보호법(금소법), 신용정보법 등 빅테크가 적용받는 모든 법을 망라해 들여다보는 것은 이번이 처음이다.(사진=이데일리DB)금감원은 2일 올해 검사업무 운영계획을 발표했다. 기존 종합·부문검사를 정기·수시검사 체제로 전환함으로써 금융사고 예방 기능에 중점을 두고, 금융회사에는 검사의 예측가능성을 높인 점이 골자다.금감원은 특히 금융권에서 영향력을 키우고 있는 빅테크에 대한 검사를 대대적으로 진행할 방침이다. 신규사업을 늘리는 와중에 거래규모가 확대하고 있는 만큼 리스크 역시 커졌다는 판단에서다. 소비자 피해 예방을 위해 빅테크 내부통제까지 들여다본다는 계획이다.금감원은 빅테크에 대한 검사를 ‘수시검사’로 진행할 예정이다. 빅테크가 현재는 전자금융업자여서 정기검사 대상이 아니기 때문이다. 정기검사는 은행·지주, 금융투자, 보험 등 전통적인 금융회사를 대상으로만 진행한다. 수시검사 대상은 주로 소형 금융회사이며 중요 위험요소가 확인되면 정기검사 대상으로 올린다.그러나 금감원이 올해 계획하고 있는 빅테크 검사는 정기검사 못지않을 전망이다. 금감원 관계자는 “전금법뿐 아니라 금소법, 신용정보법, 자금세탁방지법 등 빅테크의 영업행위 및 금융소비자 보호와 관련한 사안이라면 총체적으로 모두 살펴볼 예정”이라며 “이를 위해 소관 부서와 공동 검사도 계획하고 있다”고 말했다. 이어 “현재 빅테크 영업행위를 규율하는 법이 없지만, 향후 제도화가 가능한 부분이 있는지도 점검할 계획”이라고 했다.첫 검사대상은 네이버파이낸셜, 카카오페이, 토스 가운데 한 곳이 될 가능성이 높다. 이들 3개 회사에 대한 검사는 올 한해 모두 진행할 것으로 보인다.금융권에서는 금감원이 빅테크를 대상으로 사실상 ‘종합검사’에 나서는 것이란 반응이 나왔다. 정은보 금감원장의 ‘동일기능-동일규제’ 원칙이 올해 빅테크 검사 결과 표면화할 것이란 관측도 있다. 다만 금감원은 과거 ‘종합검사’와는 성격이 전혀 다르다며 확대 해석을 경계했다.금감원은 올해 전체 금융권에 대해 정기검사 30회, 수시검사 749회 등 총 779회 검사에 나설 계획이다. 지난해보다 54.3%(274회) 증가한 규모다. 검사인력도 지난해보다 약 1만명(65.1%) 늘린다.올해 중점 검사사항으로는 △금리인상에 따른 자산가격 조정 등 잠재 위험요인 대비 실태 점검 △코로나 장기화에 따른 취약부문 리스크 관리 실태 점검 강화 △디지털금융·빅테크의 내부통제 및 사이버리스크 예방 △금소법 준수 시스템 및 비대면 영업 체계 등 금융소비자 보호 실태 등 네가지를 꼽았다.정 원장은 “새로운 검사·제재 혁신방안이 검사현장에서 구현돼 사전예방적이고 실효성 있는 검사로 탈바꿈함으로써 다가오는 금융시장 불안 요인에 적극 대응하겠다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>현대해상과 손잡은 토스… ‘비대면 보험 영업’ 새판 짜나</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000790679?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>현대해상이 토스와 손잡고 비대면 영업 프로세스 개선에 나섰다. 사진은 현대해상 광화문 사옥./사진=현대해상 현대해상이 금융플랫폼 토스를 활용해 비대면 영업을 강화한다. 지난달 28일 업무협약(MOU)을 맺은 것을 시작으로 토스보험파트너를 신규 영업플랫폼으로 활용한다는 게 목표다. 이번 협약으로 인해 비대면 영업시장에서 지각변동은 불가피할 전망이다.  지난 4년 동안 토스는 보험업계에서 영역을 지속적으로 넓혀왔다.  2018년에는 ‘토스보험서비스(현 토스인슈어런스)’라는 이름으로 보험대리점(GA) 형태의 자회사를 만들었다. 2020년에는 ‘토스 보험 파트너’라는 앱을 개발해 외부 보험 설계사들과 협업하고 있다. 대형 손해보험사가 토스와 손을 맞잡고 업무 전반을 함께 진행하는 건 의미가 크다. 현재 삼성생명 1개사만이 토스와 상품개발 등을 진행하고 있다. 대부분 단순 토스 인증서를 도입하는 정도에서 그쳤다. 2일 보험업계에 따르면 최근 현대해상과 토스는 ‘GA설계사 온라인 영업지원 활성화 및 포괄적 협력방안 모색을 위한 업무협약’을 손보사 최초로 체결 했다. 현대해상은 토스보험파트너 앱에 GA소속 보험설계사 대상 온라인 설계지원 기능을 신설한다. 토스 인증을 통해 가입설계 동의부터 상품설계 지원 요청까지 원스톱으로 간편하게 진행할 수 있는 서비스를 제공할 예정이다. 토스보험파트너는 토스가 운영하는 보험설계사 전용 영업지원 앱이다. 토스 앱 이용자 가운데 보험상담을 원하는 고객을 설계사에게 바로 연결하는 서비스를 제공하며 약 13만명의 보험설계사를 회원으로 두고 있다. 현대해상은 지난해 10월부터 토스보험파트너 앱 내에서 GA설계사 대상의 퀴즈를 통해 자사 상품을 지속적으로 홍보하고 있다. 이번에 신설되는 온라인 지원 서비스를 통해 GA설계사들이 더욱 빠르고 편리하게 보험 상담을 진행할 수 있는 기반을 마련하고 토스보험파트너를 신규 영업플랫폼으로 활용한다는 계획이다. 현대해상은 통상적으로 어렵다고 느껴지는 보험 상품을 보다 간편한 플랫폼을 통해 고객 접근성과 편의성을 높일 수 있을 것으로 기대하고 있다. 차후 현대해상은 자사 영업시스템에 토스인증과 토스페이를 도입하여 영업 활용도 및 보험료 결제 편의성을 더욱 높일 예정이다. 보험사와 핀테크사의 협업은 소비자의 편의성을 개선시킬 것으로 전망된다. 보험설계사를 통하면 자신에게 필요한 보장을 종합적으로 설명받을 수 있고 적합한 보장 범위도 선택할 수 있는 장점이 있지만 반대로 보험설계사가 상품을 많이 팔기 위해 상품 정보 중 일부를 생략하거나 보장 내용을 과장해 설명하는 등 불완전판매 위험도 없지 않다.전화로 가입하는 TM(텔레마케팅) 상품 역시 이런 위험부담이 있다. 수수료도 높은 편이다. 상품 정보를 추가로 알고 싶어도 더 알아볼 방법도 많지 않다. 나중에 보험금 지급 신청을 할 때 전담하는 담당 설계사가 없으면 보험금을 제대로 받지 못할 것이란 불안감도 들 수 있다. 플랫폼과의 협업으로 인해 바쁜 직장인들은 온라인으로 저렴한 보험에 가입할 수 있다. 24시간 상담 가능한 AI보험설계사를 보유한 핀테크사에 직장인이 관심 갖는 가장 큰 이유다. 보험가입시 필수사항에 대한 설명 누락이나 사실과 다른 설명으로 인한 불완전판매 가능성도 크게 낮아질 수 있다. 현대해상 디지털전략본부장 정규완 상무는“다수의 보험설계사 회원을 확보하며 비대면 영업플랫폼으로서의 가치가 입증된 토스보험파트너와의 협력에 기대가 크다”며 “양사간 다양한 협업을 통해 실질적인 사업성과를 만들어 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.03.02.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>“창구 안 가요” 대출도 ‘비대면’ 대세</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003131812?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>[경향신문] 2년 새 건수 2배·금액은 4배 증가일평균 7500억…80%가 모바일은행 창구에 가지 않고 인터넷뱅킹(모바일뱅킹 포함)을 통한 대출 신청이 지난해 하루 평균 3만1000건, 금액으로는 7500억원 넘게 이뤄진 것으로 나타났다. 건수 기준으로 2년 만에 2배, 금액 기준으로는 4배 규모로 커졌다.한국은행이 2일 발표한 ‘2021년 국내은행 인터넷뱅킹서비스 이용현황’을 보면 지난해 19개 국내은행·우체국의 인터넷뱅킹(모바일뱅킹 포함)을 통한 대출 신청 금액은 일평균 7545억원으로, 2020년(4810억원)보다 56.9% 증가했다. 2019년 일평균 신청 금액 1945억원과 비교하면 2년 만에 3.9배 규모로 불었다. 대출 신청 건수는 하루 평균 3만1000건으로, 47.6% 늘었다. 대출 신청 건수도 2019년 일평균 1만5000건에서 2년 만에 2배 규모가 됐다.지난해 코로나19 확산과 가계대출 급증이 복합적으로 작용한 영향으로 풀이된다. 코로나19로 은행 방문이 줄어든 대신 카카오뱅크, 토스뱅크 등 인터넷전문은행들이 공격적으로 대출을 늘리고, 시중은행들도 자체 애플리케이션을 통한 비대면 신용대출, 전세대출 등을 내놓으면서 비대면 대출 시장을 키운 결과다. 인터넷뱅킹을 통한 자금 이체 이용 건수와 금액은 지난해 일평균 각각 1729만건, 69조7997억원으로, 1년 전보다 각각 17.9%, 19.3% 불었다. 이에 따라 대출 신청과 자금 이체 서비스를 모두 합한 인터넷뱅킹 일평균 이용 건수는 1732만건, 이용 금액은 70조5541억원이다. 각각 1년 전보다 18.0%, 19.6% 늘었다.인터넷뱅킹 중에서도 모바일뱅킹 비중은 점점 늘어 80%를 넘어섰다. 지난해 모바일뱅킹의 이용 건수와 금액은 1436만건, 12조8575억원으로, 전년 대비 각각 22.9%, 36.6% 증가했다. 모바일뱅킹이 전체 인터넷뱅킹 이용 건수에서 차지하는 비중은 82.9%를 기록했다.지난해 말 기준 국내은행의 인터넷뱅킹 등록 고객 수(여러 은행 등록 중복 합산)는 1년 사이 9.4% 늘어난 1억9086만명으로 집계됐다. 이 가운데 모바일뱅킹 등록 고객은 1억5337만명으로, 13.5% 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.03.01.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>[테크쑤다]"더 사람같은 AI"...SaaS형태 '챗봇 솔루션' 내놓은 카카오엔터프라이즈</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000038198?sid=105</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>기사를 요약하면•카카오엔터프라이즈는 B2B(기업 간 거래)를 타깃으로 카카오가 가지고 있는 AI(인공지능) 솔루션을 제공하고 있다. 특히 커넥트센터 팀은 챗봇 등 커뮤니케이션 채널을 고도화하는 일들을 하고 있다.•각 분야에 알맞은 챗봇을 구현해 놓고 기업이 원하는 일부 기능은 커스터마이징 해 낮은 비용으로 쉽고 빠르게 챗봇을 도입할 수 있게 하고 있다.•최근엔 AI 콘택트센터 솔루션을 '카카오 i 커넥트센터'라는 이름으로 출시했다. 서비스형 소프트웨어(SaaS) 형태로 기업 고객 대상 다양한 챗봇·음성봇 등의 서비스를 더욱 편리하게 제공할 예정이다.주요 기업이나 기관, 최근엔 작은 규모의 사업을 하는 소상공인들까지. 기존 전화 중심 고객센터 업무 가운데 일부를 ‘챗봇(Chatbot)’으로 전환하고 있다. 인력 등에 들어가는 비용을 줄일 수 있고, 365일 24시간 고객을 응대할 수 있기 때문이다. 챗봇 적용 분야도 상품 추천·배송·반품, 병원예약과 문진처리 등으로 다양해지고 있다. 수요가 늘자 챗봇 서비스를 제공하는 정보통신기술(ICT) 기업들도 관련 기술을 고도화하며 고객 확보 경쟁을 펼치고 있다. 카카오도 ‘카카오엔터프라이즈’를 통해 이 같은 서비스를 제공 중이다. 카카오가 가지고 있는 자연어 처리·음성합성·음성인식 등과 같은 기술을 활용하고 있다. 최근엔 기업 고객들이 다양한 AI 기반 고객센터를 구축할 수 있는 SaaS 형태의 ‘카카오 i 커넥트센터’도 출시했다.&lt;블로터&gt;는 카카오엔터프라이즈 김자현 커넥트센터(AICC/챗봇) 사업개발 파트장을 만나 챗봇 수익화 전략과 기술 동향 등에 대해 들어봤다.Q. 카카오엔터프라이즈의 챗봇 관련 사업 내용 설명 부탁드린다. A. 카카오엔터프라이즈는 B2B를 타깃으로 카카오가 보유한 AI 솔루션을 제공하고 있다. 커넥트센터 팀은 카카오의 자연어 처리·음성합성·음성인식 같은 기술들을 기반으로 챗봇이나 음성봇, AI콘택트센터 등 고객과의 모든 채널 모든 접점에서 일어나는 커뮤니티케이션들을 고도화하는 일들을 주로 하고 있다. 기본적으로 대화를 기반으로 한 챗봇 형태들을 많이 가져가고 있다. 텍스트를 기반으로 한 챗봇, 목소리를 기반으로 한 음성봇 등. 이런 것들을 모두 합쳐 AI콘택트센터라고 이야기하고 있다. Q. 기업이 챗봇을 어떤 분야에 무슨 이유로 도입하고 있는지. A. 가장 많이 도입하는 분야는 CS, 고객센터 영역이고 그 외 고객과의 접점이 있는 곳이면 다양하게 활용되는 것 같다. 특히 대표적으로 카카오뱅크나 토스 등 금융 분야도 그렇고 디지털화가 많이 진행됐다. 앱을 통해 대출도 받을 수 있다. 사실 대출에 대한 상세한 상담 등은 여전히 직접적인 고객 응대의 영역이고 사람의 수고가 많이 들어가는데, 이제 그런 부분들을 효율화하기 위해 챗봇이 많이 도입되는 것 같다.효율성 측면에서 사례 하나를 말하면, 카카오뱅크 같은 경우 오프라인 기반 사람 상담원이 없다. 1차적 전략이 디지털 기반 상담 운영이다. 그러다보니 가장 좀 정형화되고 반복적인 질문들이 많이 들어오게 되고 그 부분을 챗봇으로 효율화하고 싶다는 이야기가 있어 저희랑 같이 프로젝트를 진행한 바 있다. 거기에 저희가 보유하고 있는 자연어 처리 엔진인 ‘어드밴스드 머신 러닝’이라고 하는 것이 들어갔다. 실제 고객 상담 건 중에서 챗봇 처리 비중이 50%를 넘는다.Q. CS부분 일자리 대체 우려는 없나. A. 사람은 사람이 해야 할 일을 하게 하자 그리고 간단한 대응을 하는 것들은 AI가 하게 해서 사람의 가치를 올리는 쪽으로 하자. 이런 이야기를 고객사분들에게 많이 해드리고 있다.Q. 챗봇을 활용한 카카오의 수익화 전략이 궁금하다. A. 기본적 전략은 플랫폼 확장에 대한 것들이다. 챗봇 개념이 한국에 들어와 사용되기 시작한 지 5년 정도 넘었는데 초기 챗봇 구조는 대체로 구축형이었다. 요청에 따라 만들어서 판매하는 일회성 매출들이 많이 발생했다. 이제 그런 형태는 한계가 있고 수익 확장에도 큰 도움이 안돼 저희는 플랫폼 관점으로 바라보고 있다. 결국 저희가 가지고 있는 자연어 처리 같은 AI 기술들을 제공하는 식이다. 또 공공 혹은 금융 등 다양한 분야에 각각 적용할 수 있는 봇들을 계속해서 만들어 가고 확산해 시장에서 자연스럽게 이뤄질 수 있도록 하는 방향으로 가고 있다. 각 분야마다 유사하게 공통적으로 구현되는 것들이 있어 거기에 맞는 봇들을 만들어 놓고 일부를 커스터마이징 해서 바로 쓸 수 있게 하는 것들도 많이 하고 있다. 이렇게 했을 때 공통의 봇들이 만들어져 비용이 굉장히 내려갈 수 있고 쉽고 빠르게 도입할 수도 있다.Q. 카카오의 향후 계획은? A. 카카오에 대한 오해 하나가 카카오톡을 기반으로 한 챗봇만 만들 수 있는 거 아니냐는 거다. 근데 카카오엔터프라이즈에 웹, 앱에서도 똑같은 기능의 챗봇이 들어갔으면 좋겠다는 니즈들이 많이 들어온다. 그래서 계속해서 그런 쪽으로 확장해 나가면서 다양하게 수익화 모델들을 가져가고 있다. Q. 챗봇, 어디까지 고도화될 수 있을까. A. 결국 챗봇이 담당할 수 있는 영역들은 계속해서 넓어질 거라 생각한다. 지금까지 했던 이야기들은 사실 대체로 업무 형태에 대해 고객이 물어보면 답변을 주는 그런 형태인데, 이제 AI 실제 비서의 영역으로 넘어갈 수 있을 것이다. 그리고 그런 것들이 가장 빠르게 이뤄지고 있는 곳들은 업무 협업툴, 업무용 메신저 쪽 시장이다. 저희도 ‘카카오워크’라고 하는 솔루션을 개발해 카카오 공동체 모두 사용 중이다. AI 비서가 채팅 방마다 들어와 있다. 예를 들어 ‘4명 미팅 잡아줘’라고 하면 4명 각각의 캘린더를 확인해 모두 함께 시간이 되는 때를 AI 비서가 제안해준다. 회의실도 제안해줘 미팅을 잡아준다. 결국 키오스크 같은 디바이스들, 홀로그램, 메타버스 이런 것들이랑 연동 되면서 사람의 삶을 조금 더 편리하게 해주는 영역으로 점점 확장해 나갈 수 있을 것이다.Q. 챗봇의 도입으로 고객은 어떤 점이 좋아지나. 기본적으로 커뮤니케이션 효율이 좋아진다는 게 가장 큰 장점이다. 업무 시간이 끝나거나 휴일·공휴일 같은 때는 대응이 안돼 불편한 경험들 다 있을 것이다. 하지만 24시간 365일 대응이 가능해 기본적으로 업무 지연을 상당히 메워줄 수 있다. AI 봇들이 대체하면 사람의 가치나 인격 이런 것들을 좀 더 많이 존중해 줄 수 있는 환경을 만들어갈 수도 있다.김자현 카카오엔터프라이즈 커넥트센터(AICC/챗봇) 사업개발 파트장이 &lt;블로터&gt; 테크웨비나에 참석해 이야기하고 있는 모습. (사진=블로터)Q. 이루다 사태 논란, 윤리 갖춘 AI 챗봇 구현 가능할지. A. B2B 형태 챗봇을 공급하는 업체들한테 데이터를 학습하거나 사전에 정제 및 검수하는 영역들은 기본적이다. 고객 개인정보나 외부에 노출되면 안 되는 기업 기밀 정보들이 포함돼 있을 수 있기 때문에. 걸러내는 작업이 필요하다. 그런데도 불구하고 사태가 벌어진 건 그런 문제들에 대한 인식, 시스템으로 해결할 수 있는 방법들이 충분히 마련되지 않아서다.카카오엔터프라이즈는 AI 연구와 서비스를 시작하는 시점에서부터 ‘아일랜드 필터’라는 모델을 통해 욕설이나 혐오·차별 등과 같은 표현들을 추출해 걸러내고 있다. 형태소 분석을 통해 문장의 품사를 구분하고 텍스트가 혐오 표현과 일치한다 하면 걸러낸다. 추가적으로 사회적·윤리적 이슈를 야기할 수 있는 문장들은 그런 것들을 판단할 수 있는 머신러닝 모델들을 도입해 시스템적으로 보완하고 있다. 또 2018년 ‘카카오 알고리즘 윤리 헌장’을 발표하고 그런 원칙들이 반영될 수 있도록 노력하고 있다.Q, 챗봇은 한국어 서비스만 제공되고 있나.A. 저희 같은 경우 일단 한국어에 집중하고 있다. 영어 같은 경우 글로벌 빅테크사들이 워낙 잘하고 있기도 하고, 빅테크사들이 한국어 데이터에 대한 학습 같은 것들은 많이 하지 않기 때문에 우리가 강점을 갖고 있는 영역이다. 국내 최대 포털을 가지고 있는 네이버와 다음. 포털 데이터들을 기반으로 해 한국어 영역에 대한 강점이 있다.Q. 카카오엔터프라이즈의 AI 콘택트센터 솔루션(AICC), 차별점은 무엇인가. A. 정식으로 AI 콘택트센터 솔루션을 카카오 i 커넥트센터라는 이름으로 출시하게 됐다. 챗봇인 커넥트 톡을 포함해 전체 영역을 아우르는 거다. 차별적 영역은 2가지. 저희가 가지고 있는 AI 기술의 강점이 자연어처리 기반이기 때문에 봇드리븐 환경이라고 해서 전체 시나리오를 직접 드라이브하면서 갈 수 있는 환경의 구현. 그리고 카카오톡이나 기존 고객의 커뮤니케이션 채널이 되는 SMS(단문메시지서비스) 혹은 상담 채널들 이런 것들을 다 통합적으로 연결할 수 있는 옴니채널 형태 구현 등이다.첫 번째 봇드리븐 환경은 기존 시장에 나와 있는 AI 봇 형태들이 대부분 시나리오를 따라가면서 정보를 하나하나 채워가는 형태들인데, 한계가 고객들의 자유 발화에 원활하게 대응하기 어렵다는 점이다. 이에 전체 맥락을 AI 봇이 직접 몰고 완벽한 형태의 사람처럼 대응할 수 있는 형태들을 지향하고 있다.두 번째, 심리스한 옴니채널 형태. 음성으로 AI봇이 상담하는 것, 실제 사람이 응대하는 것, 자동으로 응답이 나가는 것들. 전체적인 환경들을 경계선 없이 구분해서 제공할 수 있는 유기적인 환경을 만드는 데 집중하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.03.06.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>인터넷銀 막내 '토스뱅크' 반격 시작되나</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005054177?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표인터넷전문은행 중에서 막내인 토스뱅크가 중·저신용자 대출을 중심으로 카카오뱅크와 케이뱅크를 추격하고 있다. 토스뱅크는 2000만명이 사용하는 토스앱을 기반으로 '슈퍼앱' 전략을 펼치면서 경쟁사들을 쫓고 있다.중·저신용자 대출 비중 가장 높아6일 금융권에 따르면 토스뱅크는 올해 2월 말 기준 중·저신용자 대출 비중이 31.75%를 달성했다. 가계대출 규모는 1조9446억원(잔액기준)이었다. 지난해 12월 말 5315억원이었던 가계대출 잔액은 지난 1월 말 1조6281억원으로 2배 넘게 뛰었고, 지난달 2조원에 육박하는 액수를 기록했다. 토스뱅크에 따르면 중금리대출 실행 비중이 가장 높았던 날은 1월31일로 이날 고객의 절반 이상이 중·저신용자(50.18%)였다.대출 영업을 재개 한 지 두 달 정도 지난 토스뱅크의 성적은 기대 이상이었다. 토스뱅크는 인터넷은행 3사 중에서 중·저신용자 대출 비중이 가장 높았다. 카카오뱅크는 중·저신용자 비중이 18.6% 수준이었고 케이뱅크는 중·저신용자 대출 비중은 18%대였다. 인터넷은행의 설립 취지에 맞는 포용금융에는 가장 앞장섰다는 평가가 나온다. 다만 카카오뱅크와 케이뱅크가 2017년 출범한 만큼 가계대출 규모는 여전히 큰 차이가 있다. 카카오뱅크의 경우 가계대출 규모가 2월 말 기준 25조8979억원(신용·전월세·주택담보대출 포함), 케이뱅크의 경우 가계대출 규모가 7조4900억원이었다. 지난 5개월 간 대출 심사 과정에서 토스뱅크의 중·저신용자 4명 중 1명 이상(26.3%)은 고신용자로 상향됐다. 토스뱅크는 자체 개발한 신용평가모형(TSS)을 통해 고객의 실질 소득을 분석해 대출 여부를 판단한다. '건전한 중·저신용자'로 분류된 고객은 제2, 3 금융권 대비 신용도 개선의 기회를 누릴 수 있다는 것이 회사 측의 설명이다. 토스뱅크에서 대출을 실행한 중·저신용 고객의 평균 금리는 7.7%였다. 이는 저축은행 평균금리(13.3%)대비 5.6%포인트 낮은 수준이다.고객 가운데 신용등급이 가장 좋은 고객의 금리 구간은 2.71~3.81%였다. 토스뱅크 중·저신용 고객들은 평균 2320만원의 대출을 받았고 신용점수 454점(과거 8등급)까지 대출이 실행됐다.원앱 전략 '토스' 하루 최대 8만여명 방문토스뱅크는 토스 앱에서 이용할 수 가입하게 할 수 있는 '원앱' 전략을 택했다. 앱 개발에 필요한 비용, 오프라인 지점·창구 운영 비용을 절감해 고객에게 혜택으로 돌려주겠다는 계획이다. 실제로 토스뱅크에서 대출을 받기 위해 ‘내 한도 관리’ 서비스에 신규 가입한 고객 수는 36만343명이었다. 내 한도 관리 서비스는 고객들이 대출 상담을 위해 은행 창구를 방문하는 것과 유사하다고 회사 측은 설명했다. 이 서비스를 하루 최대 8만701명이 이용했으며 하루 평균 2만7157명이 토스뱅크를 방문했다. 시중은행의 일평균 방문 고객 수는 784명(1월말 기준)수준이다.토스뱅크는 대출 심사부터 입금까지 평균 3분 이내에 가능한 것으로 나타났다. 은행을 방문하기 어려운 자영업자나 소상공인들이 대출을 위해 은행에 직접 가지 않아도 모바일로 이용이 가능해 인기가 높았다. 고객 3명 중 2명(62%)은 주말을 포함한 은행 영업시간 외에 대출을 받는 것으로 나타났다. 토스뱅크 고객이 이용한 전체 대출의 4건 중 3건은 신용대출(75.4%)이었으며, 마이너스통장(23.4%), 비상금대출(0.8%), 사잇돌대출(0.4%) 순이었다.토스뱅크 관계자는 "토스뱅크의 고도화된 신용평가모형을 통해 포용할 수 있는 고객의 범위가 넓고, 특히 실질 소득으로 신규 대출 여부를 판단하기 때문에 대출이 필요한 고객들의 관심이 특히 높았다"며 "고객 관점의 새로운 뱅킹 서비스를 구현하기 위해 더욱 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.03.09.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2021년을 빛낸 금융 CEO 베스트50</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000073669?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>손태승 우리금융 회장 ‘1위’‘이런 변화는 결코 돌이킬 수 없다. 이번에 뚫린 기회의 구멍을 통해 혁신과 자본이 홍수처럼 쏟아져 들어올 것이다.’‘거대한 가속’의 저자 스콧 갤러웨이 뉴욕대 스턴 경영대학원 교수의 코로나 이후 산업계 판도 변화 예상이다. 현재 금융 산업이 딱 이런 식으로 변화하고 있다. ‘전통의 강자’는 강자대로, 신흥 스타트업은 핀테크를 무기로 무섭게 바꿔나가고 있다. 작금의 격동의 시기에 사상 최대 실적을 올리며 분전한 금융 CEO는 누굴까.  일러스트 : 강유나  완전 민영화, 내부등급법 승인, 역대급 실적…. 지난해 우리금융지주가 거머쥔 성적표다. 이런 점이 감안된 덕분일까. 손태승 회장은 이번 매경이코노미 선정 금융 CEO 베스트50에서 종합 순위 1위를 차지했다. 손 회장은 ESG 금융 분야에서 높은 점수를 얻은 데 이어 영향력, 글로벌 진출, 핀테크 혁신 등에서도 고루 높은 점수를 받았다. 한때 DLF 중징계 취소 행정소송이 리더십에 변수로 여겨졌지만 이마저도 승소하면서 지배구조가 안정됐다는 외부 평가도 이어졌다.간발의 격차로 종합 2위에 오른 지난해 1위 조용병 신한금융지주 회장 역시 역대급 실적에 안정적인 리더십을 구축했다는 점에서 높은 점수를 받았다.종합 3위 윤종규 KB금융지주 회장 역시 마찬가지. KB금융은 지난해 4조4096억원의 당기순이익을 거뒀다. 1년 전인 2020년(3조4554억원) 대비 27.6% 늘었다. 2008년 KB금융그룹이 출범한 이후 역대 최대 연간 순이익이다.    ▶토스·카뱅·케뱅…핀테크 약진 핀테크 부문 대표들의 약진도 눈길을 끈다. 이승건 비바리퍼블리카 대표는 올해 처음 조사 대상에 포함되자마자 핀테크 부문 1위에 이름을 올렸다. 간편 송금, 보험, 증권은 물론 지난해 인터넷전문은행인 ‘토스뱅크’까지 사업 영역을 넓혔다. 윤호영 카카오뱅크 대표가 2위를 차지한 가운데 새롭게 평가 대상에 오른 서호성 케이뱅크 대표 역시 곧장 3위에 이름을 올렸다. 어떻게 조사했나 대규모 기업집단 상위 30곳, 학계·전문가 설문 매경이코노미는 지난 2004년부터 매년 한국을 대표하는 금융권 CEO를 선정해왔다. 금융 CEO 선정 방법은 다음과 같다.먼저, 지난 2월 기준 국내 금융업에 종사하는 기업 CEO를 1차로 전수조사했다. 이후 업계에 미치는 영향력과 재무 평가를 기준으로 업종별 2차 후보군을 추렸다. 재무 평가는 2021년 3분기 기준 연간 당기순이익과 전년 대비 자산 증감률을 중점 고려했다. 임기 6개월 미만 CEO는 제외했다.2차 후보군을 추린 후에는 국내 대규모 기업집단 상위 그룹 중 비금융 계열사 재무 담당 책임자를 대상으로 설문조사를 진행했다. 총 26개사 145명이 응했다. 금융업 담당 증권사 애널리스트 5명, 금융 전공 경영학과 교수 5명 역시 설문에 참여했다.[본 기사는 매경이코노미 제2149호 (2022.03.09~2022.03.15일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.03.09.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>야놀자·밀리의서재… 잘나가는 스타트업 뒤엔 '신보' 있었다</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004800552?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>창업기업 '보증수표' 된 신보투자 사각지대 속 '숨은진주' 발굴한번의 심사로 포괄여신한도 설정자금 필요할때마다 꺼내 쓸수 있어덩치 애매한 '예비 유니콘'도 지원 지난 8일 서울 마포구에 위치한 스타트업 보육 기관 프론트원 13층에 마련된 신용보증기금 전용 보육 공간 프론트원네스트. 프론트원을 통틀어 108개 기업이 입주해 있으며 프론트원네스트에는 16개 기업이 성장하고 있다. 신보 제공 불과 몇 년 만에 초기기업에 대한 투자 인프라가 눈에 띄게 나아졌지만, 우아한형제들(배달의 민족)이나 토스 같은 유니콘 기업들도 초기에는 몇 천만원이 아쉬워 발을 동동 굴렀다는 일화는 유명하다.   지금은 기업가치 1조원 이상의 유니콘 기업도 18개를 배출한 나라가 됐지만 투자금이 몰리는 데만 몰린다는 비판도 있다. 몇 년 간 성공 모델이 쌓이면서 민간 투자자들이 '안전한' 성공 방정식을 따르는 스타트업에만 지갑을 연다는 것이다. 이런 와중에, 신용보증기금은 '사각지대'에 집중하고 있어 이목을 끌고 있다. 드러나진 않지만 자라면 백조가 될 '미운오리새끼'들을 가장 밑단에서 찾아 기꺼이 마중물이 되거나, 창업기업을 벗어났지만 여전히 투자가 필요한 '중년' 스타트업을 위한 융자에도 힘쏟는 모습이다.   ■필요할 때 꺼내 쓰는 '크레딧라인'   9일 신용보증기금에 따르면 신보는 지난 해 7만 8000여개 창업 기업에 보증과 직접 투자를 포함해 총 20조9000억원의 자금을 공급했다. 그야말로 국내 최대 규모의 중소기업 종합지원 기관이다.   그중에서도 신보는 연간 600억원을 스타트업 투자에 쓴다. 신보 손종욱 4.0창업부장은 "신보가 발굴한 기업은 공신력이 생겨 민간 VC 투자 유치의 마중물 역할을 한다"며 "신생 기업, 지방 기업 등 소외된 기업들을 골고루 보고 있다"고 소개했다.   다른 기관과 달리 신보는 기업 지원 방식이 유연하다는 평가를 받고 있다. 3년치 신용보증 한도를 미리 설정하는 포괄여신한도(크레딧라인)를 스타트업 보증에도 도입한 것. 한 번의 심사로 보증 한도가 정해지기 때문에 기업은 한도 내에서는 자금이 필요할 때마다 추가 심사 없이 자금을 꺼내 쓸 수 있고, 대출 기관도 여신 한도를 미리 설정해 탄력적인 여신 운용이 가능해진다.   ■제2의 '밀리의서재' 찾아라   신보는 2년 전 개소한 창업 생태계 조성 공간 '프론트원(Front1)'의 13층에 위치한 '프론트원 네스트'를 독자적으로 운영하고 있다. 이 곳에서 신보가 직접 보육하는 기업은 16개다. 신보 이주영 서울서부영업본부장은 "신보 지원 기업으로 선정되면 바로 보증으로 연결 되니까 자금을 별도로 유치하려는 수고를 덜 수 있다"고 말했다. 신보가 도맡은 '성골' 기업으로는 월정액 독서 플랫폼 밀리의서재, 업사이클링 패션기업 모어댄이 대표적이다. 지금은 미국 실리콘밸리에서도 유명해진 협업툴 스타트업 스윗도 고비 때는 신보가 도움의 손길을 줬다.   ■예비 유니콘도 빈틈없이 지원   신보는 또 글로벌 유니콘 기업으로 성장할 가능성이 높은 혁신 스타트업을 선정해 지원하는 '혁신아이콘' 제도를 3년 전부터 도입했다. 덩치가 애매해 투자 사각지대에 놓인 중견 스타트업들을 지원하자는 스케일업(Scale-up) 프로그램의 일환이다. 매년 10개 내외의 스타트업들이 혁신아이콘으로 선정된다. 유니콘 기업과 상장 기업도 배출했다. 인테리어 플랫폼 '오늘의 집'을 운영하는 버킷플레이스는 유니콘에 등극했고 바이오 업체 '뷰노'는 지난해 코스닥 시장에 상장했다. 국내 유니콘 기업 18개 중 비바리퍼블리카(토스), 야놀자, 리디(리디북스), 지피클럽, 버킷플레이스(오늘의 집) 등 5개 기업이 신보의 지원을 받았다. #스타트업 #야놀자 #밀리의서재</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.03.13.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>[TF비즈토크&lt;상&gt;] 쿠팡, 금융판도 흔드나…캐피털 진출에 기대·우려 교차</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000137281?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>새로운 시도하는 쿠팡…금융업 진출에 업계 반응은 "글쎄요"국내 대표 이커머스 기업 쿠팡이 캐피털사를 설립하고 금융업에 진출한다. 사진은 지난해 3월 뉴욕증권거래소에 상장할 당시의 김범석 쿠팡 창업주./뉴욕=AP.뉴시스경제는 먹고사는 일과 관련된 분야입니다. 한 나라의 경제가 발전하면 국민의 삶의 질이 높아지는 것도 이런 이유에서이지요. [TF비즈토크]는 갈수록 중요성이 커지고 있는 경제 분야를 취재하는 기자들이 모여 한 주간 흥미로운 취재 뒷이야기들을 생생하게 전달하기 위해 만든 코너입니다. 우리 경제 이면에서 벌어지고 있는 다양한 사건들을 들여다보기 위해 현장을 누비고 있는 &lt;더팩트&gt; 성강현·최승진·장병문·서재근·황원영·이성락·윤정원·문수연·최수진·정소양·이민주·한예주·박경현 기자가 나섰습니다. 지난 한 주 동안 미처 기사에 담지 못한 경제계 취재 뒷이야기를 지금 시작합니다. &lt;편집자 주&gt; 지난주 윤석열 국민의힘 대선 후보가 3·9 대선에서 근소한 차이로 승리하면서 정권교체에 성공했습니다. 한 주 동안 '대선'에 대한 뜨거운 관심이 지속됐는데요.차기 대통령이 확정되면서 윤석열 당선인의 공약에도 시선이 쏠렸습니다. 특히 새 정부의 부동산 정책에 따른 집값 향방에 큰 관심이 모이고 있습니다. 전문가들은 문재인 정권에서 나타난 급격한 집값 상승 양상은 나타나지 않을 것으로 전망했습니다. 물론 일각에서는 새 정부의 부동산 정책의 실현 가능성에 의문을 표시하는 목소리도 나옵니다.유통업계에서는 CJ대한통운 택배노조 갈등이 재점화됐습니다. 노조와 대리점연합회는 파업 65일 만에 협상을 타결했지만 노조가 입장을 번복하면서 논란이 일어났는데요. 갈등이 해결될 조짐을 보이지 않아 보입니다.지난주 금융권과 유통업계를 모두 놀라게 한 소식도 있었습니다. &lt;더팩트&gt;가 단독 보도한 쿠팡의 캐피털 사업 진출인데 이를 두고 금융권이 뜨거운 관심을 보이고 있습니다. 그럼 먼저 &lt;더팩트&gt;가 단독 보도한 쿠팡의 금융업 진출 관련 소식부터 살펴보시죠.◆ 쿠팡, 금융권 진출에…업계는 물음표 던졌다-'이커머스 공룡' 쿠팡이 금융업에 진출한다는 소식을 &lt;더팩트&gt;가 지난 8일 '[단독] 쿠팡 캐피털사 설립, 금융업 진출한다' 보도했죠. 소식이 전해지자 금융권과 IT업계 모두 놀랐다고요.-네, 쿠팡이 캐피털사를 설립하고 금융업에 진출한다는 보도에 금융권과 IT업계가 보인 반응은 모두 동일했습니다. 쿠팡이 다른 사업도 아니고 캐피털사를 설립하느냐며 물음표를 던졌는데요, 쿠팡은 3년간 사전 작업을 마치고 올해 상반기 중 출범한다는 계획입니다. 자세한 사업 계획이나 수익 모델 등 관련한 내용에 대해서는 쿠팡은 일절 함구하고 있습니다.-그간 이커머스로 세력을 확장해온 쿠팡의 전혀 새로운 시도인데요, 이번 금융업 진출에 특별한 의도가 있을 것 같습니다. 최근 배달 서비스와 OTT(온라인동영상서비스) 등으로 사업을 넓힌 만큼 금융업계도 쿠팡의 '놀라운' 행보를 주목하고 있을 것 같은데요.-그렇습니다. 금융업계는 쿠팡이 어떠한 전략을 갖고 있는지 파악하느라 분주한 모습입니다.-네이버와 비교하는 시선도 많이 있는데요.-네이버 역시 스마트스토어 사업자 대상으로 대출 사업을 하고 있습니다. 네이버는 캐피털을 설립한 게 아니라 미래에셋캐피탈과 제휴해 서비스를 제공합니다. 이 때문에 기본 사업 구조가 다를 수밖에 없습니다. 네이버는 플랫폼 비즈니스 사업자인 만큼 주로 쇼핑에 특화돼 있는 쿠팡과 비교하기 어렵다는 평가도 나옵니다.-그렇다면 쿠팡은 어떤 형태로 사업을 할까요?-다양한 관측이 나오고 있습니다. 우선 네이버처럼 입점 소상공인들에게 대출 서비스를 제공할 수 있습니다. 금융권에서 대출받기 어려운 영세 판매자들을 지원하고 이를 통해 우수 판매자를 확보하는 전략입니다. 자금 회전 역할도 할 수 있고요. 이 부분에서는 긍정인 측면도 있습니다. 이미 입점사와 관계가 있는 데다 장기간의 데이터도 보유하고 있는 만큼 대출 심사 등에서 시간이나 인력이 많이 들지 않을 것이라는 평가가 있습니다. 갚을 능력이 있는 판매자에게 대출을 내주면, 돈을 떼이는 '리스크'가 낮아집니다.-또 다른 사업이 있을까요?-쿠팡에서 가전제품 등 고가 물품을 사는 고객에게 저금리 장기 할부를 제공할 수도 있습니다. 이를 통해 이자 수익을 얻는 것이죠. 고가의 가전제품이라면 신용카드 할인이나 장기 할부도 가능하기 때문에 경쟁력이 있을 것이냐가 극복해야 할 과제가 될 수 있습니다. 또, 이커머스 특성상 단가가 높은 제품이 거래되지 않는다는 점도 풀어야 할 숙제입니다.-여러 회의적인 시각도 나올 것 같군요. 쿠팡이 지난해 1조8000억 원에 이르는 적자를 냈다고 들었는데요.-이와 관련해 금융업계 관계자들은 걱정하는 목소리를 내고 있습니다. 금융이라는 새로운 산업에 도전한 만큼 인력과 시스템 등 각종 투자를 해야 하는데 수익 기반을 다질 때까지 버틸 수 있느냐는 것입니다. 게다가 금리 인상, 인플레이션, 대출 규제 등의 악재가 겹겹이 쌓인 시점에서 캐피털 출범 타이밍이 좋지는 않다는 의견도 있습니다. 다만 쿠팡의 매출이 22조 원(지난해 기준)에 이르는 만큼 이러한 사업 규모를 무시할 수 없을 것 같다는 반론도 있습니다. 조 단위 매출을 이용한다면 자리를 잡는 데 무리가 없다는 의견입니다.-쿠팡이 캐피털에 진출하면 기존 금융업계에 타격을 줄 수 있을까요?-업계 관계자들의 대답은 '글쎄요'입니다. 금융업 특성, 금융 고객 특성상 단 번에 부상하기는 어려울 것이라는 게 중론입니다. 일각에서는 출혈경쟁이 일지 않을까 하는 우려도 있습니다.-출혈경쟁이라면 어떤 의미인가요?-토스를 예로 들 수 있겠는데요, 토스는 지난해 10월 출범 당시 고객을 모으기 위해 다양한 이벤트를 했습니다. 토스가 내놓은 '파킹통장(수시입출금식 통장)'은 조건 없이 2% 이율을 제공하는 파격 혜택을 담았습니다. 기존 은행들이 제공하기 어려운 수준이죠. 이후 인터넷은행을 중심으로 은행권에서 파킹통장 수신 경쟁이 일었습니다. 쿠팡도 캐피털에 진입한다면 고객 유치와 입지 다지기를 위해 기존 수준을 뛰어넘는 서비스를 내놓을 것으로 보입니다. 업계에서 '물을 흐릴 수 있다'는 핀잔 섞인 걱정이 나오는 이유입니다.-쿠팡이 캐피털 설립을 두고 이야기 나눠봤습니다. 쿠팡이 조 단위 매출을 이용해 커머스 생태계를 구축하려는 것으로 판단됩니다. 금융이라는 새로운 시도를 통해 부가가치를 창출하겠다는 건데 어느 정도의 금융 이해도를 갖고 수익구조를 만들어 갈 것인지가 관건이네요.☞&lt;하&gt;편에서 계속발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.03.08.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>통신 3사 주도하는 ‘본인확인기관’ 새로 뽑는다…네이버·카카오 재도전 관심</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000798471?sid=105</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>방통위, 3월 21~23일 신청서 접수 서류심사·현장실사 거쳐 6월 지정 심사항목 줄이고 문턱 낮췄지만… 카카오는 “불참” 네이버 “검토 중”방송통신위원회 현판. /조선DB        방송통신위원회가 완화된 심사 기준을 가지고 2022년도 신규 본인확인기관 지정 심사에 나선다고 8일 밝혔다. 이달 접수를 받아 오는 6월 최종 결과를 발표하게 된다.본인확인기관은 주민등록번호를 사용하지 않고 휴대폰, 신용카드, 생체인증 등 대체 인증 수단으로 본인인증을 할 수 있는 기관을 말한다. 방통위는 주민등록번호 대체수단의 개발·제공·관리 업무를 안전하고 신뢰성 있게 수행할 수 있는 사업자를 본인확인기관으로 지정할 수 있다.국내에선 아이핀, 휴대폰, 신용카드 등 본인확인 수단을 제공하는 총 19개 사업자가 지정돼 있다. 통신 3사가 ‘PASS’ 애플리케이션(앱) 통해 시장 점유율 90%가량을 장악하고 있으며, 지난해 ‘토스’를 운영하는 비바리퍼블리카 등이 신규 지정된 바 있다. 그간 높은 평가 기준으로 고배를 마셔온 네이버, 카카오가 이번 심사에 참여할지, 지정에 성공할 수 있을지 관심이 쏠린다.본인확인기관 지정 희망 사업자는 오는 21일부터 23일까지 사업계획서 등 지정 신청서류를 방통위에 제출해야 한다. 방통위는 서류심사를 거쳐 4~5월 신청사업자에 대한 현장실사가 진행한다. 본인확인서비스 책임자에 대한 의견청취 등을 거쳐 6월 중 방통위가 지정 여부를 최종 의결할 예정이다. 방통위는 심사를 위해 정보보호, 법률, 회계 등 분야별 전문가 15인 이내에서 심사위원회를 구성할 예정이다.신청 사업자는 87개 심사항목 중 21개 중요 심사항목과 2개 계량평가 항목에서 ‘적합’ 판정을 받고, 나머지 64개 심사항목에 대해 총점 1000점 만점에 800점 이상을 받아야 본인확인기관으로 지정받을 수 있다. 단, 800점 미만이더라도 중요 심사항목과 계량평가 항목에서 ‘적합’ 판정을 받으면 조건부로 지정될 수 있다.방통위는 통신 3사가 주도하는 패스 위주의 시장에 다양한 사업자들이 뛰어들어 경쟁할 수 있도록 하기 위해 올해 1월 이처럼 심사 기준, 평가 방식을 완화한 ‘본인 확인기관 지정 등에 관한 기준’ 고시 개정안을 의결한 바 있다. 기존에는 심사항목이 92개였으며, 모두에서 ‘적합’ 판정을 받아야 했다.한상혁 위원장은 “정보통신기술(ICT), 핀테크(금융+IT) 서비스가 지속 활성화되고 있는 만큼 다양한 사업자가 본인확인기관 지정 신청을 할 것으로 예상된다”라면서 “방통위는 서비스의 보안성·안정성 등을 엄격하게 심사해 국민들이 편리하고 안전하게 본인확인서비스를 이용할 수 있도록 하겠다”라고 밝혔다.다만 카카오는 본인확인기관 지정을 위해 준비하고 있으나, 올해 심사에는 불참하는 것으로 가닥을 잡았다. 회사 관계자는 “기준이 완화됐다고 하지만, 좀 더 꼼꼼하게 준비하기 위해 올해는 불참할 것”이라고 했다. 네이버는 참여를 검토 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>현대해상-토스, GA설계사 온라인 영업지원 위한 MOU</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011039997?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]현대해상은 토스와 'GA설계사 온라인 영업지원 활성화 및 포괄적 협력방안 모색을 위한 업무협약(MOU)'을 체결했다고 2일 밝혔다. 정규완 현대해상 디지털전략본부장(오른쪽)과 서윤석 토스 사업개발팀 실장이 기념촬영을 하고 있다.(사진=현대해상 제공)2022.03.03 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = 현대해상이 토스 운영사인 비바리퍼블리카와 'GA설계사 온라인 영업지원 활성화 및 포괄적 협력방안 모색을 위한 업무협약'을 손보사 최초로 체결했다고 2일 밝혔다.현대해상은 이번에 신설되는 온라인 지원 서비스를 통해 GA설계사들이 더욱 빠르고 편리하게 보험상담을 진행할 수 있는 기반을 마련하고, 토스보험파트너를 신규 영업플랫폼으로 활용한다는 계획이다. '토스보험파트너' 앱에 GA소속 보험설계사 대상 온라인 설계지원 기능을 신설하고, 토스 인증을 통해 가입설계 동의부터 상품설계 지원 요청까지 한 번에 진행할 수 있는 서비스를 제공할 예정이다.토스보험파트너는 토스가 운영하는 보험설계사 전용 영업지원 앱이다. 토스 앱 이용자 가운데 보험상담을 원하는 고객을 설계사에게 바로 연결하는 서비스를 제공한다. 약 13만 명의 보험설계사를 회원으로 두고 있다.이와 별도로 현대해상은 자사 영업시스템에 토스인증과 토스페이를 도입해 영업 활용도 및 보험료 결제 편의성을 높일 예정이다.정규완 현대해상 디지털전략본부장 상무는 "다수의 보험설계사 회원을 확보하며 비대면 영업플랫폼으로서의 가치가 입증된 토스보험파트너와의 협력에 기대가 크다"며 "양사 간 다양한 협업을 통해 실질적인 사업성과를 만들어 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.03.02.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>대출도 점점 비대면이 대세…인터넷뱅킹 대출 하루 평균 7500억</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003131709?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>[경향신문] 사진 출처: 카카오뱅크 홈페이지.은행 창구에 가지 않고 인터넷뱅킹(모바일뱅킹 포함)을 통한 대출 신청이 지난해 하루 평균 3만1000건, 금액으로는 7500억원 넘게 이뤄진 것으로 나타났다. 건수 기준으로 2년만에 2배, 금액 기준으로는 4배 규모로 커졌다.한국은행이 2일 발표한 ‘2021년 국내은행 인터넷뱅킹서비스 이용현황’을 보면 지난해 19개 국내은행·우체국의 인터넷뱅킹(모바일뱅킹 포함)을 통한 대출 신청 금액은 일평균 7545억원으로, 2020년(4810억원)보다 56.9% 증가했다. 2019년 일평균 신청 금액 1945억원과 비교하면 2년 만에 3.9배 규모고 불었다. 대출 신청 건수는 하루 평균 3만1000건으로, 47.6% 늘었다. 대출 신청 건수도 2019년 일평균 1만5000건에서 2년 만에 두배 규모가 됐다.지난해 코로나19 확산과 가계대출 급증이 복합적으로 작용한 영향으로 풀이된다. 코로나19로 은행 방문이 줄어든 대신 카카오뱅크, 토스뱅크 등 인터넷전문은행들이 공격적으로 대출을 늘리고, 시중은행들도 자체 애플리케이션을 통한 비대면 신용대출, 전세대출 등을 내놓으면서 비대면 대출 시장을 키운 결과다.인터넷뱅킹을 통한 자금 이체 이용 건수와 이용 금액은 지난해 일평균 각각 1729만건, 69조7997억원으로, 1년 전보다 각각 17.9%, 19.3% 불었다. 이에 따라 대출 신청과 자금 이체 서비스를 모두 합한 인터넷뱅킹 일평균 이용 건수는 1732만건, 이용 금액은 70조5541억원이다. 각각 1년 전보다 18.0%, 19.6% 늘었다.인터넷뱅킹 중에서도 모바일뱅킹 비중은 점점 늘어 80%를 넘어섰다. 지난해 모바일뱅킹의 이용 건수와 금액은 1436만건, 12조8575억원으로, 전년 대비 각각 22.9%, 36.6% 증가했다. 모바일뱅킹이 전체 인터넷뱅킹 이용 건수에서 차지하는 비중은 82.9%를 기록했다.지난해 말 기준 국내은행의 인터넷뱅킹 등록 고객 수(여러 은행 등록 중복 합산)는 1년 사이 9.4% 늘어난 1억9086만명으로 집계됐다. 이 가운데 모바일뱅킹 등록 고객은 1억5337만명으로, 13.5% 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>토스뱅크 3명 중 1명은 중저신용자…최저 연 3.32%에 빌렸다</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004715363?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>[대출영업 재개한 1~2월 중저신용자 대출 비중 31.75%중저신용자 평균 금리 7.7%, 저축銀보다 5.6%P 낮아 중저신용자 4명 중 1명은 자체 신용평가 고신용자 상향신용대출 최저금리 시중은행보다 0.9%P 낮은 2.71%]대출 영업을 재개한 토스뱅크가 올해 중저신용자 대출 비중이 31.75%로 집계됐다고 3일 밝혔다. 지난해 10월5일 출범 한 토스뱅크는 자체 신용평가모형을 개발해 중저신용자들에게 대출 문호를 개방했다. 출범 후 9일 만에 가계대출 총량규제로 대출을 중단했을 때 중저신용자 대출 비중이 33%에 달했고, 올 들어 대출을 다시 시작한 후에도 대출고객 3명 중 1명이 중저신용자였다. 중저신용자 1인당 평균 대출금액은 2320만원으로 신용점수 454점(과거 KCB 기준 8등급)까지 대출이 실행됐다고 했다.  토스뱅크는 올해 전체 신용대출의 42%를 중저신용자에게 내주고,  내년에는 44%까지 확대한다. 출범 후 5개월 간 대출 심사 과정에서 중저신용자 고객 4명 중 1명 이상(26.3%)이 고신용자로 상향됐다. 중저신용 고객의 평균 금리는 7.7%로 저축은행 평균금리(13.3%)보다 약 5.6%포인트 낮았다. 토스뱅크 관계자는 "자체 개발한 신용평가모형(TSS, Toss Scoring System)으로 고객의 '실질 소득'을 분석하고 신규 대출여부를 판단한다"며 "'건전한 중저신용자'로 분류된 고객은 저축은행·카드사·캐피탈사에 비해 높은 신용도 개선 기회를 누릴 수 있다"고 강조했다. 신용등급이 가장 좋은 대출고객의 금리 구간은 2.71~3.81%였다. 기존 대출을 보유하고 있더라도 연체 없이 성실히 상환한 이력이 있거나, 장기간 보험계약을 유지한 경우 2%대 신용대출이 가능했다. 특히 중저신용자 최저금리도 3.32%에 불과했다. 전체 신용대출 최저금리가 연 3.6% 안팎인 4대 시중은행에 비해 더 낮은 셈이다. 2월 말 기준 토스뱅크 대출 자산 잔액은 1조9446억원으로으로 대출 4건 중 3건은 신용대출(75.4%)이었으며 마이너스통장(23.4%), 비상금대출(0.8%), 사잇돌대출(0.4%) 순이었다. 올해 토스뱅크 대출을 위해 '내 한도 관리' 서비스에 새로 가입한 고객 수는 36만343명이다. 일반은행에 빗대면 지난 1~2월 36만명 이상이 대출 상담을 위해 은행 창구를 방문했다는 뜻이다. 일 최대 이용자는 8만701명, 일평균으론 2만7157명이 토스뱅크를 방문했다. 대출 심사부터 입금까지 걸리는 시간은 평균 3분 이내로 집계됐다. 고객 3명 중 2명(62%)은 주말을 포함해 은행 영업 시간(오전 9시~오후 4시) 외에 대출을 받았다. 토스뱅크는 '원앱(One-app)'의 편리함과 폭넓은 중저신용자 포용을 이용자 증가의 주된 요인으로 평가했다. 대출 심사부터 입금까지 평균 3분 이내에 가능한 것으로 집계됐다. 은행을 방문하기 어려운 자영업자나 소상공인들이 대출을 위해 은행에 직접 가지 않아도 모바일로 이용이 가능해 특히 인기가 높았다.  토스뱅크 관계자는 "고도화된 신용평가모형으로 포용할 수 있는 고객의 범위를 넓혔고 실질 소득으로 대출 여부를 판단해 고객 관심이 높았다"며  "공급자 입장이 아닌 고객 관점의 새로운 뱅킹 서비스를 구현하기 위해 노력할 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.03.10.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>술·담배 구매 가능한 청소년 전용 카드…"구매 막는 것 불가능"</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001648011?sid=102</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>편의점 종사자들 "성인으로 오인하기 쉬워…술·담배 구매 막는 장치 필요"은행 관계자 "특정 품목에 대해 카드 결제 못하도록 막는 것 불가능"카카오뱅크 미니 카드 / 사진=카카오뱅크최근 많은 청소년들이 사용하고 있는 청소년 선불 충전 카드가 편의점에서 술이나 담배를 구매하는 수단으로 악용된다는 지적이 제기되고 있습니다.코로나19 장기화로 마스크를 쓰고 물품을 구매하게 되어 신분 확인이 어렵게 되자 주로 성인이 사용한다는 인식이 있던 카드를 청소년들이 사용하게 되며 청소년 유해 용품을 구매하는 미성년자들을 구별하기가 더욱 어렵게 되었다는 것입니다.편의점에서 오래 일해온 제보자 A씨는 최근 담배를 사려는 손님이 미성년자로 의심돼 신분증을 요구했습니다.성인 신분증을 제시한 손님이 마스크를 쓰고 있었기 때문에 신분증과 얼굴이 일치하는지 확인이 어려웠던 A씨는 손님이 내민 카드를 본 뒤 성인일 것이라 믿고 결제를 진행했다고 전했습니다. 그러나 나중에 인터넷을 찾아본 뒤 그 손님이 사용한 카드가 미성년자에게만 발급되는 카카오뱅크 미니 카드였다는 것을 알게 됐습니다.다른 편의점도 상황은 마찬가지입니다. 청소년 카드가 우후죽순 생겨나기 시작하며 직원들이 실수로 미성년자에게 담배나 술을 판매하는 사례가 늘었기 때문입니다.2020년 10월 출시된 카카오뱅크 미니 카드는 누적 가입자 수가 지난 2월말 기준 124만명에 달할 정도로 청소년들 사이에서 인기를 끌고 있습니다.만 14세부터 만 18세 이하 청소년에게만 발급되는 카드로, 주점·카지노 등 청소년 유해 업종에서는 사용할 수 없지만, 편의점에서 담배나 술을 사는 것은 가능하다는 허점이 있습니다.신한 밈 카드 / 사진=신한카드이외에도 신한은행의 밈 카드(만 14∼18세), 토스의 토스유스카드(만 7∼16세) 등 10대 청소년을 겨냥한 선불 충전 카드가 앞다퉈 출시되고 있습니다.미성년자에게 담배를 판 판매자는 청소년보호법에 따라 2년 이하의 징역 또는 2천만원 이하의 벌금을 내야하고, 점주는 1차 적발시 2개월의 영업(담배판매) 정지, 2차 적발시 3개월의 영업 정지, 3차 적발시 담배 판매 허가 취소의 행정처분을 받게 되기에 촉각을 곤두세우고 있는 입장입니다. 이에 은행 관계자는 특정 품목에 대해 카드를 걸제하지 못하도록 막는 것은 현실적으로 힘들다는 답변을 내놓았습니다. 이어 편의점 종사자들이 신분증 확인을 보다 철저히 해야 할 필요가 있는 것 같다고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.03.15.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>LG엔솔 ‘심상찮은 추락’… 차기 공정위원장은 검찰 출신? 내부승진? [한강로 경제브리핑]</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003676032?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>서울 여의도 LG 트윈타워. 뉴시스    세계일보 14일자 경제면은 상장 초기 50만원대를 기록했던 LG에너지솔루션 주가가 30만원대까지 내려왔다는 뉴스를 전했다. 코스피200에 새로 편입되면서 공매도가 가능해진 데다, 러시아의 우크라이나 침공 영향으로 2차전지 기업 주가가 내리막길을 걷고 있다. 윤석열정부 출범을 앞두고 차기 공정거래위원장 인사에 관심이 집중된다는 뉴스도 주요하게 다뤘다. 인터넷 전문은행 토스뱅크는 지난달 출시한 개인사업자 대출에서 중저신용자 비중이 40%를 차지했다고 발표했다.   ◆공매도 폭탄·원자재 급등…LG엔솔 ‘날개 없는 추락’   기업공개(IPO) 역사상 최대어로 주목받으며 지난 1월 말 코스피 시장에 상장하자마자 시가총액 2위로 직행한 LG에너지솔루션의 주가가 심상치 않다. 상장 초기 50만원 후반대까지 찍었던 주가가 어느덧 30만원대까지 떨어졌다. 공매도가 가능해진 데다 러시아의 우크라이나 침공으로 인해 원자재 가격이 급등하면서 2차전지 업종의 주가가 하방압력을 받은 영향으로 분석된다.   14일 한국거래소에 따르면 LG에너지솔루션의 주가는 전 거래일 대비 7.03%(2만7500원) 떨어진 36만3500원에 장을 마쳤다. 지난 1월27일 상장 첫날 50만5000원에 마감했던 LG에너지솔루션의 주가는 이날 종가 기준 역대 최저치로 떨어졌다.   LG에너지솔루션의 최근 가파른 주가 하락의 원인으로는 공매도가 꼽힌다. LG에너지솔루션은 지난 11일 코스피200, 코스피100, 코스피50, KRX100 등 주요 지수에 편입된 이후 공매도 거래가 가능해졌다. 지난 11일에만 LG에너지솔루션의 공매도 거래대금은 2279억원으로, 전체 공매도 거래대금 7122억원의 32%를 차지했다. 공매도 여파로 LG에너지솔루션의 주가는 지난 11일에만 6.35%(2만6000원) 하락한 39만1000원에 마감하며 40만원선이 무너졌다.   이날도 공매도 여파를 피해가지 못한 모양새다. 38만5000원에 거래를 시작한 LG에너지솔루션은 이날 정오쯤 36만1500원까지 떨어지며 상장 이후 최저가를 찍기도 했다. 오후 들어 반발매수세 유입으로 다소 주가가 오르긴 했으나 하방압력을 이겨내지 못하고 7% 하락세 상태에서 장을 마쳤다.   물론 LG에너지솔루션의 주가 하락은 공매도 영향 때문만은 아니다. 러시아의 우크라이나 침공으로 인해 2차 전지의 주재료인 니켈 등의 원자재 값이 급등하면서 2차 전지, 전기차 관련 주가도 최근 부진한 상황이다. 지난 11일(현지시간) 미국 뉴욕증시에서도 전기차 업종인 테슬라(-5.12%), 리비안(-7.56%), 루시드(-5.33%) 등이 일제히 하락했다. 국내 증시에서도 삼성SDI 주가가 이날은 1%대 상승세로 마감하긴 했지만 최근 주가가 하락세를 보이며 50만원선이 무너진 상황이다.     지난 8일(현지시각) 영국 런던금속거래소가 가격이 급등한 니켈 거래를 일시 중단했다. 모니터에 니켈 가격 추이를 나타내는 그래프가 표시돼 있다. AFP연합뉴스    상장 초기 100조원을 훌쩍 넘겼던 LG에너지솔루션의 시가총액도 최근의 주가하락 여파 속에 85조5270억원으로 떨어졌다. 시가총액 순위도 3위 SK하이닉스(84조8122억원)와의 차이가 1조원 이내로 바짝 좁혀지며 2위 수성마저 위태로운 상황이다.   다만 증권업계에서는 장기적으로는 전기차 트렌드가 여전할 것으로 전망하면서 원가 상승에 따른 마진 우려는 있지만, 배터리 부문의 수익성은 클 것이라고 전망하고 있다. 탈탄소 흐름 속에서 전기차 수요는 점점 더 커지고 있기 때문이다.   김연수 하나투자증권 연구원은 “LG엔솔의 영업이익은 2023년 1조6000억원, 2024년 2조4000억원으로 증가하며 향후 3년간 예상 연평균 영업이익 증가율은 46%”라며 “이는 향후 3년간 예상 매출 연평균 증가율 24%를 상회하는 것으로, 전기차 배터리 부문 수익성 개선으로 인해 이익증가율이 매출 증가율을 상회할 것으로 전망한다”고 밝혔다.   한편 우크라이나 사태가 악화 조짐을 보이면서 이날 원·달러 마감 환율이 1242.3원으로 연 중 최고가를 기록했다. 오늘 하루에만 전날 종가보다 10.3원이 올랐다. 환율이 마감 기준으로 1240원을 넘어선 것은 2020년 3월24일(1249.60원) 이후 2년여 만이다.   이날 서울 외환시장에서 원·달러 환율은 전 거래일보다 5원 오른 1237.0원에 출발했다. 러시아의 디폴트 가능성, 화학무기 사용 우려가 커지면서 오름세를 보이며 지난 8일 기록한 장중 연고점(1238.7원)을 넘어섰고, 결국 1240원마저 돌파했다.     서울 외환시장에서 원·달러 환율이 전 거래일(1232.0원) 대비 10.3원 오른 1242.3원에 장 마감한 14일 오후 서울 중구 하나은행 딜링룸에서 전광판에 지수가 표시되고 있다. 뉴시스    국제유가 하락에도 달러가 강세를 보이는 것은 러시아가 나토(북대서양조약기구) 회원국인 폴란드 국경 인근까지 공격하면서 나토와의 직접 충돌 우려 등으로 안전자산 선호 심리가 강해지고 있기 때문으로 풀이된다. 여기에 대 러시아 제재에 따른 경제 충격과 미국 연방준비제도(Fed·연준)의 기준금리 인상이 확실시되고 있는 점도 달러 강세에 영향을 끼친 것으로 보인다.   미 연준은 오는 15~16일(현지시간) 예정된 연방공개시장위원회(FOMC) 정례회의에서 기준금리를 0.25%포인트 인상할 것으로 예상된다.   이날 런던ICE선물거래소에서 5월물 브렌트유 선물가격은 전장보다 1.58% 하락한 배럴당 110.89달러에 마감했다.     사진=연합뉴스    ◆차기 공정위원장은 검찰 출신? 내부승진?   윤석열정부가 출범을 앞두면서 차기 공정거래위원장에 검찰 출신이 기용될지 여부에 관심이 쏠린다. 공정위 안팎에선 윤 당선인과 인연이 있고 공정거래 전문가인 구상엽 울산지검 인권보호관이 유력 후보군으로 거론된다. 다만 공정위와 불편한 관계인 검찰 출신을 전격 기용할 경우, 조직 동요 등 ‘리스크’가 큰 만큼 전·현직 관료 가운데 기업 친화적 성향을 가진 인물이 기용될 것이란 전망도 나온다.   14일 공정위 등에 따르면 차기 공정위원장 후보군 중 외부 인사로 구 인권보호관이 주목받고 있다. 구 인권보호관은 현직 검사로는 이례적으로 카르텔(담합)을 주제로 서울대에서 박사학위를 받고, 2015년 소형베어링 가격을 담합한 일본 업체들의 국제 카르텔 사건을 최초로 기소하는 등 검찰 내 공정거래 분야 최고 전문가로 꼽힌다. 아울러 윤 당선인이 검찰총장으로 재직할 때 서울중앙지검의 핵심 보직인 반부패수사1부장에 발탁되는 등 당선인과의 신뢰 관계도 두텁다.   하지만 검찰 출신을 첫 공정위 수장에 앉힐 가능성이 크지 않다는 시각도 많다. 당장 ‘검찰공화국’이란 비판이 나올 수 있어 정권에 부담이 될 수 있기 때문이다. 아울러 구 인권보호관이 공정위 재취업 비리를 수사해 전직 공정위원장을 구속한 전력이 있어 공정위 내부에서 동요가 생길 수도 있다.   이에 따라 관가 안팎에선 조직 안정 차원에서 전·현직 공정위 관료가 새 수장으로 유력하다는 관측도 나온다. 내부 승진이 이뤄질 경우 김재신 현 부위원장이 첫손에 꼽힌다. 김 부위원장은 카르텔, 기업거래 등 공정위 내 주요 업무를 섭렵한 데다 내부 신망도 두텁다. 갑을관계 등에 대한 이해도가 높은 지철호 전 부위원장도 유력 후보군 중 하나다. 전문가 그룹 중에서는 대선 과정에서 윤 당선인에게 정책적 조언을 한 것으로 알려진 권남훈 건국대 경제학과 교수가 거론된다. 공정위 한 관계자는 “공정위 직원들은 지난 5년간 조직 위상 추락과 사기 저하가 크다고 보기 때문에 대내외 소통을 잘하고 리더십 있는 위원장을 원하는 상황”이라고 말했다.   새 정부에선 공정위 정책 방향도 크게 달라질 전망이다. 윤 당선인은 공약집에서 불공정 행위에 대한 규제를 약속하면서도 플랫폼 기업 특유의 역동성과 혁신이 저해되지 않도록 필요 최소한의 규제를 실시하겠다고 밝힌 바 있다. 민간과 시장에 정부가 되도록 개입하지 않겠다는 것이다. 이런 기조에 따라 그간 논의돼 왔던 온라인플랫폼공정화법의 경우 전면 재검토될 가능성이 크다는 분석이다. 다만 공정위의 전속고발권은 폐지 대신 제도 보완이 추진될 전망이다. 윤 당선인은 엄정한 전속고발권 행사를 강조하면서 보완 장치인 중소벤처기업부 등 의무고발요청제를 함께 실시하겠다고 약속한 바 있다.    ◆토스뱅크, 사업자대출 중저신용자 집중…중저신용 비중 40% 달해   토스뱅크가 개인사업자 대출에서도 중저신용자에 집중한 것으로 나타났다. 인터넷 전문은행의 설립 취지가 ‘중저신용자에 중금리 대출 공급’이라는 점에서 고무적인 평가가 나온다.    토스뱅크는 14일 ‘토스뱅크 사장님 대출’이 출시 한 달 만에 1167억원을 기록했다고 발표했다. 이 중 중저신용 개인사업자 비중이 39.7%(잔액 기준)에 달했다. 토스뱅크 사장님 대출은 토스뱅크가 인터넷 전문은행 최초로 선보인 비대면 개인사업자 대출이다. 보증기관의 보증서나 고객의 부동산 등을 담보로 하지 않고 토스뱅크의 신용평가모형 ‘TSS(Toss Scoring System)’에 따라 한도를 부여받는 게 특징이다.   토스뱅크는 “매출액이 크지 않아도, 제 3금융권 대출을 보유해도, 연소득이 일정하거나 매출이 꾸준히 발생하는 경우에는 고객이 실질 상환능력을 보유했다고 판단해 높은 신용도를 인정했다”고 설명했다.   토스뱅크가 개인사업자 대출의 40%를 중저신용 사업자에 판매한 것은 높게 평가받는 분위기다. 개인사업자 대출은 가계대출이 아닌 기업대출로 분류되긴 하지만, 가계대출과 마찬가지로 신용에 어려움을 겪는 서민에 자금을 공급하는 효과를 내서다. 정호철 경제정의실천시민연합은 금융개혁위원회 간사는 “(토스뱅크가) 개인사업자 대출에서 중저신용자의 비중을 높게 가져간 점은 긍정적으로 본다”고 말했다.   향후 개인사업자 대출을 준비하고 있는 케이뱅크와 카카오뱅크도 인터넷 전문은행 취지에 맞게 중저신용 사업자 취급 비중을 늘릴 수 있도록 자사 신용평가모형을 고도화해야 한다는 목소리도 나온다. 케이뱅크는 올해 1분기 ‘개인사업자 운전자금 대출’ 상품을, 카카오뱅크는 하반기에 개인사업자 대상 소호(SOHO) 대출 상품을 출시할 예정이다.   그동안 인터넷 전문은행이 설립 목적과 달리 고신용자 대출을 확대한다는 비판이 제기돼 왔다. 은행연합회 공시에 따르면 지난해 카카오뱅크의 중저신용자 대출 비중은 17.0%로 목표치(20.8%)를 미달했다. 케이뱅크(16.6%·목표치 20.8%)와 토스뱅크(23.9%·목표치 34.9%)도 마찬가지였다.   여기에 연초 금융위원회가 인터넷 전문은행의 개인사업자·중소기업 대출을 활성화하기 위해 ‘은행법’을 개정하겠다고 예고하자, 경실련은 “중·저신용자에 대한 중금리 가계대출 공급 역할을 감당해야 하는 인터넷 전문은행의 도입 목적에 역행한다”고 비판하기도 했다.     사진=연합뉴스    ◆관세청, 수출입현황 2월 확정치 발표…한은, 2월 수출입물가지수   오늘은 관세청이 2월 수출입현황 확정치를 발표한다. 지난달 1~20일 사이 수출입현황의 경우 수출 343억 달러, 수입 360억 달러로 무역수지 적자는 16억7900만달러를 기록한 바 있다. 1월과 비교해 무역수지 적자 규모가 줄었는데 이런 추세가 이어질지 관심이 주목된다.   한국은행은 수출입물가지수를 발표한다. 한국은행에 따르면 2월 수출물가는 전월대비 2.1% 상승했다. 전년 동월대비로는 20.3% 상승이다. 수입물가는 전월대비 3.54% 올랐고, 전년 동월대비 29.4% 올랐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>토스뱅크 대출, 3명 중 1명은 중저신용자</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004025593?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>올 1~2월 중저신용 대출 31.75%최저금리 3.32% 적용받은 경우도新평가모델 효과···신용도 개선 26%[서울경제] 올해 들어 인터넷전문은행 토스뱅크에서 돈을 빌린 사람 셋 중 하나는 중저신용자인 것으로 나타났다. 일부는 ‘건전한 중저신용자’로 평가받아 고신용자도 부러워할 연 3.32%의 최저금리를 적용받았다.토스뱅크는 올 1~2월 두달간 신규 취급한 가계대출 가운데 중저신용자 대상 대출 비중이 31.75%로 집계됐다고 3일 밝혔다. 지난달 말 기준 토스뱅크의 가계대출 잔액은 1조 9446억 원으로 두 달 만에 1조 4131억 원이 늘었다. 일별로 보면 중저신용 대출 비중이 가장 높았던 날은 1월 31일(50.18%)이었다. 설을 하루 앞두고 급전이 필요한 서민들이 명절에도 문을 연 인터넷전문은행으로 몰린 것이다. 토스뱅크 관계자는 “모바일로 금리·한도 조회부터 입금까지 평균 3분 이내에 가능해 바쁜 소상공인들에게 특히 인기”라고 전했다.중저신용자는 신용점수가 코리아크레딧뷰로(KCB) 기준 820점(옛 신용등급 4등급) 이하인 사람이다. 중저신용 고객은 토스뱅크에서 평균 2320만 원의 대출을 평균 7.7%의 금리로 이용했다. 3.32%의 금리로 빚을 낸 중저신용자도 있었다. 신용점수 454점(8등급)에 불과한 고객이 대출 심사를 통과하기도 했다.토스뱅크가 자신 있게 중저신용자를 품에 안을 수 있는 비결은 고객의 ‘실질소득’을 분석하는 자체 개발 신용평가모형(Toss Scoring System·TSS)에 있다. 저축은행·카드사·캐피털사 등 제2금융권을 전전해온 신용도는 낮으나 상환 여력이 충분한 고객을 골라내는 게 TSS의 핵심 경쟁력이다. 장기간 보험계약을 유지하거나 건전한 소비 패턴이 확인된 경우 가산점을 주는 식이다. 지난해 10월 출범 이후 5개월간 토스뱅크의 중저신용자 4명 중 1명 이상(26.3%)이 신용도 개선의 기회를 잡을 수 있었던 이유다.다만 이들이 실제 성실히 빚을 갚을지는 대출 만기가 도래하는 오는 10월 이후부터 판가름 난다.토스뱅크는 전 금융권 통틀어 가장 많은 고객이 찾는 금융회사로도 자리매김했다. 일평균 2만 7157명의 대출 고객이 토스뱅크를 방문했다. 올 1월 말 기준 시중은행의 일평균 방문 고객 수(784명)를 웃돌았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>[서정은의 현장에서] 혁신 좇던 빅테크, 자기반성의 계절</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001958967?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>“은행들이 다 이유가 있었네요.” 빅테크 관계자들에게 최근 자주 듣는 말이다. 얼마 전까지만 해도 이들은 기존 은행을 ‘혁신 없는 고루한 조직’이라고 평가했다. 자기들은 ‘하면 된다’지만 은행들은 ‘되면 한다’는 얘기였다.자신감 넘치던 이들이 반성의 시간을 보내는 건 몇 가지 경영상 실수를 겪고 나서다. 토스뱅크는 지난해 10월 하루만 예치해도 연 2%를 지급하는 파킹통장을 출시했다. 파킹통장이 경영상 부담이 될 것이라는 우려는 다른 은행과의 차별화라는 자신감 아래 간과됐다. 혁신의 대가는 컸다. 뚜껑을 열어보니 최상위 고객들이 우르르 파킹통장에 몰린 것이다. 출시 이후 얼마 되지 않아 1억원 초과 예금에 0.1%의 낮은 금리를 적용할 수밖에 없었던 이유도 여기 있었다.‘하면 된다’ 정신이 독이 된 사례는 또 있다. 토스증권이 내놓았던 10대 청소년 대상 ‘비대면 계좌 개설’ 서비스가 그렇다. 토스증권은 당국의 명확한 해석이 내려지지 않았을 뿐 위법은 아니라고 했지만 결국 중단하게 됐다. 금융에서 혁신은 규제를 가장 빡빡하게 판단했을 때 가능하다.벤처 정신의 논법으로 해왔던 선택이 사회적 지탄을 받게 된 사례도 있다. 카카오페이 임원들의 주식 대량 매도 논란이 대표적이다. 이들은 상장 후 스톡옵션 행사 주식을 대량 매도해 막대한 차익을 얻었다. 벤처업계에서는 흔한 일인 데다 경영자율성의 결과라고 하지만 사회적 파장이 만만치 않았다. 경영진은 물갈이됐고, 일명 ‘먹튀 방지법’까지 나올 지경이니 대가는 혹독했다. 카카오페이 내에서는 카카오라는 사회적 브랜드, 상장사로서의 책임감을 무시한 결과라는 회의론이 나온다고 한다. 카카오페이는 과거 금융소비자보호법 실시를 앞두고 금융 서비스에 제동이 걸린 걸 당일 파악하기도 했는데 성장과 혁신에 집중하느라 대관 역량이나 사회적 여론에 이들이 얼마나 둔감했는지 알 수 있다.비단 이런 문제는 우리나라만 겪는 게 아니다. 영국의 대표 핀테크기업 레볼루트 또한 비슷한 일을 겪고 컴플라이언스 인력 등을 대폭 늘렸다. 이 밖에 혁신을 꾀한다며 온라인으로만 받던 고객 서비스도 전화번호를 도입하는 등 은행업계의 전통적 의사결정도 수용하기 시작했다. 레볼루트는 2019년 각국의 감독규제를 살펴보기 위해 글로벌 라이선스팀을 구축하기도 했다.혁신을 최우선 모토로 삼아온 빅테크들은 벤처에서 출발해 회사를 키워왔다. ‘하면 된다’는 자신감은 회사가 커가는 데 자양분이 됐다. 이들이 전통 은행의 변화를 끌어내는 데에 메기 역할을 한 것도 맞다.하지만 상황이 달라졌다. 금융권에 편입된 이상 규제라는 울타리, 여론이라는 정성적 접근에서 자유로울 수 없다. 기존 은행권의 ‘보신주의’에 대해 부정적으로 보여온 빅테크들이 최근에 은행권 인력을 영입해야한다는 목소리가 커지는 것도 이 영향이다. 빅테크업체들은 기존 은행권의 의사결정이나 규제, 사회적 여론을 반영해 의사결정을 하겠다고 반성문을 쓰고 있다. 그간의 실수가 이제는 ‘성장(growth)’을 넘어 ‘성숙(grow up)’을 이루는 계기로 바꾸길 기대해본다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.03.02.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>대표는 30대, 임원은 50대…핀테크기업 혁신 방정식</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004929236?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>82년생 이승건·홍민택 대표비바리퍼블리카·토뱅 이끌어핀다·렌딧 대표 모두 30대과감한 도전으로 미래 주도◆ 금융권 인사 변화 바람 ◆  한국 금융 혁신을 이끄는 핀테크 기업들 수장은 1980년대생이 대세다. 새로운 기술과 혁신 서비스들을 빠르게 발견하고 현실에 적용하기 위해서는 젊은 감각이 필요하기 때문이다. 1980년대생 대표들이 1970년대생 임원들의 보좌를 받아 혁신을 주도하고 있다.한국 핀테크 기업 중 최초로 유니콘(기업가치 1조원 이상 비상장기업)에 올랐고, 이제 데카콘(기업가치 10조원 이상 비상장기업)을 눈앞에 둔 비바리퍼블리카의 이승건 대표는 막 마흔이 된 1982년생이다. 1979년생 이형석 헤드오브테크놀로지(최고기술경영자), 1967년생 신용석 최고정보보호책임자 등과 함께 비바리퍼블리카를 이끌고 있다. 이 대표는 서울대 치의학과를 나와 치과의사를 하다가 비바리퍼블리카를 창업하고 간편송금 서비스 토스를 2014년 출시했다. 지난해 만 40세 이하 젊은 혁신가에게 주는 '제2회 포니정 영리더상' 수상자로도 선정됐다. 이 대표는 젊은 최고경영자(CEO)답게 철저히 성과 중심으로 조직을 운영하는 것으로 유명하다. 그는 자주 직원들에게 "번트를 치지 말고 풀스윙하라"고 말한다. 과감히 도전해 고객의 불편함을 해소하는 혁신을 만들어낸다면 철저히 지원하겠다는 뜻이다. 1982년생 홍민택 토스뱅크 대표도 이 같은 업무 성과를 바탕으로 지난해 토스뱅크 대표가 됐다. 당시 만 39세 나이에 은행권 최연소 행장이 된 것이다. 토스뱅크 임원 대부분이 1970년대 중후반 출생으로 젊은 편이지만 홍 대표는 그 가운데서도 가장 젊다. 그는 원래 삼성전자에서 삼성페이 개발 업무에 관여하다 비바리퍼블리카로 이직했고, 토스의 뱅킹 관련 서비스를 총괄했다. 토스 앱 월활성이용자(MAU)를 1400만명까지 끌어올리는 등의 공을 인정받아 지난해 10월 출범한 토스뱅크 대표직에 올랐고, 이후에도 연 2% 수시입출금통장 등 혁신 상품들을 출시하며 은행권 메기로 활약하고 있다.1984년생 이혜민 대표는 이번이 벌써 네 번째 대표직이다. 화장품 구독 서비스 기업 '글로시박스'와 유아용품 구독 서비스 기업 '베베엔코'를 창업했으며 건강관리 앱 서비스 기업 '눔코리아' 대표도 지냈다. 현재는 대출 비교 플랫폼 '핀다'를 운영 중이다. 핀테크 업계 목소리를 정부에 전달하기 위해 한국핀테크산업협회 회장 선거에도 출마하는 등 핀테크 업계 활성화에 진력하는 업계 내 소장파로 평가받는다. 1985년생 김성준 대표 이력도 특이하다. 카이스트 산업디자인과를 졸업하고 스탠퍼드대 대학원에서 기계공학 제품 디자인을 전공한 그는 현재 온라인투자연계금융(P2P금융) 기업 렌딧을 운영 중이다. 미국과 달리 한국에선 중금리대출이 어려운 상황을 직접 겪고 2015년 만 30세 나이로 렌딧을 창업했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.03.09.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>[성공예감] 공채는 옛말, 요즘 일자리 구인구직 플랫폼에 다 있다 – 조가연 슈미트 수석팀장</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011226639?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>■ 인터뷰 자료의 저작권은 KBS 라디오에 있습니다.  인용보도 시 출처를 밝혀주시기 바랍니다.■ 프로그램명 : 성공예감 김방희입니다■ 방송시간 : 3월 9일(수) 09:05-10:53 KBS1R FM 97.3 MHz■ 진행 : 김방희 소장 (생활경제연구소)■ 출연 : 조가연 수석팀장 (슈미트)-  인재 부족 시대, 사람 구해 주는 것만으로도 비즈니스 기회가 돼- 미국 코로나19 이후 구인난 극심, 채용 직원 관리가 성장률 좌우할 정도로 중요한 지표- 채용 시 인공지능 활용하는 곳 늘어... 서류 심사, 지원자의 합격 가능성 예측 기능 등- 채용 관리 통합 지원 서비스, 지인 추천 서비스 등 기업들 인재 영입에 투자- 재능과 시간을 상장하고 주식처럼 거래하는 스타트업 생겨... - 1020세대에 인기 많은 틱톡, 구인구직 서비스 프로모션... 향후 구인구직 플랫폼으로 발전할 가능성도- N잡 늘면서 프리랜서 플랫폼도 증가... 프로젝트나 시간 별로 매칭- 잠재력 높은 스타트업이나 창업 팀 통째로 영입하려 기업 인수하는 방식도 늘어- 효율성을 위해 점차 채용 프로세스 아웃소싱하는 추세, 채용 시장 전망 좋아◇김방희&gt; 월요일에 제가 코로나 이후에 가장 큰 변화의 하나로 일과 직장에 대한 재평가를 하게 될 거다, 이런 말씀 드렸죠. 중세 사례 들어가면서. 실제로 미국에서는 대사직이라고 해서, Great Resignation이라고 그래서 내가 이렇게 목숨 걸고 이 조건에서 일해야 되나 하는 회의감 때문에 일자리를 떠나는 분들이 많습니다. 우리의 경우는 통계적으로 그걸 포착할 수는 없는데 우리는 직장인 양극화가 계속될 것 같다는 느낌이 들거든요. 기업들 입장에서는 특정 분야의 인재를 유치하기 위해서 굉장한 경쟁을 할 테고 나머지는 사내 실업자처럼 월급 때문에 그냥 회사 다닌다. 그러나 내 일에 큰 의미를 부여할 수는 없다. 이렇게 생각하는 분들이 늘어나고 또 N잡러들도 증가하게 되는 거죠. 미래 생활 사전에서는 바로 이런 얘기를 스타트업들의 분위기를 통해서 알아보겠습니다. 슈미트 조가연 수석팀장과 인재 전쟁 그리고 이런 인재 전쟁이 어떻게 새로운 비즈니스로 탈바꿈될 수 있는지 채용 시장의 트렌드까지 짚어 드리겠습니다. 어서 오십시오.◆조가연&gt; 네, 안녕하세요.◇김방희&gt; 대기업부터 IT업계 같은 스타트업까지 인재 경쟁이 치열한데 취업난도 심각하고 청년 실업도 사회 문제에서 아까 40대 이하 MZ세대의 경우에는 가장 중요한 관심사가 일자리다, 이런 얘기도 했는데 왜 특정 분야에서는 사람 못 구해서 이렇게 힘든 겁니까? ◆조가연&gt; 일단 중요한 건 뭐든 사람을 뽑는 것이 아니라 좋은 사람을 뽑는 게 어려웠던 것 같고요. 식상한 표현이지만 이제는 정말 스타트업이나 기업에서 인재 경쟁이 부르는 게 몸값이라고 할 정도로 올라가 있습니다. 초기에는 주로 작은 신생 스타트업들이 기술이나 개발자들을 못 구해서 구직난을 겪었는데 이제는 업계 전반 그리고 개발자뿐만 아니라 직종 전반으로 이런 우수한 인재를 데려오는 데 경쟁이 확대되고 있고요. 그렇다 보니까 채용이나 이런 인사 관리만 해 주는 비즈니스 모델로 유니콘 스타트업들이 등장하기도 하고 또 이런 분야에서 성장하는 벤처들이 국내에서도 이미 다수 나오고 있는 상황입니다.◇김방희&gt; 그래요. 사람을 구해주는 것만으로도 굉장한 비즈니스 기회가 된다. 이런 말씀인데 하긴 IT 붐이 불기 전에도 일본 같은 데서 1990년대 그전 80년대 인재를 구해주는 일들을 하는 기업들이 탄생해서 대기업으로 성장한 예들도 있거든요. 우리도 지금 미국뿐만 아니라 이런 분위기다 이런 말씀이신데 이 얘기가 상당히 흥미롭더군요. 국내 스타트업에 입사하면 특히 몸값 높은 개발자 같은 경우는 스톡옵션 받는다. 기업의 주식 일부를 받는다든가 한다는 소식까지는 다들 잘 알고 계실 텐데 이제는 인재를 추천한 사람한테 보상금을 주는 제도도 있어요?◆조가연&gt; 일단 한 번 검증된 사람을 뽑고 싶다는 기업들의 수요가 생기다 보니까 토스 같은 이런 중대형 스타트업들은 이미 거의 채택을 하고 있고요. 사실은 과거에 1세대 IT 회사였던 네이버나 다음카카오가 한때 경력 입사자들 추천제를 굉장히 많이 활용했었습니다. 최근에는 한 사례로 화장품 정보 앱 화이를 운영하고 있는 회사에서 새로운 인재를 추천해서 실제로 그 인재가 입사를 한다면 최대 1천만 원까지 보상금을 주는 사내 추천 제도를 운영하고 있고요. 오피주제라고 하는 게임 데이터 플랫폼 같은 경우는 보상금이 거의 1500만 원까지 인상되고 있습니다. 특히나 입사한 인재가 오랫동안 재직할수록, 즉 재직 기간이 늘어날수록 추가적으로 보상을 주는 일종의 입사 연금까지 주고 있어서 정말로 사람을 뽑는 것에 대해서 기업들의 지갑이 정말 많이 열리고 있구나 하는 것을 보여 주는 방증 같습니다.◇김방희&gt; 그러니까 사람을 추천해서 그 사람이 오래 다닐수록 보상도 더 많이 받는 거군요. 참 신기하네요. 저희가 아까 Great Resignation, 대사직. 미국 사람들은 코로나 이후에 일자리로 돌아오지 않는다. 근본적인 원인을 따져보니까 실업 급여 많이 주고 이런 것보다는 일과 직장에 대해서 좀 다시 한 번 생각하게 됐다. 이런 분위기 전해드렸는데 미국 고용 상황은 우리보다도 어떻게 보면 인재 구하기가 더 힘든 모양이더라고요.◆조가연&gt; 실업률을 가지고 보면 미국 FOMC라고 연방 시장 공개 위원회라고 하는 곳이 2월달에 발표를 했는데요. 현재 미국은 실업률이 제로인 완전 고용 상태입니다. 오히려 지금 구인 자리로 열려 있는 게 거의 900만 개라고 알려지고 있고요. 말씀해 주신 것처럼 코로나19 이후로 특히나 이런 직업 구인난이 심해졌습니다. 그렇다 보니까 일단 직원들의 입김이 세지기 시작했고요. 이직률도 높아지고 임금 상승률도 높아지고 결국에는 채용을 하고 이 채용한 직원이 나가지 않도록 어떻게 관리하느냐가 기업의 성장률을 좌우할 정도로 굉장히 주요한 지표가 됐습니다.◇김방희&gt; 미국의 임금 상승률은 글로벌 경제도 굉장히 중요하거든요. 이게 인플레이션에 영향을 미치는데 주 초에 잠깐 전해드렸습니다마는 그간 많이 오르던 임금 상승세가 둔화됐다. 이런 정도의 상황이라고 보시면 되겠는데 이렇게 기업들이 정말 필요한 인재는 뽑거나 유지하기가 너무 힘들다, 이런 하소연을 할 정도가 됐는데 그런데 이제 사람 구해주는 사업 아이템들이 그러다 보니까 많이 생길 텐데 단순한 기업이 아니라 벌써 기업 가치가 1조 원에 달하는 유니콘 회사로 성장한 곳이 있다고 그러는데 어디가 그렇습니까?◆ 조가연&gt; 미국의 이런 채용 스타트업 에이트폴드라고 하는 회사인데요. 여기는 서류나 면접 전에 인공지능을 가지고서 채용 기업이나 지원자의 경력을 분석하고 상호 적합한 기업과 지원자를 연결해주는 서비스를 하고 있습니다. 이미 활용하고 있는 데이터가 한 10억 개 이상이라고 하고요. 일단 채용에 적합한 후보자를 자동으로 탐색해서 기업에게 제안을 해 주고 구직자가 자신의 이력서를 올리면 적정한 일자리를 실시간으로 추천해 주는 서비스를 하고 있습니다. 현재 100여 개 이상 국가에서 서비스되고 있는데 워낙 데이터가 많다 보니까 추가적으로 실업보험을 신청한 사람에게 그냥 실업보험만 신청하지 말고 이런 일자리도 있어요 하고 제안을 해준다거나 특히나 재향 군인들의 보유하고 있는 기술을 분석해서 퇴직 후에도 일할 수 있도록 어떤 맞춤형 취직 기회를 제안하는 것들도 하고 있습니다. 여기가 누적으로 거의 5000억 원 정도를 투자를 받았고요. 알려진 그 몸값이 21억 달러 그러니까 우리 돈 한 2.2조 원 정도로 알려진 유니콘입니다. ◇ 김방희&gt; 벌써 그렇게 됐군요. 그런데 국내에서도 AI, 인공지능 활용해서 서류 면접 처리하는 곳들은 많이 들었거든요. 워낙 대기업들 같은 경우 서류가 많이 들어오니까 일일이 체크하기도 힘들고 그래서 조금 걱정은 들던데 정말 구직자 한 분 한 분이 대단히 노력해 온 분들인데 이걸 AI로 걸러낸다. 혹은 인재를 채용한다. 문제는 없을까요.◆ 조가연&gt; 가장 대표적인 문제가 AI 자체가 가지고 있는 편향성의 문제가 한번 있었습니다. 실제로 아마존 같은 경우는 AI 채용 시스템을 활용했었는데 여성성을 드러내는 단어에는 감점이 들어가고 특히 결과를 보니까 백인 남성이 좀 더 많이 뽑혔다고 하는 문제가 제기된 적도 있는데요. 이거는 결국 특히나 딥러닝이라고 불리는 인공지능 같은 경우는 결과 값 도출될 때까지 왜 이런 결과 값이 나오는지 결정 과정이 불투명합니다. 특히나 사람이 가지고 있는 편향성들이 먼저 입력이 되다 보면 이런 결과가 나오는 건데 앞에서 말씀드린 미국의 에이트폴드라고 하는 회사는 자신들이 가장 잘하는 게 이런 편향성을 배제하는 것들이 잘 돼 있다고 주장을 하고 있습니다. 이력서에 구직자가 실수로 인종이나 성별이나 종교를 드러낸 단어를 넣더라도 이런 것들을 알아서 제외해 주고 출신 지역이나 학교 정보도 블라인드 처리하고 있습니다. 정말로 이 사람이 어떤 경력을 가지고 있고 어떤 업무 성과가 있었는지만 가지고 활용을 한다고 이야기를 하고 있고요. 이 창업자 자신도 인도인인데 본인이 실리콘밸리 엔지니어로 근무하면서 겪었던 경험들을 반영했다고 인터뷰로는 밝히고 있습니다.◇ 김방희&gt; 그렇군요. 자신도 아마 어느 정도의 차별은 받았을 테니까 그런 편향성을 AI에서 배제하기 위해서 알고리즘에 신경 썼다 이런 주장일 텐데 저는 그런데 이게 국내에서도 활용해 볼 만하다고 느끼는 게 우리도 실업 급여 받으려면 구직하기 위해서 노력한다는 걸 입증해야 되고 그 과정에서 굉장히 어려움을 겪는데 AI가 맞춤형 일자리 같은 걸 제안해 준다면 얼마나 편리하겠습니까? 우리나라에 이 비슷한 비즈니스 모델을 가진 기업 없습니까?◆ 조가연&gt; 먼저 조금 앞서 있는 회사로는 인재 추천 스타트업 원티드랩이라고 하는 곳이 있습니다. 여기가 2015년도에 만들어졌고요. 지인 추천을 기반으로 채용을 하는 플랫폼이라고 이해하시면 좋을 것 같습니다. 지원자 채용을 할 때 추천을 먼저 해 주고요. 이 채용이 성사가 되면 지원자와 추천자 모두에게 보상금을 주는 방식입니다. 현재까지 알려지기로는 회원이 230만 명이고 기업 고객으로 1만 4500개 회사가 들어가 있고요. 연간 이 플랫폼을 통해 합격하는 게 1만 명 정도 된다고 밝히고 있습니다. 그동안 데이터를 쌓다 보니까 최근에 AI 분석도 도입을 해서 지원자의 합격 가능성을 예측해 주는 기능도 추가해서 운영하고 있습니다.◇ 김방희&gt; 서류 예를 들어서 이력서나 자기소개서를 입력하면 합격 가능성이 얼마나 된다. 이걸 평가해 주는 거군요. 가입한 회원들이 벌써 230만 명이다. 그거 대단한 건데 어떻게 창업하게 된 거예요?◆ 조가연&gt; 창업자가 원래 컨설팅 회사에서 근무하다가 중간에 본인도 여행 플랫폼을 창업했다가 폐업해 본 경험이 있다고 하고요. 결국에는 스타트업이라고 하는 것들 팀을 구하는 것들도 사람이 중요하다 보니까 재창업하는 아이템으로 이런 지인 추천 기반 채용 서비스를 보완을 해냈습니다. 실제로 작년 8월에는 성장성 추천 특례로 코스닥 상장을 해서 어제 정가로 보니까 2900억 원 정도 시총이 되어 있고요.◇ 김방희&gt; 2900억원이나 돼요?◆ 조가연&gt; 그런데 이게 성장성 추천 특례라고 하는 게 적자더라도 회사가 성장 잠재력이 크다고 판단을 하면 주관사가 추천을 해서 상장을 하는 거여서 그런 방식으로 상장이 되어 있습니다.◇ 김방희&gt; 사람 소개하는 일종의 중매, 징검다리 역할을 하는 거니까 수수료 기반의 비즈니스 모델일 텐데 수수료 받으면 개인들 부담 크지 않나 모르겠군요. 왜냐하면 다른 비슷한 비즈니스 모델들도 나올 테니까 이게 궁금한데...◆ 조가연&gt; 보통 기업이 활용하고 있는 헤드헌터 서비스 수수료가 낮게는 15%에서 많게는 25% 최근 같은 경우에는 구인난이 심하다 보니까 일부 30%까지 부르기도 하는데요. 그리고 채용 포털 같은 경우는 수수료는 없지만 광고비를 과금하는 시스템으로 돌아가고 있습니다. 이 회사 같은 경우는 인재 채용이 완료가 되면 합격자 연봉의 7%를 기업 고객에게서 수수료로 받고 있고요. 그래서 비용상으로는 일단은 조금 낮은 편이기는 합니다. 그리고 기업이 보상금을 걸고서 채용 공고를 낼 수도 있고 또 추천이 있으면 출근하고 3개월이 지났을 때 각자에게 보상을 주는 방식도 활용하고 있어서 기존의 헤드헌터 수수료보다는 조금 더 저렴하다고 알려져 있습니다.◇ 김방희&gt; 그런데 그 헤드헌팅 업체의 수수료도 많이 높아졌네요. 저희 한 10여 년 전에 비해서 그때는 1년 연봉의 10%를 가져가는 거였는데 아마 인재를 구하기가 그만큼 더 힘들어진다. 직장인 양극화하고도 관련이 있을 것 같아요. 인재는 구하기 더 힘들어지고 그냥 평범한 다수의 직장인 일자리는 또 상황이 다르고 이런 것들인데.◆ 조가연&gt; 특히 요즘에 IT 개발자들 중에서도 시니어 개발자들이라거나. 또 바이오 업계에서는 특히 C레벨로 할 수 있는 경력직 바이오 인력들은 정말 부르는 몸값이 높아졌습니다.◇ 김방희&gt; 연봉 얘기도 듣고 깜짝 놀랐는데 이런 회사는 코스닥 성장성 내이기는 합니다마는 상장한 지 1년 반 정도 됐는데 매출 같은 건 어때요? 미국하고 비교해 보면.◆ 조가연&gt; 올해 공시가 나온 작년 매출을 보면 317억 원이고요. 작년 같은 경우는 일부 흑자 전환을 했습니다. 사실 이게 한국 같은 경우는 채용 시장에서 수익을 낼 수 있는 시장 규모, 흔히 이런 수수료 기반의 채용 플랫폼이겠죠. 이런 것들이 2025년에 3조 8000억 원 정도가 될 것이라고 추정을 하고 있어서 시장이 커지면 또 점유율에 따라 성장 잠재력도 충분하지 않을까 하고 애널리스트들은 평가를 하고 있는 것 같습니다.◇ 김방희&gt; 우리 채용 시장 자체도 커지고 있고 아까 개발직이나 바이오 연구직 말씀해 주셨는데 그런 특정 분야는 또 수요가 인재에 대한 수요가 폭발하고 있으니까 그래서 그런지 채용 관련한 스타트업들이 계속해서 나오고 있죠.◆ 조가연&gt; 굉장히 많고요. 기업들에게 채용 관리를 통합으로 지원해 주고 있는 그리팅 같은 서비스도 있고 여기 같은 경우에는 기업들이 채용할 때 어느 한 회사 서비스만 이용하지 않잖아요. 여러 곳에 채용 정보를 뿌리는데 그런 것들을 통합해서 관리해 주고 지원자를 만날 때 일정을 조율해 주는 서비스를 하고 있고요. 이미 기업 고객이 한 1300곳 정도 된다고 하니까 정말로 사람을 뽑는 일에 대해서는 기업들이 이제는 돈을 쓰는구나 좀 인식이 좀 바뀐 것 같습니다.◇ 김방희&gt; 그렇죠. 예전에는 오겠다는 사람 많은데 우리가 이렇게까지 할 필요 있냐 그랬는데 지금은 정말 우리한테 필요한 사람이 오겠다고 하는 거냐에 대해서 심사숙고하게 된 셈인데 지금이야 사람을 덥석 채용한다고 해도 근본적으로 우리 회사하고 진짜 잘 맞는 인재냐 이게 중요할 텐데 이런 스타트업 기업들을 늘 평가하시는 입장이시니까 온라인으로 인재를 소개해 주는 게 믿을 만한가요?◆ 조가연&gt; 아까 말씀드렸던 원티드랩 같은 경우는 일단 지인 추천 기반이라고 한다는 점에서 한 번 온라인이지만 굉장히 대면적인 터치가 들어가 있다라고 이해해 주시면 좋을 것 같고요. 조금 더 공격적으로 진짜 이 사람이 괜찮냐 하는 것을 조회해 주는 서비스도 있습니다. 2020년도에 만들어진 국내 스타트업 스펙터라고 하는 곳인데요. 여기는 평판 조회 플랫폼이라고 하는 서비스를 운영하고 있고요. 지원자의 이름과 전화번호를 실명으로 인증을 해서 이 사람의 평판을 조회할 수 있는 서비스를 제공하고 있습니다. 그럼 이 평판을 누가 쓰느냐? 지원자가 일했던 전 직장의 동료 또는 인사권자가 작성하고요. 아직 서비스 초기인데 법적 이슈가 있을 수 있기 때문에 동의가 있다면 공개를 하고 동의 없이는 공개하지 않고 있고요. 저도 이게 조심스러운 접근법이어서 많이 이용하실까 했는데 이미 쌓여 있는 평판 데이터가 7만 건이 넘는다고 합니다. 그리고 그 외에도 일단 입사하기 전에 먼저 평가해 보는 것들이 중요한데. 오픈놀이라고 하는 스타트업은 일종의 미니 인턴 프로그램을 운영하고 있습니다. 그러니까 2주 동안 회사와 한번 체험을 해보고 추천을 하는 방식이고요. 이스라엘에 있는 스타트업 같은 경우는 인공지능을 활용해서 외부에서 인재를 찾기 전에 우리가 내부의 인재는 없는지 찾아주는 서비스도 하고 있습니다. 데이터를 가지고서 내부 인재들에게 적합한 자리들을 매칭해주는 서비스도 운영 중입니다.◇김방희&gt; 평판 조회 대행업체 같은 경우도 시장성이 클 것 같아요. 요즘은 전부 경력 중심에 이직을 하니까 이전에 있던 직장에 평판을 물어보러 전화들을 하는데, 이걸 일반 회사가 다 하기는 좀 부담스러우니까. 그러네요. 인재를 소개하는 구인구직 이런 차원의 어떤 비즈니스 모델이나 스타트업들을 소개해 주셨고. 최근에 여기서 더 나아가서 사람의 시간을 마치 주식을 사고팔듯이 사고파는 트렌드가 등장했다고 그러는데. 이거는 저희 세대한테는 익숙지가 않아서 이건 어떤 건가요.◆조가연&gt; 굉장히 좀 혁신적인 아이디어이긴 합니다. 내가 가지고 있는 재능과 시간을 상장시킨다, IPO 한다고 하는 것이고요. 휴먼IPO라는 굉장히 직관적인 이름의 스타트업입니다. 사람처럼, 사람의 주식처럼 투자를 하는 거고요. 이게 거래하는 게 그럼 뭐냐, 시간입니다. A라고 하는 사람이 자신을 기업 공개, 사람 공개겠죠. IPO를 할 때. 내가 가지고 있는 시간의 최대 500시간까지 상장 물량처럼 거래로 내놓을 수 있고요. 이게 주식이다 보니까 일반 증권처럼 나를 IPO 시킨 이후에. 주가, 나의 시간당 가격도 실제로 변동이 됩니다. 굉장히 재미있는 아이디어이기는 합니다.◇김방희&gt; 그러네요. 그러니까 몸값이라는 게 우리가 추상적으로 얘기를 하는데, 아주 구체적인 숫자로 이 모델에 따르면 나타날 수밖에 없는데. 몸값이 높아졌다가 낮아졌다가 하기도 하고. 왜 그 투자대가 워렌 버핏하고 점심 한 끼 먹으려면 한 20억 내야 된다고 그러잖아요. 경매 낙찰 받듯이. 시간을 얼마나 내줬느냐에 따라서 돈을 내는 건데. 이 스타트업 아이디어가 재미있고 국내에서도 형성될 수 있는 시장 같기도 해서. 구체적으로 어떻게 운영됩니까?◆조가연&gt; 만약에 저를 예를 들어서 제가 제 시간을 상장시키고 싶다고 한다면, 직접 신청을 하고요. 휴먼 IPO라고 하는 회사가 내부에서 심사를 거쳐서 이 사람은 이 정도의 가치가 있으니까 상장주가. 즉, 시간당 주가를 얼마로 결정하자. 그리고 유통량 같은 경우는 10시간부터 500시간까지 유통량을 결정을 하는 거고요. 그렇게 상장이 되면 한 주가 1시간 정도인 거죠. 1시간 정도 온라인 미팅을 해주거나 이런 식으로 투자자에게 배당 수익을 주는 방식입니다. 유통한 주식은 상장된 이후에 다른 사용자랑 거래도 가능하고요. 정말 그냥 주식이라고 생각을 하시면 제일 좋을 것 같습니다.◇김방희&gt; 조금 국내에 있는 몇 가지 모델하고는 다르군요. 국내에서는 전문가들, 각 분야의 전문가들이 포진해 있어서 그분들한테 일을 맡기는 정도의 비즈니스 모델들은 나와 있는데. 그게 아니라 아예 그 시간을 상장해서 이걸 사고판다는 얘기인데. 보통 사람은 아닐 것 같거든요. 누구의 시간을 거래하는 겁니까?◆조가연&gt; 대부분 인플루언서들이 참여해 있습니다. 거의 한 5000명 정도의 인플루언서가 올라가 있고, 그 외에 기업가들이나 음악이나 스포츠 스타들도 상장이 되어 있습니다. 축구의 전설인 펠레 같은 경우도 상장되어 있는데, 펠레의 몸값은 한 주당 1만 달러에 지금 거래되고 있습니다.◇김방희&gt; 그래요? 펠레는 펠레의 저주라는 말로 유명할 정도로 승부를 제대로 전망 못하기로 유명한데, 싸지는 않군요. 한 주당 1000만 원이 훌쩍 넘습니다. 별거 아닌 것 같기도 하고. 참 창업자들은 아이디어나 기획력들, 기가 막히긴 하네. 굉장히 독창적이긴 하잖아요.◆조가연&gt; 여기가 이제 구글하고 골드만삭스 출신 창업자들인데, 아마도 구글 출신 창업자는 엔지니어링을 했을 거고. 골드만삭스 출신 창업자가 아이디어를 내지 않았을까 싶습니다. 회사 경쟁력이 결국 사람이고, 어떤 대부분의 경쟁력은 사람에서 오는데. 이럴 거면 그냥 직접적으로 사람에게 투자할 수 있는 플랫폼을 만들자고 하는 게 첫 시작이었다고 하고요. 실제로 사람의 시간을 주식화해서 판매하고 유통하고 거래하는 당사자끼리 시세 차익을 노릴 수도 있고 유통 줄을 조절할 수도 있고요. 최근 같은 경우는 블록체인 기술을 결합해서 암호 화폐라든지 NFT도 하겠다고 밝히고 있어서 개인적으로는 이게 향후에 어떻게 될까 참 궁금한 회사이긴 합니다.◇김방희&gt; 비슷한 아이디어들을 가지신 분이 국내에도 좀 있는 것 같아요. 저도 한두 번 만났던 기억이 있는데... 결국 사람도 몸값으로 계산되는, 평가받는 시대니까 이런 비즈니스 모델이 나올 법하죠. 요즘 1020세대한테 인기 많은 게 틱톡인데, 저도 이거 보니까 참 젊은 분들이 열광할 만한 요소들이 많던데. 구인구직 서비스로 이것도 활용이 됩니까?◆조가연&gt; 틱톡이 짧은 영상을 올리는 SNS잖아요. 그런데 여기에서 아직 공식적인 서비스는 아니지만 구인구직 서비스를 일종의 프로모션처럼 진행해 본 적이 있습니다. 한 30개 정도 기업이 참여를 해서 영상으로 이력서를 제출하는 실험을 했고요. 실제로 소니뮤직이라든지 쇼피파이 같은 이런 스타트업에서 성장한 기업들이 등장했고요. 사실은 그 전에도 이 플랫폼 안에 Z세대들이 자발적으로 보낸 홍보라든지 구직 영상을 올려왔었습니다. 이런 것들이 아마도 이야기하기로는, 외신들이 이야기하기로는. 틱톡이 MZ세대의 링크드인으로 성장을 할 것이다라는 전망도 내놓고 있습니다.◇김방희&gt; 링크드인 얘기를 잠깐 하자면 사실은 인맥 관리 플랫폼으로 출발했는데, 정작 사람 구하고 인재 채용하는 데 더 많이 활용되는 느낌이 있어요.◆조가연&gt; 맞습니다. 아마도 비즈니스 모델을 만드는 과정에서 그런 방향성을 잡는 것 같고요. 처음에는 직업 페이스북 같은 느낌이었는데. 이제는 여기에서 채용 공고를 올리고 매칭하는 것들 그리고 실제로 사용자가 자신이 구직자라면 유료 결제를 해서 나를 좀 더 홍보할 수 있는 이런 프로모션 기능까지 제공하고 있습니다.◇김방희&gt; 국내에도 이용자가 많은데. 그러니까 내가 내 일자리 말고 다른 일자리를 알아보는 데, 많이 활용들을 하더군요. 이렇게 기존의 플랫폼들도 구인구직, 인재 채용에 많이 활용된다는 추세도 이해를 해 두시면 도움이 될 거예요. 구인구직이라는 거, 인재 채용이라는 거 늘 있어왔던 거기는 한데. 왜 요즘 들어서 이렇게 이런 걸 기반으로 한 스타트업들이나 자본이 몰릴 정도로 더 부각이 되는 겁니까?◆조가연&gt; 일단 일을 하고 채용을 하는 환경이 많이 변화가 됐습니다. 기업들 같은 경우도 채용 방식을 공채가 아니라 수시 채용 비중을 확대시키고 있고. 또 여러 가지 플랫폼이 등장하다 보니까 굳이 내가 어떤 정규직 일자리가 아니어도 일을 할 수 있다 보니 이직 횟수도 증가하고 있고요. 특히나 첫 이직 시기도 굉장히 빨라지고 있습니다. 이만큼 이동이 많으니까 이런 것들을 뒷받침하기 위한 서비스들이 등장하는 거고요. 미국 같은 경우도 보니까 조금 보수적으로 이직을 하지 않을 것 같은 40대 근로자들도 2020년도부터 코로나19 사이에 퇴사율이 20% 정도가 증가를 했습니다. 오히려 경력직들의 이탈이 높다 보니까 이런 전문직들을 채용하기 위한 서비스들이 같이 성장하지 않나, 하고 볼 수 있을 것 같습니다.◇김방희&gt; 지금 사회 초년생이나 직장 생활하시는 분들은 이런 트렌드를 알아두셔야 되는 게요. 예전에는 회사 그만두고 다른 일자리 알아볼 때 주변 사람들한테 전화 돌리는 것밖에 없었는데, 방법이. 지금 이런 플랫폼이나 이런 걸 활용해서 적극적으로 자신을 알리고 이런 것들이 흠이 되는 게 아니라 오히려 높이 평가받는 분위기니까 추세를 활용하시기 바랍니다. 요즘 N잡러가 는다는 얘기도 저희 방송에서 한번 했거든요. 그 직업에 대한 재평가 때문에 그렇다는 생각이 드는데. 어쨌든 여러 직업에 몸담는 분들도 많고 그러다 보니까 프리랜서 전문 구인구직 플랫폼. 이것도 좀 많이 등장하고 있지 않아요?◆조가연&gt; 이미 상장된 케이스도 있고요. 글로벌 최대 프리랜서 채용 플랫폼인 업워크라는 회사는 나스닥 상장사입니다. 여기는 기업과 프리랜서를 연결해서 구인구직을 도와주는 회사인데. 등록되어 있는 프리랜서가 1200만 명이라고 하고요. 기업 고객은 500곳이 활용하고 있습니다. 실제로 블로그 같은 걸 찾아보시면, 제가 한국에 살고 있는데 이 업워크에 가입해서 프로젝트를 수주를 하기도 하고요. 원격 근무를 하시는 거죠. 그렇다 보니까 코로나19가 호재가 되어서 한때 기업가치가 30억 달러 한 3조까지 올라가기도 했고요. 또 다른 프리랜서 채용 플랫폼인 파이버라고 하는 회사도 코로나19 이후로 활성 사용자가 한 400만 명까지 늘면서 주가가 거의 한 10배까지 뛰기도 했던 대표적인 프리랜서 플랫폼 종목입니다.◇김방희&gt; 우리도 조금 생겨나는 것 같은데. 이건 좀 구분을 해야 될 게, 예전에 왜 알바 구할 때 알바 플랫폼들 있잖아요. 알바 뭐뭐뭐 하는 것들. 이런 거 하고 다른 프리랜서하고 관련한 이런 서비스는 없습니까?◆조가연&gt; 국내에도 거의 유사하게 프리랜서를 프로젝트별로 또는 시간별로 매칭을 하는 플랫폼들이 있습니다. 크몽이라든지 라우드소싱 같은 곳들이 다 그렇고요. 내가 가진 재능이나 특화된 기술들을 시간별로 아니면 어떤 건별로 매칭을 하는 서비스를 진행하고 있고 앞에서 채용. 그러니까 지인 추천 기반 채용 플랫폼인 원티드랩 같은 경우도 이런 프리랜서 전용 매칭 서비스를 실제로 신사업으로 내놓고 매출 견인을 하고 있습니다. 글로벌 프리랜서 시장 규모가 한국 돈으로 한 1500조 원 정도 정말로 큰 시장이어서 특히 이제 일에 대한 관점이 바뀌면서 특히나 더욱 성장하지 않을까 전망됩니다.◇김방희&gt; FA의 시대가 온다고 하죠. 그러니까 프리에이전트, 프리랜서 시대가 오는 거죠. 그러다 보니까 이 시장이 커질 수밖에 없는데 청취자 장현이 님이 직장인들의 양극화 말씀해 주셨는데 회사들 양극화도 진행되지 않을까요라고 해 주셨는데 대기업과 그렇지 않은 곳의 양극화는 뭐 이미 많이 진행됐죠. 기본적으로 국내는 스타트업보다는 안정적인 직장을 원하는 경향 때문에 스타트업 환경이 좀 어렵지 않을까 하는 우려도 해 주셨는데 요즘은 스타트업에 대한 이해가 많이 바뀌었죠?◆조가연&gt; 이제는 뭐 스타트업이 뭔가 불안전한 도전이라는 인식은 거의 없어진 것 같고요. 특히 지난 한 2~3년 사이에 굉장히 많이 바뀐 것 같습니다. 오히려 예전에는 사실 기사 제목이 그런 게 많았어요. 대기업 뛰쳐나와 창업. 이런 제목이 되게 많았는데 이제는 사실 그런 것들이 없어진 것 같고 다만 벤처업계나 스타트업에서도 이 안에서의 이제 편향들이 생기고 있습니다. 돈을 많이 받는 것들은 많이 받고 계속 어려운 것들 계속 어렵고.◇김방희&gt; 양극화가 되는군요.◆조가연&gt; 네, 불황이 길어질수록 스타트업의 투자 유치도 양극화가 이뤄지지 않을까 보고 있습니다. ◇김방희&gt; 아까 개발직과 바이오 연구직 같은 말씀도 해 주셨는데 특정한 쪽에 인재에 대한 수요가 몰리니까 여기만 콕 찍어서 특정 분야 체험만 하는 곳들도 있는데 일종의 선택과 집중을 하는 곳들이죠?◆조가연&gt; 미국을 보니까 그때 물류 대란이 미국에서 일어났던 게 결국 항만이나 이런 물류 인력들이 없어졌기 때문이었잖아요. 그래서 이런 항만 물류 인력만 전문적으로 채용하는 워크스텝이라고 하는 미국 스타트업이 2021년도에 매출이 3배 가까이 성장한 사례가 있습니다. 또 특정 기술이나 자격증을 가지고 있는 인력들만 연결을 해 주는 메릿이라고 하는 회사도 있고요. 인도에도 유니콘이 하나 등장했는데 블루컬러 단순 노동직 구직자만 연결하는 회사입니다. 여기는 아주 빠르게 운영한 지 15개월 만에 이미 유니콘을 달성하면서 인도 시장이 참 큰 게 그 안에서 사용자가 15개월 동안 구축한 사용자가 1600만 명이라고 하니까요. 굉장히 특화된 채용 시장도 상당히 크다고 보겠습니다.◇김방희&gt; 저는 국내에도 이런 게 좀 필요한 분야가 수요자들은 수요가 분명히 있는데 그 정보가 매칭이 안 돼서 어려움을 겪고 계신 분들이 화물차 운전하시는 분들하고 화물차에 대한 수요. 이게 법인 영업만 하다 보니까 개별적으로 저희 같은 사람들이 화물차가 필요할 때 어디다 연락해야 될지... 길거리에서 사진을 찍어둘 수도 없고 말이죠. 그런 플랫폼들이 다양하게 이제 성장 가능성들이 있는 건데 사람 잘 뽑는 거에 지금까지 주력해서 말씀해 주셨는데 관리하는 것도 중요하잖아요. 이거 다 기업들이 할 수도 없고 직원 관리 서비스 같은 건 없습니까?◆조가연&gt; 앞에서 말씀드렸던 워크스텝이라고 하는 그 항만 물류 특화 회사 같은 경우는 특히나 물류 노동자가 이직률이 높다 보니까 이런 것들을 고려해서 직원의 만족도나 건강 복지 혜택들을 비교해서 제한해 주는 서비스도 하고 있고요. 인도도 좀 이직이 높은 것 같습니다. 인도의 유니콘 기업인 다윈박스라고 하는 곳은 채용과 입사와 급여, 보험, 퇴사율, 인력 효율성 등을 완전히 다 분석해서 제공해 주는 회사이고요. 국내 같은 경우도 레몬베이스라고 하는 스타트업이 기업이나 팀 단위의 어떤 목표나 성과 관리를 해 주면서 이미 뽑은 직원들도 잘 사용할 수 있도록 관리해 주는 서비스를 제공하고 있습니다.◇김방희&gt; 벌써 직원 관리 서비스를 하는 스타트업들도 많이 생기고 있군요. 뛰어난 인재를 찾기가 어렵다 보니까 그런 게, 그런 거겠습니다 마는 요즘 유행하는 단어 중에 하나가 그 인재가 소속된 회사를 통으로 사버리는. 그걸 ‘acqhire’라고 한다고요?◆조가연&gt; 네, 이게 acqhire가 이제 인수라고 하는 영어 단어 acquisition하고 고용, hire를 합친 거고요. 한국말로 하면 인재 인수입니다. 잠재력이 높은 스타트업을 또는 창업팀을 통째로 영입을 하기 위해서 기업을 인수하는 방식이고요. 이게 원래는 글로벌. 흔히 얘기하는 실리콘밸리의 공룡들. 뭐 애플이나 구글이나 아마존 같은 곳에서는 M&amp;A를 할 때 기술을 가져가는 것도 있지만 인재 확보를 하기 위해서 굉장히 많이 했던 거고요. 또 그렇게 확보한 인재들로 신사업을 하거나 아니면 새롭게 자회사라든지 계열사를 분산시켜서 실제 사업을 다시 하기도 하는데요. 아무래도 한국 같은 경우도 사실은 개발자들을 특히 뽑는 게 어렵다 보니까 좋은 개발자를 많이 가지고 있는 회사일수록 아무래도 투자를 할 때 기업 가치가 좀 높아지고 그리고 스타트업 업계에서도 좋은 팀이 있으면 빠르게 인수를 이제 해가는 그런 모습도 최근에는 나오고 있습니다.◇김방희&gt; 그런데 이제 전제가 그 인재들이 인수 합병 과정에서 빠져나가지 않아야 되는데 그런 건 계약 조건에 아마 들어 있겠죠. 왜 몇 해 전에 인기 끌었던 스타트업이라는 드라마에서 나왔던 게 이런 거 비슷한 거 아닌가요?◆조가연&gt; 네, 이제 그 당시에 주인공이 창업했던 삼산텍이라고 하는 회사가 글로벌 대기업인 투스토라고 하는 곳에 이제 주식 인수 제안을 받는데요. 이때 이 제안을 받으면서 같이 걸려 있던 것들이 삼산텍이라고 하는 스타트업들의 주요 팀원들이 인수되는 대기업에 가서 본사 근무를 해야 하는 그런 계약서가 같이 붙어 있습니다. 대부분의 스타트업 인수가 사실은 드러내지 않지만 그런 조항들도 달려 있고요. 국내 같은 경우는 네이버가 컴퍼니AI라고 하는 딥러닝 회사를 2017년도에 인수를 했는데 알려지기로는 이때 인수됐던 팀들이 내부에서 네이버 클로바라고 하는 서비스를 개발했다고도 알려지고 있고요. 쏘카 같은 경우도 비트윈이라고 하는 커플 메신저를 만들었던 VCNC라고 하는 회사를 인수해서 타다 개발에 상당히 많이 시너지를 낸 것으로 알려져 있습니다. ◇김방희&gt; 그렇더군요. acqhire. 그냥 인재들이 많은 회사를 통으로 사 버리는 거죠. 결국 인재 경쟁이라는 것이, 인재 채용과 관리 경쟁이라는 것이 스타트업. M&amp;A라든가 이런 것까지 지금 이어지고 있는데 인재 경쟁과 관련해서 사업이나 투자. 이 시장 전망은 어떻게 보세요?◆조가연&gt; 일단 채용 시장을 보면 어디든 사람이 중요다 보니까 이건 기업도 그렇고 나라도 그렇고요. 좋은 사람 뽑는 게 늘 중요하다 보니까 채용 시장 자체가 죽을 것이라고 보는 사람들은 없을 것 같습니다. 아까도 말씀드렸던 것처럼 한국의 채용 수익화 시장 같은 경우도 한 3조 8천억 원 정도가 추정되고 있고요. 프리랜서 시장 같은 경우는 글로벌이 뭐 1천조 원이 넘어가는 상황이다 보니까요. 그래서 소프트웨어나 IT 인력 부족뿐만이 아니라 미디어나 금융이나 의료 전 산업에서 좋은 사람을 뽑기 위한 수요는 증가할 것이고 그동안 번거로웠던 채용 프로세스를 기업 안에 있는 일부 인사팀이 해결하는 게 아니라 이제 외부에 좀 아웃소싱을 하고.◇김방희&gt; 그런 것 같아요.◆조가연&gt; 네, 외부의 효율적인 서비스를 적극적으로 활용할 것이라고 전망을 하고 있습니다. 또 이런 것들이 점점 더 경쟁이 치열해지면 기업이 인재를 채용하기 위한 M&amp;A라든지 뭐 인수 합병도 굉장히 다양해질 것으로 전망하고 있고요. 그래서 채용 시장. 특히 HR 서비스 시장은 조금 더 관심을 두고 보시면 좋을 것 같습니다.◇김방희&gt; 네, 한 2~3년 안에 저는 인재 채용과 관련한 스타트업 기업 중에 유니콘이 국내에서도 탄생하지 않을까 그렇게 기대를 하고 있는데요. 7606번님이 SNS 쓰기 나름이네요. 창의력이 대단하네요 해 주셨는데 이게 아마 틱톡과 링크드인 활용한 인재 채용 얘기 때문인 것 같아요. 0337번님 질문에 마지막으로 답해 주시고 가셔야 되겠는데. 경력 사원 인재 채용하는 스타트업들 얘기를 많이 해 주셨잖아요. 그런데 능력자가 경력자도 결국은 신입 사원에서 출발해서 경력을 쌓아야 될 텐데 대학 졸업한 신입 사원 채용 연결해 주는 스타트업이나 플랫폼은 없나요 해 주셨는데...◆조가연&gt; 아까 지인 추천 기반의 서비스 같은 경우도 물론 경력이 없더라도 좋은, 연관되어 있는 업무를 공부를 했다거나 연관되어 있는 전공을 가지고 있으면 물론 될 수 있고요. 내가 좀 친구가 없다. 지인이 없다고 하시면 다른 몇 가지 채용 포털이라든지 채용 서비스는 있습니다. 아까 그리팅 같은 경우도 기업의 채용을 효율적으로 관리해 주는 플랫폼인데 거기에서 그런 서비스를 통해서 나오는 채용 정보들이 구직자에게 닿는 거고요. 아직까지는 슬프게도 경력직 특히 좀 좋은 인재를 뽑는 데 집중해 있는데 이런 서비스들이 점점 더 내려올 것이라고 전망하고 있고요. 특히 최근에 AI 기술을 활용해서 이제 신입이어도 좀 적합한 일자리를 추천해 주는 서비스도 하고 있어서 조금 활용처가 넓어지지 않을까 생각해봅니다.◇김방희&gt; 그러게요. 내가 가진 재능과 기술을 조금 더 생각해 보세요. 생각보다 많은 잠재력들을 가지고 있을 겁니다. 그리고 그걸 부지런히 온라인 통해서라도 알리고 홍보하고 그러다 보면 이제 일자리와 맞닿게 되지 않을까 그렇게 기대해 봅니다. 저희가 응원하겠고요. 슈미트의 조가현 수석팀장이었습니다 고맙습니다.◆조가연&gt; 감사합니다. 출구조사 개표현황 보러가기 https://news.kbs.co.kr/special/election2022/president/index.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.03.02.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>러시아 ETF 상장폐지돼…일부 증권사선 매도 막혀</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004929199?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>증권사 주문 거부에 '발동동'현지 브로커 매매금지 불구삼성·KB證선 2일 거래 성사러시아지수 수익률 2배 추종상폐 소식에 하루새 60% 뚝 러시아·우크라이나 지정학적 리스크에 북진 개미들의 저가 매수세가 몰렸던 러시아 관련 레버리지 상품인 '디렉시온 데일리 러시아 2배(RUSL)' 상장지수펀드(ETF)가 결국 시장의 뒤안길로 사라지게 됐다. 오는 11일까지 자율 거래 후 청산 절차가 진행되지만 국내 증권사별로 대러 제재에 따른 해당 ETF의 매매 가능 여부가 상이해 투자자들 사이 혼란이 발생하고 있다.2일 금융투자 업계에 따르면 레버리지 전문 ETF를 다수 운용하는 자산운용사 디렉시온이 최근 RUSL ETF 상장폐지 관련 공지를 올렸다. 해당 상품은 MVIS 러시아 지수의 일별 수익률을 2배로 추종하는 레버리지 상품인데, 러시아의 우크라이나 침공으로 가격이 폭락하자 서학개미들을 중심으로 저가 매수세가 몰린 바 있다. 디렉시온 측은 "미국과 기타 국가에서 러시아에 부과한 제재 조치로 인해 러시아 증권에 대한 제한이 발생했다"며 "이사회는 펀드 고문인 래퍼티 자산운용사의 권고에 따라 RUSL ETF를  폐쇄하기로 했다"고 밝혔다.이에 따라 RUSL ETF는 이달 11일 거래가 종료된다. 이후 18일까지 청산 절차를 거쳐 청산 시점 순자산가치(NAV)에 따라 현금 분배가 이뤄진다. 하지만 RUSL ETF는 올해 들어 이미 86.15% 폭락했다. 추종 지수인 MVIS 러시아 지수가 급락세를 이어가고 있기 때문이다. 상폐 소식이 전해지자 이달 1일에만 무려 60.67% 급락하기도 했다. 심지어 1일(현지시간) RUSL ETF의 종가는 3.76달러로 NAV(2.77달러) 대비 35.7% 높았다. 지정학적 리스크도 지속돼 추종 지수가 반등할 가능성도 낮다. 이 때문에 거래 가능 기간 내에 RUSL ETF를 팔지 못하고 청산하면 투자 금액 중 많은 부분을 돌려받지 못할 가능성이 높다. 문제는 국내 증권사마다 해당 러시아 관련 상품의 매매 가능 여부가 다르다는 것이다. 미국 해외자산통제국(OFAC)의 제재에 따른 매매 금지 조치로 국내 증권사들과 거래하는 현지 브로커들이 러시아 관련 상품의 주문을 거부하고 있기 때문이다. 현재 키움증권, NH투자증권, 토스증권 등 대부분 증권사에서 러시아 관련 상품 주문이 금지돼 있다. NH투자증권은 공지를 통해 "미국의 OFAC 제재에 따른 매매 금지 조치로 러시아 소재 기업과 ETF 매매 시 사전예고 없이 주문이 거부될 수 있으니 주의하시길 바란다"고 밝혔다. 거래가 막힌 증권사를 이용하는 구매자들은 이미 손실이 막대함에도 ETF를 팔 수조차 없는 상황이다. 반면 2일 기준 삼성증권, KB증권 등은 아직 RUSL ETF 거래가 가능하다.한 증권사 관계자는 "증권사들마다 계약한 현지 브로커가 다른데 브로커마다 주문 가능 여부를 다르게 적용하다 보니 생기는 현상"이라고 말했다. 다만 서방의 러시아 경제·금융제재가 이어진다는 소식과 함께 미국 증권거래소에서 러시아 관련 개별 종목(주식) 거래가 금지되는 상황을 고려했을 때 러시아 관련 상품의 '하이 리스크 하이 리턴'을 투자자들이 감수해야 한다는 목소리도 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>"코로나 재택치료자, 국민비서 구삐에게 맞춤형 안내 받으세요"</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013025417?sid=102</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 김병규 기자 = 코로나19 재택치료자가 급증하는 가운데 정부가 '국민비서 구삐' 서비스로 재택치료자의 생활수칙을 안내하기로 했다.     행정안전부는 보건복지부, 질병관리청과 함께 5일부터 국민비서를 통한 코로나19 재택치료자의 '생활수칙 안내 서비스'를 시작한다고 3일 밝혔다.     정부는 현재는 재택치료 대상자에게 휴대전화 메시지로 두 차례에 걸쳐 생활수칙을 안내하고 있다.     확진 후 재택치료자들이 역학조사서를 작성할 때 '국민비서 서비스 수신'에 동의하고 휴대전화 정보를 정확히 기재하면 5일부터 국민비서에서 생활수칙 안내를 받을 수 있다.    국민비서는 챗봇을 통해 행정정보를 문자메시지나 카카오톡, 네이버 앱, 토스 등 민간 앱을 통해 안내하는 서비스다. '국민'과 '비서'의 앞글자를 따 붙인 '구삐'가 마스코트다.     국민비서는 검사 후 4일차에 병·의원 및 전화 상담, 쓰레기 배출 방법 등을 안내하고 6일차에는 격리 해제일 기준, 해제 후 주의사항 등을 소개한다.     행안부는 "민간 앱 사용자의 편의를 고려해 국민비서로 생활수칙 안내 서비스를 하는 것"이라며 "국민비서가 국민지원금 지급, 백신접종 안내 등에서 큰 호응을 얻은 만큼 재택치료자의 편의성도 높일 것으로 기대한다"고 밝혔다. [국민비서 홈페이지 캡처]    bkkim@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.03.11.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>은행권 상반기 공채 ‘시동’</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002505958?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>기업銀 신입행원 150명 공채…우리·농협銀·인터넷 은행 등도 공채 진행은행권의 인력채용이 본격화하고 있다.IBK기업은행은 2022년도 상반기 신입행원 150명을 공개 채용한다고 11일 밝혔다. 지난해 상·하반기 공채보다 50명 증가한 규모다. 오는 29일까지 지원서를 신청받아 서류심사, 필기시험, 실기 및 면접시험을 거쳐 6월 중 최종 합격자를 발표한다. 기업은행은 이번 채용부터 유연하고 폭넓은 인재 선발을 위해 금융전문과 글로벌 분야를 통합해 채용하기로 했다. 또, 과거 5개 지역으로 모집했던 지역인재를 ‘영남권’ ‘충청·강원권’ ‘호남·제주권’의 3권역으로 구분해 채용한다. 올해에도 보훈 별도전형과 장애인 가점제도를 통해 사회 포용적 채용 강화 기조를 이어 나간다는 계획이다.기업은행은 “급변하는 디지털 금융환경 속에서 고객신뢰를 위한 윤리의식이 더욱 중요해졌다”며 “직무 역량뿐 아니라 인성도 중요한 평가요소로 반영될 것”이라고 설명했다. 대규모 청년인턴 채용도 시행한다. 기업은행은 오는 5월 청년인턴 채용공고가 게시될 예정이라고 밝혔다.채용 관련 자세한 내용은 채용 홈페이지(ibk.incruit.com)를 통해 확인할 수 있다.앞서, 우리은행도 지난달부터 신입 행원을 공개채용 중이다. NH농협은행도 지난해 말 일찌감치 채용 공고를 내고 상반기 채용을 진행 중이다. 일반 금융 420명과 IT(전산·기술부문) 분야 30명가량을 뽑는다. 블라인드 방식으로 진행되며, 농협은행은 이달 말 마무리할 계획이다.인터넷은행들도 IT 인력을 중심으로 채용 중이다. 카카오뱅크는 상반기 서버개발·금융 IT·모바일 등 8개 부문에서 경력 개발자를 대상으로 수시 채용을 진행하고 있다. 토스도 이달 말까지 600여 명을 신규 채용할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.03.08.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>[단독]대면강화 나선 토스GA, 경쟁업체 설계사 200명 '통' 인수</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004717466?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>/사진제공=비바리퍼블리카토스 운영사 비바리퍼블리카(이하 토스) 보험대리점(GA) 자회사 토스인슈어런스가 경쟁 대형 GA 1개 사업단(영업본부) 설계사 200명을 동시에 인수했다. 코로나19(COVID-19) 이후 GA들의 대면 영업이 쉽지 않은 상황에서 나온 행보여서 주목된다. ━토스GA, 200명 규모 경쟁사 사업단 인수 계약━8일 보험업계에 따르면 토스인슈어런스는 키움에셋플래너 소속 매출 1위 사업단과 사업단 설계사 대부분을 토스인슈어런스에 합류시키는 내용의 계약을 지난 3일 체결했다. 토스인슈어런스는 해당 본부를 인수하면서 관행처럼 지급하던 스카우트 비용도 지급하지 않은 것으로 알려졌다. GA업계에서는 유능한 설계사 한 명을 데려오기 위해 많게는 수천만원의 비용을 지불하는 경우가 적지 않다. 이번에 토스인슈어런스에 합류한 사업단의 영업력은 업계 '톱' 이라는 평가다. 지난해 연간 월납초회보험료가 43억원으로 월 평균 3억6000만원 수준이다. 인당 월 생산성은 150만~180만원 가량으로 업계 평균이 30만~40만원 정도인 점을 감안하면 양질의 인력이라는 것이 업계 분석이다. 해당 사업단 소속 설계사 90여명이 우선 이달 중 합류할 예정이며, 추후 순차적으로 이동을 해 총 200여명이 토스인슈어런스 소속이 된다. 이들은 자체 데이터베이스(DB)를 기반으로 토스인슈어런스가 추진하는 대면채널 영업 전선에 투입된다.토스인슈어런스 관계자는 "지난 2월부터 대면영업을 시작했고, 위촉직 설계사들도 지속적으로 모집 중"이라며 "개인, 팀, 본부 단위 등 다방면으로 실력있는 설계사 채용을 추진해 나갈 예정"이라고 말했다. ━GA업계 변곡점…"경쟁력 있어야 생존"━보험업계의 또 다른 한 축인 대형GA들은 최근 변곡점을 맞고 있다. 코로나19 확산으로 대면 영업이 어려워지고 금융소비자보호법(이하 금소법) 등 규제 문제도 생기면서 각자 경쟁력을 확보하기 위해 전력을 기울이고 있다. GA업계 4위권인 리치앤코가 사모펀드(PEF)에 인수됐고, 6위권 업체 피플라이프도 매물로 나올 수 있다는 전망이 제기되는 것이 대표적인 사례다. 아울러 8위 업체 인카금융서비스는 GA 사상 두번째로 상장사가 되기도 했으며, 부산지역에 본사를 둔 영진에셋의 전국망 확대 움직임도 업권을 흔드는 이슈다. 토스가 TM(텔레마케팅·전화영업) 중심 영업방향을 최근 대면영업 채널 중심으로 바꾼 이유도 어려워진 GA시장에서 살아남기 위한 자구책 중 하나다. 키움에셋플래너도 금소법 시행으로 영업이 위축되면서 설계사들의 이탈 움직임이 감지되고 있다. 키움에셋플래너는 TV프로그램을 협찬하고 보험 리모델링·재무설계 상담을 프로그램에서 해주는 방식에 특화된 영업을 했었지만 금소법이 이를 금지하면서 어려움을 겪고 있는 것으로 알려졌다. 보험업계 한 관계자는 "양질의 숙련된 대면영업 조직이 절실한 토스인슈어런스와 소속 이전이 필요한 설계사 조직의 이해가 맞아 떨어진 결과가 이번 계약으로 이어진 것 같다"며 "경쟁력을 갖춰야 살아남을 수 있다는 인식이 업계 전반에 퍼져 있는 상황"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.03.14.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>토스뱅크 개인사업자 대출, 한 달 만에 1000억 넘게 팔려</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004673544?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>사진=연합뉴스토스뱅크는 지난달 인터넷전문은행 최초로 출시한 개인사업자 대출 상품 '사장님 대출'의 판매액이 한 달 만에 1167억원을 기록했다고 14일 밝혔다.'사장님 대출'은 개인사업자를 상대로 담보나 보증을 끼지 않고 최저 금리 연 3%대, 최대 한도 1억원까지 돈을 빌려주는 신용대출 상품이다.토스뱅크에 따르면, 사장님 대출 이용자의 38%에 연 3%대 저금리로 대출이 나갔다. 또 최대 한도인 1억원을 대출받은 사람이 8.4%를 차지했다. 전체 대출잔액의 39.7%를 신용점수 하위 50%인 중저신용 개인사업자가 빌려간 것으로 나타났다.대출 신청부터 실행까지 평균 3분 이내에 이뤄져 영업장을 비우고 은행에 가기 힘든 개인사업자들에게 인기를 끌고 있다는 설명이다.토스뱅크 측은 "개인사업자의 신용도를 평가할 때 영업의 지속성과 소득의 정기성 측면에 가점을 부여하고 있다"며 "신용점수가 낮아도 실질 상환능력을 보유했다면 높은 평가를 받을 수 있다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.03.12.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>[NOW] 일에 집중하세요, 집안 행사는 회사가 챙겨드릴게</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003678236?sid=102</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 토스뱅크 직원 우진욱(41)씨는 작년 하반기 회사의 복지 서비스를 이용해 아들 생일 케이크를 만들어줬다. 원래 아이가 좋아하는 ‘인도미누스’란 공룡 그림으로 장식한 케이크를 선물하고 싶었다. 하지만 바빠서 엄두가 나지 않았는데, 회사 ‘커뮤니티팀’이 고민을 해결해줬다. 우씨 요청에 케이크 주문 제작 업체를 찾아 이 공룡이 그려진 케이크를 만들어 가져다 준 것이다. 커뮤니티팀 리더 이은옥(35)씨는 “업무에 더 집중하게 하려고 커뮤니티팀이 생겼다”며 “상견례부터 프러포즈 등 결혼식 준비 전 과정을 도왔던 적도 있다”고 했다.최근 스타트업이나 게임회사 등이 사내 복지로 직원 사생활을 맞춤형으로 돌봐주는 이른바 ‘집사 서비스’를 속속 도입하고 있다. 호텔에서 고객 요청에 응하는 ‘컨시어지’를 두는 것처럼, 비슷한 역할을 하는 직원이나 전담팀이 “데이트 코스, 여행 코스를 짜달라”와 같은 일까지 해준다. 이런 업종들은 이직이 잦은 젊은 직원 비중이 높아 이 같은 서비스를 도입한 것이다. “일만 성실히 하면 집안일을 회사가 돌봐준다”며 구애를 하는 셈이다. 집안일을 하는 것에 서투르거나 바빠서 집안 행사 등을 챙기지 못하는 직원 사이에서 호응이 높다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>편의점, 화이트데이 마케팅 분주…협업 상품 출시 봇물</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003194322?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>[일간스포츠 안민구]   CU 직원이 화이트데이 상품을 소개하고 있다. CU 제공    편의점 업계가 '화이트데이(3월 14일)' 특수 잡기에 나섰다. 유명 브랜드와 협업한 상품을 앞다퉈 선보이고 있다.    2일 업계에 따르면 CU는 화이트데이를 겨냥해 모바일 역할수행게임(RPG) 게임 '쿠키런:킹덤'을 비롯해 라인프렌즈, 위글위글 등과 손잡고 40여 종의 차별화 상품을 선보인다.    쿠키런:킹덤 협업 상품에는 포토카드 10여 종을 랜덤으로 담았고, 밸런타인데이에 조기 완판된 위글위글 상품은 12종으로 확대했다. 콩순이가 디자인된 콩순이 틴케이스와 테지움 테디베어와 협업한 테지움 베어세트도 한정 수량 선보인다.    또 오는 10일에는 CJ온스타일 라이브쇼 채널에서 '위글위글 캐리어'를 단독 판매한다. 비대면으로 마음을 전달하는 고객들을 위해 40여 종의 화이트데이 상품을 카카오톡 선물하기와 네이버 스마트스토어에서 기프티콘으로 선보인다.    GS25는 200여 개의 행사 상품을 내놨다. 대표적으로 고양이 캐릭터 '팰릭스'와 협업해 스티커 굿즈, 재사용이 가능한 리유저블 세트를 준비했다.     10~20대에게 인기를 얻고 있는 이모티콘 '최고심', B급 감성으로 30~40대에 지지를 받고 있는 이모티콘 '오늘의 짤', 1993년 대전 엑스포 추억을 되살리는 '꿈돌이', 인기 웹툰 캐릭터 '무케' 등 협업 상품도 선보인다.    세븐일레븐은 소녀감성 인기 캐릭터 '빨간머리앤' 디자인의 쇼핑백과 상자에 초콜릿과 젤리 등을 담아 선보인다. 다이어트나 운동에 관심이 많은 고객을 위해 '프로틴그래놀라바'를 담은 레트로 디자인의 '레트로미니캐리어'도 준비했다.      이마트24에서 근무자가 화이트데이 상품을 진열하고 있다. 이마트24 제공    이마트24는 '쌕쌕' 음료 세트 패키지를 재연한 쌕쌕젤리 기획세트를 비롯해 아보카도 구미, 하트마쉬멜로 등 재미와 위트를 담은 상품을 출시했다. 디아블로 레드와인과 페어링을 염두에 두고 협업한 '디아블로 초콜릿'을 비롯해 코인초콜릿, 이탈리아 위토스 초콜릿, 메카톤 말랑카우 세트도 준비했다.    미니스톱은 MZ세대 유행어 '어쩔OO' 등을 박스형 패키지로 재밌게 만든 신조어 패키지 등 10개 품목을 준비했다. 밸런타인데이에 반응이 좋았던 타이거패키지 3품목도 준비했다. 오는 13일까지 제휴 카드로 페레로로쉐 구매 시 50% 할인 혜택도 제공한다.     안민구 기자 an.mingu@joongang.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.03.10.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>키움에셋 보험설계사 200명 품에 안은 토스… 다음은 어디?</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000792938?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>토스인슈어런스가 대면영업을 강화하기 위해 경쟁업체 인수합병(M&amp;A)을 승부수로 띄웠다./사진=머니S DB키움에셋플래너 소속 1개 본부를 인수한 토스인슈어런스가 추가로 매입할 법인보험대리점(GA) 탐색에 나섰다. 보험 대면영업 시장에 진출을 결정한 경쟁업체 인수합병으로 빠르게 사세를 확장한다는 방침이다. 10일 보험업계에 따르면 토스인슈어런스는 올 상반기 중 대형 GA 소속 영업본부 또는 소형 GA 인수합병을 위한 전략을 구사하고 있다. 보험설계사를 신규로 채용하는 것보다 외부 경력자를 뽑아서 운영하는 게 효율적이라고 판단한 것이다. 토스인슈어런스 관계자는 "지난 2월부터 대면영업을 시작했고, 위촉직 설계사들도 지속적으로 모집 중"이라며 "개인, 팀, 본부 단위 등 다방면으로 실력 있는 설계사 채용을 추진해 나갈 예정"이라고 말했다. 앞서 토스인슈어런스는 지난 3일 키움에셋플래너 소속 매출 1위 사업단과 사업단 설계사 대부분을 토스인슈어런스에 합류시키는 내용의 계약을 체결했다. 해당 사업단 소속 설계사 90여명이 우선 3월 중 합류할 예정이며 추후 순차적으로 이동을 해 총 200여명이 토스인슈어런스 소속이 된다. 이들은 자체 데이터베이스(DB)를 기반으로 토스인슈어런스가 추진하는 대면채널 영업 전선에 투입된다. 최근 토스인슈어런스는 대면 채널로 보험 사업 방향을 대폭 전환하기로 하고 보험설계사 모집에 나섰다. 대면 시장의 특성과 우수 설계사 영입을 위해 위촉직 형태로 모집, 올해 안으로 100명까지 확대한다는 계획이다. 토스인슈어런스는 전체 보험시장의 90%를 차지하는 대면 채널에 참여하지 않고는 보험 시장의 혁신에 속도를 낼 수 없다고 판단하고 대대적인 대면 설계사 모집에 들어갔다. 토스인슈어런스는 토스를 통해 유입되는 안정적인 보험 상담 수요 및 최고수준의 대우를 통해 우수 설계사 영입하고 대면시장 혁신을 가속화 한다는 계획이다. 보험설계사에 대한 수수료율은 75%로 보험사에서 받는 수수료의 75%를 설계사에 지급하는 것이다. 2018년 설립된 토스인슈어런스는 토스를 운영하는 비바리퍼블리카의 보험 전문 100% 자회사다. 토스보험서비스에서 지난해 5월 토스인슈어런스로 사명을 교체했다. 토스인슈어런스의 사업은 크게 두 가지다. 우선 비대면 보험 보장 분석 및 상담 서비스가 있다. 고객이 토스 앱 내 ‘내 보험 조회’ 서비스에서 보험 가입·보장 내역을 확인하고 추가로 설계사 상담을 받고 싶은 경우에 ‘내 보험 분석받기’를 누르면 텔레마케팅 보험분석매니저와 연결돼 데이터 기반의 세밀한 보장 분석과 적합한 상품 추천이 이뤄진다. 두 번째는 온라인 전용보험(CM)이다. 토스인슈어런스는 지난해 3월부터 온라인 전용 보험상품을 취급하기 시작했다. 지난해 2월 말까지는 모회사인 토스가 여행자보험과 자동차보험 및 운전자보험 등 미니보험을 취급했는데 3월부터 직접 판매하기 시작했다. 현재 토스인슈어런스는 기존 단기 보험상품을 포함해 각 보험사의 온라인 전용 상품으로 상품군을 확대하는 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.03.15.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>'재무통' 박상진 네이버파이낸셜 대표 선임…카드사·토스 공세 막을까</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000038368?sid=105</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>박상진 네이버파이낸셜 대표이사(사진=네이버파이낸셜)20여년간 네이버의 재무라인을 맡아온 박상진 네이버 CFO(최고재무책임자)가 네이버파이낸셜의 사령탑에 오른다. 네이버파이낸셜은 높은 성장세를 이어가고 있지만 과제도 적지 않다. 주수익원인 간편결제 서비스 '네이버페이'에 맞서 카드사들은 '오픈페이'를 내놓을 전망이다. 신사업인 후불결제 시장에는 2200만 회원을 보유한 토스가 참전한다.네이버파이낸셜은 14일 이사회를 열고 박상진 신임 대표이사를 선임했다고 밝혔다. 1972년생인 박 대표는 연세대 응용통계학 학사를 1997년 졸업하고 그해 삼성SDS에 입사했다. 이해진 현 네이버 GIO(글로벌투자책임자)와 만남의 시작이었다. 2년 뒤인 1999년 이 GIO를 따라 네이버의 전신인 네이버컴에 합류했다.이후 박 대표는 △1999.11~2004.06 네이버 경영기획팀장 △2004.07~2007.06 네이버 재무기획실장 △2007.07~2016.01 네이버 재무기획 담당 이사 △2016.02~ 네이버 CFO를 역임하며 네이버 재무의 중추로 활약해왔다.그는 네이버의 주식 액면분할을 주도하며 개인주주들의 유입을 이끌었다. 또 지난해 3월 네이버의 5억 달러(약 6200억원) 규모 해외채권 데뷔 발행에 이어 같은해 5월 3억 달러(약 3700억원) 규모 증액 발행(리오프닝, Re-opening)도 성공시켰다. 이는 국내 민간기업 최초 해외사채 리오프닝 성공사례였다.핀테크 시장의 확대로 네이버 자회사 네이버파이낸셜의 중요성은 날로 커지고 있다. 네이버 사업보고서에 따르면 지난해 네이버파이낸셜의 영업수익(매출)은 전년 동기 대비 48.4% 증가한 1조453억원에 달했다. 네이버페이 결제액이 글로벌 가맹점 신규 추가 등에 힘입어 10조9000억원을 돌파했고, 2020년 12월 출시한 스마트스토어 사업자 대출 누적 취급액도 1300억원을 넘겼다.박 신임 대표는 "올해 더욱 압도적인 1위 간편결제사업자로의 견고함을 다지면서 외연을 확장하고 금융 소외계층과 MZ세대의 금융 수요를 충족시키기 위한 혁신서비스 확대를 강화해 나가고자 한다"며 "그간의 경험과 네트워크를 통해 대표로서 네이버파이낸셜의 성장에 최선의 노력을 다하겠다"고 취임 소감을 밝혔다.이 같은 취임 소감 행간에선 본업(네이버페이) 경쟁력을 지속하고 BNPL(선구매 후결제, Buy Now Pay Later) 서비스를 확대하겠다는 전략을 읽을 수 있다.BNPL은 신용점수에 상관없이 후불로 물건을 살 수 있는 서비스로, 구매 유연성의 혁신으로 인해 해외에선 이미 대중화가 이뤄졌다. 전문 리서치 기관 인사이더 인텔리전스(Insider Intelligence)에 따르면 2022년 미국 BNPL 사용자수는 전년 대비 21% 증가한 5930만명으로 전망된다. 네이버파이낸셜은 금융위원회로부터 혁신금융서비스로 지정받고 지난해부터 월 30만원 한도의 BNPL 서비스를 시범 운영하고 있다.그러나 네이버파이낸셜의 국내 BNPL 시장 확장은 쉽지만은 않을 전망이다. 토스를 운영하는 비바리퍼블리카의 '소액 후불결제 서비스'도 혁신금융서비스로 지정, 이달부터 선보일 예정이다. 비금융데이터를 통한 대안신용평가로 월 30만원 한도의 BNPL 서비스를 제공한다. 토스의 방대한 비금융데이터는 토스뱅크가 중저신용대출을 공격적으로 확장하는 동력이 됐다.전통 금융권이 핀테크 시장에 진출하는 추세도 우호적이지 않다. 그동안 네이버페이는 카드사, 증권사 등 금융사와 협력해 고객층을 넓히는 전략을 취해왔다. 신한·KB국민·롯데·하나·BC·NH농협카드 6개 카드사가 '오픈페이'를 개발하고 있다. 카드사 간편결제 시스템을 개방함으로써 모든 참여 카드사의 카드를 오픈페이에 등록해 사용할 수 있게 된다.이처럼 협력과 경쟁이 동시에 이뤄지는 시장환경 속에서 네이버파이낸셜만의 비교우위를 확보하는 게 핵심 과제가 될 전망이다. 네이버파이낸셜 관계자는 "앞으로 신임 대표를 중심으로 사용자의 모든 생활결제 동선에 네이버페이를 연결하는 서비스 확장을 지속하고 사업자대출, 빠른정산, 후불결제 등 혁신적 금융서비스를 더욱 강화하겠으며 금융사들과의 다양하고 혁신적인 협력모델을 구축해 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>강남언니, '바로 구매' 도입 6개월만에 20만 상담신청</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003001779?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>강남언니가 병원 시술 예약 및 결제 서비스를 도입한지 6개월 만에 상담 신청 고객수가 20만명을 돌파했다.강남언니는 병원 방문 시 관행적으로 진행되는 추가 결제를 방지하기 위해 '바로 구매' 서비스를 지난해 8월 개발했다. 시술을 진행하는 다수 병원에서는 저렴한 가격에 이벤트를 진행해 모객하고 실제로 시술을 받으러 갈 경우 추가 옵션을 붙이고 있다. 업계는 만원대 이벤트 가격을 보고 방문한 고객이 10만원대 시술을 권유받고 추가 결제하는 관행이 빈번하다는 설명이다.강남언니 애플리케이션(앱)에서 원하는 병원과 시술을 선택해 상담을 신청한 후 바로 구매 서비스로 결제하면 해당 날짜에 추가 과금 없이 원스톱으로 시술을 받을 수 있다.해당 서비스 도입 후 국내 병원에서는 누적 20만건 상담 신청이 들어왔고 일본에서는 8000건 예약이 진행됐다. 강남언니는 바로 결제 적용 병원을 늘리기 위해 시간대, 지역, 연령, 가격 등을 고려한 고객 맞춤형 예약 서비스를 고도화하고 있다.현재 강남언니에 입점한 국내 800여개 병원 중 전체 병원에서 예약 기능을 이용할 수 있으며 50여곳에서는 결제 기능까지 이용할 수 있다. 일본에서는 결제 PG사 조정을 하고 있어 500여개 병원에 예약 기능만 우선 도입했다. 일본 플랫폼 결제 기능은 한국 시장에서 고객 유입 효과를 확인한 후 확대 도입할 예정이다.국내 병원 내 간편결제는 신용카드, 네이버페이, 카카오페이 등으로 가능하다. 향후 토스페이 등으로 확대할 예정이다.결제 기능에는 수익 모델을 적용하지 않는다. 의료법 제27조 3항에 의거해 발생할 수 있는 '환자 알선' 문제를 방지하기 위함이다. 의료법에 따르면 영리를 목적으로 환자를 의료기관이나 의료인에게 소개·알선·유인하는 행위는 금지돼 있어 결제에 대한 수수료를 받을 경우 의료법 위반 소지가 있다. 모든 결제는 무료로 진행되며 2%대 전자결제대행(PG)사 수수료는 병원에 청구된다.다만 수익 창출을 위해 상담 신청 클릭 당 과금(CPA)와 의료광고 페이지 뷰 과금(CPV)은 기존대로 진행한다.강남언니 관계자는 “바로 구매는 앱에서 결제 및 예약 편의를 제공하기도 하지만 의료 소비자가 정확한 정보를 획득하고 혜택을 받을 수 있도록 고안한 서비스”라며 “이를 통해 반복 결제 유저가 지속적으로 상승 중이다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.03.13.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>"바뀌지 않으면 도태된다" 증권사 사활건 MTS 승부</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004802181?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>20대 증권사 전산운용비 17% ↑  최근 몇 년 새 주식 투자자들이 빠르게 늘어나면서 증권사들의 모바일트레이딩시스템(MTS) 경쟁도 치열해지고 있다. MZ세대 등 신규 고객층을 잡기 위한 신규 플랫폼과 기존 증권사들의 서비스 경쟁이 고객들의 이용 환경을 개선할 수 있을 것으로 보인다.   13일 금융투자협회 등에 따르면 지난해 59개 증권사의 전산운용비는 6668억원으로 2020년 5802억원에 비해 14.9% 증가했다. 지난해 처음으로 증권업계의 전산운용비가 6000억원을 넘어섰다. 특히 중대형 증권사의 투자가 눈에 띄었다. 20대 증권사의 전산운용비는 5363억원으로 전년 대비 17.4% 증가했다. 대어급 기업공개(IPO)가 잇따르면서 전산운용비 투자가 커졌다.   ■IPO 대어 잡으면 이용자도 2배   증권사에게 대규모 IPO는 수수료 수익 뿐 아니라 신규 고객을 유치하는 수단으로도 활용된다.   대표적인 사례가 LG에너지솔루션 IPO를 통한 KB증권 MTS의 성장이다. 지난 1월 기준 KB증권 MTS '마블(M-able)'의 월간 활성 이용자 수(MAU)는 404만7259명으로 집계됐다. 부동의 1위였던 키움증권 영웅문S(302만9250명)를 제치고 단숨에 선두로 올라섰다.   지난해 12월만 해도 KB증권 MTS 이용자 수는 210만1517명으로 키움증권, 미래에셋증권보다 적었으나 LG에너지솔루션 IPO 대표 주관을 맡으면서 이용자 수가 2배 가까이 늘었다. LG에너지솔루션 청약에 참여한 KB증권 개인 고객 수는 무려 213만명으로, 전체 청약 참여자의 48%가 KB증권으로 몰렸다. 이 가운데 절반가량인 101만명이 신규 고객이다.   ■'핀테크 황소개구리' 등장으로 MTS 개편 바람   핀테크 기업의 MTS 시장 진입도 기존 증권사들을 긴장시키는 요소다. 토스증권은 지난해 3월 증권 MTS를 출시한 이후 400만 이상의 계좌개설과 230만 이상의 MAU를 달성했다. 거래대금은 지난해 4·4분기 기준 1.5%가량의 시장 점유율을 기록하고 있는 것으로 추정된다.   카카오페이증권은 이달 중 해외주식 소수점 매매 서비스와 함께 MTS를 정식 출시할 예정이다. 앞서 선보인 토스증권과 마찬가지로 직관적이고 쉬운 매매 서비스를 내세우면서도, 카카오톡을 연계한 종목 공유 등이 차별화 포인트로 꼽힌다.   기존 증권사들도 새로운 서비스를 선보이거나 MTS를 대대적으로 개편하고 있다. 최근 이베스트투자증권은 기존 서비스를 대체한 차세대 MTS '이베스트 온'을 내놨다. 유진투자증권과 삼성증권도 MZ세대를 겨냥한 MTS '유투'(U.TOO)와 'O2'(오투:오늘의 투자)를 선보이기도 했다. 키움증권도 1·4분기 내로 MTS '영웅문S'를 전면 개편할 예정이다.   증권업계 관계자는 "LG에너지솔루션 상장으로 키움증권의 영웅문S가 1위 자리를 내주기도 했지만, 중요한 건 후순위 주자와의 격차도 좁혀지고 있다는 것"이라며 "신규 투자자들의 MTS의 이용이 크게 늘고 있어 증권사들의 MTS 개편은 기본이 되고 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>토스뱅크, 중·저신용자대출 비중 31.75% 달해</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002505211?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>인터넷 전문은행 토스뱅크의 중·저신용자 대출 비중이 30%대를 넘겼다. 올해 말까지 중·저신용자 대출 비중을 42%까지 끌어올린다는 목표에 3월 시점에서 벌써 다가가고 있는 셈이다.3일 토스뱅크는 올해 1월부터 지난달 말까지 신규 취급한 가계대출 가운데 중·저신용자 대출의 비중이 31.75%를 기록했다고 밝혔다. 지난해 말 기록한 23.9%보다 7.85%포인트 증가했다. 중·저신용자는 신용점수가 KCB기준 하위 50%(820점 이하)인 사람을 뜻한다.중·저신용자 대출 증가에는 토스뱅크가 자체개발한 신용평가모형(TSS·Toss Scoring System)이 영향을 미쳤다는 분석이다. TSS를 적용해 고객의 실질소득을 분석한 결과 ‘건전한 중·저신용자’로 분류되면 신규대출을 받을 수 있다. 성실한 상환 이력이 있거나 장기간 보험계약을 유지하는 기록이 있는 경우, 또 신용카드 거래 내역에서 건전한 소비가 확인된 경우 가산점을 받는다. 토스뱅크에서 대출을 실행한 중·저신용 고객의 평균 금리는 7.7%다. 이는 저축은행 평균금리인 13.3%보다 약 5.6%포인트 낮은 수준이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.03.04.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>토스뱅크, 신규대출 32% 중·저신용자에 내줘</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003414524?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>다른 인터넷은행보다 2배 수준토뱅 “기존 대출 연체 없거나보험계약 유지땐 가산점 부여”중소기업에 다니는 A 씨(39)는 올해 초 인터넷전문은행 토스뱅크에서 1000만 원의 신용대출을 받았다. A 씨는 신용점수가 코리아크레딧뷰로(KCB) 기준 672점(옛 신용등급 6등급)으로 낮은 편인 데다 이미 전세자금대출이 2000만 원 넘게 있어 시중은행에서 추가로 대출받기가 어려웠다. 하지만 토스뱅크에서는 고신용자와 비슷한 연 3.36%의 낮은 금리로 대출을 받을 수 있었다. A 씨가 8년째 회사에 재직 중이며 장기간 보험 계약을 유지하고 있는 점을 토스뱅크가 높이 평가한 덕분이다. 신용카드 등을 사용하면서 건전한 소비 패턴을 보인 것에도 은행 측은 가점을 줬다. 토스뱅크는 올해 신규 대출의 31.75%를 신용점수 820점(KCB 기준) 이하의 중·저신용자에게 내줬다고 3일 밝혔다. 다른 인터넷은행인 카카오뱅크나 케이뱅크의 중·저신용자 대출 비중이 16∼17%(지난해 말 기준)인 것과 비교하면 높은 수준이다. 지난해 10월 5일 출범한 토스뱅크는 열흘 만에 가계대출 총량 한도를 소진해 대출 영업을 사실상 중단했다. 하지만 올 들어 대출을 재개하고 중·저신용자를 중심으로 고객을 끌어모으며 가파른 성장세를 보이고 있다. 2월 말 현재 토스뱅크의 대출 잔액은 1조9446억 원으로 지난해 말(5315억 원)보다 1조4131억 원 급증했다. 토스뱅크는 자체 개발한 ‘토스 신용평가모형(TSS)’을 통해 고객의 실질소득을 분석해 대출을 실행하고 있다고 강조했다. 특히 중·저신용 고객들에게 신용 개선의 기회를 제공하는 데 중점을 뒀다. 예컨대 기존 대출을 연체 없이 성실히 상환했거나 오랫동안 보험 계약을 유지했다면 ‘건전한 중·저신용자’로 분류해 신용평가를 할 때 가산점을 주는 식이다. 이를 통해 기존에 중·저신용자로 분류됐던 고객 4명 중 1명(26.3%)이 심사 과정에서 고신용자로 상향돼 낮은 금리로 대출을 받았다고 토스뱅크는 설명했다. 토스뱅크에선 KCB 신용점수가 454점(옛 신용등급 8등급)인 소비자도 대출을 받았다.  또 토스뱅크에서 대출받은 중·저신용 고객의 평균 금리는 연 7.7%로 저축은행 평균 금리(연 13.3%)보다 5.6%포인트 낮았다. 올 들어 하루 평균 2만7157명이 토스뱅크에서 대출을 받기 위해 ‘내 한도 관리’ 서비스를 이용했다. 대출 고객의 62%는 주말을 포함한 은행 영업시간 외에 대출을 받았다. 토스뱅크 관계자는 “신용평가 모형의 고도화 등을 통해 연말까지 중·저신용자 대출 비중을 40% 수준으로 끌어올릴 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.03.14.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>PG협회 "가맹점수수료 인상 반대…계약해지도 검토"</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011061696?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>*재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = PG사들로 구성된 전자지급결제협회(PG협회)가 카드사의 가맹점수수료 인상에 반발하고 나섰다. PG협회는 15일 오전 8·11시 서울 중구 신한카드 본사 앞 두 차례 집회를 시작으로 17일까지 총 4회의 시위를 이어 나간다는 계획이다.  14일 PG협회에 따르면 카드사들은 지난 2월 초 PG사들에 가맹점 수수료를 0.05∼0.1%포인트 인상하겠다고 통보한 후 이달 1일부터 인상된 수수료를 적용하고 있다. 이에 PG협회는 지난 16일 주요 7개 카드사에 가맹점 수수료 인상 통보에 대한 수용 불가 의견을 밝히며 가맹점 수수료 산정 근거인 원가자료의 공개를 요구하는 공문을 발송했지만, 아직 카드사들로부터 답변을 받지 못한 상태다. PG협회 관계자는 "이번 인상으로 PG사의 수수료율은 최고율인 2.25∼2.3%로 오르게 된다"며 "카드업계가 영세·소규모 가맹점에 대한 우대수수료율 인하에 따른 손실분을 PG사를 통해 만회하려는 것"이라고 주장했다.앞서 금융당국은 연매출액 30억원 이하 가맹점에 적용되는 우대수수료율을 0.8∼1.6%(체크 0.5∼1.3%)에서 0.5∼1.5%(체크 0.25∼1.25%)로 인하했다.PG협회는 차후 협상에 미온적인 카드사에 대해선 가맹점 계약 해지까지 검토하고 있다. 이를 위해 PG서비스를 이용하고 있는 하위가맹점들(온라인쇼핑몰)에 공동대응을 요청했다. 또 일부 PG사는 하위가맹점들이 원하는 카드사만 선택해서 계약할 수 있도록 관련 프로세스를 개편하기로 결정하고 개발에 착수했다. 하위가맹점들이 수수료가 낮은 카드사만 선택해 PG사와 계약을 하면 PG사는 하위가맹점의 수수료를 낮게 적용한다는 방침이다. PG(Payment Gateway)사는 대형 이커머스 입점업체나 소셜미디어 판매자 등 소규모 온라인쇼핑몰 업체의 전자결제를 대행(중개)하는 업체다. PG협회는 나이스페이먼츠㈜, ㈜다날, 엔에이치엔한국사이버결제㈜, ㈜케이에스넷, ㈜케이지모빌리언스, ㈜케이지이니시스, 토스페이먼츠㈜, 한국정보통신㈜ 등 8개사로 이뤄졌다. 이들의 시장점유율은 90%가 넘는 것으로 알려졌다.PG협회는 "PG사 가맹점 수수료가 인상되면 온라인쇼핑몰에 카드수수료를 인상하는 조치로 이어져 온라인 쇼핑몰의 수익성 악화로 귀결될 수 밖에 없다. 이는 온라인쇼핑몰의  판매가격 상승으로 이어져 최종적으로 소비자에게 피해가 돌아갈 수 밖에 없다"고 말했다. 이어 "카드사들이 수십만 가맹점을 대표하고 업무를 대행하는 PG사의 역할을 제대로 이해하지 못하고 단순히 일개 가맹점으로서 역할로만 인식하고 있는 것이 가장 근본적인 문제"라며 "각 플레이어들이 갑을 관계를 벗어나 시장 내 역할을 오롯이 인정받고 상생할 수 있는 방안을 모색해야 할 것"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.03.15.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>전자지급결제대행사 vs 카드사...수수료 인상 '갑론을박'</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000659530?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>PG사 "손실분 떠넘기기"...카드사 "적격비용 따른 적정마진"카드업계가 전자지급결제대행사(PG사)의 가맹점 수수료율 조정에 나선 가운데, PG사들이 가맹점 수수료 인상에 반발하며 인상 철회와 원가 자료 공개·추가 협상 등을 요구하고 나섰다. 카드업계는 합당한 적격비용만을 수수료율로 산정해 반영했는데 갑질로 비치는 게 억울하다는 입장이다.15일 오전 서울 중구 신한카드 본사 앞에서 전자지급결제협회가 결의대회를 열고 구호를 외치고 있다. [사진=이재용 기자]◆ PG협회 "가맹점 수수료 인상 통보 부당…역할 맞는 대우·수익 보장하라"8개 전자지급결제대행사를 대표하는 PG협회는 15일 서울 종로구 신한카드 본사 앞에서 PG사에 최대 2.3%에 달하는 가맹점수수료율 인상을 통보한 카드사들을 규탄하는 결의대회를 열었다. 소속 8개 사는 나이스페이먼츠, 다날, 엔에이치엔한국사이버결제, 케이에스넷, 케이지모빌리언스, 케이지이니시스, 토스페이먼츠, 한국정보통신 등이다.PG협회에 따르면 7개 카드사는 지난 1월 말부터 각 PG사에 이달 1일부터 가맹점수수료를 0.05∼0.1%p 인상한다고 통보했다. 이번 인상으로 PG사의 수수료율은 최고율인 2.25∼2.3%로 오르게 됐다.이날 결의대회에서 PG협회는 이 같은 인상 조치는 PG사의 경영상 위기 초래는 물론, 일반 온라인 쇼핑몰에까지 카드사 손실분을 전가하는 행태라고 꼬집었다.앞서 금융당국은 연매출액 30억원 이하 가맹점에 적용되는 우대수수료율 0.8∼1.6%(체크 0.5∼1.3%)에서 0.5∼1.5%(체크 0.25∼1.25%)로 인하했다. 여기서 발생한 카드 수수료 손실분을 PG사로부터 메꾸려 한다는 지적이다.영세·중소 가맹점 수수료 인하는 본래 어려운 소상공인을 위한 제도인데, 카드사가 PG사와 일반 쇼핑몰들에 손실을 떠넘기면서 시장 전반의 위기를 야기하는 등 본 취지를 왜곡하고 있다는 것이다.이현호 PG협회 사무국 간사는 "PG사는 카드사와 직접 접촉할 수 없는 대다수 온라인 가맹점을 대신하는 대표 가맹점"이라면서 "PG사에 대한 수수료를 인상할 경우 PG사는 물론 영세·중소 가맹점을 제외한 일반 온라인 쇼핑몰에 수수료 인상분이 전가되는 구조"라고 설명했다.이어 "PG사와 온라인 쇼핑몰의 최소한의 수익성조차 보전하지 않는 것은 결국 소비자 대상 서비스 질 저하와 판매가격 상승으로 이어질 것이 불 보듯 뻔하다"고 덧붙였다.PG협회는 연쇄 피해를 일으키는 수수료 인상을 검증하겠다며, 적격비용 산정 근거인 원가 자료 공개를 요구했다. 아울러 PG사의 역할을 인정하고 합당한 대우와 수익을 보장하라고 강조했다.15일 오전 서울 중구 신한카드 본사 앞에서 전자지급결제협회가 결의대회를 열고 구호를 외치고 있다. [사진=이재용 기자]전자상거래 서비스 제공자 역할을 수행함에도 카드사는 전략적 SP(Service Provider) 관계가 아닌 단순 가맹점으로만 역할을 인식하고 불공정한 계약을 강요한다는 게 PG협회의 주장이다.이날 발언자로 나선 정희경 KG모빌리언스 팀장은 "PG사는 카드사를 대신해서 가맹점을 모집하고 카드 승인과 매입, 가맹점 대금 정산에 이르기까지 카드 결제의 모든 서비스를 제공하고 있다"면서 "이런 PG사의 역할이 있어 전자상거래 시장이 확대됐고 또 PG사와 카드사가 동반 성장할 수 있었다"고 말했다.그러면서 "수십만 개의 가맹점을 관리하고 고객 민원 처리, 가맹점 배상 책임의 위험관리 역할도 수행하는 전자상거래 서비스 제공사 역할을 인정해 달라"고 전했다.PG협회는 이날 오전 결의대회를 시작으로 사흘간 가맹점수수료 인상 반대 집회를 열 계획이다. 차후 협상에 미온적인 카드사에 대해서는 가맹점 계약 해지 등까지도 검토한다는 방침이다.◆ 카드 업계 "적격비용 따라 적정 마진만 산정…상생 협의 성실히 임할 것"카드업계는 영세·중소 가맹점 수수료 인하에 따른 손실분을 PG사로부터 메꾼다는 것은 사실이 아니라고 해명했다.업계 한 관계자는 "PG협회에서 주장하는 2.25~2.3%의 수수료를 통보받은 곳은 30억 초과 일반 가맹점"이라면서 "이들에게는 여신전문금융업법에 따라 자금 조달·관리 비용, VAN(밴) 수수료 비용, 마케팅 비용 등을 감안해 가맹점이 부담하는 것이 합당한 적격비용만을 수수료율로 산정·반영한다"고 말했다.그러면서 "추후 법령에 따라 수수료 산정의 적격성을 검증하므로 카드사가 영세가맹점의 손해를 보전하거나 마음대로 산정할 수 없는 구조"라고 선을 그었다.신용카드 온라인 결제 관련 이미지 [사진=픽사베이]다른 카드업계 관계자는 "가맹점은 표준약관에 따라 문제가 있을 시 1개월 이내에 이의를 제기할 수 있고, 카드사는 10영업일 이내 처리해야 하는 규정이 있다"면서 "카드업계는 적격비용 원칙에 따르면서도 상생 정신에 입각해 성실하게 협의를 이어 나가겠다"고 말했다.◆ 관련 학계 "기준금리 상승에 따른 현상…정부의 과도한 우대 수수료율 범위 확대 탓도"PG업계의 지적과는 달리 관련 전문가들은 가맹점 카드 수수료율 인상을 두고 손실분 전가라는 의미보다 기준금리 상승기에 따른 자연스러운 현상이라고 설명했다.실제로 카드사 자금 조달로인 여신전문금융회사채(여전채)는 지난해 시작된 금리 상승기 이후 오름세다. 금융투자협회 채권정보센터에 따르면 하나·현대·우리카드가 발행하는 AA0 3년물 금리는 지난 1월 14일 연 2.622%에서 지난달 14일 연 2.980%, 지난 14일 2.995%로 상승했다.신한·KB국민·삼성카드가 찍어내는 여전채 AA+ 3년물 금리는 지난 1월 14일 연 2.581%에서 지난달 14일 2.940%, 지난 14일 2.954%로 올랐다. 이는 전년 동기 1.563% 대비 1.391%p 높은 수치다. 수신 기능이 없는 카드사는 시장금리에 연동된 여전채로 자금을 조달한다. 이 때문에 여전채 금리 상승은 자금 조달 비용 상승을 의미한다.서지용 상명대학교 경영학부 교수는 "최근 들어 계속 기준금리가 오르면서 자금 조달 카드채 발행 비용도 오르고 있으므로 카드사들이 수수료를 올리는 게 이상한 현상은 아니다"라면서 "정부가 시장 질서를 어긋나게 하면서까지 우대 수수료 적용 범위를 96%로 지나치게 확대했는데, PG사를 비롯한 일반 가맹점들이 왜 우리는 그 혜택을 못 받냐는 반발 작용으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.03.07.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>토스 “가상자산거래소 인수 추진 사실무근”</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005162022?sid=105</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>“토스뱅크·가상자산거래소 제휴 없다”[이데일리 최훈길 기자] 토스를 운영하는 핀테크 기업인 비바리퍼블리카가 현재 가상자산거래소 인수를 추진하는 것은 없다고 밝혔다. 토스뱅크와 가상자산거래소의 제휴 가능성에도 선을 그었다.   비바리퍼블리카 관계자는 7일 오후 통화에서 “토스가 가상자산거래소 인수를 추진한다는 것은 사실무근”이라며 “토스뱅크가 가상자산거래소 실명계좌 발급 제휴를 추진하는 것도 아니다”고 말했다. 앞서 업계에서는 비바리퍼블리카가 프로비트 인수를 추진하고 있으며 현재 인수 마무리 단계라는 관측이 제기됐다. 프로비트는 지난해 12월 은행 실명계좌 확보를 못해 현재 코인 마켓만 운영하는 거래소다. 금융당국이 가상자산거래소 인수나 실명계좌 발급에 난색을 표하고 있다는 관측도 있지만, 금융위원회는 사실무근이라고 선을 그었다. 금융위 관계자는 통화에서 “(가상자산거래소 실명계좌 발급은) 은행이 판단할 사항”이라고 말했다. 다만 차기정부에서는 가상자산거래소 인수나 실명계좌 추가 발급이 이뤄질 전망이다. 이재명 더불어민주당 대선 후보, 윤석열 국민의힘 대선 후보 모두 문재인정부와 다른 가상자산 정책을 예고했다. 국회 정무위원회 소속 윤창현 의원(국민의힘 가상자산특위위원장)은 지난 4일 이데일리 인터뷰에서 “윤석열정부는 박상기 전 법무부 장관처럼 코인 시장을 확 밟아버리려는 국가주의적 사고를 가진 문재인정부와 기조를 달리할 것”이라며 “가상자산거래 전문은행 제도를 도입해 원화거래소 라이센스를 3~4군데 더 줄 수 있을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>6% 이자 내던 중저신용자 토뱅서 3%대로 대출</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004797603?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>토뱅 자체 신용평가모형 도입중저신용자 25% 고신용자로  못해도 6~7%의 이자를 부담해 온 '건강한 중저신용자'의 대출금리가 토스뱅크에서는 3%대까지 내려간 것으로 나타났다. 신용평가기관에서 중저신용자로 분류한 고객이 토스뱅크 심사에선 고신용자로 취급되는 사례가 늘면서다.   3일 토스뱅크는 올해 실행한 대출 중 중저신용자 비중이 31.75%를 달성했다고 밝혔다.   KCB나 NICE 등 신용평가기관에서 중저신용자로 분류한 고객이 토스뱅크 심사 기준으로는 고신용자로 분류된 점이 주효했다.   지난 5개월간 토스뱅크 심사에 따르면 KCB 기준 중저신용자 4명 중 1명꼴로 토스뱅크에서는 고신용자로 상향됐다. 이들에게는 3~4%대 금리가 대출 이자로 책정됐다. 시중은행에선 대출을 못 받고, 저축은행 등 제2금융권에선 두자릿수의 높은 이자율을 부담해온 중저신용 고객의 금리가 유의미하게 낮아진 것으로 평가되는 부분이다.   고신용자 중에서도 가장 높은 신용등급을 받은 고객의 금리 구간은 적게는 2.71%에서 3.81%까지 저금리로 대출 받았다.   토스뱅크는 자체 개발한 신용평가모형(TSS)을 통해 고객의 '실질소득'을 분석하는 데 초점을 뒀다. 가령 2.71%의 금리를 받은 경우는 기존에 대출을 보유하고 있더라도 이를 연체 없이 상환했거나, 장기간 보험계약을 유지한 점을 높게 평가받았다. 또 신용카드 거래내역에서 건전한 소비가 확인된 경우 가산점을 받기도 했다.   중저신용 고객은 토스뱅크에서 평균 2320만원의 대출을 받았다. 기존 금융권에서는 대출이 힘든 신용점수 454점(KCB기준 8등급)까지 대출이 실행되기도 했다.   건전한 중저신용자를 골라내자 대출금리도 낮아졌다. 토스뱅크에서 대출을 실행한 중저신용 고객의 평균 금리는 7.7%로 나타났다. 이는 저축은행 평균 금리 13.3% 대비 약 5.6%p 낮다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>5일부터 국민비서로 재택치료자 생활수칙 안내 받는다</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003131987?sid=102</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>[경향신문] 행정안전부는 보건복지부, 질병관리청와 협업해 오는 5일부터 ‘국민비서’ 알림 서비스를 통한 코로나19 재택치료자 대상의 ‘생활수칙 안내 서비스’를 개시한다고 3일 밝혔다. 국민비서는 네이버, 카카오톡, 토스 등 민간 앱을 통해 코로나19 관련 정보부터 교통 과태료, 건강검진, 국가장학금 등 정보를 제공받을 수 있는 서비스다.국민비서 알림 서비스 화면. 행정안전부 제공.기존에는 일선 보건소에서 코로나19 확진 시 재택치료자에게 휴대전화 문자로 생활수칙을 안내해 왔다. 보건복지부는 지난달 25일부터 재택 치료 중 의료상담 방법과 생활수칙 등을 두 차례에 걸쳐 문자로 안내하고 있다.정부는 민간 앱을 사용하는 국민들의 편의성을 고려해 국민비서를 통해 재택치료자에게 생활수칙 안내 서비스를 제공하게 되었다고 설명했다. 국민비서를 통해 재택치료 안내 서비스를 받기를 원하는 경우, 확진 직후 역학조사서를 작성할 때 ‘국민비서 서비스 수신’에 동의하면 된다. 국민비서 안내 서비스에 동의하지 않는 경우 기존처럼 보건복지부에서 발송하는 휴대전화 문자를 통해 안내를 받을 수 있다.국민비서의 안내 내용에는 쓰레기 배출 방법과 검사 4일 차의 병·의원 및 전화상담 안내, 검사 6일 차의 격리해제일 기준, 해제 후 주의사항 등이 포함돼 있다.이세영 행안부 공공지능정책과장은 “코로나19와 같은 국가적 현안이 있는 경우 관계부처와 함께 국민비서를 통해 국민에게 필요한 정보를 필요한 시기에 제공할 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.03.08.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>존재감 키우는 케이뱅크…IPO 올인?</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005055158?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>대출 금리 인하, 예·적금 금리 인상당근마켓 제휴로 제2의 '업비트 효과' 노려IPO 앞두고 공격적 움직임최근 예·적금 금리를 일제히 인상한 케이뱅크가 주요 대출 상품의 금리를 전격 인하하면서 공격적인 영업을 펼치고 있다. 당근마켓과도 손을 잡으며 이용자 수 확보에 힘을 쏟고 있다. 기업공개(IPO)를 앞두고 연초부터 존재감을 키우는 모습이다.8일 금융업계에 따르면 케이뱅크는 지난 5일부터 신용대출과 신용대출플러스·마이너스통장(한도대출) 등 대출상품 3종의 금리를 신용등급에 따라 최대 0.3%포인트(p) 낮췄다. 이에 따라 신규 신용대출과 마이너스통장의 금리 하단이 각각 연 3.09%, 연 3.77%로 0.18%p씩 인하됐다. 신용대출플러스 상품의 금리도 최저 연 3.88%로 0.20%p 내렸다. 아파트담보대출 변동금리도 일제히 조정됐다. 모든 신용등급에 대해 0.1%p 낮추며 최저 연 3.09%에서 연 2.99%로 하향됐다.예·적금 금리는 일제히 올리는 추세다. 지난해 12월 최대 연 0.6%p를 올린 이후 지난달에도 일제히 연 0.3%p 인상했다. 이에 따라 예금 금리는 최고 연 2.40%, 적금 금리는 최고 연 2.80%까지 받을 수 있게 됐다. 케이뱅크 관계자는 "금리 인상 직후 일주일 만에 예금은 금액 기준 50% 늘었고 적금은 신청 건수가 2배 이상 증가했다"고 설명했다. 지난 2일에는 자동 목돈 모으기 상품인 ‘챌린지박스’가 10만좌를 돌파한 기념으로 우대금리를 연 0.5%p씩 상향, 최대 연 2.5%로 금리를 올렸다.IPO를 앞두고 연초부터 공격적인 확장을 추진하는 모양새다. 최근 대표주관사로 NH투자증권·씨티증권·JP모간을, 공동주관사로 삼성증권을 선정했다. 당초 2023년으로 전해졌지만 이르면 연내에도 상장이 가능할 것이라는 전망이 나온다. 이를 두고 기업가치를 끌어올리기 위해 각종 실적 지표를 공격적으로 키우려는 전략으로 보인다.최근 위치기반 중고거래 플랫폼 ‘당근마켓’과의 제휴에 힘을 쏟는 것도 이 같은 맥락으로 풀이된다. 케이뱅크는 당근마켓이 내놓은 간편결제·송금 서비스 ‘당근페이’에 케이뱅크 계좌 개설해 연결하면 1인당 약 1만1000원을 지급하는 판촉행사를 진행 중이다. 다른 은행들도 당근페이와 연결하는 제휴를 맺었지만 케이뱅크는 유달리 적극적인 모습이다. 가상자산 거래소 ‘업비트’와 유일하게 실명계좌 발급 제휴를 맺으면서 이용자를 다수 끌어모은 만큼 당근마켓과의 제휴를 통해 비슷한 효과를 기대하는 셈이다. 당근마켓은 가입자 2200만명, 월 활성사용자수(MAU) 1700만명 이상인 국내 최대 규모 중고거래 플랫폼이다. 업계 관계자는 "카카오뱅크나 토스뱅크와 달리 인지도나 특색이 다소 부족한 케이뱅크가 연초부터 공격적으로 나서고 있어 주목하는 분위기"라며 "지난해 예상보다 빠르게 흑자로 전환한 만큼 상장을 앞두고 물 들어올 때 노 젓는 모양새"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.03.11.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>자본금 0원인데, 사업가를 꿈꾸고 있다면 [슬기로운 창업생활]</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002345580?sid=103</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>'공모전 헌터'라 불리던 남편이 6년간 실패하고 때론 성공했던 경험들【오마이뉴스의 모토는 '모든 시민은 기자다'입니다. 시민 개인의 일상을 소재로 한 '사는 이야기'도 뉴스로 싣고 있습니다. 당신의 살아가는 이야기가 오마이뉴스에 오면 뉴스가 됩니다. 당신의 이야기를 들려주세요.】20년 다닌 회사를 나오기 전, 회사 밖 생활에 대해 막연한 두려움이 있었습니다. 하지만 나와보니 그렇게 두려워 할  일만은 아니었습니다. 스타트업을 운영하는 저의 시행착오가 회사 밖 인생을 준비하는 사람들에게 도움이 되길 바라는 마음으로 이 글을 씁니다. &lt;편집자말&gt;돈 없어도 사업할 수 있을까? 결론부터 말하자면, 할 수 있다. 단, 시간이 오래 걸린다. 자본주의 사회에서 시간과 돈은 동급이다. 돈이 많다면, 사업이 어느 정도 자리 잡기까지 시간이 적게 걸리지만, 돈이 없다면 시간을 투자하면 된다. 이때 시간은 기회비용으로 환산된다. 남편이 창업 초기에 어느 강의에 가서 들었던 말이라고 한다. "만약 부모가 부자이거나, 배우자의 부모가 부자이면 5년 정도면 성공을 바라볼 수 있고, 둘 다 아니라면 사업이 성공하기까지 10년 정도를 생각하세요." 우리 부부는 양가 모두 부자가 아니었으므로 10년은 족히 걸릴 터였다. 그래도 만약 10년 후 성공이 확실히 보장된다면 사람들은 기꺼이 10년이라는 시간을 투자할 것이다. 그러나 누가 그걸 확실히 보장하겠는가?돈을 잃을 수 있다는 두려움              ▲  사업이라는 것을 어떻게 시작해야할지 몰랐고, 답을 줄 수 있는 사람은 없었다.            ⓒ ？qimono, 출처 Pixabay   사람들이 사업을 두려워 하는 이유 중 하나는 돈을 잃을 수도 있기 때문일 것이다. 돈을 잃는다는 것은 작은 금액이건 큰 금액이건 고통에 해당한다. 이런 두려움을 바탕으로 무자본 창업, 소액 창업이 성행하는지도 모른다. 무자본 창업은 혹시라도 실패하게 되더라도 인생이 흔들리지 않는 범위 내에서 모험을 하고 싶은 욕망을 타깃으로 한다. 물론 남편과 나도 그 중 하나였다. 남편은 이미 여러 번의 조그만 모험으로 실패를 쌓고 있었다. 돈은 적게 잃었지만, 문제는 기회비용이었다. 둘째 임신 즈음부터 사업을 시작한 남편은 아이가 걸음마를 하고, 어린이집과 유치원에 갈 동안 이렇다 할 결과를 내지 못했다.그동안 나는 외벌이 가장으로 집안의 생계를 책임져야 했다. 남들이 맞벌이로 집을 사고, 자산을 불려가는 동안 우리는 빠듯한 생계를 이어갔다. 이때 내 소원은 남편이 조금이라도 생활비를 벌어 오는 것이었다. 다행히 기회비용을 잃고 나서 남는 건 있었다. 경험과 남편의 발명품이었다. 남편은 발명품을 가지고 있었지만, 어떻게 사업화를 해야 할지 몰랐다. 빠듯한 형편에 투자할 돈도 없었고, 방법도 몰랐다. 주변에 사업하는 사람도 없었고, 특히 제조업 관련해서는 어떻게 판로를 개척해야 할지도 몰랐다. 남편이 창업 초기에 사무실 공간으로 활용하던 곳은 공공도서관이었다. 아이를 어린이집에 맡기고 나서는 도서관에 가서 무료 인터넷으로 일을 보고, 메일을 보내고, 자료를 찾곤 했다. 그러다 찾은 곳은 창업진흥원에서 제공하는 '1인 창조기업 지원센터'였다. 초기 창업자들에게 무료로 공간을 제공해주는 곳이었다.그곳에는 3D프린터 등 시제품을 만들기 위한 장비에서부터 팩스, 프린터기 등 사무용 기기를 활용할 수 있어 초기 창업자에겐 더없이 좋은 곳이었다. 더불어 중소기업청에서 운영하는 '메이커 스페이스'도 풍부한 시제품 제작 장비를 무료로 제공해주었다. 물론 무료로 지원되는 공간인 만큼, 경쟁률도 치열했다. 지원센터의 공간을 얻기 위해서는 사업계획서와 발표평가 등을 거치게 되는데, 남편의 경우는 이 사업계획서에 무척 정성을 들였다. 각종 공공기관을 매일 서핑하며 무료 창업교육은 전부 들었다. 비슷한 이야기도 다시 듣고, 사업계획서를 고치고, 또 고쳤다. 강사에게 달려가서 질문하기도 여러 번, 그렇게 수정된 사업계획서로 지원센터의 사무실 한 자리를 얻을 수 있었다.이 지원센터가 좋았던 점은 초기 창업자에게 세무, 회계, 법률, 마케팅 등 전문가와 상담할 수 있는 기회가 제공된다는 것이었다. 사업 경험이 전무한 사람에게 기초를 잡을 수 있는 좋은 기회였다. 또 하나, 창업을 하는 다른 대표님들과의 인맥이었다.초기 창업자들의 어려움을 서로 격려하며 버틸 수 있었고, 사업화와 관련된 정보도 얻을 수 있었다. 이곳에서 남편은 발명품을 3D프린터로 제작해 실험을 하며 좀 더 구체화 시켰고, 각종 공모전과 발명대회에서 상을 받았다.만 39세 이하 대상 '청년창업사관학교'              ▲  어디선가 노력하고 있을 초기창업가들에게 이 글이 도움되길 바란다.            ⓒ ？CoolPubilcDomains,출처 OGQ   이후, 정부 창업지원자금을 더 적극적으로 찾아 나섰다. 정부 창업지원자금은 신사업발굴로 국가경쟁력을 높이고, 일자리 창출을 목표로 한다. 참고로 먼저 말하자면, 정부 창업지원자금은 100% 지원해주지 않는다.종류에 따라 다르지만 70~80% 혹은 90%까지 정부 자금으로 지원해주고, 나머지 비용은 개인부담이다. 그리고 당연한 이야기겠지만, 사용 출처가 명확해야 한다. 처음 사업계획서에 냈던 곳 이외에 다른 곳에 쓰면 안 된다. 지금 제품을 사업화하기까지 가장 큰 도움을 받았던 정부지원사업 중 하나는 '청년창업사관학교'였다. 청년사관학교는 창업아이템을 가진 예비 및 청년창업가를 지원하는 제도인데, 이 제도를 통해서 지금 회사의 모습을 거의 갖추었다고 해도 과언이 아니다. 우리가 잘 아는 토스와 직방도 청년창업사관학교 출신이다. 남편은 2017년, 2018년 두 번에 걸쳐 입교를 했었다(청년창업사관학교 제도라 '입교'라는 표현을 쓴다). 이 제도에 대해 좀 더 설명하자면, 제목에서처럼 청년들을 위한 제도라 만 39세 이하 대상이다(2017년 모집요강은 기술경력자에 한해 만49세까지 지원 가능했고, 2018년엔 이전 졸업자에 한해 10% 정도 재입교 가능해 지원했다). 최대 2년까지 혜택을 받을 수 있다. 창업공간과 자금을 지원해주는데, 최대 1억 원까지 받을 수 있다. 창업자금은 사업비의 70%를 정부가 지원하고, 입교자가 30%를 부담한다. 개인부담 30%는 현물 20%, 현금 10%인데, 현물에는 인건비가 포함된다. 즉, 10%에 해당하는 현금을 가지고 있으면 지원 가능하다. 1억 원을 전부 주는 것은 아니다. 금액은 선정 사업마다 차등 지원된다. 중간 평가 제도가 있어서 성과에 따라 금액이 늘어날 수도 있다. 최대 1억 원 이내에서다. 이 돈은 창업자의 통장으로 직접 주는 것이 아니라, 거래를 하는 업체로 돈을 주는 방식이다.예를 들면, 금형제작을 하게 될 경우 금형제작 업체에 돈을 주고, 창업자는 제품을 받는 형태다. 이곳에서 남편은 시제품을 제작하고, 특허 등록 및 지식재산권 등록을 할 수 있었다. 또한 청년창업사관학교에서 연결해준 컨설턴트의 지원으로 마케팅과 판로개척을 할 수 있었고, 비로소 기업의 모습을 갖출 수 있었다(이 제도는 매해 연초에 공고하고 모집하는데, 모집요강이 매년 조금씩 달라지니 자세한 사항은 K-Startup 홈페이지를 참고하면 좋겠다). 남편은 10%의 현금을 마련하기 위해 각종 공모전과 해커대회에 참가해 상금을 받아 모았고, 혹시 상금이 아니라 상품을 줄 경우엔 팔아서 자금을 마련했다. 뜻이 있는 곳에 길이 있다고 했던가, 절박했던 남편은 당시 공모전이나 해커대회에 나가면 꼭 상을 받아왔다. 그때 남편의 별명은 '공모전 헌터'였다. 처음 사업을 시작한 이후 6년 정도 흘렀다. 그동안 개인사업자에서 법인사업자로 전환했고, 현재는 한 대학교의 산학협력관에서 사업체를 운영하고 있다. 그동안 꾸준히 성장해서 나름 일자리 창출에도 기여했는데, 대학교 근로장학생 지원을 받아 같이 일하다 2020년에 정식직원으로 채용했다. 이외에도 재택근무 인력과 배송과 물류 담당하는 파트타임 인력까지 하면, 1인 기업의 모습에서 나름 기업의 형태를 갖추어가고 있다고 말할 수 있다. 창업 기업의 체질을 튼튼하게 하려면 앞서 양가 부모님이 부자가 아니라면 사업성공까지 10년이 걸린다고 했다. 그러나 요즘은 10년이 아니라 몇 달 만에도 성공하는 사례도 있고, 한 달에 천만 원 벌기는 생각보다 쉽다고 말하는 사람도 있다. 아쉽게도 우리는 그 모두에도 해당하지 않았다. 아마도 10년 걸릴 모양이다. 6년 했으니 4년 남았을까? 더디게 커 왔지만, 그 시간이 나쁘지만은 않았다고 생각한다.   내 소원이던 남편이 주는 생활비도 꼬박꼬박 벌 수 있는 수준에 이르렀다. 처음부터 너무 큰 큰 목표를 생각했다면 지금까지 오지도 못했을 것이다. 작은 책상 하나, 3D프린터기 하나, 제품 하나를 바라보고 천천히 달려왔다. 우리는 0원에서 시작했으므로 모든 것이 당연하지 않았다. 책상이 있는 사무실, 프린터기, 전화기, 팩스 등을 사용하는 것만으로도 기쁘고 소중했다. 처음 책상이 있는 공간이 마련되었을 때의 환희, 청년창업사관학교에 합격했을 때의 기쁨, 남편의 들뜬 목소리, 고객의 첫 구매. 모든 순간이 짜릿했고, 감동이었다. 가끔 사업 자금이 충분했거나 부모님의 전폭적인 지원이 있었더라면 어땠을까 하는 상상을 한다. 가보지 않은 길이라 알 수는 없지만, 확실한 것 하나는 짜릿함과 감동이 덜 했을 것 같다. 만약 지금 0원인데, 사업가를 꿈꾸고 있다면 작은 것부터 도전해 보라고 말하고 싶다. 정부 창업지원자금도 무언가를 보여주고 증명해야 합격 확률이 높다. 작은 것이라도 시도하고, 이루고, 쌓는 것, 그런 과정들이 별것 아닌 것 같지만, 초기 창업기업의 체질을 튼튼하게 한다.우리는 지금도 작은 행동을 쌓고, 다음 목표를 향해 걷는다. 어디선가 기회비용을 열심히 투자하고 있는 창업가에게 글이 도움 되었으면 좋겠다.덧붙이는 글 | 이 기사는 이혜선 시민기자의 개인 블로그(http://blog.naver.com/longmami) 및 브런치(https://brunch.co.kr/@longmami)에도 실립니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.03.07.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>위메프, '할인해봄'..2주간 7개 콘셉트별 봄맞이 상품 할인</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004798846?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>위메프는 오는 20일까지 ‘할인해봄’ 행사를 열고, 7개 콘셉트로 구분한 다양한 봄 시즌 인기 상품을 특가에 선보인다고 7일 밝혔다.   이번 행사는 고객들이 여유있게 봄맞이 상품을 구매할 수 있도록 7~20일 2주간 진행한다. 콘셉트도 세분화해 맞춤형 큐레이션을 선보인다.   패션/뷰티/홈스타일링 상품을 엄선한 △꽃단장해 봄 코너부터 △아이의 봄(키즈패션/신학기템/육아용품) △깨끗한 봄(청소/세정살균/클린주방) △맛있는 봄(제철음식/간편식/간식) △건강한 봄(영양제/운동/다이어트) △즐거운 봄(여행/봄소풍/취미) △스마트한 봄(컴퓨터/디지털/가전)을 운영한다. 스마트한 봄 코너는 12일부터 열린다.   행사 첫날(7일) 대표 상품은 △닥터마이스킨 카밍 원더 솝 1+1 △도노도노 모달 낮잠이불+가방 △홈스타 곰팡이싹 3개+욕실용 △청도 딸기 600g 내외 △뉴트리디데이 콜라겐 타블렛 2병 △아트 오브 뱅크시 앙코르 1인 입장권 등이다.   둘째 날에도 다양한 봄 시즌 상품을 초특가에 선보인다. △카카오프렌즈 쿨 메쉬 반팔 잠옷세트 외 △뉴발란스키즈 스트릿 소풍가방 외 △리빙나인 양면 스펀지 수세미 5P △해남 꿀고구마 특상 3kg △필캣 손목 보호대 1+1 △GS25 편의점 2만원권 등을 판매한다.   특가 상품에 할인 쿠폰으로 혜택을 더한다. 1만원 이상 구매 시 사용할 수 있는 최대 15% 할인 쿠폰(최대 2만원까지) 및 3만원 이상 결제 시 추가 적용되는 3000원 카드 할인 쿠폰(국민·삼성·하나·카카오페이·토스 등)을 제공한다.   위메프 관계자는 “전국 낮 기온이 10도를 넘어서면서 본격적으로 봄 준비에 나서는 고객들이 늘고 있다“며 “봄 시즌 패션 아이템부터 아이들의 신학기 제품, 봄 제철 음식 등 세분화한 코너를 통해 고객들에게 꼭 필요한 상품들을 맞춤으로 제공할 것“이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.03.07.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>‘금융 밖’ 노리는 금융사들, 타업종 겸영·자회사 소유 길 열리나</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000797934?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>금융당국이 은행의 자회사 소유 구조 규제 손질을 예고한 가운데, 주요 금융회사들이 디지털 전환과 함께 비(非)금융 시장으로의 확장을 노리고 있다.7일 금융권에 따르면 금융위원회는 지난달부터 금융업법 개정 TF를 가동했다. 금융당국은 법률전문가, 업계와 함께 디지털 시대에 맞춰 은행법, 보험업법, 여신전문금융업법 등을 전면 개편하는 작업에 착수했다.최근 고승범 금융위원장은 주요 은행장들과 만나 “다양한 사업모델을 자율적으로 설계할 수 있도록 은행의 겸영 부수업무와 자회사 소유 규제를 개선하겠다”고 밝히기도 했다. 고 위원장은 지난해에도 금융업법 규제 개선 추진 의지를 드러낸 바 있다.4대 주요 시중 은행.        이에 시장에서도 규제 완화 기대감이 커지고 있다. 그간 업계는 금융· 비금융 융복합 서비스를 제공할 수 있게 해달라고 요구해 왔다. 현행법상 은행과 보험회사는 금융 관련 업종이 아닌 스타트업에 15% 이상 출자할 수 없다. 이는 금융업계의 타 업종 및 기술 분야에 대한 직접투자의 걸림돌로 작용했다.김광수 은행연합회장은 “은행이 국민에게 지금보다 더 혁신적인 서비스를 제공하기 위해서는 데이터·플랫폼 경쟁력을 강화해야 하는데, 금융계열사 간 정보 공유 완화와 은행의 비금융업 진출 범위 확대 등 제도적 지원이 필요하다”고 말했다.금융업계 관계자는 “금융과 산업의 분리에 있어서 보수적인 일본도 2016년 이후 은행법을 지속해서 개정해 은행 업무 범위를 확대하고 있다”면서 규제 완화 필요성을 주장했다. 일본은 지난 2018년 은행법을 개정해 비금융 사업을 펼칠 수 있도록 했다.여기엔 위기의식도 깔려 있다. 아이디어와 기술, 이용자를 대거 확보한 플랫폼을 기반으로 금융 시장에 진출한 카카오, 네이버, 토스의 급성장은 기존 금융사들에 위협이 되고 있다. 특히 이미 결제시장 패권을 네이버파이낸셜, 카카오페이, 삼성페이 등에 빼앗겼다는 게 기존 금융사들의 진단이다.최근 주요 금융그룹들은 초기 핀테크 업종에서 투자 영역을 확대해 인공지능(AI), 모빌리티, 헬스케어, ESG 시장으로 투자를 확대하고 있다.신한금융그룹은 ‘신한퓨처스랩’을 통해 혁신 스타트업을 선발, 육성하는 프로그램을 운영 중이다. 작년 말까지 282개사의 혁신 스타트업을 육성했으며, 현재까지 국내·외 육성기업에 595억원을 직·간접 투자했다. 올해도 핀테크, 빅데이터, 블록체인, AI, ESG, 프롭테크, 헬스케어 등 다양한 분야의 스타트업 17개사를 선발했다.KB금융은 ‘KB이노베이션허브’를 통해 성장 가능성이 높은 스타트업을 선발해 지원하고 있다. 작년 12월 말 기준 KB스타터스에 선발된 스타트업은 총 156개로, 투자금액은 1062억원 규모다. 하나은행의 ‘하나원큐 애자일랩’은 2015년 6월 설립 이후 지난해 말까지 총 134개의 스타트업을 지원했다. 우리금융지주의 ‘디노랩’은 현재까지 스타트업에 619억원을 투자했다. 4대 금융그룹은 지난 2015년부터 스타트업 육성 조직 및 프로그램을 출범해 운영 중이다.한 금융그룹 관계자는 “다양하고 차별화된 금융·비금융 서비스를 제공하는 디지털 금융 플랫폼으로 은행앱을 발전시키는 게 디지털 전략의 주요 과제”라면서 “규제 완화를 계기로 다양한 스타트업에 대한 직접투자와 인수합병 등이 활발해지면 디지털 금융 혁신 속도를 높일 수 있을 것으로 기대한다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>3월 4일 출판 새 책</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002581493?sid=103</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[솔라리스] 폴란드의 에스에프 작가 스타니스와프 렘의 1961년 대표작을 폴란드어에서 직접 옮긴 원전 번역. 미지의 행성 ‘솔라리스’를 탐사하고자 우주 정거장으로 간 심리학자가 10년 전 자살한 연인을 예전 모습 그대로 마주하면서 불가사의한 사건에 휘말리는 내용이 주축을 이룬다. 최성은 옮김 l 민음사 l 1만7000원.[메데이아] 소포클레스, 아이스퀼로스와 더불어 그리스 3대 비극 작가로 꼽히는 에우리피데스의 걸작을 모은 선집. ‘알케스티스’ ‘메데이아’ ‘힙폴뤼토스’가 실려 있다. 작품 속 주인공들이 내면의 갈등을 인식하고 심리적인 동기와 논리적인 의사 결정을 내리는 것이 특징이다. 김기영 옮김 l 을유문화사 l 1만2000원.[시집] 불문학자이자 번역가이기도 한 조재룡 고려대 교수의 평론집. 2018~21년까지 쓴 해설을 한데 묶었다. “‘작품’은 완전히 자유로운 상태에서 무언가를 만드는 작업이라기보다, 강제적인 무엇, 혹은 어떤 ‘기계성’을 필요로 하는 기예의 과정이자 그 결과물이다.”(‘책머리에’) 문학과지성사 l 2만5000원.[시적인 것의 귀환] 2006년 창비신인평론상으로 등단한 김종훈 고려대 교수의 평론집. 1부에는 인공지능의 시대에 ‘시란 무엇인가’라는 질문을 끝까지 궁구하는 글들을 묶었다. 이어서 서정시의 정서적 측면에서부터 리듬, 알레고리, 리얼리즘 사조 등 시의 미학적 특성들이 지니는 현재적 효용을 탐색한다. 창비 l 2만원.[마음] 일본 근대문학의 기틀을 세운 나쓰메 소세키의 장편소설. 대학생인 화자 ‘나’와 서른 무렵의 지식인인 ‘선생님’ 사이에 있었던 일들을 다룬 소설로, ‘나’와 ‘선생님’의 만남과 우정, 세상과 거리를 둔 채 정체 모를 고독 속에서 살아가던 ‘선생님’의 죽음과 자기 고백 등을 그린다. 양윤옥 옮김 l 열린책들 l 1만2800원.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.03.11.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>“언제든 오세요”… 토스인슈어런스, ‘보험 설계사’ 빨아들인다</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000793217?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>토스인슈어런스가 보험대리점 설계사들을 대거 영입해 대면 영업 강화에 나선다./사진=머니S DB키움에셋플래너 소속 1개 본부를 인수한 토스인슈어런스가 추가로 매입할 법인보험대리점(GA) 탐색에 나섰다. 보험 대면영업 시장에 진출을 결정한 경쟁업체 인수합병으로 빠르게 사세를 확장한다는 방침이다. 11일 보험업계에 따르면 토스인슈어런스는 올 상반기 중 대형 GA 소속 영업본부 또는 소형 GA 인수합병을 위한 전략을 구사하고 있다. 보험설계사를 신규로 채용하는 것보다 외부 경력자를 뽑아서 운영하는 게 효율적이라고 판단한 것이다. 토스인슈어런스 관계자는 "지난 2월부터 대면영업을 시작했고, 위촉직 설계사들도 지속적으로 모집 중"이라며 "개인, 팀, 본부 단위 등 다방면으로 실력 있는 설계사 채용을 추진해 나갈 예정"이라고 말했다. 앞서 토스인슈어런스는 지난 3일 키움에셋플래너 소속 매출 1위 사업단과 사업단 설계사 대부분을 토스인슈어런스에 합류시키는 내용의 계약을 체결했다. 해당 사업단 소속 설계사 90여명이 우선 3월 중 합류할 예정이며 추후 순차적으로 이동을 해 총 200여명이 토스인슈어런스 소속이 된다. 이들은 자체 데이터베이스(DB)를 기반으로 토스인슈어런스가 추진하는 대면채널 영업 전선에 투입된다. 최근 토스인슈어런스는 대면 채널로 보험 사업 방향을 대폭 전환하기로 하고 보험설계사 모집에 나섰다. 대면 시장의 특성과 우수 설계사 영입을 위해 위촉직 형태로 모집, 올해 안으로 100명까지 확대한다는 계획이다. 토스인슈어런스는 전체 보험시장의 90%를 차지하는 대면 채널에 참여하지 않고는 보험 시장의 혁신에 속도를 낼 수 없다고 판단하고 대대적인 대면 설계사 모집에 들어갔다. 토스인슈어런스는 토스를 통해 유입되는 안정적인 보험 상담 수요 및 최고수준의 대우를 통해 우수 설계사 영입하고 대면시장 혁신을 가속화 한다는 계획이다. 보험설계사에 대한 수수료율은 75%로 보험사에서 받는 수수료의 75%를 설계사에 지급하는 것이다. 2018년 설립된 토스인슈어런스는 토스를 운영하는 비바리퍼블리카의 보험 전문 100% 자회사다. 토스보험서비스에서 지난해 5월 토스인슈어런스로 사명을 교체했다. 토스인슈어런스의 사업은 크게 두 가지다. 우선 비대면 보험 보장 분석 및 상담 서비스가 있다. 고객이 토스 앱 내 ‘내 보험 조회’ 서비스에서 보험 가입·보장 내역을 확인하고 추가로 설계사 상담을 받고 싶은 경우에 ‘내 보험 분석받기’를 누르면 텔레마케팅 보험분석매니저와 연결돼 데이터 기반의 세밀한 보장 분석과 적합한 상품 추천이 이뤄진다. 두 번째는 온라인 전용보험(CM)이다. 토스인슈어런스는 지난해 3월부터 온라인 전용 보험상품을 취급하기 시작했다. 지난해 2월 말까지는 모회사인 토스가 여행자보험과 자동차보험 및 운전자보험 등 미니보험을 취급했는데 3월부터 직접 판매하기 시작했다. 현재 토스인슈어런스는 기존 단기 보험상품을 포함해 각 보험사의 온라인 전용 상품으로 상품군을 확대하는 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.03.02.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>‘3인 3색’ 인뱅 CEO</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000060048?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[스페셜 리포트] 모바일 뱅킹 시대의 포문을 연 인터넷 전문 은행이 본격적으로 대출 포트폴리오 확장에 나서고 있다. 금융 당국의 가계 대출 총량 관리 강화로 가계 대출 중심의 여신 포트폴리오에 한계를 느끼자 개인 사업자 대출, 주택 담보 대출 등을 선보이며 활로를 모색하고 있다. 다만 기존 시중 은행들이 생활 플랫폼을 개발하고 기업금융 플랫폼을 전면 개편하는 등 디지털 전환에 속도를 내고 있다. 그동안 디지털에 강점이 있었던 인터넷 전문 은행들이 경쟁에 살아남기 위해선 예대 마진 등 은행업의 패러다임을 뛰어넘는 새로운 사업 모델을 보여줄 시기가 왔다는 지적이다.그래픽=배자영 기자  구원투수 서호성 케이뱅크 행장1966년생인 서호성 행장은 케이뱅크의 셋째 은행장이다. 케이뱅크의 대주주였던 KT 출신이 아닌 외부 인사가 케이뱅크 행장에 추천된 것은 서 행장이 처음이다. 그는 현대카드 마케팅본부장(상무), HMC투자증권(현 현대차증권) WM사업본부장(상무), 현대라이프생명보험 경영관리본부장을 거쳐 한국타이어 전략·마케팅 총괄 부사장을 역임하는 등 금융 산업 전반의 경험을 갖춘 전략·마케팅 전문가다.서 행장이 취임과 함께 변화를 준 일은 ‘호칭 변경’이다. 임직원과 원활하게 소통하기 위해서다. 그는 임직원이 상호 직책, 직급 없이 서로를 ‘~님’으로 호칭하도록 했다. 서 행장도 사내에서 ‘호성님’으로 불린다. 불필요한 문서 디자인 작업·출력물 보고 등도 없애거나 최소화했다. 또 서 행장은 내부 조직·시스템 정비, 여신 포트폴리오 고도화, 주주사와의 시너지 강화 등 다양한 부문에서 전열을 가다듬었다. 이를 바탕으로 케이뱅크는 지난해 자본 확충, 흑자 전환에 성공하고 현재 기업공개(IPO) 수순을 밟고 있다.   카뱅 탄생시킨 윤호영 카카오뱅크 대표윤호영 카카오뱅크 대표는 회사 내에서 직함 없이 ‘대니얼’로 불린다. 1971년생인 그는 한양대 경영학과를 졸업하고 대한화재에 입사했다. 이후 2003년 온라인 보험사 다음다이렉트 설립에 참여해 사업 추진을 이끌었고 2009년 다음 경영지원부문장을 지냈다. 2014년 다음과 카카오 합병 후 카카오 내 모바일뱅크 태스크포스팀(TFT)에서 카카오뱅크 설립을 추진했고 2016년 카카오 공동 대표, 2017년 카카오뱅크 공동 대표직에 올랐다. 2020년 공동 대표에서 단독 대표로 올라선 윤 대표는 첫 행보로 카카오뱅크의 얼굴 격인 애플리케이션을 고객 중심으로 개편했다. 또 고객이 원하는 상품·서비스를 확장하기 위해 조직 개편도 실시했다. 올해 들어선 기술 조직을 대폭 강화하는 방향으로 조직 개편을 단행했다. 2017년 출범 직후부터 상장 전까지가 태동기인 시즌 1이었다면 ‘기술 중심, 기술 기반의 회사’로 시즌 2에 진입한 셈이다.  82년생 행장, 홍민택 토스뱅크 대표홍민택 토스뱅크 대표는 1982년생으로, 한국 은행장들 가운데 가장 어리다. 카이스트 산업공학과를 졸업했고 같은 대학에서 산업공학 석사 학위를 받았다. 이후 유럽 인시아드(INSEAD) 경영대학원(MBA) 과정을 마쳤다. IBM에서 사회생활을 시작한 후 딜로이트와 삼성전자 등을 거쳤다. IBM과 딜로이트에선 한국 시중은행들의 상품 등 컨설팅을, 삼성전자 근무 당시엔 삼성페이를 출시하고 운영하는 업무를 맡았다. 2017년 토스로 적을 옮긴 후 토스의 핵심 서비스인 간편 송금 관련 핵심 업무를 담당했고 이후 뱅킹 관련 사업을 총괄해 왔다. 2020년 1월 토스혁신준비법인 대표이사에 선임됐고 토스뱅크가 본인가를 받는 과정을 진두지휘했다. 2021년 6월 금융위원회가 토스의 은행업 본인가를 승인하자 토스뱅크의 대표 자리를 꿰찼다. 홍 대표는 올해 2월 재선임에 성공, 1년 더 토스뱅크를 이끈다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.03.07.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>`법 위에서 갑질` 금융위, 때마다 등장하는 `해체론`</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001018517?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>● 토스, 금융위 눈치에 가상자산 사업 진출 `올스톱`&lt;기자&gt;토스 앱을 운영하는 핀테크 회사 비바리퍼블리카가 추진 중인 코인거래소 인수가 불발될 위기에 놓였습니다.금융당국, 코인업계 등 복수 관계자에 따르면 비바리퍼블리카는 코인거래소 프로비트 인수를 추진하고 있으며, 현재 인수 마무리 단계인 것으로 알려졌습니다.프로비트는 은행 실명계좌 확보에 실패하며, 현재 코인 마켓만 운영하는 거래소입니다.비바리퍼블리카는 코인거래소 인수 후 토스뱅크를 통해 실명계좌 발급 등 가상자산 사업 진출을 꾀할 수 있다는 판단에 이번 거래를 추진해 왔습니다.하지만 인수합병 계약서 최종 사인이 이뤄질 수 있을 지 현재로선 미지수입니다.비공식적으로 이승건 대표가 금융위 고위관계자에게 코인거래소 인수 가능성을 전했는데, 금융위가 토스의 자금 세탁 방지 능력 등에 우려를 나타내며 반대 의사를 표시했기 때문입니다.같은 이유로 토스뱅크의 코인거래소 실명계좌 발급 제휴도 현재로선 어려운 상황입니다.실제 토스뱅크 측은 코인거래소 몇 곳과 미팅을 가졌지만, 금융위 눈치를 보느라 이를 제대로 추진하지 못하고 있습니다.한국경제TV 문성필입니다.&lt;앵커&gt;20대 대통령 선거가 이틀 앞으로 다가운 가운데 차기 정부의 금융감독 체계 개편을 요구하는 목소리가 커지고 있습니다.오늘은 이에 대해 정치경제부 문성필 기자와 이야기 나눠보겠습니다.문 기자, 앞서 본 리포트를 이른바 관치 금융의 대표적인 사례로 볼 수 있는거죠.&lt;기자&gt;네 맞습니다.금융위원회는 기존 금융회사보다 업력이 짧은 토스가 가상자산 사업에 진출했다가 자금세탁 등의 사태가 발생할 경우 감당하기 어려울 것을 우려해 반대 입장을 낸 것으로 알려졌습니다.하지만 문제는 금융위가 이를 반대할 수 있는 법적 근거가 없다는 점입니다.때문에 사업자들 사이에서 이른바 `법 위에 금융위`라는 이야기가 나오면서 해체론까지 거론되고 있습니다.&lt;앵커&gt;관치 금융은 오늘 내일의 이야기가 아닌데, 최근 왜 다시 논란이 불거지는걸까요.&lt;기자&gt;대선 이후 정부조직 개편 예상되고요.이번 정부 들어서 관치 금융의 사례가 부쩍 늘어난 점도 이유가 될 수 있습니다.KDB생명 매각 절차가 난항을 겪는 것 또한 대표적인 관치 금융사례입니다.지난 2020년 말 KDB생명 대주주인 산업은행은 JC파트너스와 주식매매계약을 체결했습니다.금융위가 이 심사 승인 여부를 결정해야 매각 절차가 마무리되는 건데요.지난해(2021년) 6월 금융위에 대주주 적격성 심사 서류를 접수했는데 금융위는 아직도 최종 결론을 내지 않고 있습니다.주주적격성 심사는 서류 접수 후 60일 이내에 승인 여부를 결정하도록 돼 있습니다.이에 따라 각종 경영지표가 하락하는 등 매각 지연에 따른 피해는 고스란히 KDB생명과 직원들에게 돌아가고 있습니다.직원 인터뷰 들어보겠습니다.[나재호 KDB생명보험 지부장: 대주주 공백이 길어지면서 KDB생명 경영정상화도 멀어지는 것 같습니다. 금융위원회에 원하는 것은 하루 빨리 대주주적격성 심사를 마무리해 매각 표류 상황을 종결시켜주길 바랄 뿐입니다.]결국, 금융위가 무소불위의 권력을 휘두르며 `관치금융`이라는 비판은 물론,금융정책과 금융감독 두 기능 간 견제와 균형이 무너졌다는 지적이 대선을 앞두고 수면 위로 떠오른 셈입니다.&lt;앵커&gt;금융정책과 금융감독 두 기능간 균형이 깨졌다는 게 구체적으로 무슨 이야기인가요.&lt;기자&gt;금융산업 육성 정책을 강조하다 보면 감독 기능이 소홀해질 수 있는데요.그 과정에서 소비자 보호 측면의 감독 체계에 한계점이 드러날 수 있습니다.대표적인 사례로 라임·옵티머스 사모펀드 사태를 들 수 있습니다.관련 내용 조현석 기자가 정리했습니다.● 감독 `구멍 숭숭`…`라임·옵티머스` 피해만 2조원&lt;앵커&gt;앞서 보신 것처럼 금융위원회가 무소불위의 공룡부처로 거듭나면서 나타난 `관치금융` 비판뿐 아니라, 금융정책과 금융감독 두 기능 간 견제와 균형이 무너졌다는 지적도 대선을 앞두고 수면위로 떠오른 금융감독 개편론의 핵심 배경입니다.특히 이번 정부에서 급증한 사모펀드 환매중단 사태는 현 금융감독체계의 한계를 고스란히 노출했다는 평가도, 개편론에 힘을 싣고 있습니다.보도에 조현석 기자입니다.&lt;기자&gt;현재 금융위원회는 금융정책과 감독기능을 겸하고 있습니다. 문제는 두 기능의 성격이 충돌할 수 밖에 없다는 점입니다.[전성인 홍대 경제학과 교수: 편리성 때문에 감독 기준 완화하는 것을 산업정책의 수단으로 쓸 수가 있다. 건전성을 위해선 브레이크를 밟아야 하는데, 산업정책적 목표 때문에 가속페달을 밟는... ]때문에 금융위가 경기활성화 정책 기조를 보다 중시하면, 건전성이 상대적으로 도외시될 수 있는데, 이런 과정에서 대규모 금융사고를 야기한다는 지적이 끊이지 않습니다.대표적인 사례는 2조원이 증발한 라임옵티머스 사태.금융당국은 2015년 사모펀드 활성화를 위해 규제완화에 나섰지만, 그에 따른 부작용 방지 장치엔 소홀했습니다.그 결과 2011년부터 2017년까지 1건도 없던 펀드 환매 연기 중단은 2018년 이후 급증했습니다.규제 완화 이후 설정된 부실한 펀드의 만기가 도래하면서 환매중단이 대거 발생한 겁니다.금융위와 금융감독원으로 이원화된 감독기능이 비효율적으로 이뤄진다는 비판도 나옵니다.금감원의 감독 집행 권한은 금융위로부터 위탁받는 형식으로 이뤄집니다.그렇다보니 금감원이 사실상 금융위 산하 기구로 위상이 낮아졌고, 감독 기능이 정책 후순위로 밀리고 있다는 겁니다.이에따라 대선을 앞두고 금융감독 개편론이 학계와 정치권, 대선 캠프에서 동시 다발적으로 터져나오고 있습니다.하지만 개편 방향에 대한 주장이 제각각인데다 자칫 규제만 늘어나는 것은 아닌지 업계의 우려까지 겹치면서 풀기 어려운 고차방정식이 될 거란 전망이 나오고 있습니다.한국경제TV 조현석입니다.&lt;앵커&gt;사실 금융감독 체계 개편 논의는 오래된 논쟁 아닙니까.실제 여러번 체계가 바뀌어 왔잖아요.&lt;기자&gt;관료 조직과 민간 기구의 헤게모니 다툼이었다. 이렇게 보는 시각도 있고요.실제 정권 입맛에 따라 여러차례 개편이 돼 왔습니다.김보미 기자가 개편 변천사를 정리했습니다.● 뜯었다가 붙였다가…오래된 난제 `금융감독체계 개편`&lt;기자&gt;오늘날 기획재정부에 해당하는 재정경제원이 금융 전반을 총괄하던 때가 있었습니다.압축 경제 성장을 위해선 일원화된 조직구성이 필요하다는 판단에서였죠하지만 이 체계는 이 시점을 계기로 변화를 맞습니다.‘외환위기의 근원은 막대한 권력을 가진 재정경제원’이라는 여론이 당시에 압도적이었기 때문인데요.이에 따라 재정경제원은 재정경제부, 금융감독위원회 이렇게 크게 2개로 쪼개집니다.금융산업 정책 수립과 감독으로, 기능을 세분화시킨 거죠.하지만 시간이 흐를수록 견제와 균형, 관치금융 청산이라는 본래 목적은 온데간데 없고 (보시는 것처럼) 주도권 다툼, 밥그릇 싸움만 남게 됩니다.그래서일까요. 이 조직은 2008년 이명박 정부 들어서 다시 개편됩니다.“글로벌 금융위기와 급변하는 금융시장 환경에 빠르게 대응해야 한다”며, 재정경제부가 갖고 있는 산업정책 수립 기능과 금융감독위원회의 감독정책 수립 기능을 하나로 묶은 겁니다.지금의 금융위원회 체제가 바로 이때 만들어진 것이죠.그리고 2022년 현재. 이 체제를 놓고 다시 문제가 제기되고 있습니다.이번에는 금융산업의 발전과 제동의 기능이 한 곳에 모여있어, 이상적인 견제와 균형을 기대하기 어렵다는 겁니다.이렇게 보신 것처럼, 그동안 우리 금융감독 체계는 정권이 바뀌고 또 크고 작은 금융사고가 터질 때마다, 조직을 합쳤다 쪼개기를 반복해 왔습니다.정치권이나 관료들의 편의와 시각에 따라 땜질식으로 개편이 이뤄지다 보니, 그에 따른 부작용이 매번 발생했던 겁니다.물론 100% 정답지라는 건 없습니다.하지만 이번에도 금융소비자 보호라는 가장 중요한 중심축은 쏙 빼놓은 채 개편 논의가 진행되고 있지는 않은지, 이점은 분 생각해봐야 할 부분입니다.&lt;앵커&gt;그렇다면 금융감독 체계가 다음 정부 때 개편이 된다면 어떤 식으로 바뀔까요.&lt;기자&gt;여당과 야당의 개편안은 다소 차이가 있습니다. 먼저 여당인 더불어민주당의 경우 금융위 해체를 주요 내용으로 하고 있습니다.금융위의 금융정책 기능은 기획재정부에,감독정책은 새로 만들어질 금융감독위원회에 넘기겠다는 겁니다.야당인 국민의힘은 금융감독 체계 개편안에 대해 아직 구체적인 입장을 내놓지 않은 상태입니다.다만, 윤창현 국민의힘 의원은 금융감독원에 대한 감시와 견제를 강화하고, 현재 금융위를 금융부로 승격하는 방안을 제안한 바 있습니다.결국, 여야 대선 후보들 중 누가 당선되더라도 금융감독 체계 개편, 그리고 금융위 해체는 피할 수 없을 것으로 보입니다.&lt;앵커&gt;제목과 해시태그는요?&lt;기자&gt;[심층분석 정리 통CG]=======================제목:  잊을만하면 나오는 금융위 해체론# 금융위 갑질 # 더는 못참아 # 아이돌 말고 금융위 해체=======================</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.03.08.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>은행이 통신·배달·미술사업까지… 이유 있는 ‘딴짓’</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001510340?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>신한은행, 배달앱 ‘땡겨요’ 전용 카드 출시KB국민은행은 알뜰폰사업 ‘리브M’ 집중우리·하나은행도 블록체인·미술품사업 진출대출사업 레드오션화… 새 먹거리 발굴 차원7일 오전 서울 중구 하나은행 본점 영업부 창구에서 한 고객이 상담을 받고 있다. 뉴시스국내 시중은행들이 전통적인 은행사업을 넘어 통신·배달·미술품 등 신사업 키우기에 몰두하고 있다. 코로나19 여파로 2년 연속 사상 최대 실적을 달성했지만, 금융정상화가 이뤄지고 나면 기존의 대출 위주 사업모델만으로는 성장세를 유지하기 어렵다고 판단했기 때문이다.7일 신한은행은 자사 은행이 서비스하는 배달 앱 ‘땡겨요’에 특화된 PLCC카드 3종을 출시했다고 밝혔다. 카드 종류에 따라 땡겨요 앱 결제 시 10% 할인, 커피숍·편의점 할인 등 혜택이 주어진다.땡겨요는 신한은행이 출시해 시범 서비스 중인 음식 배달대행 플랫폼이다. 현재 강남 서초 송파 등 6개 서울 지역구에서 운영 중이며 오는 4월 서울 전 지역에서 영업을 개시한다.KB국민은행은 최근 자사 알뜰폰 통신사업 브랜드 ‘리브M’ 강화에 박차를 가하는 중이다. 타사 대비 저렴한 요금제를 내세우며 MZ세대를 공략한다는 계획이다. 최근 출시된 청년희망적금과 연계해 적금상품에 가입할 경우 2만원대 초반에 무제한 인터넷 요금제를 제공하는 등 공격적인 마케팅에 나서고 있다. 지난달에는 알뜰폰 이익단체 ‘한국알뜰통신사업자협회’가 국민은행을 향해 “과도한 출혈경쟁을 자제해달라”고 요청했을 정도다.우리은행, 하나은행도 각각 블록체인 플랫폼 구축, 옥션 업체와 연계한 미술품 매매 플랫폼 개발 등에 몰두하고 있다.시중은행의 이 같은 사업들은 얼핏 보기엔 은행의 본업과 아무런 관련이 없어 보인다. 하지만 이런 배경에는 은행의 미래 먹거리에 대한 고민이 적지 않게 담겨 있다는 분석이다. 시중은행들은 지난 2년간 코로나19 특수에 힘입어 이자이익이 크게 늘었지만, 더 이상 전통적인 대출사업만으로는 성장하기 힘들다고 판단했기에 비이자 수익을 거둘 수 있는 신사업에 꾸준히 투자하는 것이다.은행들의 이 같은 판단에는 대출 시장이 ‘레드오션’으로 전락했다는 평가가 깔려있다. 우선 최근 몇 년새 대출시장 경쟁자가 크게 불어났다. 2016년 케이뱅크를 시작으로 카카오뱅크, 토스뱅크 등 인터넷전문은행들이 등장했다. 이들은 일반신용대출에 이어 올해부터는 기업대출, 주택담보대출 등 시중은행의 전통적 사업영역에도 발을 내밀겠다고 선언한 상태다.편의성을 앞세운 빅테크와의 경쟁도 골칫거리다. 기존에는 대출 수요자들이 은행을 내방해 자금을 빌렸다. 하지만 최근 핀크, 핀다 등 대출 중개 플랫폼이 속속 등장하며 은행의 기존 역할을 잠식해가는 실정이다. 온라인 플랫폼을 통해 대출 희망자와 개인 투자자를 연결해주는 P2P 대출업체도 우후죽순 생겨나며 대출 수요가 분산되고 있다.시중은행 관계자는 “더 이상 순수하게 은행 업무만 보려는 고객들을 대상으로 영업수익을 유지하기는 쉽지 않다”며 “배달, 통신 등 일상생활과 밀접한 사업을 확대해 은행이 ‘일상종합플랫폼’으로 거듭나지 않는 이상 경쟁에서 밀려날 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.03.01.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>“시장안착의 열쇠” 고신용자 대출영업 강화하는 토스뱅크</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004795986?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>4% 미만 금리 대출 전체의 42%가계대출 규제로 비중 더 못 늘려연초 우량자산 확대에 우선 집중  국내 3번째 인터넷은행인 토스뱅크가 신용이 좋은 고객을 대상으로 대출을 공격적으로 늘리고 있다. 지난해 하반기 출범 후 가계대출 규제로 대출 자산을 늘리는데 한계를 느꼈던 토스뱅크가 고신용자를 대상으로 영업을 강화하고 있는 것으로 알려졌다. 연초부터 인터넷은행들의 중저신용자 대출 관리 보다는 성공적인 시장 진입을 위해 고신용자 대출 자산 확대에 나선 것으로 풀이된다.   1일 금융권에 따르면 토스뱅크는 올해 들어 가계대출이 재개되자 고신용자 대출 비중을 늘렸다. 은행연합회 대출금리 비교에 따르면 지난 1월 토스뱅크의 신용대출 중 4% 미만의 금리 비중은 42.60%다. 토스뱅크에서 1~2등 신용평가를 받은 고신용 고객의 지난 1월 평균 금리가 4.19%인 것을 감안하면 4% 미만 대출자는 고신용자다. 이 비중은 고신용자에 집중 대출을 해주는 일반 시중은행과 크게 차이가 나지 않는다. KB국민은행의 지난 1월 4% 미만의 대출 비중은 45.5%다. 신한은행은 45.6%다.   반면 같은 인터넷은행인 카카오뱅크와 케이뱅크과 비교하면 높은 비중이다. 같은 기간 카카오뱅크는 4% 미만 대출이 없으며 케이뱅크의 비중은 12.90%다.   범위를 금리 6% 미만으로 넓혀도 비슷한 상황이다. 토스뱅크의 신용대출 중 금리 6% 미만 비중은 68.9%다. KB국민은행, 신한은행이 각각 81.6%, 88.6%인 반면 카카오뱅크는 19.9%, 케이뱅크는 55.2%다. 시중은행 관계자는 "지난해 하반기 출범한 토스뱅크가 가계대출 총량제와 엮이면서 대출 자산을 크게 늘리지 못한 것이 연초부터 공격적인 영업을 하는 이유"라고 설명했다. 실제 지난해 10월 출범한 토스뱅크는 일주일만에 대출 목표치 5000억원을 소진해 대출을 늘리지 못했다. 올해 연초부터 신규 대출을 재개했다.   토스뱅크가 이같은 전략을 펼치는 것은 시기적인 이유 때문이다. 국내 인터넷 은행들은 중저신용자 대출 목표치가 있다. 인터넷 은행들은 지난해 금융당국이 설립 취지에 맞게 중저신용자 대출 비중 확대를 요구하자 자체 목표치를 제시했다. 지난해 말 기준 중저신용자 대출 비중은 카카오뱅크가 17%, 케이뱅크가 16.6%, 토스뱅크가 23.9%다. 카카오뱅크와 케이뱅크는 지난해 목표치를 각각 20.8%·21.5%로 잡았는데 이보다 3.8%p, 4.9%p 부족했다. 토스뱅크도 목표치 대비 11%p 낮았다. 올해 목표치는 토스뱅크가 42%, 케이뱅크와 카카오뱅크는 각각 25%다. 시중은행 관계자는 "아직 연말까지 많은 시간이 남았기 때문에 신규 은행인 토스뱅크는 연초에 우량 대출 자산을 늘릴 필요가 있다"고 전했다.   토스뱅크도 올 초부터 본격적인 영업을 시작했다는 점을 강조하고 있다. 토스뱅크 관계자는 "사실상 이제서야 정상 영업을 하는 것"이라면서 "토스뱅크 신용평가모형에 따라 시장의 중저신용자가 저금리로 대출 받는 비중도 높다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.03.12.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>‘고용 절벽’에도, 디지털 “오세요”…문과 “글쎄요”</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/661/0000003412?sid=102</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>금융권, 공채 ‘불투명’…수시·상시 채용’무게’IT 인재·경력직 등 이동 감안…’모시기’ 경쟁AI ·디지털 환경 변화…”당분간 트렌드 예상”금융권 채용이 시작됐지만 달라진 트렌드에 취업준비생들의 대처가 쉽지 않아 보입니다. 디지털 분야 등 IT 인력에 초점이 맞춰지면서 상대적으로 문과계열엔 여전히  ‘좁은문’이 되고 있습니다.공채보다는 필요나 능력에 따른 수시나 상시 채용이 활발해지는 분위기에, 일반직 채용에서도 디지털 인력이나 경력직 우대 성향이 심화되면서 가뜩이나 높아진 채용 문턱을 넘기가 한층 더 어려워질 것으로  보입니다.올해 주요 은행들의 경우 대부분 하반기에 공채를 진행하거나 계획을 공개하지 않고 있습니다.반면 IT 관련 인력은 수시 채용하거나 대거 경력자 모집에 나서, 은행권 채용시장에 변화 기류가 감지되고 있습니다.신입 공채 시작…규모 늘렸다는데금융권에 따르면 11일 현재 우리은행, IBK기업은행, Sh수협은행 등이 상반기 신입 공채를 진행 중입니다.대형 시중은행인 KB국민은행, 신한은행, 하나은행은 통상 하반기 공채를 실시하지만, 올해 계획은 아직 확정하지 않은 것으로 알려졌습니다.일찍 공채에 나선 NH농협은행은 지난해 말 일찌감치 채용 공고를 내 상반기 채용을 진행 중입니다. 일반 금융 420명과 IT(전산·기술부문) 분야 30명 정도 뽑는데,  블라인드 방식으로 진행되며, 농협은행은 이달 말 마무리할 계획입니다.지난 10일부터 지원 서류를 받기 시작한 IBK기업은행도 상반기 150명을 모집합니다. 지난해의 경우 상,하반기 각각 100명씩 뽑았는데 올해 상반기 50명을 늘렸습니다.디지털·IT 인력  “우대합니다”물론 아무나 뽑지는 않습니다. 앞서 IBK기업은행의 경우, 디지털 부문에서만 45명을 채용할 계획입니다. 우리은행은 지난달 22일부터 신입 공개채용을 진행 중입니다. 세자리 수로 뽑는 공채는 일반직을 뽑지만 디지털 관련 자격증 보유자나 삼성청년소프트웨어아카데미 교육생을 우대합니다. 신한은행은 지난해 일반직 신입 공채부터 '디지털 리터러시' 평가를 도입했습니다. 디지털 전환에 요구되는 논리적 사고력, 알고리즘 이해도 등을 확인하는 평가입니다.농협은행도 블라인드 공채를 이달 말까지 마무리하는데, IT분야 채용에선 역시 디지털 자격증과 삼성청년소프트웨어아카데미 이수자 등을 우대합니다.다음달 10일까지 진행되는 제주은행의 상반기 신입 직원 채용에서도 디지털 경력직에 한해 관련 업무 경험자를 우대조건으로 내걸었습니다.수시·상시채용 ‘트렌드’ 정착공채 대비, 수시·상시채용은 활발해지는 모습입니다.현재 신한은행이 기술평가 인력을, 국민과 하나은행도 연금 부문 등 필요한 인력만 뽑고 있습니다.이동이 잦은 디지털 부문 직종 특성을 감안할때 필요할때마다 수시·상시 인력을 뽑는게 인력 운용이나 비용 투입에 효율적이기 때문으로도 풀이되고 있습니다.당분간 은행마다 개발자 등 디지털 인력 확보에 수시 채용 방식을 도입할 것으로 보입니다.인터넷전문은행, 디지털 ‘대세’인터넷전문은행들도 인력 확보에 속도를 내고 있습니다. 카카오뱅크가 상반기 서버개발·금융 IT·모바일 등 8개 부문 경력 개발자를 세 자리 수로 공개채용하고, 토스도 이달 말까지 전 계열사 600명을 신규 채용합니다. 토스뱅크도 올해 200명 채용 계획을 내놨는데 대부분 디지털·마케팅 직군입니다.미래 먹거리 ‘초점’때문에 금융권에선, 앞으로 은행들이 공채 규모는 더 줄이고 ICT 인재의 수시·경력 채용을 계속 늘려나갈 것으로 보고 있습니다.상·하반기 수백 명씩 진행되던 공채시장은 사라지는 대신, 필요할때 능력 여하에 따라 수시·상시 인력을 충원한다는 얘깁니다.또 인터넷은행 진출 영역이 확대되지만, 이들 역시 대규모 영업 인력 대신 디지털 전문가 영입 필요성에 무게를 실을 것으로 보고 있습니다.한 은행권 관계자는 "코로나19 장기화에 언택트(비대면) 가속화로 인한 AI 기반 디지털 진화가 빨라지고, 주요 업무 현장에 도입도 속도를 내는 추세”라며 “IB(투자은행)나 디지털 등 필요부문 필수 인력들을 수시로 뽑는 트렌드가 당분간 이어질 것”으로 내다봤습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.03.04.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>[금융] '최저 5.9%·최대 1억원' 비대면 대출 눈길</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004930017?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>JT친애저축은행 '원더풀 나우론'JT친애저축은행이 비대면 전용 신용대출 상품을 출시했다. 이번 상품은 낮은 금리와 넉넉한 한도로 눈길을 끈다.JT친애저축은행은 지난달 23일 비대면 금융서비스 확대를 위한 온라인 다이렉트 신용대출 상품 '원더풀 나우론'을 출시한다고 밝혔다. '원더풀 나우론'은 현재 직장에서 4개월 이상 재직하고 있는 연 소득 1800만원 이상, 만 20세 이상의 직장인을 대상으로 한다. 최저 5.9%의 금리로 최대 1억원의 한도를 제공한다.최장 상환 기간은 10년이다. 전체 상환 기간이 84개월 이상일 경우 일정 기간 이자만 내고 이후 남은 기간에는 원금과 이자를 분할 상환하는 '거치식 원리금균등분할 상환 방식'을 이용할 수 있다.이번 상품은 온라인 다이렉트 전용 상품인 만큼 인터넷, 모바일 앱 또는 전화를 통해 대출 신청부터 실행까지 모든 과정을 한 번에 편리하고 신속하게 이용할 수 있다. 토스, 카카오페이, 핀다 등 혁신금융 플랫폼을 이용한 대출 신청도 가능하다. 이번 상품은 변화하는 신용대출 시장에 선제적으로 대응하고 고객 혜택을 강화하고자 기획 단계부터 신용평가전문기관인 NICE평가정보의 컨설팅을 반영해 설계한 것이 특징이다.JT친애저축은행 관계자는 "코로나19로 힘든 시기를 겪고 있는 서민 고객분들에게 조금이나마 도움이 되고자 보다 편리한 비대면 방식의 온라인 다이렉트 신용대출 상품 '원더풀 나우론'을 출시하게 됐다"며 "앞으로도 고객이 필요로 하는 상품 및 서비스를 제공하는 서민금융사가 되고자 노력하겠다"고 말했다.'원더풀 나우론'과 관련된 자세한 정보는 JT친애저축은행 모바일 앱과 홈페이지, 고객센터 전화상담을 통해 확인할 수 있다.한편 저축은행 업계에서는 최근 저축성 예금 특판을 선보인 곳들이 있어 주목할 만하다. DB저축은행은 창립 50주년을 맞아 최고 5.5% 금리를 제공하는 모바일 전용 예금 상품 'M-With유 정기적금'을 출시하고 300억원 한도로 특판을 진행 중이다. 가입 기간은 1년이며 월 납입 가능 금액은 최대 100만원이다.OK저축은행은 중단기 목돈 마련에 적합한 예금상품인 '중도해지OK정기예금6'를 출시하고 2000억원 한도로 최고 2.5% 금리를 제공하는 특판을 진행하고 있다. 가입기간은 1년이며, 가입금액은 10만원 이상 1억원 이하로 고객별로 제한된다. 이 상품은 약정이율을 고정금리로 만기 때까지 확정 제공하기 때문에 3~6개월 중기 자금 운용에 적합하다는 게 OK저축은행 측 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.03.15.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>PG업계, 가맹점 수수료 인상 반발…"계약해지 검토"</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003841694?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>온라인 쇼핑몰들의 가맹점 역할을 하는 전자지급결제(PG) 업계가 신용카드사의 가맹점 수수료 인상에 반발하고 나섰다. 8개 PG사로 이뤄진 PG협회는 지난 14일 자료를 내고 최근 7개 카드사에 수수료 인상안을 받아들일 수 없다는 의견을 공식 전달했다고 밝혔다.소속 8개사는 나이스페이먼츠, 다날, 엔에이치엔한국사이버결제, 케이에스넷, 케이지모빌리언스, 케이지이니시스, 토스페이먼츠, 한국정보통신 등이다.PG협회에 따르면 1월 말~2월 초 7개 카드사는 각 PG사에 가맹점수수료를 3월 1일부터 0.05~0.1%포인트(p) 인상한다고 알렸다. PG협회는 지난달 16일 공문을 보내 수용 불가 입장을 밝히고 인상 근거 등을 요구했으나 명확한 설명을 듣지 못했다고 주장했다. 협회는 "이번 인상으로 PG사의 수수료율은 최고율인 2.25~2.3%로 오르게 된다"며 "카드업계가 영세·소규모 가맹점에 대한 우대수수료율 인하에 따른 손실분을 PG사를 통해 만회하려는 것"이라고 전했다.앞서 금융당국은 연매출 30억원 이하 가맹점에 적용되는 우대수수료율을 0.8~1.6%(체크 0.5~1.3%)에서 0.5~1.5%(체크 0.25~1.25%)로 인하했다. 협회는 "PG사 수수료율 인상은 카드 결제에 PG사를 이용하는 이커머스·온라인쇼핑몰 입점업체의 부담으로 자연히 이어지고, 결국 소비자의 가격 부담도 늘어난다"고 지적했다.협회는 오는 17일까지 신한카드 본사 앞에서 카드사의 수수료 인상에 반대하고 협상을 촉구하는 집회를 열 예정이다. 협상에 미온적인 카드사에 대해서는 가맹점 계약 해지도 검토하고 있는 것으로 알려졌다. ▶ 무료로 보는 오늘의 운세- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.03.03.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>현대해상·토스 맞손…"설계사 온라인 영업지원"</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001017868?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>현대해상은 모바일 금융플랫폼 토스 운영사인 비바리퍼블리카와 '법인보험대리점(GA) 설계사 온라인 영업지원 활성화 및 포괄적 협력방안 모색을 위한 업무협약(MOU)'을 손보사 최초로 체결 했다고 2일 밝혔다.현대해상은 토스보험파트너 앱에 GA 소속 보험설계사 대상 온라인 설계지원 기능을 신설하고, 토스 인증을 통해 가입설계 동의부터 상품설계 지원 요청까지 원스톱으로 간편하게 진행할 수 있는 서비스를 제공할 예정이다.토스보험파트너는 토스가 운영하는 보험설계사 전용 영업지원 앱으로, 토스 앱 이용자 가운데 보험상담을 원하는 고객을 설계사에게 바로 연결하는 서비스를 제공하며, 약 13만명의 보험설계사를 회원으로 두고 있다.아울러 현대해상은 자사 영업시스템에 토스인증과 토스페이를 도입해 영업 활용도 및 보험료 결제 편의성도 더욱 높인다는 계획이다.정규완 현대해상 디지털전략본부장 상무는 "다수의 보험설계사 회원을 확보하며 비대면 영업플랫폼으로서의 가치가 입증된 토스보험파트너와의 협력에 기대가 크다"며 "양사간 다양한 협업을 통해 실질적인 사업성과를 만들어 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
